--- a/dataSet/dataset_twitter.xlsx
+++ b/dataSet/dataset_twitter.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="cleanprojectdataset" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">cleanprojectdataset!$A$1:$B$1066</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">cleanprojectdataset!$A$1:$B$1358</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="1352">
   <si>
     <t>Tweet</t>
   </si>
@@ -21,55 +21,55 @@
     <t>Y</t>
   </si>
   <si>
-    <t>.omg por qué se lleva poc fugly contactos azules tan adentro, es 2018. Por favor, hacer que se detenga.</t>
+    <t>.omg por qué se lleva poc feo contactos azules tan adentro, es 2018. Por favor, hacer que se detenga.</t>
   </si>
   <si>
     <t>noAcoso</t>
   </si>
   <si>
-    <t>Apesadumbrado, pero la mayoría de los corredores derecha popular ahora son simplemente fugly.</t>
-  </si>
-  <si>
-    <t>.Los jeans son horrible, y yo? m miedo de que? s compró la colección completa de las gafas de sol fugly ??</t>
+    <t>Apesadumbrado, pero la mayoría de los corredores derecha popular ahora son simplemente feo.</t>
+  </si>
+  <si>
+    <t>.Los jeans son horrible, y yo? m miedo de que? s compró la colección completa de las gafas de sol feo ??</t>
   </si>
   <si>
     <t>.I tuvo que vestirse para una presentación en la clase de hoy y yo? M dando algunas vibraciones graves zaddy Sr. Grey si me permite decirlo</t>
   </si>
   <si>
-    <t>.Am yo el único que piensa que Justin Bieber es fugly af ahora?</t>
-  </si>
-  <si>
-    <t>¿Continuamos? Nosotros, como en el lookin fugly personas no deseadas?</t>
-  </si>
-  <si>
-    <t>Don? T sabe qué? S peor, el hecho de que él? S leche Hoying antes de que el agua o la grasa fugly cara al final de esa vid.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Disfrutar de su New Smyrna Beach..full de algas marinas, aguas poco profundas fugly verde y tiburones. Nada borrador.</t>
-  </si>
-  <si>
-    <t>Sí honestamente que? S fugly.</t>
-  </si>
-  <si>
-    <t>Nadie quiere ver a esas motos fugly 3T?</t>
-  </si>
-  <si>
-    <t>Este lujoso bldg que? Re poniendo arriba a través de .thepinhook es tan fugly. Me gustaría volver a estar loco incluso si eran agradables estéticamente pero ew.</t>
-  </si>
-  <si>
-    <t>Todos los demás estaban en la línea de arriba, excepto para ella y que llegó a debutar juntos mientras ella Gad que llevar un fugly púrpura.</t>
+    <t>.Am yo el único que piensa que Justin Bieber es feo af ahora?</t>
+  </si>
+  <si>
+    <t>¿Continuamos? Nosotros, como en el lookin feo personas no deseadas?</t>
+  </si>
+  <si>
+    <t>Don? T sabe qué? S peor, el hecho de que él? S leche Hoying antes de que el agua o la grasa feo cara al final de esa vid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Disfrutar de su New Smyrna Beach..full de algas marinas, aguas poco profundas feo verde y tiburones. Nada borrador.</t>
+  </si>
+  <si>
+    <t>Sí honestamente que? S feo.</t>
+  </si>
+  <si>
+    <t>Nadie quiere ver a esas motos feo 3T?</t>
+  </si>
+  <si>
+    <t>Este lujoso bldg que? Re poniendo arriba a través de .thepinhook es tan feo. Me gustaría volver a estar loco incluso si eran agradables estéticamente pero ew.</t>
+  </si>
+  <si>
+    <t>Todos los demás estaban en la línea de arriba, excepto para ella y que llegó a debutar juntos mientras ella Gad que llevar un feo púrpura.</t>
   </si>
   <si>
     <t>Cayó de nuevo que aún no ha ya XD #PhoneCallTrick.</t>
   </si>
   <si>
-    <t>fugly Am bien empezando a tener un dolor de cabeza a mí mismo.</t>
-  </si>
-  <si>
-    <t>Fugly ?, ¿A quién ?, ustedes dos? Henny .....</t>
-  </si>
-  <si>
-    <t>O wow Conq varo se ve realmente bien a diferencia de puta terriblemente fugly Conq karma.</t>
+    <t>feo Am bien empezando a tener un dolor de cabeza a mí mismo.</t>
+  </si>
+  <si>
+    <t>feo ?, ¿A quién ?, túes dos? Henny .....</t>
+  </si>
+  <si>
+    <t>O wow Conq varo se ve realmente bien a diferencia de puta terriblemente feo Conq karma.</t>
   </si>
   <si>
     <t>Estoy harto de esta migraña. "" ¿Cómo eres tú</t>
@@ -78,43 +78,43 @@
     <t>Rey presumir.</t>
   </si>
   <si>
-    <t>si las referencias a nadie hablar sobre extraterrestres al explicar acuario que son fraudulentas. '' no confían en ellos, son un fugly.</t>
-  </si>
-  <si>
-    <t>Ella es fugly.</t>
-  </si>
-  <si>
-    <t>.I fugly de llorar! ' 'Puedo? T manejar esto!', 'Esto era tan hermoso!', 'Euphoria es una balanza de pagos, tales también.',' ????.</t>
-  </si>
-  <si>
-    <t>Yo, literalmente, sólo sé una persona que usa la palabra fugly. '' lol mierda ana ..</t>
-  </si>
-  <si>
-    <t>.Fugly culo.</t>
-  </si>
-  <si>
-    <t>.HOY soy fatish y fugly.</t>
-  </si>
-  <si>
-    <t>El? Fugly? . Amigo '' divertido y; feo.</t>
-  </si>
-  <si>
-    <t>.Es fugly una palabra maldición ?.</t>
-  </si>
-  <si>
-    <t>.Pain está poniendo en el traje que era tan linda en su cabeza, sólo para descubrir que? S en fugly.</t>
+    <t>si las referencias a nadie hablar sobre extraterrestres al explicar acuario que son fraudulentas. '' no confían en ellos, son un feo.</t>
+  </si>
+  <si>
+    <t>Ella es feo.</t>
+  </si>
+  <si>
+    <t>.I feo de llorar! ' 'Puedo? T manejar esto!', 'Esto era tan hermoso!', 'Euphoria es una balanza de pagos, tales también.',' ????.</t>
+  </si>
+  <si>
+    <t>Yo, literalmente, sólo sé una persona que usa la palabra feo. '' lol mierda ana ..</t>
+  </si>
+  <si>
+    <t>.feo culo.</t>
+  </si>
+  <si>
+    <t>.HOY soy fatish y feo.</t>
+  </si>
+  <si>
+    <t>El? feo? . Amigo '' divertido y; feo.</t>
+  </si>
+  <si>
+    <t>.Es feo una palabra maldición ?.</t>
+  </si>
+  <si>
+    <t>.Pain está poniendo en el traje que era tan linda en su cabeza, sólo para descubrir que? S en feo.</t>
   </si>
   <si>
     <t>.Y ahora theres como 20 personas Claimin uno ov mis estados de FB es pelea de ellos XD personas redonda ¡Haz oído que me hizo gracia.</t>
   </si>
   <si>
-    <t>La maldición I? m fugly.</t>
-  </si>
-  <si>
-    <t>fugly</t>
-  </si>
-  <si>
-    <t>Oh, sé ..... nuevos titanes unis son fugly! '' Seguir disfrutando de su mayonesa.</t>
+    <t>La maldición I? m feo.</t>
+  </si>
+  <si>
+    <t>feo</t>
+  </si>
+  <si>
+    <t>Oh, sé ..... nuevos titanes unis son feo! '' Seguir disfrutando de su mayonesa.</t>
   </si>
   <si>
     <t>FINSTA es genial, porque en todos los escaparates Insta regulares sus vidas perfectas &amp; amp; no tiene defectos, pero cuando reviso mi FINSTA Fe.</t>
@@ -123,7 +123,7 @@
     <t>Nunca se sabe lo mucho que significa alguien hasta que se han ido.</t>
   </si>
   <si>
-    <t>fugly ¿Cómo estás hoy amigo.</t>
+    <t>feo ¿Cómo estás hoy amigo.</t>
   </si>
   <si>
     <t>En lo que Halle? '' ¿A qué ?.</t>
@@ -132,70 +132,70 @@
     <t>Es tan molesto cómo Joe se ve guapo todo el tiempo daaaamn y necesito un filtro blanco y negro de lo contrario strugs</t>
   </si>
   <si>
-    <t>.Whenever veo una foto de una chica en peso de los corazones? Snapchat? Filtro ... '' Me lo tomo como una admisión de Gulit de ser fugly.</t>
-  </si>
-  <si>
-    <t>libruls pellizcan sin duda incluye el uso de algo tan fugly ..</t>
-  </si>
-  <si>
-    <t>Me siento sucia que tiene el mismo icono que esta persona fugly.</t>
-  </si>
-  <si>
-    <t>Soy todo lo contrario: Sé exactamente cómo utilizar líneas, pero fugly como la mierda ..</t>
-  </si>
-  <si>
-    <t>Aight Yo sólo tengo que saber. ' '¿Son estas bien?',' Creo que son fugly, pero a su vez el 40 de este mes, así que mi opinión doesn? T de Dodge.</t>
-  </si>
-  <si>
-    <t>Youtuber disgusses fugly de películas (por el bien de la crítica) - director de cine se encuentra ou.</t>
-  </si>
-  <si>
-    <t>Gracias! ' 'Momma Dawgs están muy cabreados ahora !!!', "Se trata de FUGLY !!",' \ U0001f92c \ U0001f92f.</t>
+    <t>.Whenever veo una foto de una chica en peso de los corazones? Snapchat? Filtro ... '' Me lo tomo como una admisión de Gulit de ser feo.</t>
+  </si>
+  <si>
+    <t>libruls pellizcan sin duda incluye el uso de algo tan feo ..</t>
+  </si>
+  <si>
+    <t>Me siento sucia que tiene el mismo icono que esta persona feo.</t>
+  </si>
+  <si>
+    <t>Soy todo lo contrario: Sé exactamente cómo utilizar líneas, pero feo como la mierda ..</t>
+  </si>
+  <si>
+    <t>Aight Yo sólo tengo que saber. ' '¿Son estas bien?',' Creo que son feo, pero a su vez el 40 de este mes, así que mi opinión doesn? T de Dodge.</t>
+  </si>
+  <si>
+    <t>Youtuber disgusses feo de películas (por el bien de la crítica) - director de cine se encuentra ou.</t>
+  </si>
+  <si>
+    <t>Gracias! ' 'Momma Dawgs están muy cabreados ahora !!!', "Se trata de feo !!",' \ U0001f92c \ U0001f92f.</t>
   </si>
   <si>
     <t>100k RTS y Lil yachty WILL REMIX con mi equipo !! ' 'Me dieron 3 SEMANAS !!', 'ORIGINAL SONG EN BIO ..',' por favor me ayude !.</t>
   </si>
   <si>
-    <t>Estoy como un puto cerdo fugly !! " 'Maldita sea!'," Estoy tan irritado con mi fugly cara!</t>
-  </si>
-  <si>
-    <t>I? M Cassie. '' Todos los demás están fugly y mudo ..</t>
-  </si>
-  <si>
-    <t>.El nuevo equilibrio 999 es un zapato perfecto. '' New Balance debe? Ve realmente empujado aquellos en vez de la fugly 990 cada uno.</t>
+    <t>Estoy como un puto cerdo feo !! " 'Maldita sea!'," Estoy tan irritado con mi feo cara!</t>
+  </si>
+  <si>
+    <t>I? M Cassie. '' Todos los demás están feo y mudo ..</t>
+  </si>
+  <si>
+    <t>.El nuevo equilibrio 999 es un zapato perfecto. '' New Balance debe? Ve realmente empujado aquellos en vez de la feo 990 cada uno.</t>
   </si>
   <si>
     <t>La verdad es que estoy interesado principalmente en tarjetas que están saliendo como mil millones de años a partir de ahora (DETERMI</t>
   </si>
   <si>
-    <t>.Can la tendencia de mochilas permanecer en la escuela primaria PLZ. ', 'Que es tan fugly.']</t>
-  </si>
-  <si>
-    <t>.Fugly.</t>
+    <t>.Can la tendencia de mochilas permanecer en la escuela primaria PLZ. ', 'Que es tan feo.']</t>
+  </si>
+  <si>
+    <t>.feo.</t>
   </si>
   <si>
     <t>He traído a sus ofertas, Maestro ..</t>
   </si>
   <si>
-    <t>Se parece a una luna-pastel en busca de una barbilla. '' #Fugly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> su fugly pero al igual que aquí tiene la cabecera de ese tipo de partidos en el icono para cualquier persona que lo desee votar por xukun! '' (Y ZHENGTI.</t>
+    <t>Se parece a una luna-pastel en busca de una barbilla. '' #feo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> su feo pero al igual que aquí tiene la cabecera de ese tipo de partidos en el icono para cualquier persona que lo desee votar por xukun! '' (Y ZHENGTI.</t>
   </si>
   <si>
     <t>¡Vaya jaja no se preocupe que me ha pasado muchas veces; p</t>
   </si>
   <si>
-    <t>.So muchos fugly culo gente de por aquí. '' Bishhh qué -.-.</t>
-  </si>
-  <si>
-    <t>fugly pensé que esto era un GIF y juego girada en el trabajo con mis altavoces del teléfono demasiado fuerte ....</t>
-  </si>
-  <si>
-    <t>Eso es un insulto, Kim era fugly af "]</t>
-  </si>
-  <si>
-    <t>Lol principal koi celebridad hu kiya jo mujhe Mujhse apoyo por cierto que "Falopsstr" que ha vencido asesino \ 's fugly culo en.</t>
+    <t>.So muchos feo culo gente de por aquí. '' Bishhh qué -.-.</t>
+  </si>
+  <si>
+    <t>feo pensé que esto era un GIF y juego girada en el trabajo con mis altavoces del teléfono demasiado fuerte ....</t>
+  </si>
+  <si>
+    <t>Eso es un insulto, Kim era feo af "]</t>
+  </si>
+  <si>
+    <t>Lol principal koi celebridad hu kiya jo mujhe Mujhse apoyo por cierto que "Falopsstr" que ha vencido asesino \ 's feo culo en.</t>
   </si>
   <si>
     <t>Esa persona es un héroe para todos nosotros.</t>
@@ -207,7 +207,7 @@
     <t>estado de ánimo actual:.</t>
   </si>
   <si>
-    <t>Fugly.</t>
+    <t>feo.</t>
   </si>
   <si>
     <t>Mi tiempo ha llegado.</t>
@@ -219,13 +219,13 @@
     <t>Pero ¿quién es ?.</t>
   </si>
   <si>
-    <t>En desacuerdo era ni de lejos pícaro M3 &amp; amp; M4 para mí y además es FUGLY!</t>
-  </si>
-  <si>
-    <t>.Todas las perras que está fugly, tabaquismo sobre la droga como un adicto</t>
-  </si>
-  <si>
-    <t>fugly, más bien linda como diablos.</t>
+    <t>En desacuerdo era ni de lejos pícaro M3 &amp; amp; M4 para mí y además es feo!</t>
+  </si>
+  <si>
+    <t>.Todas las perras que está feo, tabaquismo sobre la droga como un adicto</t>
+  </si>
+  <si>
+    <t>feo, más bien linda como diablos.</t>
   </si>
   <si>
     <t>No más enrollando y gastar dinero en envolturas de nuevo Esta .gluntofficial es un cambio de juego.</t>
@@ -312,7 +312,7 @@
     <t>Las hembras salen de una relación y, de repente, comienza a publicar extractos de los libros y la mierda LMAOOOOOOOOOO ohhhh modo n.</t>
   </si>
   <si>
-    <t>.OK.Dumbass Por desgracia el resto de Estados Unidos ahora tiene que lidiar con su voto lamentable ..</t>
+    <t>.OK.Dumbass Por desgracia el resto de Perú ahora tiene que lidiar con su voto lamentable ..</t>
   </si>
   <si>
     <t>Lmao .... no no soy espiritual wa un ala derecha.</t>
@@ -378,7 +378,7 @@
     <t>Fue elegido como Alemania jugador del año cero veces. '' Él ganó un ventilador.</t>
   </si>
   <si>
-    <t>realDonaldTrump Dumbass. ' 'Él ganó \' t 'preguntas' que.', 'Él le ordenará según la constitu.</t>
+    <t>vizcarra Dumbass. ' 'Él ganó \' t 'preguntas' que.', 'Él le ordenará según la constitu.</t>
   </si>
   <si>
     <t>escuchar los niños que conozco u desea dejar de recibir violentamente asesinada por rifles de asalto, pero que necesita para crecer y darse cuenta de que t.</t>
@@ -411,7 +411,7 @@
     <t>Mis idiota sean leales antes del comienzo relación ...</t>
   </si>
   <si>
-    <t>En caso que usted no entiende por qué estabas con luz de gas ciber-armas para usar el logotipo de lechuza y hacer su signo shrimpdick idiota pedo 666</t>
+    <t>En caso que tú no entiende por qué estabas con luz de gas ciber-armas para usar el logotipo de lechuza y hacer su signo shrimpdick idiota pedo 666</t>
   </si>
   <si>
     <t>Sí, por supuesto. ' 'No critique algo mal.', 'Sólo tiene que encontrar algo para distraer la atención de ella.', 'Uh, eso no funciona.',' #Dumbass.</t>
@@ -420,10 +420,10 @@
     <t>dis cada vez que me paso mi polen fuera idiota.</t>
   </si>
   <si>
-    <t>DOTUS Dumbass de los Estados Unidos Realmente está perdiendo durante esta semana. ", 'Tiempos de miedo !.</t>
-  </si>
-  <si>
-    <t>realDonaldTrump * Muhammad Ali ... Dumbass. '' Usted convenientemente olvida que él y su fathe.</t>
+    <t>DOTUS Dumbass de los Perú Realmente está perdiendo durante esta semana. ", 'Tiempos de miedo !.</t>
+  </si>
+  <si>
+    <t>vizcarra * Muhammad Ali ... Dumbass. '' tú convenientemente olvida que él y su fathe.</t>
   </si>
   <si>
     <t>. "Con los prejuicios contra los Judios apareciendo entre los migrantes, crecen los temores de que? Una nueva generación de antisemitas es comin.</t>
@@ -432,7 +432,7 @@
     <t>.HOY no es #PunishAMuslimDay. ' 'No hay tal día, y nunca lo será.',' Hoy es un día para recordar a su musulmán.</t>
   </si>
   <si>
-    <t>En general, los conservadores parecen ser más propensos a la vuelta de esta manera que los liberales - y si usted es judío y en todos los awa</t>
+    <t>En general, los conservadores parecen ser más propensos a la vuelta de esta manera que los liberales - y si tú es judío y en todos los awa</t>
   </si>
   <si>
     <t>Creo que el odio y el prejuicio siempre estaba ahí &amp; amp; internet solo ha expuesto más effectivel.</t>
@@ -558,7 +558,7 @@
     <t>Los menores de edad? ¿Fueron el más importante de los cuales fue de 32 años de edad "., '285 menores no acompañados? S? Los extranjeros capturados por la D? Parte.</t>
   </si>
   <si>
-    <t>Muchos de los irlandeses que sirven en el ejército de Estados Unidos durante la guerra mexicana-americano experimentaron el racismo y el prejuicio anticatólico, a.</t>
+    <t>Muchos de los irlandeses que sirven en el ejército de Perú durante la guerra mexicana-americano experimentaron el racismo y el prejuicio anticatólico, a.</t>
   </si>
   <si>
     <t>Esforzándose única 2B primero es un objetivo inútil. '' ?? ~ tl #OpenMind 2 #seek #perspective #question continuación #observe.</t>
@@ -600,7 +600,7 @@
     <t>Es difícil de precisar que reduce a una cosa. Hay literalmente docenas. El tratamiento de la estrella de oro]</t>
   </si>
   <si>
-    <t>realDonaldTrump En el pasado Trump acaba despedido a nadie dispuesto a enfrentarse a su intimidación. Ahora se enfrenta a la Resistan]</t>
+    <t>vizcarra En el pasado Trump acaba despedido a nadie dispuesto a enfrentarse a su intimidación. Ahora se enfrenta a la Resistan]</t>
   </si>
   <si>
     <t>Las pruebas de ADN nunca serían una medición precisa de IQ. Medio ambiente y otros factores simplemente como la importación]</t>
@@ -615,13 +615,13 @@
     <t>CI medio mundo está disminuyendo debido tercer mundo tiene más bebés que Europa y Asia NE. Bajo coeficiente intelectual de inmigración tiene inversa</t>
   </si>
   <si>
-    <t>realDonaldTrump una vez más, la aguja D ** k Don balbuceos acerca de un tema sobre el que no sabe nada. Pero... ]</t>
+    <t>vizcarra una vez más, la aguja D ** k Don balbuceos acerca de un tema sobre el que no sabe nada. Pero... ]</t>
   </si>
   <si>
     <t>Los asiáticos orientales tienen un coeficiente intelectual ligeramente superior al de los blancos - mi sugerencia es la importancia de numerolog]</t>
   </si>
   <si>
-    <t>No lo hice deliberadamente nada entienden mal. También usted no sabe]</t>
+    <t>No lo hice deliberadamente nada entienden mal. También tú no sabe]</t>
   </si>
   <si>
     <t>No, es porque tienen un coeficiente intelectual bajo. Y cómo bruto que le excusa asesinar a alguien.</t>
@@ -630,7 +630,7 @@
     <t>debido a su ideología triunfa sobre el ser humano, me sorprende.</t>
   </si>
   <si>
-    <t>Usted don? T quieren escuchar a alguien hablar don? T ir a escuchar a ellos? S tan simple. '' Lef.</t>
+    <t>tú don? T quieren escuchar a alguien hablar don? T ir a escuchar a ellos? S tan simple. '' Lef.</t>
   </si>
   <si>
     <t>Gracias por recordarme I \ 'm sólo un "cishetwhitemale.</t>
@@ -657,13 +657,13 @@
     <t>Cualquiera que diga mierda lo Ainge ha hecho es un individuo bajo coeficiente intelectual ..</t>
   </si>
   <si>
-    <t>Seguramente usted sabe por qué eso es un problema. '' la baja varianza capturado en estudios GWA IQ es dif clase social.</t>
-  </si>
-  <si>
-    <t>No sería glorificando a Saddam si fueras un chiíta o kurdo de estar debajo de él Qasim Qadiani. ", 'Comparando el ingenio del Ejército de Estados Unidos.</t>
-  </si>
-  <si>
-    <t>Otro índice de inteligencia del grifo malabarista bola baja baile que necesita cerrar su agujero de la empanada! '' Usted no tiene ni idea sobre cómo ejecutar bu nada.</t>
+    <t>Seguramente tú sabe por qué eso es un problema. '' la baja varianza capturado en estudios GWA IQ es dif clase social.</t>
+  </si>
+  <si>
+    <t>No sería glorificando a Saddam si fueras un chiíta o kurdo de estar debajo de él Qasim Qadiani. ", 'Comparando el ingenio del Ejército de Perú.</t>
+  </si>
+  <si>
+    <t>Otro índice de inteligencia del grifo malabarista bola baja baile que necesita cerrar su agujero de la empanada! '' tú no tiene ni idea sobre cómo ejecutar bu nada.</t>
   </si>
   <si>
     <t xml:space="preserve"> bajo coeficiente intelectual y el crimen. '' simple.</t>
@@ -732,7 +732,7 @@
     <t>Se? No se trata de sexo? se? s justo sobre la mejor persona para el trabajo? .. Si alguien utiliza este argumento en que, quizás pide º</t>
   </si>
   <si>
-    <t xml:space="preserve"> TFM. ' 'Me encanta sus videos.', 'Soy un MGTOW y no estoy discutiendo con usted acerca de los wumens.',' Mi punto es.</t>
+    <t xml:space="preserve"> TFM. ' 'Me encanta sus videos.', 'Soy un MGTOW y no estoy discutiendo con tú acerca de los wumens.',' Mi punto es.</t>
   </si>
   <si>
     <t>ArtisticFCUK | Artes de BST | British Summer Time - cielo azul Pensamientos | BluePlanet "Furia de Titanes" (igualdad de género).</t>
@@ -882,7 +882,7 @@
     <t>.el goatfucker que hizo esta #notislamophobic libro.</t>
   </si>
   <si>
-    <t>no han hablado con usted en mucho tiempo. ", 'Se siente como si ni siquiera sé en U más?', 'Lo único que sé de u es tha.</t>
+    <t>no han hablado con tú en mucho tiempo. ", 'Se siente como si ni siquiera sé en U más?', 'Lo único que sé de u es tha.</t>
   </si>
   <si>
     <t>Yo no hago bro Juro que es .g00dgirlsteph Tienes que mirar hacia fuera para ". 'Ella encontró mi abuelo f.</t>
@@ -906,13 +906,13 @@
     <t>Feliz Pascua, chicos !!!! '' ??.</t>
   </si>
   <si>
-    <t>.I odio Otome. ' 'Todo es cuestión de su deber!', 'Todos ustedes son una locura para el gusto de los juegos Otome femenino!', 'Juega un juego de verdad!',' Juego ca.</t>
-  </si>
-  <si>
-    <t>realDonaldTrump deja de gritar ..</t>
-  </si>
-  <si>
-    <t>realDonaldTrump nunca voy a ser capaz de llamar a cualquier otra cosa ahora. "]</t>
+    <t>.I odio Otome. ' 'Todo es cuestión de su deber!', 'Todos túes son una locura para el gusto de los juegos Otome femenino!', 'Juega un juego de verdad!',' Juego ca.</t>
+  </si>
+  <si>
+    <t>vizcarra deja de gritar ..</t>
+  </si>
+  <si>
+    <t>vizcarra nunca voy a ser capaz de llamar a cualquier otra cosa ahora. "]</t>
   </si>
   <si>
     <t>El legado de la liga se? S esta liga negro junbay.</t>
@@ -1023,7 +1023,7 @@
     <t>.Why ¿Soy un nazi como la gramática ?. '' Si hay una cosa que se enorgullecen de, él? S su educación !.</t>
   </si>
   <si>
-    <t>[ "Lanzamientos Príncipe Harry agotadora expedición a través de Estados Unidos antes de Meghan Markl ... a través de .YouTube i '"]</t>
+    <t>[ "Lanzamientos Príncipe Harry agotadora expedición a través de Perú antes de Meghan Markl ... a través de .YouTube i '"]</t>
   </si>
   <si>
     <t>Al parecer hubo una manifestación disturbios / nazi virtual en Runescape antes porque Jagex (el desarrollador) dio a conocer un Awaren LGBT.</t>
@@ -1089,7 +1089,7 @@
     <t>Entonces ¿por qué la Fxck no lo hizo expulsar a los rusos hace un año?", 'Y, su abuelo era un nazi, algo que ella trató de ocultar!', 'Ruso.</t>
   </si>
   <si>
-    <t>¿Usted o haces que no aprueba la sesión de fotos de Hitler / nazi-inspirada de Roseanne Barr?", '¿Estás bien con esto?', 'No viendo ABC ya ..</t>
+    <t>¿tú o haces que no aprueba la sesión de fotos de Hitler / nazi-inspirada de Roseanne Barr?", '¿Estás bien con esto?', 'No viendo ABC ya ..</t>
   </si>
   <si>
     <t xml:space="preserve"> Redadas del FBI en casa conectado a loco nazi LARPer Jordan Jereb, el hombre que decía Parkland tirador Nicolás Cruz entrenó con.</t>
@@ -1137,13 +1137,13 @@
     <t>Este es mi IRL ejército bebé? S primera remontada y yo? M tratando de explicar el sumario Euphoria vinculando su todos los MV cus.</t>
   </si>
   <si>
-    <t>SenMajLdr está preocupado. '' 'Espero que podamos mantener el Senado ...' De cualquier manera usted y mentiroso Ryan.</t>
+    <t>SenMajLdr está preocupado. '' 'Espero que podamos mantener el Senado ...' De cualquier manera tú y mentiroso Ryan.</t>
   </si>
   <si>
     <t>..BettyAnnRoyal1 .BellaLuna468 .Libslady .Amy.Siskind Oh Señor. ' 'Buscar ayuda psiquiátrica grave.',' No tengo ninguna duda y.</t>
   </si>
   <si>
-    <t>..christywebs3 .SomeDawson .parieobrien .camilalloyd7 .billboard Usted es una persona grosera ???? ¿vienes aquí j.</t>
+    <t>..christywebs3 .SomeDawson .parieobrien .camilalloyd7 .billboard tú es una persona grosera ???? ¿vienes aquí j.</t>
   </si>
   <si>
     <t>Se? S doloroso ver su otra caída significativa por otro hombre. '' Sobre todo cuando él está claramente más talento que tú.</t>
@@ -1158,7 +1158,7 @@
     <t>Louis es un artista en solitario disco de platino. ' 'Deje que se hunden in.Are estás bien?', 'Bueno.', 'Más noticias.',' Harry es un platino de venta s.</t>
   </si>
   <si>
-    <t>.some niñas son testin mi paciencia hoy !!!! '' im una perra loca voy a cortar usted ??.</t>
+    <t>.some niñas son testin mi paciencia hoy !!!! '' im una perra loca voy a cortar tú ??.</t>
   </si>
   <si>
     <t>.Drama pt2. ' 'Me habló de sus problemas y luego me acusó de tratar de estropear su relación.',' ?? PERRA YALL.</t>
@@ -1170,13 +1170,13 @@
     <t>BUENA .fUCK te ves tan.</t>
   </si>
   <si>
-    <t>violación real cuando usted está en Snapchat quedó allí esperando el gota a gota y usted? re demasiado pronto, bien cogida parada reco.</t>
+    <t>violación real cuando tú está en Snapchat quedó allí esperando el gota a gota y tú? re demasiado pronto, bien cogida parada reco.</t>
   </si>
   <si>
     <t>relaciones de larga distancia son tan difíciles, como maldito que se siente solo como mierda pero? re no realmente sola, pero su boo c.</t>
   </si>
   <si>
-    <t>Incluso cuando se le da una cogida usted no puede das por culo ....</t>
+    <t>Incluso cuando se le da una cogida tú no puede das por culo ....</t>
   </si>
   <si>
     <t>Así que ahora sólo me envió un broche de presión y fue un asscheek frente al espejo en el baño desnuda ???????????????????? I? M como fin ..</t>
@@ -1188,7 +1188,7 @@
     <t>Si hay una cosa buena acerca de lo que están haciendo OG, es que van a traer maestros de la UE por tonelada cogida de la publicidad, lo que está pasando "]</t>
   </si>
   <si>
-    <t>usted y su mente estrecha .Fuck.</t>
+    <t>tú y su mente estrecha .Fuck.</t>
   </si>
   <si>
     <t>cogida Te amo ..</t>
@@ -1200,7 +1200,7 @@
     <t>.Bruuuuhh espero que algún día pueda tener mis sueños me pagan en lugar de trabajar en una cogida como trabajo. '' Bless hasta que el hombre !.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Im no la comparación de Williamson, Ingraham, o Eriksson a Mlk o las Dixie Chicks. '' Si usted cree en usted.</t>
+    <t xml:space="preserve"> Im no la comparación de Williamson, Ingraham, o Eriksson a Mlk o las Dixie Chicks. '' Si tú cree en tú.</t>
   </si>
   <si>
     <t>Fuck you coinbase.</t>
@@ -1221,7 +1221,7 @@
     <t>cuando sus sub mira hacia otro lado mientras que los cojan aC se ponen tan nerviosos para que agarre la cara y decir? vistazo a mí cuando estoy.</t>
   </si>
   <si>
-    <t>Y si usted? T cogida todo espero que hayan tenido un buen tiempo.</t>
+    <t>Y si tú? T cogida todo espero que hayan tenido un buen tiempo.</t>
   </si>
   <si>
     <t>.Y por eso me encantan las chicas blancas causa que los negros están desesperados como mierda e intentará cualquier cosa.</t>
@@ -1248,7 +1248,7 @@
     <t>.Moodys Investors Service - Moodys asigna calificación Aa3 inicial de la Biblioteca Pública del Distrito del condado de Russell, Serie kys.</t>
   </si>
   <si>
-    <t xml:space="preserve"> KYS no es de extrañar por qué apoya había olores, ya que usted está poniendo Antro pronto y tix eliminado la causa todo lo que importa es el dinero lo que kys.</t>
+    <t xml:space="preserve"> KYS no es de extrañar por qué apoya había olores, ya que tú está poniendo Antro pronto y tix eliminado la causa todo lo que importa es el dinero lo que kys.</t>
   </si>
   <si>
     <t>Amo a mi hombre rico.</t>
@@ -1269,7 +1269,7 @@
     <t>.fake culo perra kys? Camille que? s puro coqueteo lo linda xx.</t>
   </si>
   <si>
-    <t>.Este honestamente se ve falso, pero si usted es un amigo y así es como usted tiene que conseguir chica por favor kys.</t>
+    <t>.Este honestamente se ve falso, pero si tú es un amigo y así es como tú tiene que conseguir chica por favor kys.</t>
   </si>
   <si>
     <t>.lemme te dice este dulce mudafaka kys go lol !.</t>
@@ -1278,7 +1278,7 @@
     <t>.You saben aquellas personas que piensan que saben todo y cuando se trate de tener una entrada, que dicen sí y la indiferencia que kys?.</t>
   </si>
   <si>
-    <t>Si usted es un kys delación.</t>
+    <t>Si tú es un kys delación.</t>
   </si>
   <si>
     <t xml:space="preserve"> En reproducción del monstruo por EXO y el baile sí soy como nadie me está mirando y no me importa .. '' disfrutar.</t>
@@ -1311,13 +1311,13 @@
     <t>.I odian la personas que compran todas las versiones TOTW de una tarjeta cuando se pone un encendido. '' Como kys Foreal.</t>
   </si>
   <si>
-    <t>ThomasSanders:?? Si Entonces usted don t amor Don t me merecen en mi conmigo en mi.</t>
+    <t>ThomasSanders:?? Si Entonces tú don t amor Don t me merecen en mi conmigo en mi.</t>
   </si>
   <si>
     <t>El 1% de KYS verá un recorte de impuestos promedio de $ 7086. '' Las personas que hacen $ 175000 a $ 427000 un año para ver un cu medio de gravamen.</t>
   </si>
   <si>
-    <t>.? Hombre, usted es un perdedor patético !? -I? M bro Lloyd Christmas ........ nuevo estado de ánimo ..</t>
+    <t>.? Hombre, tú es un perdedor patético !? -I? M bro Lloyd Christmas ........ nuevo estado de ánimo ..</t>
   </si>
   <si>
     <t>.Este tipo sean mejores de la historia. '' Otro perdedor patético, debería estar en la cárcel.</t>
@@ -1347,7 +1347,7 @@
     <t>.Anyone en el Reino Unido al teléfono me ayuda y me acepte lo que es un perdedor que soy, yo pago que me mantienen despierto, podemos hacer Mo.</t>
   </si>
   <si>
-    <t>Sinceramente me? M mucho mejor que usted en todos los sentidos y que es porqué usted me ama hasta el punto de dejar de admirar mis fotos de AF.</t>
+    <t>Sinceramente me? M mucho mejor que tú en todos los sentidos y que es porqué tú me ama hasta el punto de dejar de admirar mis fotos de AF.</t>
   </si>
   <si>
     <t>. # Findom acaba de despertar en Tailandia, gf a mi lado y fácil cogida, primera cosa en mi mente está fuera ir y conectarse a f.</t>
@@ -1356,7 +1356,7 @@
     <t>.I? Ve sido encontrar la gente en grupos de Facebook para el comercio panini Copa del Mundo 2018 pegatinas con I don? T sabe qué clase de PA.</t>
   </si>
   <si>
-    <t>realDonaldTrump Lo siento un legado 45 va a dejar atrás cuando votaron de lo peor - la mayoría</t>
+    <t>vizcarra Lo siento un legado 45 va a dejar atrás cuando votaron de lo peor - la mayoría</t>
   </si>
   <si>
     <t>..seanhannity Lol! '' Un presunto celebridad, .seanhannity, para crear una participación patética en comparación con un grupo de la escuela secundaria.</t>
@@ -1365,10 +1365,10 @@
     <t>"Soy un perdedor pretenciosa incómoda patética aburrido.", 'Me odio ..</t>
   </si>
   <si>
-    <t>realDonaldTrump dijo que México estaba haciendo nada para detener el flujo de inmigrantes. '' historia ahora .POTUS #DonTheCon? s i.</t>
-  </si>
-  <si>
-    <t>.Up 7-3 en el octavo. ', 'Les deseo nada más que mala voluntad.', 'Los odio.', 'Son la perra Cachorros.', 'Si usted es un ventilador de seis blanco,']</t>
+    <t>vizcarra dijo que México estaba haciendo nada para detener el flujo de inmigrantes. '' historia ahora .POTUS #DonTheCon? s i.</t>
+  </si>
+  <si>
+    <t>.Up 7-3 en el octavo. ', 'Les deseo nada más que mala voluntad.', 'Los odio.', 'Son la perra Cachorros.', 'Si tú es un ventilador de seis blanco,']</t>
   </si>
   <si>
     <t xml:space="preserve"> Una cosa acerca de mí, si yo? M cada vez apuntando algo directamente a una persona que? Ll decir exactamente quién? Estoy hablando. '' Nunca abeja.</t>
@@ -1401,7 +1401,7 @@
     <t xml:space="preserve"> Cuando su #ass y #pussy están pidiendo para ser utilizado ?? feliz #AssWednesday todos! '' Parece que mi culo está arrugando y.</t>
   </si>
   <si>
-    <t>OMG .KissaSins que son tan #sexy, por lo #delicious! '' Usted tiene la más sorprendente #Booty, su sonrisa #, # tetas, #pussy afeitado, #Como.</t>
+    <t>OMG .KissaSins que son tan #sexy, por lo #delicious! '' tú tiene la más sorprendente #Booty, su sonrisa #, # tetas, #pussy afeitado, #Como.</t>
   </si>
   <si>
     <t>.Good mierda ella respondió con un gatito MASAJE DE VIDEO ?? Yo tenía miedo a la muerte que iba a compartir mi pene en med sociales.</t>
@@ -1410,7 +1410,7 @@
     <t>anillo de espiga con blackwork por #Craeven #Amsterdam #Handmade través .Etsy así que cuando la mierda viene abajo son y.</t>
   </si>
   <si>
-    <t>realDonaldTrump WTF Todos aquellos que quieran ver una foto de Trump en la oficina de correos! '' Aquí es una idea que Pit.</t>
+    <t>vizcarra WTF Todos aquellos que quieran ver una foto de Trump en la oficina de correos! '' Aquí es una idea que Pit.</t>
   </si>
   <si>
     <t>Me .Notifique por qué Steve era un idiota en una temporada y responderé que explica por qué está mal ..</t>
@@ -1419,13 +1419,13 @@
     <t>Iwan numerosos otros miembros del reparto también han dicho que? Es un idiota fuera de ella también. '' Supongo que ju.</t>
   </si>
   <si>
-    <t>Yo? Estoy cansado de la sociedad? S? Todo el mundo es perfecto tal y como están? actitud. ' 'F *** eso.', 'Sea honesto con usted mismo.',' Si usted es un.</t>
+    <t>Yo? Estoy cansado de la sociedad? S? Todo el mundo es perfecto tal y como están? actitud. ' 'F *** eso.', 'Sea honesto con tú mismo.',' Si tú es un.</t>
   </si>
   <si>
     <t>He releído el hilo de todo esto empezó con el ". 'Espero que pueda llegar a entender cómo dis.</t>
   </si>
   <si>
-    <t>#wrestlers .Attn que asisten .wrestlecon Be cool entre sí don? t ser un idiota Si usted? t como un gilipollas j.</t>
+    <t>#wrestlers .Attn que asisten .wrestlecon Be cool entre sí don? t ser un idiota Si tú? t como un gilipollas j.</t>
   </si>
   <si>
     <t>.No con esta puta cara en reposo.</t>
@@ -1443,19 +1443,19 @@
     <t>Hey!', 'sólo un recordatorio, cis personas, absolutamente nadie está esperando a tener relaciones sexuales con alguien que no está físicamente atraer']</t>
   </si>
   <si>
-    <t>Si usted está tratando de dejar de arroz dorado que eres un gilipollas. ", '#GoldenRice.</t>
-  </si>
-  <si>
-    <t>.Porque como usted, él es un idiota! '' Pero, usted quiere tener que preocuparse por mucho más tiempo, porque vamos a voto.</t>
-  </si>
-  <si>
-    <t>Usted tiene la libertad de expresión, pero, pero si lo usa como un idiota gente va a tener una opinión al respecto.</t>
+    <t>Si tú está tratando de dejar de arroz dorado que eres un gilipollas. ", '#GoldenRice.</t>
+  </si>
+  <si>
+    <t>.Porque como tú, él es un idiota! '' Pero, tú quiere tener que preocuparse por mucho más tiempo, porque vamos a voto.</t>
+  </si>
+  <si>
+    <t>tú tiene la libertad de expresión, pero, pero si lo usa como un idiota gente va a tener una opinión al respecto.</t>
   </si>
   <si>
     <t>Espero estar equivocado. ", 'Cuando te quejas de jugadores de un equipo apoyas que todo el mundo salto.</t>
   </si>
   <si>
-    <t>ey # FWA2018 congoers!', 'la punta de los servidores follando y su personal del hotel.', 'Si no lo hace, usted es un idiota 100000% sin excus']</t>
+    <t>ey # FWA2018 congoers!', 'la punta de los servidores follando y su personal del hotel.', 'Si no lo hace, tú es un idiota 100000% sin excus']</t>
   </si>
   <si>
     <t>..DLoesch vez más, nadie tiene el derecho constitucional a una posición de escritura de seis cifras para el Atlántico ..</t>
@@ -1464,13 +1464,13 @@
     <t>Y, obviamente, ellos saben lo emabrgo r.</t>
   </si>
   <si>
-    <t>.Si alguien le dice en los términos más enérgicos que son un idiota, usted debe considerar seriamente la creencia de ellos ..</t>
+    <t>.Si alguien le dice en los términos más enérgicos que son un idiota, tú debe considerar seriamente la creencia de ellos ..</t>
   </si>
   <si>
     <t>Para resumir: "I \ 'm en twitter, pero yo sólo quiero escuchar opiniones similares a la mía', 'que odio de la mitad de la Americ.</t>
   </si>
   <si>
-    <t>Se realDonaldTrump? t leer eso y el hecho de que usted está tratando de volver a escribir es una broma ridícula. '' Eres camino.</t>
+    <t>Se vizcarra? t leer eso y el hecho de que tú está tratando de volver a escribir es una broma ridícula. '' Eres camino.</t>
   </si>
   <si>
     <t xml:space="preserve"> ¿Quién diablos es él ?? ' '¿Qué pasa con la justicia Loya, Godhra y Tadipar Amit Shah ??',' es Suhel.</t>
@@ -1491,7 +1491,7 @@
     <t>.Se encontrará un inútil pedazo de mierda Si realiza algún tipo de broma suicidio hacia alguien, sabiendo muy bien que atte.</t>
   </si>
   <si>
-    <t>realDonaldTrump Las personas se les da el poder de ser absolutamente el control de esta de.</t>
+    <t>vizcarra Las personas se les da el poder de ser absolutamente el control de esta de.</t>
   </si>
   <si>
     <t>Puede? T ser más vergüenza de lo que está siendo un club europeo más pequeño que Notts Bosque ???? Disfruta jugando a la pelota.</t>
@@ -1500,7 +1500,7 @@
     <t>Wow, por lo que de manera muy técnica y que .vice no está realmente en el mal. ", 'Es una lástima que por']</t>
   </si>
   <si>
-    <t>.El mundo es mejor sin mí. '' Todos ustedes son mejor sin esta pieza inútil de mierda ??.</t>
+    <t>.El mundo es mejor sin mí. '' Todos túes son mejor sin esta pieza inútil de mierda ??.</t>
   </si>
   <si>
     <t>.I soy un idiota en secreto absoluto. ',. si está demasiado ..</t>
@@ -1509,7 +1509,7 @@
     <t>.It doesn? T sentir como un? Día de trabajo? cuando se llega a ser un idiota con sus compañeros! '' Salida todo lo que ocurría fuera.</t>
   </si>
   <si>
-    <t>. "Si Pres. ' 'Obasanjo te dice que este Gobierno.', 'Es corrupto y no pudo usted estará de acuerdo, pero si el gobernador',' Ayo Fayose o Jefe F.</t>
+    <t>. "Si Pres. ' 'Obasanjo te dice que este Gobierno.', 'Es corrupto y no pudo tú estará de acuerdo, pero si el gobernador',' Ayo Fayose o Jefe F.</t>
   </si>
   <si>
     <t>¿Por qué son compañeros de trabajo siempre tryna añadir que en las redes sociales? '', Como si yo? M gritando y puedo? T entrar en la causa allí? S de una emergencia.</t>
@@ -1518,7 +1518,7 @@
     <t>Paul que son la broma mi amigo. '' Sólo porque alguien suoports Trump No significa que.</t>
   </si>
   <si>
-    <t>Usted? Re un idiota si cree que el Rams? T ya h.</t>
+    <t>tú? Re un idiota si cree que el Rams? T ya h.</t>
   </si>
   <si>
     <t xml:space="preserve"> I? M de un experto y que don? T conocer todos los hechos. '' Sin embargo, sí sé que en cualquier momento la pol.</t>
@@ -1527,7 +1527,7 @@
     <t>.I CoreMARAH SGT SBB que LAPAR Coger tan TODO EL IGSHOPS que hacen eso ORG YG BELI PUN SAMA JE ¿Por qué habría que pagas algo dos veces.</t>
   </si>
   <si>
-    <t>Tim McCarver es un idiota. ' '? Si usted no puede recogerlo 2-0, sabes que el lanzador está tirando con fuerza.',' ¿Cómo vas a pi.</t>
+    <t>Tim McCarver es un idiota. ' '? Si tú no puede recogerlo 2-0, sabes que el lanzador está tirando con fuerza.',' ¿Cómo vas a pi.</t>
   </si>
   <si>
     <t>yo, un idiota: esta pieza da una visión general de cómo financiar algunas viviendas sociales mediante pruebas de existir realmente.</t>
@@ -1536,22 +1536,22 @@
     <t xml:space="preserve"> Soy un idiota en secreto absoluto. ',. si está demasiado ..</t>
   </si>
   <si>
-    <t>..realDonaldTrump ¿Los unicornios arco iris caca en su realidad alternativa? '' La caravana fue disuelta porque no había n.</t>
+    <t>..vizcarra ¿Los unicornios arco iris caca en su realidad alternativa? '' La caravana fue disuelta porque no había n.</t>
   </si>
   <si>
     <t xml:space="preserve"> I? M de un experto y que don? T conocer todos los hechos. '' Sin embargo, hago saber que en cualquier momento t.</t>
   </si>
   <si>
-    <t>El plazo de prescripción son hasta #melissaschuman. '' Si usted está tratando de copiar Nicole Eggert ella dice que era menor de edad w.</t>
-  </si>
-  <si>
-    <t>Si usted piensa que los ilegales no son una amenaza, usted es un idiota ". 'No hay más que mirar a los países europeos a k.</t>
+    <t>El plazo de prescripción son hasta #melissaschuman. '' Si tú está tratando de copiar Nicole Eggert ella dice que era menor de edad w.</t>
+  </si>
+  <si>
+    <t>Si tú piensa que los ilegales no son una amenaza, tú es un idiota ". 'No hay más que mirar a los países europeos a k.</t>
   </si>
   <si>
     <t>personas gravemente dicen que es mala en comparación con la mayor im cosas como son que un idiota.</t>
   </si>
   <si>
-    <t>Usted está que no merece ser un juez para criticar la cocina de Malasia verdadera pollo Rendang, se hace yoursel.</t>
+    <t>tú está que no merece ser un juez para criticar la cocina de Malasia verdadera pollo Rendang, se hace yoursel.</t>
   </si>
   <si>
     <t>Erm, jarros - que parecen faltar el partido más importante de la semana: Arsenal contra el equipo ruso que nadie ha oído hablar de</t>
@@ -1584,7 +1584,7 @@
     <t xml:space="preserve"> Nos encanta cómo en el MSM están en boca de historias a nadie le importa. '' Sigue así ..</t>
   </si>
   <si>
-    <t>La vida del hombre:?. Cuando has un problema " '" Usted ha tiene un problema.', 'cuidados a nadie.', "No hablar de ello repararlo usted mismo usted es un</t>
+    <t>La vida del hombre:?. Cuando has un problema " '" tú ha tiene un problema.', 'cuidados a nadie.', "No hablar de ello repararlo tú mismo tú es un</t>
   </si>
   <si>
     <t>.It se explica en primer lugar a mí que la gente rica tenía el derecho de ser pendejos porque? D ganado. ' 'Bullshit.',' Nadie.</t>
@@ -1593,13 +1593,13 @@
     <t>Acaba de conseguir su notificación. ' 'Por favor.', 'Por el amor de Dios ... Nadie se preocupa por su más de una década vieja historia!',' E.</t>
   </si>
   <si>
-    <t>Nadie en cuidados Memphis. '' Usted debe preocuparse por Coach Cal conseguir todo ese talento y desperdiciarla ..</t>
+    <t>Nadie en cuidados Memphis. '' tú debe preocuparse por Coach Cal conseguir todo ese talento y desperdiciarla ..</t>
   </si>
   <si>
     <t>.Can? T soporto a la gente que constantemente hablan de la forma en que? Re? Hacerlas? + Ellos? Re? Concentró en sí mismos? o? hacer.</t>
   </si>
   <si>
-    <t>Estados Unidos está tan jodidamente coño frío.</t>
+    <t>Perú está tan jodidamente coño frío.</t>
   </si>
   <si>
     <t>.Karma es realmente repartiendo en algunas personas este año y yo no podía? T ser puto más feliz, que sirve vosotros coño derecha.</t>
@@ -1725,7 +1725,7 @@
     <t>..KhutsoM. Negro mató a su familia whooole lo que una polla !.</t>
   </si>
   <si>
-    <t>[ "RT .liIyurivert: 2. ustedes pidiendo una pelea a continuación, obtener loco y empezar a decir 'negro', entonces pregunta por qué su culo es cada latido"]</t>
+    <t>[ "RT .liIyurivert: 2. túes pidiendo una pelea a continuación, obtener loco y empezar a decir 'negro', entonces pregunta por qué su culo es cada latido"]</t>
   </si>
   <si>
     <t>[ ".Bgbiskite .EdubEsq .JollyGood.Fella .thedopestdavid .TheRoot Debido a este abogado blanco no piensa ser llamado"]</t>
@@ -1770,7 +1770,7 @@
     <t>[ ".CelestialSoph .gibgirl1963 .Legit.Fag ..what Interesante es todo acerca de &amp; amp; ¿tiene un título todavía?"]</t>
   </si>
   <si>
-    <t>What sobre una mariquita Masaje ..Like Si usted sueño o Retweet Si usted quiere #tgirl #tranny #transgender #sissy #fag.</t>
+    <t>What sobre una mariquita Masaje ..Like Si tú sueño o Retweet Si tú quiere #tgirl #tranny #transgender #sissy #fag.</t>
   </si>
   <si>
     <t>.Okay antes de cualquier cosa que sí soy gay, boujie y un marica lol llamarlo lo que quiere. '' Pero esto sucederá cuando llegué por primera vez.</t>
@@ -1791,7 +1791,7 @@
     <t>Bueno lo que sabe que puede conseguir en la parte posterior de un paquete de tabaco si su tan estúpido como para fumar todavía ..</t>
   </si>
   <si>
-    <t>Sí compañero que usted debe ponerse en tantas peleas que puto duro tuerca de lo que la lucha por el final de un cigarrillo en el pub que BUM.</t>
+    <t>Sí compañero que tú debe ponerse en tantas peleas que puto duro tuerca de lo que la lucha por el final de un cigarrillo en el pub que BUM.</t>
   </si>
   <si>
     <t>Pensé que todavía identificó como aroace así que estaba preocupado, bc si alguien usa la "]</t>
@@ -1815,7 +1815,7 @@
     <t>Vamos a dar a estos Nutella lleno rosquillas un plano a ser algo importante como un líder del partido, porque él tiene su brazo alrededor de su gf lo marica</t>
   </si>
   <si>
-    <t>realDonaldTrump Sólo isnt mal en primer lugar, y en segundo lugar hacer cada vez oyen.</t>
+    <t>vizcarra Sólo isnt mal en primer lugar, y en segundo lugar hacer cada vez oyen.</t>
   </si>
   <si>
     <t>.car se rompió. '' rac sonó salen y envió un tío viejo que debería estar en un hogar senior me dijo lo que era WRO.</t>
@@ -1824,10 +1824,10 @@
     <t>.Yeah, I \ 'm un "marica", que \' m el auténtico "dique", un homosexual "sucia". '' Vete a la mierda sobre él idiota megalómano ..</t>
   </si>
   <si>
-    <t>Sociedad - Todo hermosa la sociedad - no comen sin embargo, usted no desea conseguir la sociedad grasa - Usted no come", 'Maldito.</t>
-  </si>
-  <si>
-    <t>.Este tipo escribe atractivo increíble como historias de mierda. '' Esto es acerca de una píldora que las vueltas que de cualquier cogida grasa que usted? Re.</t>
+    <t>Sociedad - Todo hermosa la sociedad - no comen sin embargo, tú no desea conseguir la sociedad grasa - tú no come", 'Maldito.</t>
+  </si>
+  <si>
+    <t>.Este tipo escribe atractivo increíble como historias de mierda. '' Esto es acerca de una píldora que las vueltas que de cualquier cogida grasa que tú? Re.</t>
   </si>
   <si>
     <t>diatriba ~? -Práctica me hace suicidas odio a la gente que son -I engreído -Si dice que va a hacer algo y pro</t>
@@ -1836,13 +1836,13 @@
     <t>¿Le ha sorprendido por cuántos hombres están atacando brutalmente a la mujer, llamándola una puta y un mentiroso y ladrando para h.</t>
   </si>
   <si>
-    <t>Si usted me dice que quiere "pasar el rato" y el mensaje entonces le pregunta cuándo, y recibe una respuesta de un poco de grasa fea d.</t>
+    <t>Si tú me dice que quiere "pasar el rato" y el mensaje entonces le pregunta cuándo, y recibe una respuesta de un poco de grasa fea d.</t>
   </si>
   <si>
     <t>RT Si alguna vez has sido llamado cualquiera de estos nombres, pero he dado cuenta que PERRAS mierda no !!", '-ugly -emo -anorexic -WH.</t>
   </si>
   <si>
-    <t>.Si te insulto a la gente diciendo que? Re grasa, feo, una puta. ' 'Usted está mostrando lo tonto que eres.', 'Las apariencias físicas?',' D.</t>
+    <t>.Si te insulto a la gente diciendo que? Re grasa, feo, una puta. ' 'tú está mostrando lo tonto que eres.', 'Las apariencias físicas?',' D.</t>
   </si>
   <si>
     <t xml:space="preserve"> Lol yo creo que son los que me llama un retardado, etc ..</t>
@@ -1851,7 +1851,7 @@
     <t>Nah. '' Owen es un retrasado mental que merece ser prohibido y los panaderos tienen derecho a no hornear pasteles que Don.</t>
   </si>
   <si>
-    <t>Si usted es un impulso Morón don? T estropear sus doctrinas Lateral izquierdo con hechos. '' Poor ladrones poco de carrera con tales.</t>
+    <t>Si tú es un impulso Morón don? T estropear sus doctrinas Lateral izquierdo con hechos. '' Poor ladrones poco de carrera con tales.</t>
   </si>
   <si>
     <t>cómo son las lesiones excusa ???? ' 'es literalmente un hecho, no hemos tenido algunos de nuestros mejores jugadores.',' jugar u.</t>
@@ -1860,22 +1860,22 @@
     <t xml:space="preserve"> si por "salvaje" se refiere a un retardado puta, entonces sí, estás en lo correcto.</t>
   </si>
   <si>
-    <t>.mind usted, yo estaba hablando mierda de ganar campeonatos Filadelfia. '' Su respuesta es 'todos somos lo mismo', que.</t>
-  </si>
-  <si>
-    <t>..realDonaldTrump Estás literalmente la definición de un retardado.</t>
-  </si>
-  <si>
-    <t>Amigo, soy canadiense también. ", 'A menos que usted está cubierto de alguna manera, entonces no es gratis.', 'Google.</t>
-  </si>
-  <si>
-    <t>Si usted define a sí mismo en #opposition #political a la #left o #right. '' Se ha creado un #game nunca puede.</t>
+    <t>.mind tú, yo estaba hablando mierda de ganar campeonatos Filadelfia. '' Su respuesta es 'todos somos lo mismo', que.</t>
+  </si>
+  <si>
+    <t>..vizcarra Estás literalmente la definición de un retardado.</t>
+  </si>
+  <si>
+    <t>Amigo, soy canadiense también. ", 'A menos que tú está cubierto de alguna manera, entonces no es gratis.', 'Google.</t>
+  </si>
+  <si>
+    <t>Si tú define a sí mismo en #opposition #political a la #left o #right. '' Se ha creado un #game nunca puede.</t>
   </si>
   <si>
     <t>¿Le amablemente nota que "retardo"</t>
   </si>
   <si>
-    <t>Usted retardo lento que acaba de hacer mi punto. ', "Sin Kyire Hurtvin comercio Cavs no ha conseguido Youn</t>
+    <t>tú retardo lento que acaba de hacer mi punto. ', "Sin Kyire Hurtvin comercio Cavs no ha conseguido Youn</t>
   </si>
   <si>
     <t>Mensaje a este retardo tan así llamado invester ¿qué vas a hacer cuando se supera más de 20.000 su pers.</t>
@@ -1884,16 +1884,16 @@
     <t>¿Estás tonto? ' '¿No lo entiendes?',' ¿Quieres saber por qué mi alojamiento comerciante.</t>
   </si>
   <si>
-    <t>momento incómodo cuando se está en la calle, en su propio mundo hablando a ti mismo, pero se nota la gente alrededor de usted para que usted.</t>
-  </si>
-  <si>
-    <t>si usted es como un tipo 2A, ¿por qué usted no ha tenido a nadie que es también una persona 2A</t>
-  </si>
-  <si>
-    <t>realDonaldTrump Todo lo que necesitamos saber es el que está otra POS Brown, al igual que yo.</t>
-  </si>
-  <si>
-    <t>Hay una gran diferencia entre un Libtard y un hombre de izquierda / liberal. '' Si su punto de vista se opone a la mía, usted está.</t>
+    <t>momento incómodo cuando se está en la calle, en su propio mundo hablando a ti mismo, pero se nota la gente alrededor de tú para que tú.</t>
+  </si>
+  <si>
+    <t>si tú es como un tipo 2A, ¿por qué tú no ha tenido a nadie que es también una persona 2A</t>
+  </si>
+  <si>
+    <t>vizcarra Todo lo que necesitamos saber es el que está otra POS Brown, al igual que yo.</t>
+  </si>
+  <si>
+    <t>Hay una gran diferencia entre un Libtard y un hombre de izquierda / liberal. '' Si su punto de vista se opone a la mía, tú está.</t>
   </si>
   <si>
     <t>I? Te estoy suponiendo? Re buscando una respuesta diferente que porque ella committ.</t>
@@ -1902,19 +1902,19 @@
     <t>Los dos tenemos opiniones diferentes el uno del otro. '' ¿Crees que soy un Libtard ignorante que es una".</t>
   </si>
   <si>
-    <t>dejar de limitar mi cuenta sin una explicación. '' Usted se acaba de mí censurar un justificadamente a cabo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¿Cómo es eso?', 'Usted no cree que alguien que llama a alguien la palabra f y una Libtard y un ahole sh']</t>
-  </si>
-  <si>
-    <t>usted es un traidor a la patria!", 'espero Trump envía a las tropas y.</t>
+    <t>dejar de limitar mi cuenta sin una explicación. '' tú se acaba de mí censurar un justificadamente a cabo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¿Cómo es eso?', 'tú no cree que alguien que llama a alguien la palabra f y una Libtard y un ahole sh']</t>
+  </si>
+  <si>
+    <t>tú es un traidor a la patria!", 'espero Trump envía a las tropas y.</t>
   </si>
   <si>
     <t>¿Te refieres a cómo los conservadores etiquetar todo el mundo no a su gusto como RINO o una.</t>
   </si>
   <si>
-    <t>usted es patética !! ' '¿Cómo se atreve a decir que usted ganó? t desplegar nuestra guardia nacional.',' Su renuncia inmediata.</t>
+    <t>tú es patética !! ' '¿Cómo se atreve a decir que tú ganó? t desplegar nuestra guardia nacional.',' Su renuncia inmediata.</t>
   </si>
   <si>
     <t>400 y suma el cambio de seguidores, crea una cuenta burlarse de otra persona, mientras que ocultarlo.</t>
@@ -1932,76 +1932,76 @@
     <t>Un odio llena de izquierda #libtard atacar a un superviviente de Parkland .Kyle.</t>
   </si>
   <si>
-    <t>Si usted puede hacer girar este intento de salvar sus esperanzas elsction en cualquier otra cosa ......</t>
-  </si>
-  <si>
-    <t>Usted buena fugly.</t>
+    <t>Si tú puede hacer girar este intento de salvar sus esperanzas elsction en cualquier otra cosa ......</t>
+  </si>
+  <si>
+    <t>tú buena feo.</t>
   </si>
   <si>
     <t>acoso</t>
   </si>
   <si>
-    <t>Ese mensaje Fugly lib patanes camiseta es tan innecesario! '' Todos los hombres CE.</t>
-  </si>
-  <si>
-    <t>Esta chica es la más repugnante skank perra que he conocido. ", 'No confían en ella.', 'Ella es una zorra fugly.</t>
-  </si>
-  <si>
-    <t>pase duro? '' Debe ser utilizado para oír eso, fugly matón ...</t>
-  </si>
-  <si>
-    <t>La cogida que le pasó a la barbilla chicos? ' 'Pedí una autofoto, no Worms 2!',' Fugly mofo.</t>
-  </si>
-  <si>
-    <t>.everybody en la estancia justo alegando que son tan superiores pero son tan fugly .... ¿cómo están todos de y? ​​todo tan feo y.</t>
-  </si>
-  <si>
-    <t>.Lookin verdadera fugly.</t>
-  </si>
-  <si>
-    <t>Esa es una fugly puta!", 'Todo lo que se ve $$$$ y montó duro y colgado para secar !.</t>
-  </si>
-  <si>
-    <t>Ella? S A fugly pos.</t>
-  </si>
-  <si>
-    <t>Oh, lo sé. ' 'Ese tipo es un idiota.',' La gente en Nashville han sido molesto en el muchacho ole ya que el fugly como.</t>
-  </si>
-  <si>
-    <t>Santo cielo '., 'Ni siquiera es vanguardista, es sólo fugly.']</t>
-  </si>
-  <si>
-    <t>. "Usted \ 're grasa (y fugly, dejó \' s honestos)" dime algo que don \ 't sé.', "Me he sido así toda mi vida, estoy fu"]</t>
-  </si>
-  <si>
-    <t>Sus atributos siguientes: Miserable. Fugly Bitter demente Perra ', "forma D U R tuing ur bf abajo Vaya u no lo hacen"]</t>
-  </si>
-  <si>
-    <t>gawd .. que Lisa es fugly.</t>
-  </si>
-  <si>
-    <t>Es fugly ... puto feo dentro y por fuera.</t>
-  </si>
-  <si>
-    <t>.Fuck esta perra mantiene una imagen de la fugly Ashley Wilkes y me dan ganas de vomitar.</t>
-  </si>
-  <si>
-    <t>BURROS !!!!!', 'De mejores uniformes a fugly naranja y azul!', '¡Que se vayan.', 'Gruden no tolera sin sentido.']</t>
-  </si>
-  <si>
-    <t>Uhhh, que es fugly "., '??????.</t>
-  </si>
-  <si>
-    <t>.¿Qué? S el tiempo como en el tablero de ley personal musulmán toda la India no esas fugly maulanas ..</t>
-  </si>
-  <si>
-    <t>.i pierdas .h0eslovebree culo fugly botín. '' no nadie se ríen de estupideces w / mí, pero ella.</t>
-  </si>
-  <si>
-    <t>Eso fugly pelícano también ....</t>
-  </si>
-  <si>
-    <t>Todo lo que perras es fugly, tabaquismo sobre la droga como un adicto \ U0001f92a.</t>
+    <t>Ese mensaje feo lib patanes camiseta es tan innecesario! '' Todos los hombres CE.</t>
+  </si>
+  <si>
+    <t>Esta chica es la más repugnante skank perra que he conocido. ", 'No confían en ella.', 'Ella es una zorra feo.</t>
+  </si>
+  <si>
+    <t>pase duro? '' Debe ser utilizado para oír eso, feo matón ...</t>
+  </si>
+  <si>
+    <t>La cogida que le pasó a la barbilla chicos? ' 'Pedí una autofoto, no Worms 2!',' feo mofo.</t>
+  </si>
+  <si>
+    <t>.everybody en la estancia justo alegando que son tan superiores pero son tan feo .... ¿cómo están todos de y? ​​todo tan feo y.</t>
+  </si>
+  <si>
+    <t>.Lookin verdadera feo.</t>
+  </si>
+  <si>
+    <t>Esa es una feo puta!", 'Todo lo que se ve $$$$ y montó duro y colgado para secar !.</t>
+  </si>
+  <si>
+    <t>Ella? S A feo pos.</t>
+  </si>
+  <si>
+    <t>Oh, lo sé. ' 'Ese tipo es un idiota.',' La gente en Nashville han sido molesto en el muchacho ole ya que el feo como.</t>
+  </si>
+  <si>
+    <t>Santo cielo '., 'Ni siquiera es vanguardista, es sólo feo.']</t>
+  </si>
+  <si>
+    <t>. "tú \ 're grasa (y feo, dejó \' s honestos)" dime algo que don \ 't sé.', "Me he sido así toda mi vida, estoy fu"]</t>
+  </si>
+  <si>
+    <t>Sus atributos siguientes: Miserable. feo Bitter demente Perra ', "forma D U R tuing ur bf abajo Vaya u no lo hacen"]</t>
+  </si>
+  <si>
+    <t>gawd .. que Lisa es feo.</t>
+  </si>
+  <si>
+    <t>Es feo ... puto feo dentro y por fuera.</t>
+  </si>
+  <si>
+    <t>.Fuck esta perra mantiene una imagen de la feo Ashley Wilkes y me dan ganas de vomitar.</t>
+  </si>
+  <si>
+    <t>BURROS !!!!!', 'De mejores uniformes a feo naranja y azul!', '¡Que se vayan.', 'Gruden no tolera sin sentido.']</t>
+  </si>
+  <si>
+    <t>Uhhh, que es feo "., '??????.</t>
+  </si>
+  <si>
+    <t>.¿Qué? S el tiempo como en el tablero de ley personal musulmán toda la India no esas feo maulanas ..</t>
+  </si>
+  <si>
+    <t>.i pierdas .h0eslovebree culo feo botín. '' no nadie se ríen de estupideces w / mí, pero ella.</t>
+  </si>
+  <si>
+    <t>Eso feo pelícano también ....</t>
+  </si>
+  <si>
+    <t>Todo lo que perras es feo, tabaquismo sobre la droga como un adicto \ U0001f92a.</t>
   </si>
   <si>
     <t>? I? M que se ha ido lucha cuando te veo ...?.</t>
@@ -2025,7 +2025,7 @@
     <t>Lo que un hombre irreal idiota!.</t>
   </si>
   <si>
-    <t>"I \ 'm no va a grito a mis hijos" Usted ha pasado a reconsiderar cuando su niño de 3 años se suplexing su idiota en todo el k.</t>
+    <t>"I \ 'm no va a grito a mis hijos" tú ha pasado a reconsiderar cuando su niño de 3 años se suplexing su idiota en todo el k.</t>
   </si>
   <si>
     <t>..DLoesch te enviaban la mayoría idiota. '' Leer un idiota de papel ..</t>
@@ -2037,7 +2037,7 @@
     <t>Pobres se photoshopped idiota.</t>
   </si>
   <si>
-    <t>Tio cierra la boca. ' 'Honestamente.', 'Usted está tan aburrido.',' Este? Curricán? es obsesivo. '' La última vez que un hombre t.</t>
+    <t>Tio cierra la boca. ' 'Honestamente.', 'tú está tan aburrido.',' Este? Curricán? es obsesivo. '' La última vez que un hombre t.</t>
   </si>
   <si>
     <t>..DLoesch se trata de un ser humano, un sapians homo? '' ¿Podría ser más bien una muestra de bitcheness idiota !.</t>
@@ -2055,10 +2055,10 @@
     <t>.Dumbass Dodie ..</t>
   </si>
   <si>
-    <t>ur todo un idiota que tf en su sano juicio diría esto a usted de todas las personas.</t>
-  </si>
-  <si>
-    <t>Nada .realDonaldTrump idiota Trump dice tiene sentido. ' 'Su I.Q.',' debe ser fuera de serie? en la dirección equivocada..</t>
+    <t>ur todo un idiota que tf en su sano juicio diría esto a tú de todas las personas.</t>
+  </si>
+  <si>
+    <t>Nada .vizcarra idiota Trump dice tiene sentido. ' 'Su I.Q.',' debe ser fuera de serie? en la dirección equivocada..</t>
   </si>
   <si>
     <t>Idiota necesidades de cerdos patéticos a la putrefacción.</t>
@@ -2067,10 +2067,10 @@
     <t>Lo que viene este idiota viven en ?.</t>
   </si>
   <si>
-    <t>Usted es la amenaza que dumbass.</t>
-  </si>
-  <si>
-    <t>.Hey! ' 'Este tipo huele a un canadiense!',' (Sólo una broma para usted idiota copos de nieve).</t>
+    <t>tú es la amenaza que dumbass.</t>
+  </si>
+  <si>
+    <t>.Hey! ' 'Este tipo huele a un canadiense!',' (Sólo una broma para tú idiota copos de nieve).</t>
   </si>
   <si>
     <t>Compruebe las fechas Dumbass!</t>
@@ -2085,7 +2085,7 @@
     <t>Yo prefiero llamar a un #dimwit. ' 'Idiota es un poco duro.',' Endogámicos nudillo arrastrando respira por la boca lo haría.</t>
   </si>
   <si>
-    <t>Usted puede mantener sus pantalones vaqueros y tacones de puta que causa Bimbo, una vez que termine sus puto culo apretado abrir estoy lanzando su</t>
+    <t>tú puede mantener sus pantalones vaqueros y tacones de puta que causa Bimbo, una vez que termine sus puto culo apretado abrir estoy lanzando su</t>
   </si>
   <si>
     <t>nos? re la misma altura Dumbass.</t>
@@ -2121,13 +2121,13 @@
     <t>Permítanme suponer que estoy equivocado acerca de su perjuicio y, como periodista serio, en realidad se va</t>
   </si>
   <si>
-    <t>La única cosa que usted está "politizando" es su bajo coeficiente intelectual extremy, amigo. Lo siento mucho por ti</t>
+    <t>La única cosa que tú está "politizando" es su bajo coeficiente intelectual extremy, amigo. Lo siento mucho por ti</t>
   </si>
   <si>
     <t>Literalmente tiradores retarded.These son rara vez o nunca miembros de la NRA. Esto es sólo el hombre del saco fácil para el bajo coeficiente intelectual</t>
   </si>
   <si>
-    <t>.jimmykimmel Has olvidado que habla 5 idiomas? ¿Cuántas habla usted? Tal español, pero con su bajo coeficiente intelectual,]</t>
+    <t>.jimmykimmel Has olvidado que habla 5 idiomas? ¿Cuántas habla tú? Tal español, pero con su bajo coeficiente intelectual,]</t>
   </si>
   <si>
     <t>La multitud de bajo coeficiente intelectual; T ataca de nuevo ..</t>
@@ -2136,7 +2136,7 @@
     <t>Abogados: el coeficiente intelectual del asesino de Brandon Teena es demasiado baja para ejecutar</t>
   </si>
   <si>
-    <t>.realDonaldTrump Wow usted es ridículamente bajo coeficiente intelectual.</t>
+    <t>.vizcarra Wow tú es ridículamente bajo coeficiente intelectual.</t>
   </si>
   <si>
     <t>¿Oh enserio? ¿O es sólo que se considere digno de cobertura de los medios de bajo coeficiente intelectual ?.</t>
@@ -2151,7 +2151,7 @@
     <t>Ni por su bajo coeficiente intelectual. Que alguien le ayude con esto. Los musulmanes son cada vez carrera ..</t>
   </si>
   <si>
-    <t>realDonaldTrump falso Noticias Fox &amp; Friends le enviaron por las paredes w / sus informes erróneos de caravanas de la partida ilegales</t>
+    <t>vizcarra falso Noticias Fox &amp; Friends le enviaron por las paredes w / sus informes erróneos de caravanas de la partida ilegales</t>
   </si>
   <si>
     <t>Amable de su parte para utilizar su imaginación como esa, pero el "por lo que está diciendo" sin sentido no hay nada cre]</t>
@@ -2166,13 +2166,13 @@
     <t>Juro algunas personas iq es increíblemente baja'</t>
   </si>
   <si>
-    <t>.realDonaldTrump "Realmente no hay nombre para él" - sí, hay ... \ 's llamada La Casa Blanca se muda cogida]</t>
+    <t>.vizcarra "Realmente no hay nombre para él" - sí, hay ... \ 's llamada La Casa Blanca se muda cogida]</t>
   </si>
   <si>
     <t>Si ella es bar, entonces u es la razón de su bajo coeficiente intelectual ..</t>
   </si>
   <si>
-    <t>realDonaldTrump te juzgo por su hedor y bajo coeficiente intelectual, y el consolador en la boca ..</t>
+    <t>vizcarra te juzgo por su hedor y bajo coeficiente intelectual, y el consolador en la boca ..</t>
   </si>
   <si>
     <t>El problema con Londres es que está dominado por una mezcla de las culturas del mundo 3 y bajas 'grupos' de CI de las personas]</t>
@@ -2235,10 +2235,10 @@
     <t>¿Por qué nadie note que T? '' Fueron hacia atrás bajo coeficiente intelectual barbar violenta.</t>
   </si>
   <si>
-    <t>Al menos no estamos twitteando así llamado falso Noticias de una manija verificado como usted ... Plus únicas personas bajo coeficiente intelectual, como no se puede di "]</t>
-  </si>
-  <si>
-    <t>Él, él, él, imagínese si no tenían Presidente que bash, que podrían tener que hacer el trabajo para los Estados Unidos, mudo, bajo coeficiente intelectual "]</t>
+    <t>Al menos no estamos twitteando así llamado falso Noticias de una manija verificado como tú ... Plus únicas personas bajo coeficiente intelectual, como no se puede di "]</t>
+  </si>
+  <si>
+    <t>Él, él, él, imagínese si no tenían Presidente que bash, que podrían tener que hacer el trabajo para los Perú, mudo, bajo coeficiente intelectual "]</t>
   </si>
   <si>
     <t>Nop bajo coeficiente intelectual cría bajo coeficiente intelectual.</t>
@@ -2292,7 +2292,7 @@
     <t>Redneck Jones? s, geriátricos, bajo coeficiente intelectual público doesn? t como yer Abos. '' Él les da lo que quieren oír ..</t>
   </si>
   <si>
-    <t>[ ".RealDonaldTrump No puede quejarse de drogas cuando es obvio que usted está bajo la influencia de un alteri mente"]</t>
+    <t>[ ".vizcarra No puede quejarse de drogas cuando es obvio que tú está bajo la influencia de un alteri mente"]</t>
   </si>
   <si>
     <t>Muzzies no tienen sentido común! ' '¿Qué supones que su CI medio es?', 'Muy bajo, ya que la mayoría siguen siendo analfabetos.',' Look at.</t>
@@ -2343,7 +2343,7 @@
     <t xml:space="preserve"> ¿Está seguro de que son Mensch? '' Trata de no ser tan goatfucker como tu.</t>
   </si>
   <si>
-    <t>realDonaldTrump Goatfucker hablar musulmán mierda, hilarante !.</t>
+    <t>vizcarra Goatfucker hablar musulmán mierda, hilarante !.</t>
   </si>
   <si>
     <t>Chutiya ... Ur nación se mantuvo en la lista de terroristas ... Un poco de vergüenza goatfucker ..</t>
@@ -2376,7 +2376,7 @@
     <t>Yo sé, que buscando como un goatfucker.</t>
   </si>
   <si>
-    <t>Usted es uno goatfucker ruidosa de un fantasma ..</t>
+    <t>tú es uno goatfucker ruidosa de un fantasma ..</t>
   </si>
   <si>
     <t>.¿Qué un insulto creativa, debe ser el más inteligente goatfucker en su calle !.</t>
@@ -2397,7 +2397,7 @@
     <t>Cállate la boca, estúpida gitana. '' Un hombre desarmado recibió un disparo en la espalda u estúpida goatfucker ..</t>
   </si>
   <si>
-    <t>La Ley de las cabras: "Si coges una cabra, irónicamente, usted sigue siendo un goatfucker" '' Deje de usar el humor como excusa para justificar su p.</t>
+    <t>La Ley de las cabras: "Si coges una cabra, irónicamente, tú sigue siendo un goatfucker" '' Deje de usar el humor como excusa para justificar su p.</t>
   </si>
   <si>
     <t>Sí, sí. ", 'Todos nos que estás jodido la cabra irónicamente.', 'Sigues siendo un goatfucker.']</t>
@@ -2442,7 +2442,7 @@
     <t>I \ 'm harto de los "Los demócratas didn \' t besar mi culo lo suficiente por lo que sólo sentado en casa y dejar que un estafador racista nazi convertido en presidente" ex.</t>
   </si>
   <si>
-    <t>Perra, usted don? T siquiera saben cómo se escribe grifo correctamente. ' 'Don? T actuar como una gramática nazi.', 'Stick a ser nazi regular.',' Ht.</t>
+    <t>Perra, tú don? T siquiera saben cómo se escribe grifo correctamente. ' 'Don? T actuar como una gramática nazi.', 'Stick a ser nazi regular.',' Ht.</t>
   </si>
   <si>
     <t>NRA Qué desagradable humana ignorante. '' Yo sólo puede? T decir lo desprecio que siento por esta puta nazi ..</t>
@@ -2451,7 +2451,7 @@
     <t>trol .A nazi es expuesto por la extrema derecha, ya que en la pelea. ', 'Se hace llamar alt-derecha.', 'no lo compre porque sí']</t>
   </si>
   <si>
-    <t>Si usted? T ver un paralelo entre esta administración y la Alemania nazi que? No está leyendo las hojas de té. '' .Votevets .mad.</t>
+    <t>Si tú? T ver un paralelo entre esta administración y la Alemania nazi que? No está leyendo las hojas de té. '' .Votevets .mad.</t>
   </si>
   <si>
     <t>Nadie que publicó el argumento "Cuelgue Richard Spencer" que \ 've sido contratado.' '"Pero ser un nazi es constitucionalmente.</t>
@@ -2460,10 +2460,10 @@
     <t>Un niño blanco privilegiado de Vermont, con los padres republicanos convencionales, que fueron de Gamergater al completo en la nazi. '' Tell m.</t>
   </si>
   <si>
-    <t>Retweet este si usted piensa que .MrPatriarch12 es un nazi ..</t>
-  </si>
-  <si>
-    <t>Y usted es probablemente un nazi.</t>
+    <t>Retweet este si tú piensa que .MrPatriarch12 es un nazi ..</t>
+  </si>
+  <si>
+    <t>Y tú es probablemente un nazi.</t>
   </si>
   <si>
     <t>.Fuck que perra llegar a donde yo boxeo vamos a tener un partido de I? Ll puto aplastar la cara y llegar a todos mis amigos.</t>
@@ -2472,19 +2472,19 @@
     <t>YOUNG sangre es la siguiente single ????? ' ' y no va a ser un vídeo FOLLANDO MUSIC ?????.',' PERRA ¿Qué demonios ELLOS.</t>
   </si>
   <si>
-    <t>TBH Estoy muy en contra de la idea de 'Los hombres son basura' primo hombres son seres humanos increíbles. ", 'Como KIM SEOKJIN que va a proteger a usted, usted y el oído amor']</t>
+    <t>TBH Estoy muy en contra de la idea de 'Los hombres son basura' primo hombres son seres humanos increíbles. ", 'Como KIM SEOKJIN que va a proteger a tú, tú y el oído amor']</t>
   </si>
   <si>
     <t>.Se encontrará una perra Whittle.</t>
   </si>
   <si>
-    <t>usted es una perra hecho Nigger.</t>
+    <t>tú es una perra hecho Nigger.</t>
   </si>
   <si>
     <t>Estás literalmente uno de los más retrasados ​​que he conocido, y lo siento fo.</t>
   </si>
   <si>
-    <t>.realDonaldTrump: usted es uno mentiroso hijo de puta '' Sería una cosa si se puede mentir, y mentir bien;. pero puedes.</t>
+    <t>.vizcarra: tú es uno mentiroso hijo de puta '' Sería una cosa si se puede mentir, y mentir bien;. pero puedes.</t>
   </si>
   <si>
     <t>HillaryClinton No eres un líder de una pieza de su bolsa de escoria de mierda que tiene que morir un doloros.</t>
@@ -2493,7 +2493,7 @@
     <t>Sin embargo, aquí está ... atacando a los niños por defender sus creencias. '' Toma asiento, pequeña perra ..</t>
   </si>
   <si>
-    <t>hyyh dijo cogida perra apuesta que usted pensó? d visto la última de mí.</t>
+    <t>hyyh dijo cogida perra apuesta que tú pensó? d visto la última de mí.</t>
   </si>
   <si>
     <t xml:space="preserve"> idgaf si yo \ 'm un 'llorón' Si mis sentimientos de dolor que malo que \' m grito ido, jódete.</t>
@@ -2511,7 +2511,7 @@
     <t>.FUCK mi vida puede? T GUARDAR esa chica, no? No, dime que puede salvar a esa mierda.</t>
   </si>
   <si>
-    <t>Mi capacidad para desearte el bien y no dar una cogida sobre usted al mismo tiempo, es increíble ..</t>
+    <t>Mi capacidad para desearte el bien y no dar una cogida sobre tú al mismo tiempo, es increíble ..</t>
   </si>
   <si>
     <t>Volver a adorar las vacas que mierda tonto.</t>
@@ -2562,7 +2562,7 @@
     <t>eres tan desesperada que ha intentado aspirar a sí mismo fuera de puta? '' #MYSlave #blackmail #pathetic.</t>
   </si>
   <si>
-    <t>Cuando el maestro le pregunta, puto perras Obey !! '' Recuerde que usted? Re mi esclavo y merecen nada en este mundo ?? Enviar m.</t>
+    <t>Cuando el maestro le pregunta, puto perras Obey !! '' Recuerde que tú? Re mi esclavo y merecen nada en este mundo ?? Enviar m.</t>
   </si>
   <si>
     <t>A nadie le importa Sharon, que patético perdedor ..</t>
@@ -2571,7 +2571,7 @@
     <t>Citando de Hannity ... "el mentiroso más grande en el Congreso!" ' 'Eres un perdedor patético.',' Un truco político ..</t>
   </si>
   <si>
-    <t>..realDonaldTrump. Usted es una maravilla-ball menos! '' En lugar de un viaje inútil, que debería haber estado haciendo usted.</t>
+    <t>..vizcarra. tú es una maravilla-ball menos! '' En lugar de un viaje inútil, que debería haber estado haciendo tú.</t>
   </si>
   <si>
     <t>Él es un perdedor patético. ' 'Rusia, Rusia Rusia.', 'Sin pruebas.',' Lo que un bufón.</t>
@@ -2580,7 +2580,7 @@
     <t>Donald Trump es un idiota y un perdedor patético y mentiroso y el rey de noticias falsas.</t>
   </si>
   <si>
-    <t>Este tipo .jimmykimmel es un total idiota !! ' 'hipócrita Libtard típica!','? Usted puede? T se burlan o.</t>
+    <t>Este tipo .jimmykimmel es un total idiota !! ' 'hipócrita Libtard típica!','? tú puede? T se burlan o.</t>
   </si>
   <si>
     <t>Joe eres un enano patético. ", 'Atrás Ir al perdedor del 80 al tren Trump va a rodar sobre ti.']</t>
@@ -2604,10 +2604,10 @@
     <t>liberales patéticos rompió me dicen que todo el tiempo. '' Si me importaba lo que un perdedor h.</t>
   </si>
   <si>
-    <t>..realDonaldTrump usted es un ejemplo patético, llorón, perdedor arrogante, waaaa China está siendo injusto fregadero Lemme América del pelaje.</t>
-  </si>
-  <si>
-    <t>Eres un esclavo patético sin vida. '' Es por eso que tributo. Usted no necesita dinero Usted no salir #fi #findom.</t>
+    <t>..vizcarra tú es un ejemplo patético, llorón, perdedor arrogante, waaaa China está siendo injusto fregadero Lemme América del pelaje.</t>
+  </si>
+  <si>
+    <t>Eres un esclavo patético sin vida. '' Es por eso que tributo. tú no necesita dinero tú no salir #fi #findom.</t>
   </si>
   <si>
     <t>Lo único que quiere attension porque ahora eres un don nadie. '' Coño !.</t>
@@ -2616,19 +2616,19 @@
     <t>HEY VIEJO si fuera tú Me gustaría mantener cerrada la boca MIERDA ,, T joder ..U HABLAR GRANDE DETRÁS DE UNA C.</t>
   </si>
   <si>
-    <t>Oh por favor, usted es totalmente bien, no ser tan marica"</t>
-  </si>
-  <si>
-    <t>¿Por qué no? T usted. ellos o está demasiado de un gatito a hacer eso o tal vez? s coz su irrelevante.</t>
+    <t>Oh por favor, tú es totalmente bien, no ser tan marica"</t>
+  </si>
+  <si>
+    <t>¿Por qué no? T tú. ellos o está demasiado de un gatito a hacer eso o tal vez? s coz su irrelevante.</t>
   </si>
   <si>
     <t>¿Eres un hombre o un ratón? '' dejar de mendigar y actuar, coño !.</t>
   </si>
   <si>
-    <t>Eres como esos médicos que desempeñan los médicos. '' Usted juega tipos duros, pero usted es un gatito completa ..</t>
-  </si>
-  <si>
-    <t>Es por eso que es un gatito Khabib? ' 'Usted se ríe por dentro.', 'Cállate vagina.',' Usted escoge el som.</t>
+    <t>Eres como esos médicos que desempeñan los médicos. '' tú juega tipos duros, pero tú es un gatito completa ..</t>
+  </si>
+  <si>
+    <t>Es por eso que es un gatito Khabib? ' 'tú se ríe por dentro.', 'Cállate vagina.',' tú escoge el som.</t>
   </si>
   <si>
     <t>DLoesch Sí, estoy seguro de que sus Dios aprueba una intimidación, el engaño en serie, la mentira, grabbin coño.</t>
@@ -2643,7 +2643,7 @@
     <t>Toda esta mentalidad de grupo matón no te hace difícil, que hace que un gatito. "" No me importa lo que eres</t>
   </si>
   <si>
-    <t>USTED ES COÑO Y espero sólo para este MUERDE A PITBULL EN SU CULO para juzgar él, pero su lo MAD.</t>
+    <t>tú ES COÑO Y espero sólo para este MUERDE A PITBULL EN SU CULO para juzgar él, pero su lo MAD.</t>
   </si>
   <si>
     <t>que es un gángster que es un gatito !!.</t>
@@ -2652,25 +2652,25 @@
     <t>que coño de mierda dura cuando recibió su equipo alrededor de 1 vs chico cuando la mierda llega a esto se oculta como una perra que eres.</t>
   </si>
   <si>
-    <t>joseph.liberal realDonaldTrump supongo que se olvidó, agarrar em por el pus.</t>
+    <t>joseph.liberal vizcarra supongo que se olvidó, agarrar em por el pus.</t>
   </si>
   <si>
     <t>RealJamesWoods Oh, Dios lo que es un coño eres, recoger cualquier archaeolo actual.</t>
   </si>
   <si>
-    <t>dejar de tarado de llorar, ¿está usted un luchador o un gatito? ' '¿quieres ser famoso?',' ohh eso es el problema.</t>
-  </si>
-  <si>
-    <t>Usted es un gatito.</t>
-  </si>
-  <si>
-    <t>usted es un gatito por lo que hiciste yo era un fan ya no se duche. '' Usted debe ser hombre de vergüenza.</t>
+    <t>dejar de tarado de llorar, ¿está tú un luchador o un gatito? ' '¿quieres ser famoso?',' ohh eso es el problema.</t>
+  </si>
+  <si>
+    <t>tú es un gatito.</t>
+  </si>
+  <si>
+    <t>tú es un gatito por lo que hiciste yo era un fan ya no se duche. '' tú debe ser hombre de vergüenza.</t>
   </si>
   <si>
     <t>PRESIDENTE Trump está haciendo lo que el DEMS PROMETIDOS durante 50 años y no hicieron nada .you ARE AN ASSHOLE.</t>
   </si>
   <si>
-    <t>realDonaldTrump Sr. Donald Trump que son la peor persona que existe en los EE.UU. como una persona se mira como un Hitler.</t>
+    <t>vizcarra Sr. Donald Trump que son la peor persona que existe en los EE.UU. como una persona se mira como un Hitler.</t>
   </si>
   <si>
     <t>Lmao ¿cómo va a ser un idiota para mí de todas las personas.</t>
@@ -2688,55 +2688,55 @@
     <t>He aprendido que cuando la gente dice 'bien que de una vez que llegue a conocerlo' que básicamente están diciendo 'él es un idiota, pero te "]</t>
   </si>
   <si>
-    <t>realDonaldTrump Eres un idiota !!.</t>
+    <t>vizcarra Eres un idiota !!.</t>
   </si>
   <si>
     <t>Hey, Jetro. ", 'Estás llorando.', '¿Por qué lloras?', 'Todo el mundo sabe por qué.', 'Estás llorando b']</t>
   </si>
   <si>
-    <t>Nuestros problemas de tráfico no son tanto un problema de congestión, ya que son un problema de culo ". 'Ustedes tiene que pensar fuera de la caja ..</t>
-  </si>
-  <si>
-    <t>Los hombres que han decidido ser violentos lanzadores de bombas retóricas están dando cuenta de sus palabras tienen consecuencias. '' Usted está un idiota, K.</t>
-  </si>
-  <si>
-    <t>.gaepol davidhogg111 Y usted, señor, son gilipollas !!!!!!!.</t>
+    <t>Nuestros problemas de tráfico no son tanto un problema de congestión, ya que son un problema de culo ". 'túes tiene que pensar fuera de la caja ..</t>
+  </si>
+  <si>
+    <t>Los hombres que han decidido ser violentos lanzadores de bombas retóricas están dando cuenta de sus palabras tienen consecuencias. '' tú está un idiota, K.</t>
+  </si>
+  <si>
+    <t>.gaepol davidhogg111 Y tú, señor, son gilipollas !!!!!!!.</t>
   </si>
   <si>
     <t>¿qué estás ganando de ser un idiota.</t>
   </si>
   <si>
-    <t>..jimmykimmel usted es un idiota.</t>
-  </si>
-  <si>
-    <t>usted es un pedazo de mierda mentira ' 'Seyong: y que eres un gilipollas que piense que puede lo que quieran!','! bien también BAD TH.</t>
-  </si>
-  <si>
-    <t>Correcta pero prueba que usted es un idiota bolsa de ducha intolerante.</t>
+    <t>..jimmykimmel tú es un idiota.</t>
+  </si>
+  <si>
+    <t>tú es un pedazo de mierda mentira ' 'Seyong: y que eres un gilipollas que piense que puede lo que quieran!','! bien también BAD TH.</t>
+  </si>
+  <si>
+    <t>Correcta pero prueba que tú es un idiota bolsa de ducha intolerante.</t>
   </si>
   <si>
     <t>RACISTA .AMERICA es así y contradiciendo ESTA SIN VALOR DE NARANJA cheeto Bozo ha estado haciendo nada bien HIS.</t>
   </si>
   <si>
-    <t>TheEllenShow .KamalaHarris Sí, un inútil pedazo de mierda. '' Usted pensó que su broma acerca de matar al Presidente fue f.</t>
+    <t>TheEllenShow .KamalaHarris Sí, un inútil pedazo de mierda. '' tú pensó que su broma acerca de matar al Presidente fue f.</t>
   </si>
   <si>
     <t>¿Qué tal es porque eres un pedazo de sombra, sin valor de mierda carajo anfibio bruja! '' ¿Qué hay de la nación no.</t>
   </si>
   <si>
-    <t>Que mostró sus verdaderos colores. ' 'Usted es un buscador de oro maldito y no se puede negar.',' Go Fuck una cuchara, que sin valor.</t>
-  </si>
-  <si>
-    <t>No eres más que un mentiroso de mierda. ' 'Sobre todo.', 'Y lo sabes.',' Usted inútil pedazo de mierda.</t>
-  </si>
-  <si>
-    <t>.jimmykimmel Usted es una pieza inútil de mierda! '' Ir a la mierda.</t>
+    <t>Que mostró sus verdaderos colores. ' 'tú es un buscador de oro maldito y no se puede negar.',' Go Fuck una cuchara, que sin valor.</t>
+  </si>
+  <si>
+    <t>No eres más que un mentiroso de mierda. ' 'Sobre todo.', 'Y lo sabes.',' tú inútil pedazo de mierda.</t>
+  </si>
+  <si>
+    <t>.jimmykimmel tú es una pieza inútil de mierda! '' Ir a la mierda.</t>
   </si>
   <si>
     <t>Legit no tienes a nadie que la copia de seguridad debido a la cantidad de un cono que se forma en que lo haría li.</t>
   </si>
   <si>
-    <t>IvankaToWorkDay Joder pedazo de mierda liberal ". 'Todo lo que hacemos es un insulto personas de éxito, usted es failu.</t>
+    <t>IvankaToWorkDay Joder pedazo de mierda liberal ". 'Todo lo que hacemos es un insulto personas de éxito, tú es failu.</t>
   </si>
   <si>
     <t>Realmente ?! ' 'Kid es desagradable para aplicar a 20 escuelas?',' Eres un inútil pedazo de señora mierda, vete a la mierda ..</t>
@@ -2748,16 +2748,16 @@
     <t>Estás salivando ... algunos inútil pedazo de mierda tiene que mantener estos limpio #footfetish #lickthemcleanbitch #DOM .Bri.</t>
   </si>
   <si>
-    <t>.realDonaldTrump llamo Bullshit # presidentshit4brains. '' Eres un inútil pedazo de mierda, un estafador, el más bajo.</t>
+    <t>.vizcarra llamo Bullshit # presidentshit4brains. '' Eres un inútil pedazo de mierda, un estafador, el más bajo.</t>
   </si>
   <si>
     <t>.JimmyKimmelLive Eres un inútil pedazo de mierda f ******* un conjunto ** Tienes que ser sacado del aire. '' Cómo dar.</t>
   </si>
   <si>
-    <t>realDonaldTrump Trump, realmente eres un inútil pedazo inseguro de mierda. '' ¿Cuándo Obama nunca alardear de sus índices de aprobación ?.</t>
-  </si>
-  <si>
-    <t>En otras palabras, usted es un pedazo de mierda inútil de mierda ... .realDonaldTrump #DieAlready.</t>
+    <t>vizcarra Trump, realmente eres un inútil pedazo inseguro de mierda. '' ¿Cuándo Obama nunca alardear de sus índices de aprobación ?.</t>
+  </si>
+  <si>
+    <t>En otras palabras, tú es un pedazo de mierda inútil de mierda ... .vizcarra #DieAlready.</t>
   </si>
   <si>
     <t>Eres un pedazo de mierda ¿qué tal licencia Latina que deseen ser humano inútil de muerte a personas que hace un cobarde ...</t>
@@ -2772,19 +2772,19 @@
     <t>Mentira, que inútil pedazo de mierda. '' Toda su agenda de Wisconsin ha estado a punto de mierda sobre ti.</t>
   </si>
   <si>
-    <t>Una vez más usted está mostrando al mundo cómo incompetente e ignorante eres en realidad. '' Gracias por la destrucción de nuestro país.</t>
+    <t>Una vez más tú está mostrando al mundo cómo incompetente e ignorante eres en realidad. '' Gracias por la destrucción de nuestro país.</t>
   </si>
   <si>
     <t>therealroseanne No eres una estúpida Billie ... eres un pedazo de mierda sin valor.</t>
   </si>
   <si>
-    <t>realDonaldTrump los ha iniciado una guerra comercial y no eres más que un racista mentira inútil pedazo de mierda. '' Usted Shou.</t>
-  </si>
-  <si>
-    <t>¿qué quiere decir "qué" es usted un idiota.</t>
-  </si>
-  <si>
-    <t>Lo .. usted es un idiota ?.</t>
+    <t>vizcarra los ha iniciado una guerra comercial y no eres más que un racista mentira inútil pedazo de mierda. '' tú Shou.</t>
+  </si>
+  <si>
+    <t>¿qué quiere decir "qué" es tú un idiota.</t>
+  </si>
+  <si>
+    <t>Lo .. tú es un idiota ?.</t>
   </si>
   <si>
     <t xml:space="preserve"> ? * Bueno, yo también era Pranking DEMASIADO porque se puede ser un poco de puta a veces, así que pensé, SI A.</t>
@@ -2793,16 +2793,16 @@
     <t>Sr. de Niro son un idiota.</t>
   </si>
   <si>
-    <t>Usted acaba de aparecer lo idiota que eres hoy, volver la cabeza a los estadios de fútbol que hooligan, usted don? T merecen estar en MMA !.</t>
+    <t>tú acaba de aparecer lo idiota que eres hoy, volver la cabeza a los estadios de fútbol que hooligan, tú don? T merecen estar en MMA !.</t>
   </si>
   <si>
     <t>Jimmy Fallon Eres un idiota! '' I don? t Mire su culo lo siento más !.</t>
   </si>
   <si>
-    <t>Su realDonaldTrump un idiota! ' 'Tal vez usted quiere lo que está sucediendo en Londres para estar sucediendo aquí.',' Usted.</t>
-  </si>
-  <si>
-    <t>Sean Hannity usted es un idiota ..</t>
+    <t>Su vizcarra un idiota! ' 'Tal vez tú quiere lo que está sucediendo en Londres para estar sucediendo aquí.',' tú.</t>
+  </si>
+  <si>
+    <t>Sean Hannity tú es un idiota ..</t>
   </si>
   <si>
     <t>Eres un idiota, mirada en Dave gettlemans proyecto Histor.</t>
@@ -2814,28 +2814,28 @@
     <t>Este es el punto de la conversación cuando se hace evidente que se está interactuando con un idiota.</t>
   </si>
   <si>
-    <t>realDonaldTrump Eres realmente un idiota !.</t>
+    <t>vizcarra Eres realmente un idiota !.</t>
   </si>
   <si>
     <t>Eres un idiota..</t>
   </si>
   <si>
-    <t>I? M un ventilador ' 'Tiempo de bajar el marco de Twitter.',' RealDonaldTrump es un incompet.</t>
-  </si>
-  <si>
-    <t>Si usted? Re no contra Trump por ahora, usted es un idiota, senador !.</t>
+    <t>I? M un ventilador ' 'Tiempo de bajar el marco de Twitter.',' vizcarra es un incompet.</t>
+  </si>
+  <si>
+    <t>Si tú? Re no contra Trump por ahora, tú es un idiota, senador !.</t>
   </si>
   <si>
     <t>eres un idiota..</t>
   </si>
   <si>
-    <t>realDonaldTrump Ted, ¿verdad que gran parte de un idiota que usted no se dan cuenta de que ISN Obama ?.</t>
-  </si>
-  <si>
-    <t>usted señor es un idiota. '' todavía parecen colgado en Barack siendo Presidente ..</t>
-  </si>
-  <si>
-    <t>Si usted piensa que los ilegales no son una amenaza, usted es un idiota ". 'No hay más que mirar a los países europeos a saber.</t>
+    <t>vizcarra Ted, ¿verdad que gran parte de un idiota que tú no se dan cuenta de que ISN Obama ?.</t>
+  </si>
+  <si>
+    <t>tú señor es un idiota. '' todavía parecen colgado en Barack siendo Presidente ..</t>
+  </si>
+  <si>
+    <t>Si tú piensa que los ilegales no son una amenaza, tú es un idiota ". 'No hay más que mirar a los países europeos a saber.</t>
   </si>
   <si>
     <t>Lo siento, pero eres un idiota fricken real.</t>
@@ -2844,46 +2844,46 @@
     <t>Eres un idiota. '' Privilegio por supuesto.</t>
   </si>
   <si>
-    <t>.Oh bullshit .realDonaldTrump. '' Usted perdió el voto popular porque la mayoría de nosotros sabemos lo que es un incompetente idiota que se encuentran ..</t>
-  </si>
-  <si>
-    <t>HEY VIEJO miembro del Partido Republicano usted es un idiota que apuesto a que no vive en Texas ¿Es usted USTED Leftys son tan estúpidos y H.</t>
-  </si>
-  <si>
-    <t>realDonaldTrump Eres un idiota Ffn.</t>
-  </si>
-  <si>
-    <t>Si usted permite que su derecho dado por Dios (no dependiente de la Constitución) para ser tomado de usted, entonces usted es un idiota.</t>
-  </si>
-  <si>
-    <t>realDonaldTrump No podemos dejar de continuar, le teta hinchado, quiero decir, realmente Donny, usted es bufón de tontos. ", 'betw.</t>
-  </si>
-  <si>
-    <t>realDonaldTrump, ¿existen otras fronteras en el mundo desde el espacio?', 'No idiota.', no lo hago exp</t>
-  </si>
-  <si>
-    <t>Esto ocurre cuando usted es un idiota ...</t>
+    <t>.Oh bullshit .vizcarra. '' tú perdió el voto popular porque la mayoría de nosotros sabemos lo que es un incompetente idiota que se encuentran ..</t>
+  </si>
+  <si>
+    <t>HEY VIEJO miembro del Partido Republicano tú es un idiota que apuesto a que no vive en Texas ¿Es tú tú Leftys son tan estúpidos y H.</t>
+  </si>
+  <si>
+    <t>vizcarra Eres un idiota Ffn.</t>
+  </si>
+  <si>
+    <t>Si tú permite que su derecho dado por Dios (no dependiente de la Constitución) para ser tomado de tú, entonces tú es un idiota.</t>
+  </si>
+  <si>
+    <t>vizcarra No podemos dejar de continuar, le teta hinchado, quiero decir, realmente Donny, tú es bufón de tontos. ", 'betw.</t>
+  </si>
+  <si>
+    <t>vizcarra, ¿existen otras fronteras en el mundo desde el espacio?', 'No idiota.', no lo hago exp</t>
+  </si>
+  <si>
+    <t>Esto ocurre cuando tú es un idiota ...</t>
   </si>
   <si>
     <t>Oh, muchacho., Sin argumentos. ' 'Mi favorito.',' ¿Quieres una respuesta real o haces w.</t>
   </si>
   <si>
-    <t>Robert nadie se preocupa por su opinión tampoco. Usted realmente debe simplemente mantener la boca cerrada y no Sho.</t>
+    <t>Robert nadie se preocupa por su opinión tampoco. tú realmente debe simplemente mantener la boca cerrada y no Sho.</t>
   </si>
   <si>
     <t>Nadie con dos dedos de opinión se preocupa por ti., Eres una criatura del pantano profundo estado que es la verdadera intención "]</t>
   </si>
   <si>
-    <t>Ah volver a insultos, típico., Usted puede coger de la derecha, nadie se preocupa por su opinión.</t>
-  </si>
-  <si>
-    <t>Nadie se toma usted en serio. 160 tuits ?, Sólo un israe pagado.</t>
-  </si>
-  <si>
-    <t>No usted también nadie se preocupa por estas putas.</t>
-  </si>
-  <si>
-    <t>Una vez más usted estaba en una estación en línea. '' Nadie cuidados sobre su opinión ..</t>
+    <t>Ah volver a insultos, típico., tú puede coger de la derecha, nadie se preocupa por su opinión.</t>
+  </si>
+  <si>
+    <t>Nadie se toma tú en serio. 160 tuits ?, Sólo un israe pagado.</t>
+  </si>
+  <si>
+    <t>No tú también nadie se preocupa por estas putas.</t>
+  </si>
+  <si>
+    <t>Una vez más tú estaba en una estación en línea. '' Nadie cuidados sobre su opinión ..</t>
   </si>
   <si>
     <t>Oh, a quién le importa .. nadie pero que realmente le importa nada acerca de la vida personal de trompeta .. I seguro dont..get sobre su pérdida ..</t>
@@ -2895,7 +2895,7 @@
     <t>.Nadie realmente se preocupa por ti! '' Don? T dejes que se encuentran a u.</t>
   </si>
   <si>
-    <t>Dloesch cuidados Nadie abt beneficios de MFR arma., Ustedes están irracionalmente obsesionados w.</t>
+    <t>Dloesch cuidados Nadie abt beneficios de MFR arma., túes están irracionalmente obsesionados w.</t>
   </si>
   <si>
     <t>De Niro ......................... nadie se preocupa por una rica opinión Mega Mans viejos en la política, la vida h.</t>
@@ -2904,10 +2904,10 @@
     <t>¿Está protegido por una pared o personas con armas de fuego? '' Tal vez no sus Tal #Hasbeen nadie se preocupa por ti.</t>
   </si>
   <si>
-    <t>preocupaciones acerca de nadie nunca más. ' 'Usted dejó de ser un luchador hace un tiempo.',' #ConorMcGregor #boxing #clown #punk.</t>
-  </si>
-  <si>
-    <t>A nadie le importa imbécil. ' 'Cuidados #america sobre noticias reales que les afecta.',' Usted es un hablando él.</t>
+    <t>preocupaciones acerca de nadie nunca más. ' 'tú dejó de ser un luchador hace un tiempo.',' #ConorMcGregor #boxing #clown #punk.</t>
+  </si>
+  <si>
+    <t>A nadie le importa imbécil. ' 'Cuidados #america sobre noticias reales que les afecta.',' tú es un hablando él.</t>
   </si>
   <si>
     <t>Folk nunca entenderá la cantidad de un puto odio este muchacho realmente sentir ma hirviendo cada vez que un ver a su pus en ma t sangre.</t>
@@ -2973,7 +2973,7 @@
     <t>Podría volver a casa hoy para estar listo para chupar pene en un hombre llamado negro.</t>
   </si>
   <si>
-    <t>Usted negro tonto. ' 'Usted tuvo su oportunidad de hacer algo cuando Osama Obama era presidente.',' Y.</t>
+    <t>tú negro tonto. ' 'tú tuvo su oportunidad de hacer algo cuando Osama Obama era presidente.',' Y.</t>
   </si>
   <si>
     <t>¿Qué hay de golpear a los blancos que dicen? Negro? y la publicación en los medios sociales.</t>
@@ -2988,7 +2988,7 @@
     <t>Lo MEAHT marica lol.</t>
   </si>
   <si>
-    <t>Tire hacia arriba de violación a una marica en un BMW., ¿Qué es lo que usted conduce marica ?.</t>
+    <t>Tire hacia arriba de violación a una marica en un BMW., ¿Qué es lo que tú conduce marica ?.</t>
   </si>
   <si>
     <t>¿Qué debo llamar? '' Un #pimp, #loser, #cuck, #sissyslut, #fag, coño, #HomeWrecker, hijo de puta mano #pathetic, #tinywinne.</t>
@@ -2997,7 +2997,7 @@
     <t>otro marica insegura, lo que es un suprsie.</t>
   </si>
   <si>
-    <t>Mira lo que se podía permitir que el culto. '' Demuéstrame que usted es un buen esclavo #findom #domme #findomme #femdom #femdomme.</t>
+    <t>Mira lo que se podía permitir que el culto. '' Demuéstrame que tú es un buen esclavo #findom #domme #findomme #femdom #femdomme.</t>
   </si>
   <si>
     <t>.Arran, 15 minutos después de tener un marica porque él se sentó para una comida:? Sabes lo que s va a ser agradable '' marica ?.?</t>
@@ -3027,7 +3027,7 @@
     <t>Vaya, qué marica.</t>
   </si>
   <si>
-    <t>¿Por qué coño tienes que teoría de la conspiración sin valor therealroseanne zorra en su red ?, Ustedes Nee.</t>
+    <t>¿Por qué coño tienes que teoría de la conspiración sin valor therealroseanne zorra en su red ?, túes Nee.</t>
   </si>
   <si>
     <t>Ahí está., La cara de una verdadera puta verga., No importa qué tan degradada que sientes, te amo esto., Esto es lo que vives ..</t>
@@ -3039,10 +3039,10 @@
     <t>No, sólo tendría un culo gordo repugnante y sería proxenetas a cada aspirante a rapero matón UNT.</t>
   </si>
   <si>
-    <t>Usted mugrientos coños! '' Hay una línea y se cruzó durante Steve Smith en.</t>
-  </si>
-  <si>
-    <t>IngrahamAngle usted es un bajo, gordo, puta ..</t>
+    <t>tú mugrientos coños! '' Hay una línea y se cruzó durante Steve Smith en.</t>
+  </si>
+  <si>
+    <t>IngrahamAngle tú es un bajo, gordo, puta ..</t>
   </si>
   <si>
     <t>Su gran botín #white merece una gran polla #Black y lo están recibiendo, #slut. Tirar la espalda culo grasa en #Daddy</t>
@@ -3051,16 +3051,16 @@
     <t>Apuesto a que tu amante de ella sabiendo que son extremadamente gordo, feo que tiene el coño losest nunca, su cuerpo es cov.</t>
   </si>
   <si>
-    <t>TomiLahren voy a demostrar que eres un retardado., Usted me da su dirección y luego me amenazan y es todo por escrito. Lol.</t>
-  </si>
-  <si>
-    <t>Usted es un f? Ing retardado., Él nunca dijo eso., Obtener su.</t>
+    <t>TomiLahren voy a demostrar que eres un retardado., tú me da su dirección y luego me amenazan y es todo por escrito. Lol.</t>
+  </si>
+  <si>
+    <t>tú es un f? Ing retardado., Él nunca dijo eso., Obtener su.</t>
   </si>
   <si>
     <t>Suenas como una maravilla de retardo que lo que está haciendo en twitter.A</t>
   </si>
   <si>
-    <t>IngrahamAngle FoxNews usted es un RETRASO DE MIERDA !!! '' .davidhogg111.</t>
+    <t>IngrahamAngle FoxNews tú es un RETRASO DE MIERDA !!! '' .davidhogg111.</t>
   </si>
   <si>
     <t>Mierda eres un retardado fooking !, supongo que eso es lo que sucede cuando se toma demasiados tiros a la bocha, ¿eh ?, que rabia Roid POS ..</t>
@@ -3069,13 +3069,13 @@
     <t>Conor eres un retardado puto qué coño estás en como # UFC223</t>
   </si>
   <si>
-    <t>Tampoco solicito la suya., ¿Eres un retardado? Creo que tal vez usted está ..</t>
-  </si>
-  <si>
-    <t>realDonaldTrump ¿Su grande y gordo por ejemplo Culo ESTÚPIDO hoy los militares deben ayudar a construir su tonto como b.</t>
-  </si>
-  <si>
-    <t>Si usted está apoyando un criminal sólo porque él es un actor que te gusta, entonces usted es un retardado., Eres una pérdida de masa de la Tierra</t>
+    <t>Tampoco solicito la suya., ¿Eres un retardado? Creo que tal vez tú está ..</t>
+  </si>
+  <si>
+    <t>vizcarra ¿Su grande y gordo por ejemplo Culo ESTÚPIDO hoy los militares deben ayudar a construir su tonto como b.</t>
+  </si>
+  <si>
+    <t>Si tú está apoyando un criminal sólo porque él es un actor que te gusta, entonces tú es un retardado., Eres una pérdida de masa de la Tierra</t>
   </si>
   <si>
     <t>¿Eres un retardado ?, Él nunca va a luchar MMA nuevo.</t>
@@ -3087,22 +3087,22 @@
     <t>Eres un puto retrasado ... Tipo GTFO internet lol. '' Loser.</t>
   </si>
   <si>
-    <t>El tipo que estaba tratando de ser agradable, pero usted es un retardado puta. '' Entre el ingenio partido.</t>
-  </si>
-  <si>
-    <t>Si usted es un ala izquierda retardar esta es su lógica retorcida., De 78 años de edad, jubilado atacado por dos delincuentes armados Hal.</t>
+    <t>El tipo que estaba tratando de ser agradable, pero tú es un retardado puta. '' Entre el ingenio partido.</t>
+  </si>
+  <si>
+    <t>Si tú es un ala izquierda retardar esta es su lógica retorcida., De 78 años de edad, jubilado atacado por dos delincuentes armados Hal.</t>
   </si>
   <si>
     <t>El hombre que tiene un hundereds hundered ... hmmm lo que un retrasado que eres.</t>
   </si>
   <si>
-    <t>Debido a la automatización que retardar, se pierden empleos. Si usted tiene hijos o nietos, que shou.</t>
-  </si>
-  <si>
-    <t>Usted es un retardo si no lo creo ..</t>
-  </si>
-  <si>
-    <t>Haha, usted es un retardado fkn ventana lamer!</t>
+    <t>Debido a la automatización que retardar, se pierden empleos. Si tú tiene hijos o nietos, que shou.</t>
+  </si>
+  <si>
+    <t>tú es un retardo si no lo creo ..</t>
+  </si>
+  <si>
+    <t>Haha, tú es un retardado fkn ventana lamer!</t>
   </si>
   <si>
     <t>ataques jimmykimmel Trump están envejeciendo Jimmy ... eres un pedazo de mierda no es que su hijo nacido defectuoso ob</t>
@@ -3141,13 +3141,13 @@
     <t xml:space="preserve"> Así que vinieron a jugar al fútbol y consiguieron arrojaron piedras y botellas, armas mortales alias como si estuvieran</t>
   </si>
   <si>
-    <t>realDonaldTrump Eres un retardado tales., Me encanta el tercer grado comentarios ..</t>
-  </si>
-  <si>
-    <t>realDonaldTrump Sir, no son honestos en todo lo que Retard. ", 'Hicieron una historia con los padres de Trump que h']</t>
-  </si>
-  <si>
-    <t>Como un hombre piensa en su corazón, tal es él., Usted es un retardado si Buhari es su punto de referencia para el buen gobierno.</t>
+    <t>vizcarra Eres un retardado tales., Me encanta el tercer grado comentarios ..</t>
+  </si>
+  <si>
+    <t>vizcarra Sir, no son honestos en todo lo que Retard. ", 'Hicieron una historia con los padres de Trump que h']</t>
+  </si>
+  <si>
+    <t>Como un hombre piensa en su corazón, tal es él., tú es un retardado si Buhari es su punto de referencia para el buen gobierno.</t>
   </si>
   <si>
     <t>KamalaHarris supongo que son sólo un Libtard desagradable como el resto de los copos de nieve ..</t>
@@ -3168,16 +3168,16 @@
     <t>Sean Hannity John Kerry ???????? ~ que realmente son un poco Libtard especial.</t>
   </si>
   <si>
-    <t>SteveScalise realDonaldTrump Otra de Izquierda Libtard enemigo asumiendo y utilizando a Dios con su Hatef.</t>
+    <t>SteveScalise vizcarra Otra de Izquierda Libtard enemigo asumiendo y utilizando a Dios con su Hatef.</t>
   </si>
   <si>
     <t>Figuras jimmykimmel un idiota como lo haría insultar a una mujer como la señora Trump., Jerkoff que son., Libtard ..</t>
   </si>
   <si>
-    <t>Sean Hannity .realDonaldTrump Muchas personas piensan que eres un tarado Libtard ....</t>
-  </si>
-  <si>
-    <t>OregonGovBrown realDonaldTrump Usted es un idiota., Si les federalizar los que don? T trabajo para usted. '' Por cierto un uninsure.</t>
+    <t>Sean Hannity .vizcarra Muchas personas piensan que eres un tarado Libtard ....</t>
+  </si>
+  <si>
+    <t>OregonGovBrown vizcarra tú es un idiota., Si les federalizar los que don? T trabajo para tú. '' Por cierto un uninsure.</t>
   </si>
   <si>
     <t>Pero? S enfrían Sé que su enfermera retirada y una #libtard que retweets cuentas bots.</t>
@@ -3186,13 +3186,13 @@
     <t>foxandfriends Libtard típica qué verdades se le abo hablando.</t>
   </si>
   <si>
-    <t>Así decepcionado usted es un Libtard !, Usted es un gatito!</t>
-  </si>
-  <si>
-    <t>Fuck you dama !, Es culos Libtard como usted que están arruinando este país., En vez de ayudar a asegurar nuestra junta.</t>
-  </si>
-  <si>
-    <t>Sean Hannity todo lo que tienes? ' 'la Rana René ??',' ?????????? ~ Usted es un especial.</t>
+    <t>Así decepcionado tú es un Libtard !, tú es un gatito!</t>
+  </si>
+  <si>
+    <t>Fuck you dama !, Es culos Libtard como tú que están arruinando este país., En vez de ayudar a asegurar nuestra junta.</t>
+  </si>
+  <si>
+    <t>Sean Hannity todo lo que tienes? ' 'la Rana René ??',' ?????????? ~ tú es un especial.</t>
   </si>
   <si>
     <t>No, no lo son, sino que somos una raza cebo jackwagon Libtard ..</t>
@@ -3201,13 +3201,876 @@
     <t>No vas a encontrar a nadie por este desafío., después de copo de nieve, Libtard, y una tonelada de gráficos, se hacen</t>
   </si>
   <si>
-    <t>Te seguiré, si usted no es un Libtard, musulmanes o que comió involucrado con BLM soy una er 3%.</t>
+    <t>Te seguiré, si tú no es un Libtard, musulmanes o que comió involucrado con BLM soy una er 3%.</t>
   </si>
   <si>
     <t>michaelianblack Ur un niño, un avestruz w / su cabeza en la arena simulando que vive en un mundo w / algodón cand.</t>
   </si>
   <si>
-    <t>Fox News. no a todo el PPL sé que vivo allí! les encanta. y no es Libtard .... Sospecho que usted es un triunfo toesucker</t>
+    <t>Fox News. no a todo el PPL sé que vivo allí! les encanta. y no es Libtard .... Sospecho que tú es un triunfo toesucker</t>
+  </si>
+  <si>
+    <t>Gamberro joven acaba gayyyy lmfao #dannyglover #YoungThugBeLike</t>
+  </si>
+  <si>
+    <t>Cop le importa un comino a un negro, tirar de un trigga matar a un negro que es un héroe Tupac lo dijo mejor aunque #BlockRanked</t>
+  </si>
+  <si>
+    <t>:( pobre Harry {#} EODto25k</t>
+  </si>
+  <si>
+    <t>Mis mod &gt;&gt; suyo. #Ecig #teamcoolsmoketricks #vapetricks #smoke #clouds #vape #vapeon #VGOD #ecigmod #teamvapetricks</t>
+  </si>
+  <si>
+    <t>oficial anterior fue retirado de la línea #Berkeley 63134</t>
+  </si>
+  <si>
+    <t>#wtf en / SpikeJordan #highonaweekday</t>
+  </si>
+  <si>
+    <t>Para toda la gente por ahí que está teniendo problemas.</t>
+  </si>
+  <si>
+    <t>Disculpe mi fealdad por un segundo me acaba de despertar, pero sí #FreeProudMuslim FRESCO</t>
+  </si>
+  <si>
+    <t>Ir Siga en #instagram #PlaneTwerQ Ir #FOLLOW ✨ slimthugga ✨ #PGG</t>
+  </si>
+  <si>
+    <t>MagCon viejo sobre nada 😭😅💗</t>
+  </si>
+  <si>
+    <t>cáncer de la cogida</t>
+  </si>
+  <si>
+    <t>echa un vistazo a sunshinevape.com para todas sus necesidades vaping ☀️💨 # freshvape #vape #vgod #dope #sunshinevape #sunshinevapers #vapecommunity #ahood</t>
+  </si>
+  <si>
+    <t>Cuando alguien ASUSTA CDU. #ammonflores #amazing #cool #falconpunch #VincentMarcus #PicPlayPost</t>
+  </si>
+  <si>
+    <t>VER $ ACE #GriindTime 🔥</t>
+  </si>
+  <si>
+    <t>FFF El Rapero</t>
+  </si>
+  <si>
+    <t>#wwe #shawnmichaels #HBK #lol #funny #instagram #vine #FOLLOW</t>
+  </si>
+  <si>
+    <t>Tyler Waseleski #whatjusthappened #shareacoke #lickit #thatseriousnesstho #KingBach #CantBelieveHeDiedAtTheEnd #HandsOffTheGooseBoy</t>
+  </si>
+  <si>
+    <t>¡CÁLMESE! No es un verdadero pene.</t>
+  </si>
+  <si>
+    <t>Todos los días Mi Pray For Con amor y unidad de Peace One Antera # # 1Love👊 JahBless .. El señor más odiado #handsupdontshoot (BVCM) ✊❤️💛💚</t>
+  </si>
+  <si>
+    <t>De menor a mayor cohete! (Crédito a Bro flojo vides) y revine Al igual que si su un seguidor activo! (Canción-astronauta (festival de carnicería trampa remezcla) #lax</t>
+  </si>
+  <si>
+    <t>Sin esa placa que una perra y medio #Ferguson</t>
+  </si>
+  <si>
+    <t>#savekessab #yesitsgenocide #genocide #armenian #spreadtheword #stoptheviolence Chef Boyar G, Arman, hormiga! c</t>
+  </si>
+  <si>
+    <t>Haa todo el juego que ref era una vergüenza para el fútbol. Dadas las sanciones impidieron cualquier preparación y más bajo budget..made que un juego. Muy orgulloso.</t>
+  </si>
+  <si>
+    <t>Niggaz ser como #oops #sorry #mybad #myfault #didntmeanto 🚽💦🙈</t>
+  </si>
+  <si>
+    <t>Es curioso cómo, si se disparó a un chico blanco a nadie se le antidisturbios. #ferguson #growthefuckup</t>
+  </si>
+  <si>
+    <t>En la escuela yo a ser semejante ... #AndyBiersack #bvb #atemyhomework #school #teachers #hatehomework #homework</t>
+  </si>
+  <si>
+    <t>Es curioso cómo todo lo que odian el odio en un niño de ocho años de edad cuando tiene más de 30.000 seguidores! 😂Caleb café</t>
+  </si>
+  <si>
+    <t>En octubre de fuego 28 oficiales de policía abierta en una mini furgoneta llena de niños. REVINE este para luchar contra #PoliceBrutality</t>
+  </si>
+  <si>
+    <t>#FallBackGameStrong</t>
+  </si>
+  <si>
+    <t>Follow👉Alex163👈 él me followd volver oh Dios mío 😍 SEGUIMIENTO Y FAVORITE👉Alex163 SEGUIMIENTO Y FAVORITE👉Alex163 SEGUIMIENTO Y FAVORITE👉Alex163</t>
+  </si>
+  <si>
+    <t>lo que realmente me hace triste ver cómo algunas personas sólo conocen Justin por su errores #justinbieber</t>
+  </si>
+  <si>
+    <t>¿Puedo "KIK" tú? ❋ SÍGUENOS de las mejores bromas! ❋</t>
+  </si>
+  <si>
+    <t># 6secondcover #acapella #music #jingle #beyonce #howto #loop #singing #vinesinger #voice #sing #cover</t>
+  </si>
+  <si>
+    <t>AlliCattt y Key Collins</t>
+  </si>
+  <si>
+    <t>#TeamIgnant #haiti DCYOUNGFLY traer ese culo aquí chico que te lo derechos de autor IDC u si no lo empecé Ya lo tienes Poppin en todo el mundo</t>
+  </si>
+  <si>
+    <t>Jimmy D edición</t>
+  </si>
+  <si>
+    <t>BIG Snuk</t>
+  </si>
+  <si>
+    <t>#illiterateass</t>
+  </si>
+  <si>
+    <t>Crecer no nos traerá down⚡️ {#nashgrieredit Nash Grier #nashgrier}</t>
+  </si>
+  <si>
+    <t>Cuando su maestro decir ella es que no va a pasar u #LOL</t>
+  </si>
+  <si>
+    <t>10.000 #revines me dará una palmada a mi abuela 😁😳👋👋👋👋👵👵👵👵👋👋 que va MATARME 10.000 #revines</t>
+  </si>
+  <si>
+    <t>El hombre de la pizza</t>
+  </si>
+  <si>
+    <t>La gente negra estar haciendo la mierda más extraña antes de luchar alguien #itsajoke #worldstar</t>
+  </si>
+  <si>
+    <t>T Rex se golpeó con tha tec🔫🔫🔫 Soy el diablo 😈</t>
+  </si>
+  <si>
+    <t>👾Trippy curva en un tiro largo de Snipe FØSU💨 #TEAMHPC #CLDLYF #Vape #SmokeTricks</t>
+  </si>
+  <si>
+    <t>El creador de SCV purga sea como</t>
+  </si>
+  <si>
+    <t>BACH EN CASA bañadas en mantequilla CUZ !! #KingBach KingBach</t>
+  </si>
+  <si>
+    <t>Comediante Marvin Howard reppin Minnesota. "El calentamiento"</t>
+  </si>
+  <si>
+    <t>Lmfao Yas - #NickiMinaj</t>
+  </si>
+  <si>
+    <t>😭 Im feo como mierda, pero #Vinelikedeebreezy Dee Poco ventoso!</t>
+  </si>
+  <si>
+    <t>Me dio la impresión equivocada quizá idk #TEAMSOUR Cory efectivo</t>
+  </si>
+  <si>
+    <t>Tratando de cubrir una canción es tan difícil para mí</t>
+  </si>
+  <si>
+    <t>Mi hombre y yo! Feliz VDay todos! (Shoutout a todas las mujeres solteras ~~ Beyonce todavía te ama)</t>
+  </si>
+  <si>
+    <t>McDonald 😂 Oficialmente Donnie</t>
+  </si>
+  <si>
+    <t>#kidsaredumb</t>
+  </si>
+  <si>
+    <t>Mejores amigos</t>
+  </si>
+  <si>
+    <t>hombre de mirada .... iMarkkeyz (BVC NYC) Manténgase fam i 💯 disculpas por la situación.</t>
+  </si>
+  <si>
+    <t>Podía cuidado de mierda menos TBH está en vivir la vida odiando LA y todos túes lol divertirse &gt;&gt;&gt;&gt;&gt; #NASHDEACTIVATE</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>Odio Greedy Perros Culo 😡</t>
+  </si>
+  <si>
+    <t>Zayn- Somla de la AMA #onedirection #zaynmalik # AMAs2013</t>
+  </si>
+  <si>
+    <t>Mi parodia El Simba Negro</t>
+  </si>
+  <si>
+    <t>305 a mi ciudad #toronto twerk #TwerkTeamDailyTwerk twerkteambooking@gmail.com</t>
+  </si>
+  <si>
+    <t>#fightclub</t>
+  </si>
+  <si>
+    <t>JODER FERGUSON POLICÍA #handsupdontshoot #NoJusticeNoPeace #RIPMikeBrown #ferguson #Missouri</t>
+  </si>
+  <si>
+    <t>PPL negros no pueden ser racistas #BamaNATION</t>
+  </si>
+  <si>
+    <t>Escoger el traje perfecto ... AlliCattt, Scotty Señor, Lele Pons #JustGirlyContest</t>
+  </si>
+  <si>
+    <t>Hierro en el pecho de Charlie, Redeyebrows, CrazyAhh Steve #TEAMSOUR #wildnights #collegelife</t>
+  </si>
+  <si>
+    <t>Siempre borrar el historial de 😬</t>
+  </si>
+  <si>
+    <t>Alguien me ayuda a entender esta mierda</t>
+  </si>
+  <si>
+    <t>¿¿Alguien sabe quién es este?? He oído que es en la vid. Etiquetar su please.👀 PT.2 #worldstar</t>
+  </si>
+  <si>
+    <t>ToddyWop_ lmfaoooooooo breh</t>
+  </si>
+  <si>
+    <t>Se metió en una pelea de anoche. Odiar Culo Niggas hombre .. #NaeNae Aún toma Durante 😜. Show de esta noche. Siga IG Por Info: CaLLamar #TeamLamvr</t>
+  </si>
+  <si>
+    <t>caca en la mesa, PS4 cogida</t>
+  </si>
+  <si>
+    <t>¿Qué es lo que túes Quiero ver a continuación?</t>
+  </si>
+  <si>
+    <t>Boom Clap Copa canción Kyle Davis</t>
+  </si>
+  <si>
+    <t>Sólo hacer it😏🌸</t>
+  </si>
+  <si>
+    <t>#eye #sotrue #messingwithpeople #LOL J-Dot TeeAyeOh no es seguro cuando me aburro. cosas de niños es probable que suceda</t>
+  </si>
+  <si>
+    <t>¿Qué hacen pensar yal</t>
+  </si>
+  <si>
+    <t>Sal de mi cara 😂 #ttcrew</t>
+  </si>
+  <si>
+    <t>Cuando realiza un tiro papelera enfermo en clase !!! #videoshop #Vam</t>
+  </si>
+  <si>
+    <t>#samesexmarriage #SamSexMarriageSupporter #equal #equality # equality2014</t>
+  </si>
+  <si>
+    <t>Por canción: Delgado De León | buscar: "SLIM DELEON" en iTunes y Google Play | www.soundcloud.com/iamslimdeleon | ❤I puede seguir a la gente back❤️</t>
+  </si>
+  <si>
+    <t>Querer a alguien que venga;)</t>
+  </si>
+  <si>
+    <t>Así DaRealNette habla de mi padre que falleció (Allah yer7amo) pero todo el mundo en SILENCIO bc es ella quien lo dijo o qué? SMH YA'LL AF✌️👸💯 FALSO</t>
+  </si>
+  <si>
+    <t>🍑👀👀👏 #twerkingvine #twerkforlife #twerk #twerkteam #DAAAAMMMNNN #goodnight</t>
+  </si>
+  <si>
+    <t>Hmmm yo creo que no Tobi Chip, Rebel Scum #GoTexans #texasnation</t>
+  </si>
+  <si>
+    <t>ForeverFreshFERLAN 🙌🙌🙌 #TeamNoChill #FloridaGang #TeamNevaChill</t>
+  </si>
+  <si>
+    <t>Al igual que REVINE y si tú es un fan de Kuroshitsuji # / # # Kuoshitsuji AttackOnTitan / # ShingekiNoKyojin / # AOT #SailorMoon #Naruto #Clannad #SoulEater</t>
+  </si>
+  <si>
+    <t>Cogida #funnyvine #ALSIceBucketChallenge #apotatoflewaroundmyroombeforeyoucame #SoTrueDoe # Im11soshutthefuckup #shutyobitchassup</t>
+  </si>
+  <si>
+    <t>Los amo chicos #FnaF # fnaf2 #Fivenightsatfreddys # fivenightsatfreddys2 #FoxyThePirateFox</t>
+  </si>
+  <si>
+    <t>Canción por: Quel (Kel) 🔊 Buscar "Quel Lil Mama" en iTunes y Google Play | Soundcloud.com/OfficialQuel ❤️Revine para un video❤️ privada</t>
+  </si>
+  <si>
+    <t>Ariana Grande-casi nunca es suficiente # 6secondcover #sing #singer # 4thofjuly #usa #independenceday #america #Flipagram # # cuarto 4thofjuly</t>
+  </si>
+  <si>
+    <t>Mala perra que concurso en el primer lugar. ¿que que que que?</t>
+  </si>
+  <si>
+    <t>este hombre malo se debe detener este perro DNT merece esto #Vidlab</t>
+  </si>
+  <si>
+    <t>Kiki Rackz - Ronda Ella Go Video completo dentro de una hora en YouTube SUSCRIPCIÓN DerajGlobal, TwerkNation, TwerkingVines, perreo 2014</t>
+  </si>
+  <si>
+    <t>cuando su agolpamiento tú texto primero! #Vidlab</t>
+  </si>
+  <si>
+    <t>Jack Hoffman cáncer de 7 años de edad juega paciente para TD en Nebraska primavera juego</t>
+  </si>
+  <si>
+    <t>Oooo Nicki Minaj estaba en lo cierto! Groupies conforman nada lol .. Idk ese niño. Me gusta amapola que es divertido y lo respeto</t>
+  </si>
+  <si>
+    <t>SamTakesOff, Jabbar Hakeem 😂😂😂 Brianne</t>
+  </si>
+  <si>
+    <t>#Gazz a #prayforgaz es #gazzedekatliamv</t>
+  </si>
+  <si>
+    <t>ABRAZOS DE OSO</t>
+  </si>
+  <si>
+    <t>ventiladores 5SOS ... De nada. Les dejo esto para todos túes bc ni siquiera me considero un ventilador. Yo estaba un poco balanceaba en mi tho.😳 concierto</t>
+  </si>
+  <si>
+    <t>Ella no sabe lo que el NAE NAE es #naenae fallar</t>
+  </si>
+  <si>
+    <t>Cuando las madres sólo utilizan Months.😡😩 #remake Joshua LaPlaca</t>
+  </si>
+  <si>
+    <t>Tratando de predicciones maquillaje con Cameron ..... #Remake princesa Lauren</t>
+  </si>
+  <si>
+    <t>Lucas Retarp volver a eran u vinieron de u dam negro</t>
+  </si>
+  <si>
+    <t>¡¡¡Estoy tan dolido!!! Este mundo nunca va a cambiar! Descanse en paz Mike Brown !!! #mikebrown #restinpeace #justiceForMikebrown</t>
+  </si>
+  <si>
+    <t>Tienes que amar a este #loop #bestofthebest</t>
+  </si>
+  <si>
+    <t>Despertar lil negro jaja #funny #cats #comedy #like #revine</t>
+  </si>
+  <si>
+    <t>😋</t>
+  </si>
+  <si>
+    <t>antes de la fiesta, pero #niggasbelike get mierda cancelados que sean como</t>
+  </si>
+  <si>
+    <t>Esto es para 300 años de opresión</t>
+  </si>
+  <si>
+    <t>NUN DE MI followes SAFE😭😂💀😩 (ON YALL CULO) Por VonMar #Thotboyz Fse #FrySession #chicago 😂😭👊👊</t>
+  </si>
+  <si>
+    <t>Yo sé que he hecho estos #selfharm #ptv #suicide</t>
+  </si>
+  <si>
+    <t>Sigue a Justin Bieber que acaba de recibir un vid!</t>
+  </si>
+  <si>
+    <t>cogida la policía #Oakland #sanfrancisco #bayarea # justice4MikeBrown #ferguson 😂😂😂😂 protegen y sirven a quien</t>
+  </si>
+  <si>
+    <t>Yo sé IM no es el único que ha hecho esto LMFAO #ISpilledTheBeans #LOL #VelvetTv #facts #SomebodyIsGonnaGetMad 💀💀💀💀</t>
+  </si>
+  <si>
+    <t>Se parece a mí</t>
+  </si>
+  <si>
+    <t>Die In delante del centro de justicia de Clayton. #Ferguson</t>
+  </si>
+  <si>
+    <t>#badbarney explica #easter #zombiejesus #voiceover</t>
+  </si>
+  <si>
+    <t># Tengo mis pantalones cortos en embargo. 😜💋💕👍👍 shortshorts #wiggle #twerkforlife Oficial de la Selección Twerk Vine Twerk Mejor Twerk vides</t>
+  </si>
+  <si>
+    <t>Para mi último #TMLV vid</t>
+  </si>
+  <si>
+    <t>Adolescente se puso del lado ciego en dos ocasiones por dos adolescentes diferentes y se robó por su IPhone 5C! #FightVines</t>
+  </si>
+  <si>
+    <t>Guliana diciendo Zendaya huele a aceites y causa de malas hierbas de su pelo ... niña ... Ok</t>
+  </si>
+  <si>
+    <t>JESUS ​​🙏 O SATAN 🔥 #Jesus #satan #devil #god #holy #religion #pray #help #spring #church #gooddeed #nice #like #share #FOLLOW #godbless</t>
+  </si>
+  <si>
+    <t>PPL blancos que se sienten cómodos diciendo la palabra N IDC son ignorantes en el que se plantearon o cuántos PPL negro sabes suicidarte</t>
+  </si>
+  <si>
+    <t>Las cosas que hago por Mohamad pero tener problemas por @mohamadzoror</t>
+  </si>
+  <si>
+    <t>😔 dos errores no hacen un derecho #inature #ABCNews #ripericgarner #RIPMikeBrown #blacklivesmatter #NoJusticeNoPeace</t>
+  </si>
+  <si>
+    <t>#HowTo convertir el agua a Listerine #magic #vinemagic #cool #specialfx #flick</t>
+  </si>
+  <si>
+    <t>Ver mis vides Twerk sin censura sólo a 👉 www.j.myvinebae.com 👈 😘</t>
+  </si>
+  <si>
+    <t>Si Bryan Silva recibió en un verdadero "nigga" 💀 # VineLikeBryanSilva #april</t>
+  </si>
+  <si>
+    <t>Al igual que 1 = Respeto !! Acabo de ver este baile chica fabulosa en la India tiene talento y ella sólo tiene 1 pierna ... simplemente increíble. Lo que es un espíritu!</t>
+  </si>
+  <si>
+    <t>PRANK fallar! 😂😂 SIGA PARA MÁS BROMAS / FAILS😂😂😂</t>
+  </si>
+  <si>
+    <t>Un tiempo para el tiempo de 🙀😼 #Cheeks #WhiteGirlTwerk #SlimThick #Jiggly #ThatThangMovin #WerkTwerk</t>
+  </si>
+  <si>
+    <t>No puedo respirar. #EricGarner #LastWords Fuente: ForeverStars en YouTube #BlackLivesMatter 3/3</t>
+  </si>
+  <si>
+    <t>Repugnante golpe de gracia con la cabeza loca de trituración saque #knockout #fight #streetfight #punch #destroyed #kick Golpea #MMA_Hits MMA</t>
+  </si>
+  <si>
+    <t>#twerkforthas #asswhoopin #TWERKRIGHTNOWITSOKAY #bikinithug #twerk</t>
+  </si>
+  <si>
+    <t>perra fea #teamwildside 💅</t>
+  </si>
+  <si>
+    <t>ESTA NOCHE - Viernes, 7 º de Marzo - No se pierda Mighty Mo vs Peter Graham, a las 9 / 8c en vivo por Spike TV! #BellatorMMA</t>
+  </si>
+  <si>
+    <t>No se quieren mirarme 😂😭😂. || Más en mi Instagram: JosiahJenkins</t>
+  </si>
+  <si>
+    <t>Sólo un thot mío 😎</t>
+  </si>
+  <si>
+    <t>BigHeadDarryl ™ #BringVineBack</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTO DE MÁS! HERMANO ESTÚPIDO</t>
+  </si>
+  <si>
+    <t>Jesús murió sólo para darnos vida nueva! La suya tanto amor en su corazón para nosotros. 😭❤️ #Hisloveneverfails</t>
+  </si>
+  <si>
+    <t>Lol u WOT Corbin #scrub #SWAG #funny #lol #VineMeetupNYC Nash Grier #Drawing #swagtastic #hilarious #comedy #yolo #bathroom</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTO SECRETFACTS en este momento para continuación de la historia esto es una locura .. NOTA COMPLETA EN SECRETFACTS SECRETFACTS SECRETFACTS</t>
+  </si>
+  <si>
+    <t>Buen día para un poco de práctica de baloncesto (inspirado en 2003 POWERADE anuncio con Lebron James) #vinemagic #basketball</t>
+  </si>
+  <si>
+    <t>Dios ama a los homosexuales Cuz que recoge su ropa 💯🙌💯👌🙏💒 #RatedZionMiguel Dios tiene un sentido del humor Porque Él me creó 😘</t>
+  </si>
+  <si>
+    <t>algunas personas son simplemente tonto como el infierno 😒</t>
+  </si>
+  <si>
+    <t>Me reí de esta ine</t>
+  </si>
+  <si>
+    <t>Mensaje a mis enemigos</t>
+  </si>
+  <si>
+    <t>#FightClub</t>
+  </si>
+  <si>
+    <t>NOOO! #BeatItBitch</t>
+  </si>
+  <si>
+    <t>Nick Pallauf</t>
+  </si>
+  <si>
+    <t>#SideNiggaProtocol Khleo_T</t>
+  </si>
+  <si>
+    <t>#firstpost aunque sólo se trataba de un pito real</t>
+  </si>
+  <si>
+    <t>Ir poli Mrose nueva canción en #wifebeater #itunes y #googleplay #mRose #remake #revineThis #DVH #DiVINEHarmonizers #singing #support #amazing</t>
+  </si>
+  <si>
+    <t>Estoy incluso #generous a mis #haters</t>
+  </si>
+  <si>
+    <t>Gracias Ma. #comedy #nofood # nofood4me #bullshit #WeNeedFood #FOLLOW</t>
+  </si>
+  <si>
+    <t>Trevor dijo que soy racista ....</t>
+  </si>
+  <si>
+    <t>Aburrido y no hacer la química</t>
+  </si>
+  <si>
+    <t>#givememyfuckingphonebitch</t>
+  </si>
+  <si>
+    <t>cogida BdotAdot5 I con tú Bruh!</t>
+  </si>
+  <si>
+    <t>El guardián de las palabras #makepeoplehateyou 😂😂😂😂😂</t>
+  </si>
+  <si>
+    <t>Al igual que REVINE y si u ODIAN cáncer !!! Mostrar su apoyo !!! 💞</t>
+  </si>
+  <si>
+    <t>Oficialmente Yass Donnie le siguen</t>
+  </si>
+  <si>
+    <t>Gente pequeña probzz 👎</t>
+  </si>
+  <si>
+    <t>Con mucho, el mejor día de la vida de Malcolm Butler! 👉 # EliteEdits👈</t>
+  </si>
+  <si>
+    <t>😔</t>
+  </si>
+  <si>
+    <t>Mantecada.</t>
+  </si>
+  <si>
+    <t>vid Lo sentimos, pero se niegan a cambiar hasta que todos túes deshacerse de estos Viners ofensivos culo desigual</t>
+  </si>
+  <si>
+    <t>IG jamestheillest y Twitter james_theillest. Así que sí, van seguir ese lol 😏</t>
+  </si>
+  <si>
+    <t>¡Los quiero muchachos! Nunca digas nunca! 💕 y no se olvide de seguir y revine!</t>
+  </si>
+  <si>
+    <t>#ElkeTheStallion BTS da disparar #WSHH</t>
+  </si>
+  <si>
+    <t>Louis chorros de agua a la guardia de seguridad jajaja</t>
+  </si>
+  <si>
+    <t># Dünyadanvin Mostrar</t>
+  </si>
+  <si>
+    <t>Él es precioso y amazing😍 Oficialmente #officialdonnie Donnie</t>
+  </si>
+  <si>
+    <t>Lycia incluyendo todas las chicas Glamss que están todos aquí para que te aman ❤️ @lyciafaith</t>
+  </si>
+  <si>
+    <t>pedal del acelerador ⛽️ Twerk VID, TwerkLife, Twerk Madness, Twerk Queens, TwerkThat, Twerk King BestSnowbunnyTwerks, A $$ - NationPt.2</t>
+  </si>
+  <si>
+    <t>Estamos comiendo #lemon en esta #foodreviews. Yummmmmmm !!!!!</t>
+  </si>
+  <si>
+    <t>Al igual que revine y si tú apoya esta yeeyee bandera. Entonces yall dame un seguimiento</t>
+  </si>
+  <si>
+    <t>un juego de la 🎱🏉🎲🎯Let: # FIRSTwordTHATcomesTOmindGAME🎾⚾️⚽️🏀🎱🏉🎾🎲🎯</t>
+  </si>
+  <si>
+    <t>enfermo del odio en here😓 #selfharm #suicide #cutting</t>
+  </si>
+  <si>
+    <t>No me gusta cuando sus amigos tratan de hacer que sus insultos a los complementos ... 😖 Tag alguien que hace esto para tú (siendo cierto raro no es una mala cosa)</t>
+  </si>
+  <si>
+    <t>nada era igual 😩😂😂 Kevs CARA ahhha.</t>
+  </si>
+  <si>
+    <t>LECTURA VID COMENTARIOS PT. 6
+Realmente no sé qué decir a éste ....
+#thecommentseries</t>
+  </si>
+  <si>
+    <t>bruh😂 #teamwhitegirltwerk #twerk #twerkteam</t>
+  </si>
+  <si>
+    <t>Aaron Rodgers aturde a los osos con un juego ganador pase de touchdown el 4 de abajo! #music [Dimitri Vegas - Mammoth (original mix)] #epic #nfl</t>
+  </si>
+  <si>
+    <t>T me odian, pero saben mis movimientos</t>
+  </si>
+  <si>
+    <t>nahhhman megan cuando descubrí que Megan era solo .... Bish whet</t>
+  </si>
+  <si>
+    <t>¡¡¡¡Está vivo!!!!</t>
+  </si>
+  <si>
+    <t>Otra #repost de Navidad de mi sesión de #realsexibarbie</t>
+  </si>
+  <si>
+    <t>He hecho esto muchas veces 😭😂 esta es mi expresión facial derecha antes de Karate patada en el culo cama outta 😭😂 # thecollection #lolatl</t>
+  </si>
+  <si>
+    <t>Lol cuidado de iones 💁</t>
+  </si>
+  <si>
+    <t>😢</t>
+  </si>
+  <si>
+    <t>La gente blanca ruina everything😂</t>
+  </si>
+  <si>
+    <t>Cogida enemigos #Wevape # smoke420 # 21 #suckit #nomore #VHunter #VBrady</t>
+  </si>
+  <si>
+    <t>Lo sentimos Im tan nasal por desgracia no estoy realmente súper mujer y mi nariz está todavía fracturó /: alma nueva sugerido por Taijah Leigh Underwood</t>
+  </si>
+  <si>
+    <t>¡FrEaK en el sHeEtS¡</t>
+  </si>
+  <si>
+    <t>#haters #suckmydick #dissing #fat #ugly</t>
+  </si>
+  <si>
+    <t>#ItzGOLObitxh Únete Tha Wave!</t>
+  </si>
+  <si>
+    <t>Cuando alguien me llama feo ..</t>
+  </si>
+  <si>
+    <t>Me chupó la polla de Taylor son orgulloso 😂😂</t>
+  </si>
+  <si>
+    <t>La razón por la que elimino los que me agregue en Facebook</t>
+  </si>
+  <si>
+    <t>Canto de los Perú! #nomatterwhereyouare @Taylor Phillips Phillips @Corbin @Hunter Phillips # 6secondcover</t>
+  </si>
+  <si>
+    <t>🎉🎊</t>
+  </si>
+  <si>
+    <t>Doble toque para jugar !!!!!</t>
+  </si>
+  <si>
+    <t>DAWG mi hijo divertido af 😭😭😩 #doievercrossyourmind #NO!</t>
+  </si>
+  <si>
+    <t>👌💨</t>
+  </si>
+  <si>
+    <t>#Getyamindright #Aleagueofmyown #GrownFolksStatus</t>
+  </si>
+  <si>
+    <t>Niall ser golpeado con algo 08/08/14 #onedirection #niallhoran</t>
+  </si>
+  <si>
+    <t>#shmoneydance 😂😂😂 w / la bro Nileseyy Niles #leansquadmovement #leansquad #youfunnyb</t>
+  </si>
+  <si>
+    <t>Tengo algo de ropa nueva ...... 😒😒😒</t>
+  </si>
+  <si>
+    <t>Nani cancela Golazo de Ronaldo porque estaba fuera de lugar ... #soccer #football #futbol #footvines (Twitter: @theFootyViners)</t>
+  </si>
+  <si>
+    <t>bebé que puedo ser su motivación</t>
+  </si>
+  <si>
+    <t>rapero local y miembro de una banda conocida sin antecedentes criminales se enfrenta a cadena perpetua por lucrar de letras violentas y la violencia de bandas</t>
+  </si>
+  <si>
+    <t>¿por qué el amor a nadie una chica con cicatrices? 😞 #depressionhurts #depressed #anxiety #scars #suicidaledit #suicide #suicidal #anorexic #sad</t>
+  </si>
+  <si>
+    <t>Ohhhhh shii</t>
+  </si>
+  <si>
+    <t>SoundCloud: EDM_FAMILY 💦 #edmfamily</t>
+  </si>
+  <si>
+    <t>No hay I en equipo. Me completas. #JustinBieber #AllThatMatters # 6SecondCover #Singing #videoshop</t>
+  </si>
+  <si>
+    <t>La violencia sin sentido se ha prolongado durante demasiado tiempo, los policías están fuera de control # RIPMIKE #JusticeforMikeBrown #hotep #Vidlab</t>
+  </si>
+  <si>
+    <t>😘😋😂😭 # fakethirsttrap #TheODDz #OddDolls</t>
+  </si>
+  <si>
+    <t>#Depresses #sad #secrets #scar #cut #notenough.</t>
+  </si>
+  <si>
+    <t>Mars One, una organización que intenta iniciar una colonia humana en Marte, se ha reducido su busca a 100 personas, cuatro de los cuales irán en el año 2024.</t>
+  </si>
+  <si>
+    <t>volver Covino Christiano en el ya PAL. Grita a #CypherNation también. #KiLSociety todo el día! Chiefwakil.com</t>
+  </si>
+  <si>
+    <t>Cualquiera que sea su lucha, lo que cada vez su batalla, Jessi Smiles y yo quiero verte ser valiente. || Sara Bareilles - Brave ❤️❤️</t>
+  </si>
+  <si>
+    <t>Enfermo como el resfriado común / La gente odia es cómica / Luego escuchan mi flujo de la marea desaparecer sin ir 6 segundas barras</t>
+  </si>
+  <si>
+    <t>NO FLEX ZONE🚫💪 Oficialmente Donnie #donnielook #OfficiallyDonnie</t>
+  </si>
+  <si>
+    <t>😂Pastor Rounds🙌</t>
+  </si>
+  <si>
+    <t>💻👊💢😩😭😳 #Cyberbullying ??? ... #LogTheFuckOff !!! 😒💁</t>
+  </si>
+  <si>
+    <t>Vamos a ir en el pasillo ahora bitch😂😂</t>
+  </si>
+  <si>
+    <t>No he visto que uno viene 😣 w / Elise Odoardi #ouch</t>
+  </si>
+  <si>
+    <t>#NP: Londrelle Hall - #Equality. #SpokenWord #Poetry #Righteousness #NotKendrick #LondrelleHall #Truth ◾️◽️ ..</t>
+  </si>
+  <si>
+    <t>Topnotchfaces</t>
+  </si>
+  <si>
+    <t>¡Bueno! ¡Bueno!</t>
+  </si>
+  <si>
+    <t>Me gustaría poder mostrar todos túes. Esta perra tripen gon coger alrededor y conseguir una perra despedido</t>
+  </si>
+  <si>
+    <t>mierda</t>
+  </si>
+  <si>
+    <t>La introducción por primera vez la música WeeklyChris a su video #SoDoubleTheSwagYo familia Irham</t>
+  </si>
+  <si>
+    <t>emmmmmmmmm Kill</t>
+  </si>
+  <si>
+    <t>Hacerlo por la vine😍</t>
+  </si>
+  <si>
+    <t>✊</t>
+  </si>
+  <si>
+    <t>#amiwrong conducir de noche tardía, nadie en el camino. Esto se produjo en Spotify!</t>
+  </si>
+  <si>
+    <t>Ha pasado un tiempo!</t>
+  </si>
+  <si>
+    <t>YEET !!! 😂😂😂😂😂😂Tag la #FunnyFails creador #YEET</t>
+  </si>
+  <si>
+    <t>#TAORapStory Pt 22</t>
+  </si>
+  <si>
+    <t>Antes de hacer una vid I sea jugar un poco como ... | 😅 #teamtailz</t>
+  </si>
+  <si>
+    <t>del extremo del mono #thechantgame #zombie #yeah #no</t>
+  </si>
+  <si>
+    <t>#america #funny #loop #vine #merica</t>
+  </si>
+  <si>
+    <t>Tish bebe será en el clítoris película para mi nuevo signle #thewingsofaangle xxxx</t>
+  </si>
+  <si>
+    <t>OHHHHHHMMMMMMGGGGGGGGGG! El Oficial Boo Boo miel Vine me está siguiendo! ¡¿Es ésto la vida real?! Ahhhh! #mademyday #loveyou</t>
+  </si>
+  <si>
+    <t>PPL blancas estar diciendo cosas tontas cuando por sí mismos</t>
+  </si>
+  <si>
+    <t>| Liz</t>
+  </si>
+  <si>
+    <t>#Broombroom SHUTUP</t>
+  </si>
+  <si>
+    <t>Oficialmente Donnie 😻😻</t>
+  </si>
+  <si>
+    <t>de todos mis #vines. Esto siempre será el más importante para mí. #deletenash. palabras y mata a la ignorancia.</t>
+  </si>
+  <si>
+    <t>Glamms para lyfe am i rito señoras? Lycia Fe SelfieC Gabby Berry canceroso Vine</t>
+  </si>
+  <si>
+    <t>😒 tiene 3 días para liberar el aliento 😒</t>
+  </si>
+  <si>
+    <t>después de todo el mundo hasta que alcance 150k💯</t>
+  </si>
+  <si>
+    <t>Es por esto que siempre quedan atrapados hablar en clase porque mi voz fuerte #Bigbopack #loudvoice</t>
+  </si>
+  <si>
+    <t>Esa cara que haces cuando escuchas algo caída, pero que no lo ve y piensa que se va a pegar</t>
+  </si>
+  <si>
+    <t>La cosa más loca que he visto nunca! Auburn Alabama el late última declaración de gol en el segundo campo! Wow ... #football #sports #amazing</t>
+  </si>
+  <si>
+    <t>Quien hizo tf esta hamburguesa? 💀😭</t>
+  </si>
+  <si>
+    <t>Siempre hay un tipo que ... #TEAMSOUR</t>
+  </si>
+  <si>
+    <t>Alvaro y Mercer hazaña. Lil Jon - Welcome To The Jungle</t>
+  </si>
+  <si>
+    <t>Cuando se enteraron de que era un Lil Follonera Pero primo loco real Niggas TODAVÍA joderme 😂😂😂😌😌 #LetItGo #StackzWorld #BlockRanked</t>
+  </si>
+  <si>
+    <t>¡Pregunta rápida!</t>
+  </si>
+  <si>
+    <t>Si tú está luchando con la vida, no puedo arreglarlo para you.I sólo pueden ofrecer mi experiencia y le dirá que algún día todo tiene sentido. ❤️ #tbt</t>
+  </si>
+  <si>
+    <t>quedar sumergido en el estilo Slamball! #SLAMBALL</t>
+  </si>
+  <si>
+    <t>Ed Reed establece Julian Edelman 🔺Do túes como la música? 🔺 🏈Who crees que va a ganar el Super Bowl ahora que los playoffs se establecen? 🏈</t>
+  </si>
+  <si>
+    <t>Es la temporada</t>
+  </si>
+  <si>
+    <t>Miami Metro liberado Justin Bieber hoy ... 💉🔪😈 #dexter #justinbieber</t>
+  </si>
+  <si>
+    <t>¿Qué mierda ?? #KevinHart no está de acuerdo con esto ..... #Ufc #andersonsilva #StopThatsGay</t>
+  </si>
+  <si>
+    <t>el verdadero Justin #justinbieber ☺️</t>
+  </si>
+  <si>
+    <t>Mi carrera favorita de todos los tiempos! 😍 // Doble toque para la leyenda! ✌️ // Seguir fútbol es hermoso! 🔜 // Uso # SoccerShowcase21 de ser notado! 😎</t>
+  </si>
+  <si>
+    <t>❂</t>
+  </si>
+  <si>
+    <t>Siga con nosotros para obtener los tweets más medios 😂😂😂</t>
+  </si>
+  <si>
+    <t>Enséñame Cómo Sed Trampa w Splack_19 Wuz Buenas #ThirstTrap #Thirsty #Girls #HowToGetMoreFollowersTheseDays</t>
+  </si>
+  <si>
+    <t>Mirar hacia fuera para esto más tarde esta noche! Sigue mi Twitter e Instagram (matthilltc) para el enlace cuando se cae!</t>
+  </si>
+  <si>
+    <t>Gran canción! 😍 #ride #somo #grindonme #vape #vapetricks #hookah</t>
+  </si>
+  <si>
+    <t>culo tiene Tyasia Mella! LOL😂 [#SheStealing #hestealingprank #hestealing #MightyDuck #MotherandDaughter Mightyduck #remake]</t>
+  </si>
+  <si>
+    <t>Enredadera</t>
+  </si>
+  <si>
+    <t>¡¡¡Bloquear y cargar!!! #InnapropriateTimeForChapstick Omar Ghonim jengibre Wesson Darío Benson ScottySire AlliCattt</t>
+  </si>
+  <si>
+    <t>Vaya puerta</t>
+  </si>
+  <si>
+    <t>Helga</t>
+  </si>
+  <si>
+    <t>es una mirada maniquí desnudo Clare #bestdayofmylife Freakin</t>
+  </si>
+  <si>
+    <t>ME Turnt camino hasta mi ingenio WIGGERS #JordanFoxe editado por Twinnetwork, KCamp427</t>
   </si>
 </sst>
 </file>
@@ -11797,8 +12660,2344 @@
         <v>641</v>
       </c>
     </row>
+    <row r="1067">
+      <c r="A1067" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1067" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1068" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1069" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1070" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1071" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1072" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1073" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1074" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1075" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1076" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1077" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1078" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B1079" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B1080" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B1081" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B1082" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B1083" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B1084" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1085" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B1086" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B1087" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B1088" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B1089" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1090" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B1091" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B1092" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B1093" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B1094" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1095" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1096" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B1097" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B1098" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B1099" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B1100" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B1101" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B1102" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1103" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B1104" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B1105" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B1106" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1107" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1108" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1109" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1110" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B1111" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1112" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B1113" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B1114" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B1115" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1116" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B1117" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1118" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1119" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1120" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B1121" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B1122" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B1123" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B1124" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B1125" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B1126" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1127" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B1128" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B1129" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B1130" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B1131" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B1132" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B1133" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B1134" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B1135" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B1136" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B1137" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B1138" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B1139" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B1140" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B1141" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B1142" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B1143" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1144" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B1145" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1146" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1147" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B1148" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B1149" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B1150" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B1151" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B1152" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B1153" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B1154" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B1155" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1156" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1157" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1158" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B1159" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B1160" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B1161" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B1162" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B1163" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1164" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B1165" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B1166" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1167" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B1168" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B1169" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B1170" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B1171" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1172" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B1173" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B1174" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1175" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1176" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B1177" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B1178" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1179" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B1180" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B1181" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B1182" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B1183" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1184" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B1185" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1186" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1187" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1188" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B1189" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1190" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1191" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1192" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B1193" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B1194" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1195" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1196" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1197" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B1198" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1199" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1200" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1201" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1202" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B1203" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B1204" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B1205" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B1206" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1207" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1208" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1209" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1210" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B1211" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B1212" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B1213" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1214" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1215" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B1216" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B1217" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B1218" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1219" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1220" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1221" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1222" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1223" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B1224" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1225" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1226" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1227" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1228" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1229" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1230" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1231" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B1232" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B1233" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1234" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1235" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1236" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1237" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1238" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1239" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1240" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B1241" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B1242" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B1243" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B1244" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1245" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B1246" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B1247" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1248" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1249" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1250" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B1251" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1252" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B1253" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B1254" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B1255" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1256" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B1257" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1258" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1259" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B1260" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1261" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1262" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1263" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1264" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1265" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1266" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1267" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1268" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1269" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1270" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1271" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1272" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1273" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1274" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1275" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B1276" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B1277" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1278" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1279" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B1280" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B1281" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1282" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1283" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1284" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1285" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1286" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1287" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1288" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1289" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1290" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1291" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1292" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1293" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1294" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B1295" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B1296" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1297" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1298" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B1299" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1300" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1301" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1302" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1303" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1304" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1305" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1306" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B1307" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B1308" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1309" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1310" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1311" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1312" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1313" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1314" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B1315" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1316" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1317" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1318" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1319" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1320" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1321" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B1322" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B1323" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B1324" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B1325" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1326" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1327" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B1328" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B1329" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1330" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B1331" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1332" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B1333" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B1334" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B1335" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B1336" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1337" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1338" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1339" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1340" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1341" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1342" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1343" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1344" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1345" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B1346" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B1347" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1348" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1349" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1350" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B1351" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B1352" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1353" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B1354" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1355" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1356" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1357" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B1358" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$B$1066"/>
+  <autoFilter ref="$A$1:$B$1358"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataSet/dataset_twitter.xlsx
+++ b/dataSet/dataset_twitter.xlsx
@@ -825,43 +825,43 @@
     <t>El hombre en mi dp rompió en dos Porkistan ... Mostró m.</t>
   </si>
   <si>
-    <t>.Is Spiros el Goatfucker que muestra el juego de esta noche? '' #AVFC.</t>
-  </si>
-  <si>
-    <t>Pero él? S Mi goatfucker.</t>
-  </si>
-  <si>
-    <t>Hes un goatfucker.</t>
-  </si>
-  <si>
-    <t>.goatfucker.</t>
+    <t>.Is Spiros el  cabronazo que muestra el juego de esta noche? '' #AVFC.</t>
+  </si>
+  <si>
+    <t>Pero él? S Mi  cabronazo.</t>
+  </si>
+  <si>
+    <t>Hes un  cabronazo.</t>
+  </si>
+  <si>
+    <t>. cabronazo.</t>
   </si>
   <si>
     <t>Chris McDaniels estaba en tan sucio de una raza ya que se podía conseguir. '' El pantano hizo todo lo posible para mantener el senador Thad.</t>
   </si>
   <si>
-    <t>Es un hecho ampliamente reconocido que Erdogan es un goatfucker ..</t>
-  </si>
-  <si>
-    <t>Si se permite que Gran Arquitecto del Unverse, que igualmente el Gran Goatfucker del universo es ..</t>
-  </si>
-  <si>
-    <t>Mi comentario: colmillo - puta barata europeo con goatfucker mal olor de Turquía ..</t>
-  </si>
-  <si>
-    <t>.Get de mi menciones que goatfucker ..</t>
-  </si>
-  <si>
-    <t>Nunca vamos a bombardear o matar en nombre de Dios .. # goatfucker.</t>
-  </si>
-  <si>
-    <t>El tipo que se llama una sesión del Tribunal Supremo una goatfucker y Michelle Obama es una arpía marxista s.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Phil no sólo decir GOATFUCKERS INTERNACIONAL ???? ''. 12:32 ?? Sabiendo que? S un Towa usada término despectivo.</t>
-  </si>
-  <si>
-    <t>Ninguno de ellos mantener prostitutas y esclavos sexuales femeninas como pedo goatfucker muham cabeza hicieron.</t>
+    <t>Es un hecho ampliamente reconocido que Erdogan es un  cabronazo ..</t>
+  </si>
+  <si>
+    <t>Si se permite que Gran Arquitecto del Unverse, que igualmente el Gran  cabronazo del universo es ..</t>
+  </si>
+  <si>
+    <t>Mi comentario: colmillo - puta barata europeo con  cabronazo mal olor de Turquía ..</t>
+  </si>
+  <si>
+    <t>.Get de mi menciones que  cabronazo ..</t>
+  </si>
+  <si>
+    <t>Nunca vamos a bombardear o matar en nombre de Dios .. #  cabronazo.</t>
+  </si>
+  <si>
+    <t>El tipo que se llama una sesión del Tribunal Supremo una  cabronazo y Michelle Obama es una arpía marxista s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phil no sólo decir  cabronazoS INTERNACIONAL ???? ''. 12:32 ?? Sabiendo que? S un Towa usada término despectivo.</t>
+  </si>
+  <si>
+    <t>Ninguno de ellos mantener prostitutas y esclavos sexuales femeninas como pedo  cabronazo muham cabeza hicieron.</t>
   </si>
   <si>
     <t>de Oriente Medio que se agrupan con los blancos en las secciones étnicas de aplicaciones es muy divertido :))) antes de Cristo.</t>
@@ -870,16 +870,16 @@
     <t xml:space="preserve"> I amor, amor, amor que su pastosa, cínicos, cobardes, farsante, sin imaginación, retro-grado, imitación de Cristo.</t>
   </si>
   <si>
-    <t>.Look al Inglés de este Goatfucker, y trabaja por alguna compañía estadounidense ..</t>
-  </si>
-  <si>
-    <t>.I compone Goatfucker, pero no Pigfucker ..</t>
+    <t>.Look al Inglés de este  cabronazo, y trabaja por alguna compañía estadounidense ..</t>
+  </si>
+  <si>
+    <t>.I compone  cabronazo, pero no Pigfucker ..</t>
   </si>
   <si>
     <t>Esta foto sólo demuestra que Israel está en paz a menos que están siendo atacados directa.</t>
   </si>
   <si>
-    <t>.el goatfucker que hizo esta #notislamophobic libro.</t>
+    <t>.el  cabronazo que hizo esta #notislamophobic libro.</t>
   </si>
   <si>
     <t>no han hablado con tú en mucho tiempo. ", 'Se siente como si ni siquiera sé en U más?', 'Lo único que sé de u es tha.</t>
@@ -888,10 +888,10 @@
     <t>Yo no hago bro Juro que es .g00dgirlsteph Tienes que mirar hacia fuera para ". 'Ella encontró mi abuelo f.</t>
   </si>
   <si>
-    <t>Si se dejase? T quiere ser llamado un goatfucker, que nadie note photoshop mismos puta cabra ..</t>
-  </si>
-  <si>
-    <t>No, no lo son. ", 'Tope a una goatfucker cabras, que no se limita a decir que hace que en total hacia fuera.']</t>
+    <t>Si se dejase? T quiere ser llamado un  cabronazo, que nadie note photoshop mismos puta cabra ..</t>
+  </si>
+  <si>
+    <t>No, no lo son. ", 'Tope a una  cabronazo cabras, que no se limita a decir que hace que en total hacia fuera.']</t>
   </si>
   <si>
     <t>BlueManc71 Dijiste Hanzo, es Genji!", "Soy un Weebo"]</t>
@@ -2316,121 +2316,121 @@
     <t>Sí. ' 'Se excluyen los hombres trans o no desde el feminismo y la clase de sexo reproductivo femenino.',' Fe.</t>
   </si>
   <si>
-    <t>Cállate que goatfucker! '' Ir a comer mierda de su culo madres.</t>
-  </si>
-  <si>
-    <t>jimmykimmel FLOTUS Sí. ' 'Debido a que adoran su Goatfucker 'Dios'.',' Se supone que debemos s.</t>
-  </si>
-  <si>
-    <t>señalización máxima virtud. '' Qué goatfucker estúpida.</t>
-  </si>
-  <si>
-    <t>.Poor dog..nothing bueno viene de arab..goatfucker.</t>
-  </si>
-  <si>
-    <t>Sólo es posible la respuesta dada #Fitinorfuckoff es f-off - Voy a pagar el billete de avión para un #goatfucker</t>
-  </si>
-  <si>
-    <t>Opiniones de un goatfucker ..</t>
-  </si>
-  <si>
-    <t>Ahora voy a demostrar que estoy mintiendo, goatfucker</t>
-  </si>
-  <si>
-    <t>Recuerde Lahore goatfucker? Y leer opiniones independientes no tu puta Paki textboo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¿Está seguro de que son Mensch? '' Trata de no ser tan goatfucker como tu.</t>
-  </si>
-  <si>
-    <t>vizcarra Goatfucker hablar musulmán mierda, hilarante !.</t>
-  </si>
-  <si>
-    <t>Chutiya ... Ur nación se mantuvo en la lista de terroristas ... Un poco de vergüenza goatfucker ..</t>
-  </si>
-  <si>
-    <t>Eres un tipo especial de especial, es innato goatfucker ?? Ir soplar su Mullah, Knobhead.</t>
-  </si>
-  <si>
-    <t>También era musulmán. '' ¿Qué hay de eso, goatfucker ?.</t>
-  </si>
-  <si>
-    <t>. "Siga sus sueños! ''", Dijo el goatfucker con una red de seguridad económica que se pueda enganchar un elefante ..</t>
-  </si>
-  <si>
-    <t>.Go la mierda que goatfucker Porki sangrienta. '' Esta vez IkfkL e khelne nahi DOA hska Gussa hai kya ser? '' Chutiya sal.</t>
-  </si>
-  <si>
-    <t>.Everyday Llaman .disruptivesigna de ser una puta, goatfucker, perra, etc .. nadie se suspende! '' Pero cada tim.</t>
-  </si>
-  <si>
-    <t>Todos los días estoy llamarlo de puta, goatfucker, perra, etc .. nadie se suspendió! "" Pero yo soy la fuerza para eliminar una</t>
-  </si>
-  <si>
-    <t>Goatfucker suerte, poco más alto y obtener culo scond ..</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Creo que los suicidas se extienden más amor por sus normas. '' #Goatfucker.</t>
-  </si>
-  <si>
-    <t>Yo sé, que buscando como un goatfucker.</t>
-  </si>
-  <si>
-    <t>tú es uno goatfucker ruidosa de un fantasma ..</t>
-  </si>
-  <si>
-    <t>.¿Qué un insulto creativa, debe ser el más inteligente goatfucker en su calle !.</t>
-  </si>
-  <si>
-    <t>Me frenaría todos los huesos de que goatfucker.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bien hecho, goatfucker ..</t>
-  </si>
-  <si>
-    <t>IDFSpokesperson Sí, la mala imagen de la goatfucker cobarde ....</t>
-  </si>
-  <si>
-    <t>Sal de mi menciones que goatfucker ..</t>
-  </si>
-  <si>
-    <t>Cállate la boca, estúpida gitana. '' Un hombre desarmado recibió un disparo en la espalda u estúpida goatfucker ..</t>
-  </si>
-  <si>
-    <t>La Ley de las cabras: "Si coges una cabra, irónicamente, tú sigue siendo un goatfucker" '' Deje de usar el humor como excusa para justificar su p.</t>
-  </si>
-  <si>
-    <t>Sí, sí. ", 'Todos nos que estás jodido la cabra irónicamente.', 'Sigues siendo un goatfucker.']</t>
-  </si>
-  <si>
-    <t>Goatfucker, comer mierda y mueren.</t>
+    <t>Cállate que  cabronazo! '' Ir a comer mierda de su culo madres.</t>
+  </si>
+  <si>
+    <t>jimmykimmel FLOTUS Sí. ' 'Debido a que adoran su  cabronazo 'Dios'.',' Se supone que debemos s.</t>
+  </si>
+  <si>
+    <t>señalización máxima virtud. '' Qué  cabronazo estúpida.</t>
+  </si>
+  <si>
+    <t>.Poor dog..nothing bueno viene de arab.. cabronazo.</t>
+  </si>
+  <si>
+    <t>Sólo es posible la respuesta dada #Fitinorfuckoff es f-off - Voy a pagar el billete de avión para un # cabronazo</t>
+  </si>
+  <si>
+    <t>Opiniones de un  cabronazo ..</t>
+  </si>
+  <si>
+    <t>Ahora voy a demostrar que estoy mintiendo,  cabronazo</t>
+  </si>
+  <si>
+    <t>Recuerde Lahore  cabronazo? Y leer opiniones independientes no tu puta Paki textboo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¿Está seguro de que son Mensch? '' Trata de no ser tan  cabronazo como tu.</t>
+  </si>
+  <si>
+    <t>vizcarra  cabronazo hablar musulmán mierda, hilarante !.</t>
+  </si>
+  <si>
+    <t>Chutiya ... Ur nación se mantuvo en la lista de terroristas ... Un poco de vergüenza  cabronazo ..</t>
+  </si>
+  <si>
+    <t>Eres un tipo especial de especial, es innato  cabronazo ?? Ir soplar su Mullah, Knobhead.</t>
+  </si>
+  <si>
+    <t>También era musulmán. '' ¿Qué hay de eso,  cabronazo ?.</t>
+  </si>
+  <si>
+    <t>. "Siga sus sueños! ''", Dijo el  cabronazo con una red de seguridad económica que se pueda enganchar un elefante ..</t>
+  </si>
+  <si>
+    <t>.Go la mierda que  cabronazo Porki sangrienta. '' Esta vez IkfkL e khelne nahi DOA hska Gussa hai kya ser? '' Chutiya sal.</t>
+  </si>
+  <si>
+    <t>.Everyday Llaman .disruptivesigna de ser una puta,  cabronazo, perra, etc .. nadie se suspende! '' Pero cada tim.</t>
+  </si>
+  <si>
+    <t>Todos los días estoy llamarlo de puta,  cabronazo, perra, etc .. nadie se suspendió! "" Pero yo soy la fuerza para eliminar una</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cabronazo suerte, poco más alto y obtener culo scond ..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creo que los suicidas se extienden más amor por sus normas. '' # cabronazo.</t>
+  </si>
+  <si>
+    <t>Yo sé, que buscando como un  cabronazo.</t>
+  </si>
+  <si>
+    <t>tú es uno  cabronazo ruidosa de un fantasma ..</t>
+  </si>
+  <si>
+    <t>.¿Qué un insulto creativa, debe ser el más inteligente  cabronazo en su calle !.</t>
+  </si>
+  <si>
+    <t>Me frenaría todos los huesos de que  cabronazo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bien hecho,  cabronazo ..</t>
+  </si>
+  <si>
+    <t>IDFSpokesperson Sí, la mala imagen de la  cabronazo cobarde ....</t>
+  </si>
+  <si>
+    <t>Sal de mi menciones que  cabronazo ..</t>
+  </si>
+  <si>
+    <t>Cállate la boca, estúpida gitana. '' Un hombre desarmado recibió un disparo en la espalda u estúpida  cabronazo ..</t>
+  </si>
+  <si>
+    <t>La Ley de las cabras: "Si coges una cabra, irónicamente, tú sigue siendo un  cabronazo" '' Deje de usar el humor como excusa para justificar su p.</t>
+  </si>
+  <si>
+    <t>Sí, sí. ", 'Todos nos que estás jodido la cabra irónicamente.', 'Sigues siendo un  cabronazo.']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cabronazo, comer mierda y mueren.</t>
   </si>
   <si>
     <t>La idea de que casualmente se puede volar banderas nazis, pero no ser un nazi es como decir que puede coger unas cuantas cabras aún no ser un goatfucke.</t>
   </si>
   <si>
-    <t>Trabajando a sí mismo en una justa cólera se eleva sobre estos niños mocosos. ' 'Me siento un 'Goatfucker!'',' Viene en ..</t>
-  </si>
-  <si>
-    <t>Te ves fea asfuck ni siquiera un goatfucker sirio / árabes violarte ..</t>
-  </si>
-  <si>
-    <t>Erick, que goatfucker.</t>
-  </si>
-  <si>
-    <t>Hey goatfucker Muhaysini y otra escoria Arabia que envió a Siria sin duda quieren b.</t>
-  </si>
-  <si>
-    <t>Shush! '' Cállate, que goatfucker ..</t>
-  </si>
-  <si>
-    <t>Un goatfucker irónico es todavía un goatfucker. ' 'Si están usando memes nazis, son un nazi.',' Punto Final ..</t>
-  </si>
-  <si>
-    <t>goatfucker Foff !.</t>
-  </si>
-  <si>
-    <t>Petrit Va la cogida consiguió y goatfucker abajo calma ..</t>
+    <t>Trabajando a sí mismo en una justa cólera se eleva sobre estos niños mocosos. ' 'Me siento un ' cabronazo!'',' Viene en ..</t>
+  </si>
+  <si>
+    <t>Te ves fea asfuck ni siquiera un  cabronazo sirio / árabes violarte ..</t>
+  </si>
+  <si>
+    <t>Erick, que  cabronazo.</t>
+  </si>
+  <si>
+    <t>Hey  cabronazo Muhaysini y otra escoria Arabia que envió a Siria sin duda quieren b.</t>
+  </si>
+  <si>
+    <t>Shush! '' Cállate, que  cabronazo ..</t>
+  </si>
+  <si>
+    <t>Un  cabronazo irónico es todavía un  cabronazo. ' 'Si están usando memes nazis, son un nazi.',' Punto Final ..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cabronazo Foff !.</t>
+  </si>
+  <si>
+    <t>Petrit Va la cogida consiguió y  cabronazo abajo calma ..</t>
   </si>
   <si>
     <t>"LMAO mirada en esta pequeña patética nazi Ricky Vaughn." ' 'Ver foto de "Ricky Vaughn.": Corte limpio, chico aparentemente normal',' Sede.</t>

--- a/dataSet/dataset_twitter.xlsx
+++ b/dataSet/dataset_twitter.xlsx
@@ -644,7 +644,7 @@
     <t>Ayudar a entender la vida diaria penetraciones, consejos y análisis sobre el propósito, la existencia, la felicidad, la parcialidad, prejuicio y.</t>
   </si>
   <si>
-    <t>Tienes que estar bromeando? ' '¿No has visto las fotografías de Hitler Roseanne?',' Ese espectáculo es desagradable y p.</t>
+    <t>Tienes que estar bromeando? ' '¿No has visto las fotografías de fujimori Roseanne?',' Ese espectáculo es desagradable y p.</t>
   </si>
   <si>
     <t>Don? T permiten que el prejuicio le roban de este momento. ' 'Disfrutar de los hombre, mientras que él está todavía alrededor.',' Ganamos? T estar viendo otra RONALDO en.</t>
@@ -722,7 +722,7 @@
     <t>? Castigar a un musulmán? día es mañana en el Reino Unido y aunque im disgustado este que todos necesitamos para tomar precauciones. '' Por favor.</t>
   </si>
   <si>
-    <t>.Like muchos aspirantes a ser autoritarios, Trump hace caso omiso de las amenazas reales que sus caras país, prefiriendo Productores.</t>
+    <t>.Like muchos aspirantes a ser autoritarios, vizcarra hace caso omiso de las amenazas reales que sus caras país, prefiriendo Productores.</t>
   </si>
   <si>
     <t>.Cuando el terrorismo, el racismo, la intolerancia, el prejuicio, el odio, las guerras comerciales, el cambio climático, la extinción de especies, mecanizada d.</t>
@@ -785,7 +785,7 @@
     <t>Es difícil de precisar que reduce a una cosa. Hay literalmente docenas. El tratamiento de la estrella de oro]</t>
   </si>
   <si>
-    <t>vizcarra En el pasado Trump acaba despedido a nadie dispuesto a enfrentarse a su intimidación. Ahora se enfrenta a la Resistan]</t>
+    <t>vizcarra En el pasado vizcarra acaba despedido a nadie dispuesto a enfrentarse a su intimidación. Ahora se enfrenta a la Resistan]</t>
   </si>
   <si>
     <t>Las pruebas de ADN nunca serían una medición precisa de IQ. Medio ambiente y otros factores simplemente como la importación]</t>
@@ -1121,7 +1121,7 @@
     <t>Si yo era entonces sería el maestro de la weebo final.</t>
   </si>
   <si>
-    <t>.Honest respuesta:? Si puedo discernir un cristiano blanco de un asesino terrorista KKK supremacía blanca / nazi que pueda dis.</t>
+    <t>.Honest respuesta:? Si puedo discernir un cristiano blanco de un asesino terrorista KKK supremacía blanca / cholo que pueda dis.</t>
   </si>
   <si>
     <t>Obviamente estás sintiendo amenazada por Corbyn, pero que no debe preocuparse tanto. ", 'Él va a hacer el país mejor']</t>
@@ -1130,43 +1130,43 @@
     <t>0,4 ó 5 de abril de 1944 | Alma ?, Ros violinista austríaco de ascendencia judía, una sobrina de Gustav #Mahler, murió en el germen.</t>
   </si>
   <si>
-    <t>Es de esperar que mostró sus amigos nazis cómo construir bombas de la manera que lo hizo ..</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tengo algo de Flack sobre el uso de los términos #genocide, #holocaust, o # nazismo cuando escribo sobre la historia de remolque genocida de Cda "]</t>
-  </si>
-  <si>
-    <t>Andy comparte su "visión conservadora positiva" con los simpatizantes nazis en Rebel medios. '' .AndrewScheer .CPC.HQ #cdnpoli #y.</t>
+    <t>Es de esperar que mostró sus amigos cholos cómo construir bombas de la manera que lo hizo ..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tengo algo de Flack sobre el uso de los términos #genocide, #holocaust, o # cholosmo cuando escribo sobre la historia de remolque genocida de Cda "]</t>
+  </si>
+  <si>
+    <t>Andy comparte su "visión conservadora positiva" con los simpatizantes cholos en Rebel medios. '' .AndrewScheer .CPC.HQ #cdnpoli #y.</t>
   </si>
   <si>
     <t>Privados de sus derechos? ' 'No',' Están protestando a renunciar a los derechos que es lo contrario de disenfra.</t>
   </si>
   <si>
-    <t>Cada empleador potencial, cuando Google Douglass Mackey, deben ver que él está un nazi. '' Cualquiera que contrata a él debe ser pub.</t>
+    <t>Cada empleador potencial, cuando Google Douglass Mackey, deben ver que él está un cholo. '' Cualquiera que contrata a él debe ser pub.</t>
   </si>
   <si>
     <t>Obviamente estás sintiendo amenazada por Corbyn, pero que no debe preocuparse tanto. ", 'Él va a hacer el país mejor para todos'</t>
   </si>
   <si>
-    <t>.Missoula policía alertada después de la propaganda nazi encuentra en los huevos de Pascua a través de .missoulian.</t>
-  </si>
-  <si>
-    <t>..JakeHighwell .Keque.Mage prácticamente todos corriendo republicano a la oficina durante décadas ha sido llamado un nazi por el l.</t>
-  </si>
-  <si>
-    <t>Me inquieta cuando alguien dice (sobre todo un testimonio de la Alemania nazi), dice que ""]</t>
-  </si>
-  <si>
-    <t>Este tipo, Douglass Mackey, de 28 años, fue a Middlebury, hijo del grupo de presión de Scott Mackey, vive en Manhattan. '' Él está un nazi con un abrazo.</t>
+    <t>.Missoula policía alertada después de la propaganda cholo encuentra en los huevos de Pascua a través de .missoulian.</t>
+  </si>
+  <si>
+    <t>..JakeHighwell .Keque.Mage prácticamente todos corriendo republicano a la oficina durante décadas ha sido llamado un cholo por el l.</t>
+  </si>
+  <si>
+    <t>Me inquieta cuando alguien dice (sobre todo un testimonio de la Alemania cholo), dice que ""]</t>
+  </si>
+  <si>
+    <t>Este tipo, Douglass Mackey, de 28 años, fue a Middlebury, hijo del grupo de presión de Scott Mackey, vive en Manhattan. '' Él está un cholo con un abrazo.</t>
   </si>
   <si>
     <t>Hay que decir que, .pewdiepie es el menos escoria alt-derecha hay, pero es posible afinar en sus misiles f.</t>
   </si>
   <si>
-    <t>Jo Jo Jo, don \ 't llamar al tipo que quiere ejecutar a millones de personas un nazi. ".</t>
-  </si>
-  <si>
-    <t>Hitler no promulgó una prohibición de armas en Alemania NAZI. ' 'De hecho, era más de lo opuesto.',' ¿Cómo.</t>
+    <t>Jo Jo Jo, don \ 't llamar al tipo que quiere ejecutar a millones de personas un cholo. ".</t>
+  </si>
+  <si>
+    <t>fujimori no promulgó una prohibición de armas en Alemania cholo. ' 'De hecho, era más de lo opuesto.',' ¿Cómo.</t>
   </si>
   <si>
     <t xml:space="preserve"> En 2020, la supremacía blanca &amp; amp; simpatizantes de la supremacía blanca representarán a los republicanos en la votación en Arizona, Illinois, I.</t>
@@ -1181,7 +1181,7 @@
     <t>Rakitic ha sido mandando Kroos 2 veces por temporada para Dios sabe cuánto tiempo ahora, pero al parecer Lucho rechazar que overhyp.</t>
   </si>
   <si>
-    <t xml:space="preserve"> El nazi dejó falta a segundo extremo digo guerra civil 2. '' Voy a morir por mis derechos.</t>
+    <t xml:space="preserve"> El cholo dejó falta a segundo extremo digo guerra civil 2. '' Voy a morir por mis derechos.</t>
   </si>
   <si>
     <t>TheEllenShow .KamalaHarris Bueno, hora de boicotear su programa y sus patrocinadores. '' Se muerde pero todo el mundo necesita ser sostenido a.</t>
@@ -1190,13 +1190,13 @@
     <t>Honestamente, no hay nada cerca hilarante o gracioso en esto - esto es algo muy, muy enfermo y debe ser.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Episodio Cuatro! ' 'Furries nazis!', 'Impresionante Merch Derogación!', '#ShanowenShakedown!',' Oye todo (y más) en nuestro último episodio :.</t>
-  </si>
-  <si>
-    <t>Se? S divertido para ver la objetividad fingir .TheAtlantic mientras ganso entrar a la mente de la colmena nazi de la izquierda. '' Ellos al.</t>
-  </si>
-  <si>
-    <t>.Translation: "Waaaaaaaah ', 'Y también, \' m culpar a la izquierda para el giro a la derecha en un nazi parque infantil."', 'Sí, lik.</t>
+    <t xml:space="preserve"> Episodio Cuatro! ' 'Furries cholos!', 'Impresionante Merch Derogación!', '#ShanowenShakedown!',' Oye todo (y más) en nuestro último episodio :.</t>
+  </si>
+  <si>
+    <t>Se? S divertido para ver la objetividad fingir .TheAtlantic mientras ganso entrar a la mente de la colmena cholo de la izquierda. '' Ellos al.</t>
+  </si>
+  <si>
+    <t>.Translation: "Waaaaaaaah ', 'Y también, \' m culpar a la izquierda para el giro a la derecha en un cholo parque infantil."', 'Sí, lik.</t>
   </si>
   <si>
     <t>Gracias . gran información. '' G.Farben, utiliza esclavos judíos en sus fábricas durante el Holocausto.</t>
@@ -1205,19 +1205,19 @@
     <t>Normie:? Aquí está mi perro Preston '' Cada vez que tengo la correa para salir lo hace la persona feliz danza TWITTER:. Ese perro es.</t>
   </si>
   <si>
-    <t>.Why ¿Soy un nazi como la gramática ?. '' Si hay una cosa que se enorgullecen de, él? S su educación !.</t>
+    <t>.Why ¿Soy un cholo como la gramática ?. '' Si hay una cosa que se enorgullecen de, él? S su educación !.</t>
   </si>
   <si>
     <t>[ "Lanzamientos Príncipe Harry agotadora expedición a través de Perú antes de Meghan Markl ... a través de .YouTube i '"]</t>
   </si>
   <si>
-    <t>Al parecer hubo una manifestación disturbios / nazi virtual en Runescape antes porque Jagex (el desarrollador) dio a conocer un Awaren LGBT.</t>
+    <t>Al parecer hubo una manifestación disturbios / cholo virtual en Runescape antes porque Jagex (el desarrollador) dio a conocer un Awaren LGBT.</t>
   </si>
   <si>
     <t>.a clásico artículo vale la pena leer de nuevo a través de .Harpers.</t>
   </si>
   <si>
-    <t>porn .free vedios puta nazi en línea jodido.</t>
+    <t>porn .free vedios puta cholo en línea jodido.</t>
   </si>
   <si>
     <t xml:space="preserve"> Esta mujer no recibieron el Premio Nobel de la Paz. ' 'Adivina quien lo consiguió en lugar de ella?', 'Al Gore!',' Esta mujer salvó a 2.500 niños.</t>
@@ -1229,61 +1229,61 @@
     <t xml:space="preserve"> En realidad no me gusta preguntar esto porque es una cuestión negativa, pero lo que fue la última película que no terminó y por qué?", ​​'Mi.</t>
   </si>
   <si>
-    <t>.Hitler tenido la juventud nazi. '' Israel tiene el Hilltop juventud ..</t>
-  </si>
-  <si>
-    <t>DLoesch Sí quiero decir que todos somos? Nazi? S? y? fascistas? y Trump es? literalmente Hitler? -así wouldn? t.</t>
+    <t>.fujimori tenido la juventud cholo. '' Israel tiene el Hilltop juventud ..</t>
+  </si>
+  <si>
+    <t>DLoesch Sí quiero decir que todos somos? cholo? S? y? fascistas? y vizcarra es? literalmente fujimori? -así wouldn? t.</t>
   </si>
   <si>
     <t>Ricky Vaughn: - a millones de personas alcanzadas, ideas marginales de la normalización - fue citada como una de las figuras más influyentes en.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Realmente .Alyssa.Milano ?? Me llamaron a un terrorista, asesino, nazi, etc, cuando asistí evento de Las #MarchForOurLives como.</t>
+    <t xml:space="preserve"> Realmente .Alyssa.Milano ?? Me llamaron a un terrorista, asesino, cholo, etc, cuando asistí evento de Las #MarchForOurLives como.</t>
   </si>
   <si>
     <t>bueno aquí es un cuadro de Douglass Mackey que vive en el lado superior de este de Manhattan. '' No era más que oute.</t>
   </si>
   <si>
-    <t>Yo sé que él también es lol Kilgrave. '' Y el actor de voz para un nazi en zombies nazi WW2 CoD.</t>
+    <t>Yo sé que él también es lol Kilgrave. '' Y el actor de voz para un cholo en zombies cholo WW2 CoD.</t>
   </si>
   <si>
     <t>Hmmmmmm Vamos a revisar. ' '¿Qué grupo suprime violentamente la libertad de expresión si no se ajusta a su retórica?',' Disturbios pero ca.</t>
   </si>
   <si>
-    <t>Cuando los izquierdistas locos nos llaman "nazi \ 's" los millones de sin explotar, las masas normy miran en nuestra dirección.', 'T.</t>
-  </si>
-  <si>
-    <t>RealJamesWoods Obama apoya este nazi !.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A continuación, unos pocos, de los millones de normy \ 's, dirán "hmmm ... estos don \ 't mirada como hombres boogy nazis.', 'Estos.</t>
+    <t>Cuando los izquierdistas locos nos llaman "cholo \ 's" los millones de sin explotar, las masas normy miran en nuestra dirección.', 'T.</t>
+  </si>
+  <si>
+    <t>RealJamesWoods Obama apoya este cholo !.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A continuación, unos pocos, de los millones de normy \ 's, dirán "hmmm ... estos don \ 't mirada como hombres boogy cholos.', 'Estos.</t>
   </si>
   <si>
     <t>Pentágono dio $ 70 millones a Porton Down (Reino Unido) en la última década para la química &amp; amp; proyectos de armas biológicas! '' ani 122.000.</t>
   </si>
   <si>
-    <t>¿Qué te hace pensar que voy lo SCUM bebidas pantano de agua lo SCUM tan acostumbrado a comer estiércol de Doc Doc trian nazi.</t>
-  </si>
-  <si>
-    <t>Rob Reiner dice cualquiera que vea el nuevo espectáculo #RoseanneBarr es un nazi .. '' permite a todos dar ol Rob anti nazi patriota Salut.</t>
-  </si>
-  <si>
-    <t>mayores sitios web nazis de Internet se enfrentan a una crisis financiera los dos días del Daily Stormer de Stormfront y podrían ser "]</t>
-  </si>
-  <si>
-    <t>Entonces ¿por qué la Fxck no lo hizo expulsar a los rusos hace un año?", 'Y, su abuelo era un nazi, algo que ella trató de ocultar!', 'Ruso.</t>
-  </si>
-  <si>
-    <t>¿tú o haces que no aprueba la sesión de fotos de Hitler / nazi-inspirada de Roseanne Barr?", '¿Estás bien con esto?', 'No viendo ABC ya ..</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Redadas del FBI en casa conectado a loco nazi LARPer Jordan Jereb, el hombre que decía Parkland tirador Nicolás Cruz entrenó con.</t>
-  </si>
-  <si>
-    <t>rally de .Neo nazi en Newman 4/21. '' Thas salvaje.</t>
-  </si>
-  <si>
-    <t>[ "No soy fumador-impulsivo, alto coeficiente intelectual LARPer nazi, muchas gracias."]</t>
+    <t>¿Qué te hace pensar que voy lo SCUM bebidas pantano de agua lo SCUM tan acostumbrado a comer estiércol de Doc Doc trian cholo.</t>
+  </si>
+  <si>
+    <t>Rob Reiner dice cualquiera que vea el nuevo espectáculo #RoseanneBarr es un cholo .. '' permite a todos dar ol Rob anti cholo patriota Salut.</t>
+  </si>
+  <si>
+    <t>mayores sitios web cholos de Internet se enfrentan a una crisis financiera los dos días del Daily Stormer de Stormfront y podrían ser "]</t>
+  </si>
+  <si>
+    <t>Entonces ¿por qué la Fxck no lo hizo expulsar a los rusos hace un año?", 'Y, su abuelo era un cholo, algo que ella trató de ocultar!', 'Ruso.</t>
+  </si>
+  <si>
+    <t>¿tú o haces que no aprueba la sesión de fotos de fujimori / cholo-inspirada de Roseanne Barr?", '¿Estás bien con esto?', 'No viendo ABC ya ..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Redadas del FBI en casa conectado a loco cholo LARPer Jordan Jereb, el hombre que decía Parkland tirador Nicolás Cruz entrenó con.</t>
+  </si>
+  <si>
+    <t>rally de .Neo cholo en Newman 4/21. '' Thas salvaje.</t>
+  </si>
+  <si>
+    <t>[ "No soy fumador-impulsivo, alto coeficiente intelectual LARPer cholo, muchas gracias."]</t>
   </si>
   <si>
     <t>encuesta de MSNBC !!', 'soros convirtió en el mayor de azúcar derecha financiera padre de Obama sobre el tiempo esto comenzó a suceder ..']</t>
@@ -1295,25 +1295,25 @@
     <t>Honestamente, no hay nada cerca hilarante o gracioso en esto - esto es algo muy, muy enfermo y debería.</t>
   </si>
   <si>
-    <t>George Soros ahora está tratando de erradicar a Israel identidad. ' 'George Soros era también un miembro de la juventud nazi.',' Ahora todo m.</t>
-  </si>
-  <si>
-    <t>.Watching final de Starship Troopers. ' 'Un médico precoz solo ha aparecido en regalía llena nazi.',' Increíble película ..</t>
-  </si>
-  <si>
-    <t>Algunas familias tienen un esqueleto en el armario. '' Hemos tenido una bandera nazi en el ático ..</t>
-  </si>
-  <si>
-    <t>la propaganda neonazi encuentra en los huevos de Pascua en Missoula #Citizens.</t>
-  </si>
-  <si>
-    <t>página web neonazi Stormfront cerca de cerrar como neumáticos esposa fundador? s de pagar sitio de odio? s facturas.</t>
-  </si>
-  <si>
-    <t>Todos los Judios en Checoslovaquia ocupada por los nazis han recibido la orden de reunirse en las sinagogas de ellos para un "censo". '' De hecho, Germa.</t>
-  </si>
-  <si>
-    <t>La policía advierte a la comunidad metropolitana de Atlanta sobre planificada neonazi a reunión un informe de vivir en esta historia de mayoría U.</t>
+    <t>George Soros ahora está tratando de erradicar a Israel identidad. ' 'George Soros era también un miembro de la juventud cholo.',' Ahora todo m.</t>
+  </si>
+  <si>
+    <t>.Watching final de Starship Troopers. ' 'Un médico precoz solo ha aparecido en regalía llena cholo.',' Increíble película ..</t>
+  </si>
+  <si>
+    <t>Algunas familias tienen un esqueleto en el armario. '' Hemos tenido una bandera cholo en el ático ..</t>
+  </si>
+  <si>
+    <t>la propaganda neocholo encuentra en los huevos de Pascua en Missoula #Citizens.</t>
+  </si>
+  <si>
+    <t>página web neocholo Stormfront cerca de cerrar como neumáticos esposa fundador? s de pagar sitio de odio? s facturas.</t>
+  </si>
+  <si>
+    <t>Todos los Judios en Checoslovaquia ocupada por los cholos han recibido la orden de reunirse en las sinagogas de ellos para un "censo". '' De hecho, Germa.</t>
+  </si>
+  <si>
+    <t>La policía advierte a la comunidad metropolitana de Atlanta sobre planificada neocholo a reunión un informe de vivir en esta historia de mayoría U.</t>
   </si>
   <si>
     <t>Yo no soy un demócrata. ' 'Soy un liberal social.',' El Pepe me VHA.</t>
@@ -1397,7 +1397,7 @@
     <t>.Fuck sí que? S que nieva en abril. ' 'Mi vagón de tren huele a pis vagabundo, también.',' Johnny O? Hagans se ha ido si es necesario.</t>
   </si>
   <si>
-    <t>.Oh mi dios qué coño te gusta Parques &amp; amp; Rec también ?? ' ' y se coló a todos los miembros de NCT perfectamente ????',' I m ???.</t>
+    <t>.Oh mi dios qué marica te gusta Parques &amp; amp; Rec también ?? ' ' y se coló a todos los miembros de NCT perfectamente ????',' I m ???.</t>
   </si>
   <si>
     <t>Esa sensación justo antes de que empiece a follarte ????.</t>
@@ -1595,7 +1595,7 @@
     <t>anillo de espiga con blackwork por #Craeven #Amsterdam #Handmade través .Etsy así que cuando la mierda viene abajo son y.</t>
   </si>
   <si>
-    <t>vizcarra WTF Todos aquellos que quieran ver una foto de Trump en la oficina de correos! '' Aquí es una idea que Pit.</t>
+    <t>vizcarra WTF Todos aquellos que quieran ver una foto de vizcarra en la oficina de correos! '' Aquí es una idea que Pit.</t>
   </si>
   <si>
     <t>Me .Notifique por qué Steve era un idiota en una temporada y responderé que explica por qué está mal ..</t>
@@ -1667,7 +1667,7 @@
     <t>.HillaryClinton te hace sentir como una persona más grande a insultar a otros? '' Creo que probablemente hace b.</t>
   </si>
   <si>
-    <t>¿Quiere decir que su violar a los ciudadanos de EE.UU., ¿verdad? '' ¿Quién diablos te crees que eres ?.</t>
+    <t>¿Quiere decir que su violar a los ciudadanos de lima., ¿verdad? '' ¿Quién diablos te crees que eres ?.</t>
   </si>
   <si>
     <t>WOW !!!! uno de los buenos '' jaja conseguir una vida y dejar de hacer chistes en línea detrás de una pantalla.</t>
@@ -1700,7 +1700,7 @@
     <t>¿Por qué son compañeros de trabajo siempre tryna añadir que en las redes sociales? '', Como si yo? M gritando y puedo? T entrar en la causa allí? S de una emergencia.</t>
   </si>
   <si>
-    <t>Paul que son la broma mi amigo. '' Sólo porque alguien suoports Trump No significa que.</t>
+    <t>Paul que son la broma mi amigo. '' Sólo porque alguien suoports vizcarra No significa que.</t>
   </si>
   <si>
     <t>tú? Re un idiota si cree que el Rams? T ya h.</t>
@@ -1784,13 +1784,13 @@
     <t>.Can? T soporto a la gente que constantemente hablan de la forma en que? Re? Hacerlas? + Ellos? Re? Concentró en sí mismos? o? hacer.</t>
   </si>
   <si>
-    <t>Perú está tan jodidamente coño frío.</t>
-  </si>
-  <si>
-    <t>.Karma es realmente repartiendo en algunas personas este año y yo no podía? T ser puto más feliz, que sirve vosotros coño derecha.</t>
-  </si>
-  <si>
-    <t>.what estúpida coño diseñado el obby llegar al óvulo fifteam. ' 'TOO.FUCKING.DIFFICULT.',' OMG.</t>
+    <t>Perú está tan jodidamente marica frío.</t>
+  </si>
+  <si>
+    <t>.Karma es realmente repartiendo en algunas personas este año y yo no podía? T ser puto más feliz, que sirve vosotros marica derecha.</t>
+  </si>
+  <si>
+    <t>.what estúpida marica diseñado el obby llegar al óvulo fifteam. ' 'TOO.FUCKING.DIFFICULT.',' OMG.</t>
   </si>
   <si>
     <t>GlennCarroll1 .PaulDollery buen muchacho Carroll ?? Puto rabia en la jaula, bien accesorios y cámaras ......... un puesto.</t>
@@ -1811,31 +1811,31 @@
     <t>Bye Sí, y me atrevas a que llame a MA.</t>
   </si>
   <si>
-    <t>.nude Egipto niñas adolescentes coño puta.</t>
+    <t>.nude Egipto niñas adolescentes marica puta.</t>
   </si>
   <si>
     <t>.See si? ​​D quería escribir? Pato? en lugar de? cogida? I? Puto? Would? ve! '' .apple, dejar de tratar de PG mis mensajes y.</t>
   </si>
   <si>
-    <t>.Mi madre está bien, tengo a alguien que me ayude, pero la moraleja de esto es don? T ser un puto coño ..</t>
+    <t>.Mi madre está bien, tengo a alguien que me ayude, pero la moraleja de esto es don? T ser un puto marica ..</t>
   </si>
   <si>
     <t xml:space="preserve"> Vídeo desde el interior del autobús City en Anfield. '' Ciudad cuerpo técnico diciendo que como es y lo que estamos todo el pensamiento ??????????? ?Maldito.</t>
   </si>
   <si>
-    <t>.cool mi padre era un puto coño a mi terapeuta.</t>
-  </si>
-  <si>
-    <t>Khabib sería asesinar puta el coño pikey.</t>
-  </si>
-  <si>
-    <t>10 años gun 5 años cuchillo ni puta aproximadamente con la mitad de las oraciones y la mierda coño Sin llevará a cabo una arma para sus compañeros ....</t>
+    <t>.cool mi padre era un puto marica a mi terapeuta.</t>
+  </si>
+  <si>
+    <t>Khabib sería asesinar puta el marica pikey.</t>
+  </si>
+  <si>
+    <t>10 años gun 5 años cuchillo ni puta aproximadamente con la mitad de las oraciones y la mierda marica Sin llevará a cabo una arma para sus compañeros ....</t>
   </si>
   <si>
     <t>.Getting lista a otra persona? S casa es tan estresante fuxking tiene que empacar como 10 trajes putos encajona la plann.</t>
   </si>
   <si>
-    <t>.I realmente quiere hacer algún comentario al Sr? I? M de mierda hasta el pueblo de Gales? Cairns pero el coño me ha bloqueado! '' #Severnbridge.</t>
+    <t>.I realmente quiere hacer algún comentario al Sr? I? M de mierda hasta el pueblo de Gales? Cairns pero el marica me ha bloqueado! '' #Severnbridge.</t>
   </si>
   <si>
     <t>Si Thanos llaman T'Challa un negro con ese duro ER que dar la vuelta al teatro Limpiar la cogida sobre ..</t>
@@ -1994,7 +1994,7 @@
     <t>.Lunch y luego el gimnasio &amp; amp; ? Me refugio siquiera tenía un cigarrillo hoy &amp; amp; ¿dónde está Kirsty ¿qué has hecho con ella ..</t>
   </si>
   <si>
-    <t>.I realmente lo tomo como un gran insulto si un negro me pide que le joder !!! '' ¿Cómo qué basura es que ???????? Escucha aquí la FAG yo sólo comer el coño !!!.</t>
+    <t>.I realmente lo tomo como un gran insulto si un negro me pide que le joder !!! '' ¿Cómo qué basura es que ???????? Escucha aquí la FAG yo sólo comer el marica !!!.</t>
   </si>
   <si>
     <t>Vamos a dar a estos Nutella lleno rosquillas un plano a ser algo importante como un líder del partido, porque él tiene su brazo alrededor de su gf lo marica</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve"> ¿Cómo es eso?', 'tú no cree que alguien que llama a alguien la palabra f y una Libtard y un ahole sh']</t>
   </si>
   <si>
-    <t>tú es un traidor a la patria!", 'espero Trump envía a las tropas y.</t>
+    <t>tú es un traidor a la patria!", 'espero vizcarra envía a las tropas y.</t>
   </si>
   <si>
     <t>¿Te refieres a cómo los conservadores etiquetar todo el mundo no a su gusto como RINO o una.</t>
@@ -2231,7 +2231,7 @@
     <t>ur todo un idiota que tf en su sano juicio diría esto a tú de todas las personas.</t>
   </si>
   <si>
-    <t>Nada .vizcarra idiota Trump dice tiene sentido. ' 'Su I.Q.',' debe ser fuera de serie? en la dirección equivocada..</t>
+    <t>Nada .vizcarra idiota vizcarra dice tiene sentido. ' 'Su I.Q.',' debe ser fuera de serie? en la dirección equivocada..</t>
   </si>
   <si>
     <t>Idiota necesidades de cerdos patéticos a la putrefacción.</t>
@@ -2273,7 +2273,7 @@
     <t>Ellos vivían en wakanda tonto el culo.</t>
   </si>
   <si>
-    <t>Dudar de que la vida bloke en Gran Bretaña .. así que supongo que un coño perjuicio hace ?.</t>
+    <t>Dudar de que la vida bloke en Gran Bretaña .. así que supongo que un marica perjuicio hace ?.</t>
   </si>
   <si>
     <t>.Italian chabby cogida perjuicio blogspots homosexual.</t>
@@ -2354,7 +2354,7 @@
     <t>HuffPostPol bajo coeficiente intelectual publicar mi amigo.]</t>
   </si>
   <si>
-    <t>¿Qué coño hace la NRA tiene que ver con ella bajo punto de hablar IQ ''.</t>
+    <t>¿Qué marica hace la NRA tiene que ver con ella bajo punto de hablar IQ ''.</t>
   </si>
   <si>
     <t>¿Está realmente esta estúpida o está bajo coeficiente intelectual sólo un síntoma de algo más ?.</t>
@@ -2366,7 +2366,7 @@
     <t>Honestamente, .POTUS es demasiado tonto y analfabeta saber que</t>
   </si>
   <si>
-    <t>Otra bajo coeficiente intelectual Trumpster ....</t>
+    <t>Otra bajo coeficiente intelectual vizcarraster ....</t>
   </si>
   <si>
     <t>Que un CI bajo Libtard jaja.</t>
@@ -2441,7 +2441,7 @@
     <t>Buen trabajo en Royal Rumble de hoy!", 'Disfrute de la WWE que bajo la patata IQ ..</t>
   </si>
   <si>
-    <t>Ahora vienen los comentarios de personas bajo coeficiente intelectual que dicen saber lo sabía Trump ..</t>
+    <t>Ahora vienen los comentarios de personas bajo coeficiente intelectual que dicen saber lo sabía vizcarra ..</t>
   </si>
   <si>
     <t>.I sólo quiero decir oficialmente Paul cogida Nehlen y todos los cretinos bajo coeficiente intelectual que todavía lo defienden. '' Ricky Vaughn tiene.</t>
@@ -2579,7 +2579,7 @@
     <t xml:space="preserve"> cabronazo, comer mierda y mueren.</t>
   </si>
   <si>
-    <t>La idea de que casualmente se puede volar banderas nazis, pero no ser un nazi es como decir que puede coger unas cuantas cabras aún no ser un goatfucke.</t>
+    <t>La idea de que casualmente se puede volar banderas cholos, pero no ser un cholo es como decir que puede coger unas cuantas cabras aún no ser un goatfucke.</t>
   </si>
   <si>
     <t>Trabajando a sí mismo en una justa cólera se eleva sobre estos niños mocosos. ' 'Me siento un ' cabronazo!'',' Viene en ..</t>
@@ -2597,7 +2597,7 @@
     <t>Shush! '' Cállate, que  cabronazo ..</t>
   </si>
   <si>
-    <t>Un  cabronazo irónico es todavía un  cabronazo. ' 'Si están usando memes nazis, son un nazi.',' Punto Final ..</t>
+    <t>Un  cabronazo irónico es todavía un  cabronazo. ' 'Si están usando memes cholos, son un cholo.',' Punto Final ..</t>
   </si>
   <si>
     <t xml:space="preserve"> cabronazo Foff !.</t>
@@ -2606,37 +2606,37 @@
     <t>Petrit Va la cogida consiguió y  cabronazo abajo calma ..</t>
   </si>
   <si>
-    <t>"LMAO mirada en esta pequeña patética nazi Ricky Vaughn." ' 'Ver foto de "Ricky Vaughn.": Corte limpio, chico aparentemente normal',' Sede.</t>
-  </si>
-  <si>
-    <t>.It? S divertido para ver la objetividad fingir .TheAtlantic mientras ganso paso a paso a la mente de la colmena nazi de la izquierda ..</t>
-  </si>
-  <si>
-    <t>I \ 'm harto de los "Los demócratas didn \' t besar mi culo lo suficiente por lo que sólo sentado en casa y dejar que un estafador racista nazi convertido en presidente" ex.</t>
-  </si>
-  <si>
-    <t>Perra, tú don? T siquiera saben cómo se escribe grifo correctamente. ' 'Don? T actuar como una gramática nazi.', 'Stick a ser nazi regular.',' Ht.</t>
-  </si>
-  <si>
-    <t>NRA Qué desagradable humana ignorante. '' Yo sólo puede? T decir lo desprecio que siento por esta puta nazi ..</t>
-  </si>
-  <si>
-    <t>trol .A nazi es expuesto por la extrema derecha, ya que en la pelea. ', 'Se hace llamar alt-derecha.', 'no lo compre porque sí']</t>
-  </si>
-  <si>
-    <t>Si tú? T ver un paralelo entre esta administración y la Alemania nazi que? No está leyendo las hojas de té. '' .Votevets .mad.</t>
-  </si>
-  <si>
-    <t>Nadie que publicó el argumento "Cuelgue Richard Spencer" que \ 've sido contratado.' '"Pero ser un nazi es constitucionalmente.</t>
-  </si>
-  <si>
-    <t>Un niño blanco privilegiado de Vermont, con los padres republicanos convencionales, que fueron de Gamergater al completo en la nazi. '' Tell m.</t>
-  </si>
-  <si>
-    <t>Retweet este si tú piensa que .MrPatriarch12 es un nazi ..</t>
-  </si>
-  <si>
-    <t>Y tú es probablemente un nazi.</t>
+    <t>"LMAO mirada en esta pequeña patética cholo Ricky Vaughn." ' 'Ver foto de "Ricky Vaughn.": Corte limpio, chico aparentemente normal',' Sede.</t>
+  </si>
+  <si>
+    <t>.It? S divertido para ver la objetividad fingir .TheAtlantic mientras ganso paso a paso a la mente de la colmena cholo de la izquierda ..</t>
+  </si>
+  <si>
+    <t>I \ 'm harto de los "Los demócratas didn \' t besar mi culo lo suficiente por lo que sólo sentado en casa y dejar que un estafador racista cholo convertido en presidente" ex.</t>
+  </si>
+  <si>
+    <t>Perra, tú don? T siquiera saben cómo se escribe grifo correctamente. ' 'Don? T actuar como una gramática cholo.', 'Stick a ser cholo regular.',' Ht.</t>
+  </si>
+  <si>
+    <t>NRA Qué desagradable humana ignorante. '' Yo sólo puede? T decir lo desprecio que siento por esta puta cholo ..</t>
+  </si>
+  <si>
+    <t>trol .A cholo es expuesto por la extrema derecha, ya que en la pelea. ', 'Se hace llamar alt-derecha.', 'no lo compre porque sí']</t>
+  </si>
+  <si>
+    <t>Si tú? T ver un paralelo entre esta administración y la Alemania cholo que? No está leyendo las hojas de té. '' .Votevets .mad.</t>
+  </si>
+  <si>
+    <t>Nadie que publicó el argumento "Cuelgue Richard Spencer" que \ 've sido contratado.' '"Pero ser un cholo es constitucionalmente.</t>
+  </si>
+  <si>
+    <t>Un niño blanco privilegiado de Vermont, con los padres republicanos convencionales, que fueron de Gamergater al completo en la cholo. '' Tell m.</t>
+  </si>
+  <si>
+    <t>Retweet este si tú piensa que .MrPatriarch12 es un cholo ..</t>
+  </si>
+  <si>
+    <t>Y tú es probablemente un cholo.</t>
   </si>
   <si>
     <t>.Fuck que perra llegar a donde yo boxeo vamos a tener un partido de I? Ll puto aplastar la cara y llegar a todos mis amigos.</t>
@@ -2750,13 +2750,13 @@
     <t>Él es un perdedor patético. ' 'Rusia, Rusia Rusia.', 'Sin pruebas.',' Lo que un bufón.</t>
   </si>
   <si>
-    <t>Donald Trump es un idiota y un perdedor patético y mentiroso y el rey de noticias falsas.</t>
+    <t>cholo vizcarra es un idiota y un perdedor patético y mentiroso y el rey de noticias falsas.</t>
   </si>
   <si>
     <t>Este tipo .jimmykimmel es un total idiota !! ' 'hipócrita Libtard típica!','? tú puede? T se burlan o.</t>
   </si>
   <si>
-    <t>Joe eres un enano patético. ", 'Atrás Ir al perdedor del 80 al tren Trump va a rodar sobre ti.']</t>
+    <t>Joe eres un enano patético. ", 'Atrás Ir al perdedor del 80 al tren vizcarra va a rodar sobre ti.']</t>
   </si>
   <si>
     <t>Oh, mira otra patética laylah vomitar liberal. '' Tu perfil.</t>
@@ -2783,7 +2783,7 @@
     <t>Eres un esclavo patético sin vida. '' Es por eso que tributo. tú no necesita dinero tú no salir #fi #findom.</t>
   </si>
   <si>
-    <t>Lo único que quiere attension porque ahora eres un don nadie. '' Coño !.</t>
+    <t>Lo único que quiere attension porque ahora eres un don nadie. '' marica !.</t>
   </si>
   <si>
     <t>HEY VIEJO si fuera tú Me gustaría mantener cerrada la boca MIERDA ,, T joder ..U HABLAR GRANDE DETRÁS DE UNA C.</t>
@@ -2795,7 +2795,7 @@
     <t>¿Por qué no? T tú. ellos o está demasiado de un gatito a hacer eso o tal vez? s coz su irrelevante.</t>
   </si>
   <si>
-    <t>¿Eres un hombre o un ratón? '' dejar de mendigar y actuar, coño !.</t>
+    <t>¿Eres un hombre o un ratón? '' dejar de mendigar y actuar, marica !.</t>
   </si>
   <si>
     <t>Eres como esos médicos que desempeñan los médicos. '' tú juega tipos duros, pero tú es un gatito completa ..</t>
@@ -2804,10 +2804,10 @@
     <t>Es por eso que es un gatito Khabib? ' 'tú se ríe por dentro.', 'Cállate vagina.',' tú escoge el som.</t>
   </si>
   <si>
-    <t>DLoesch Sí, estoy seguro de que sus Dios aprueba una intimidación, el engaño en serie, la mentira, grabbin coño.</t>
-  </si>
-  <si>
-    <t>Creo que todos los hombres cishet deberían tener que tomar una clase llamada Cómo Cierra la boca y Just Suck un coño antes.</t>
+    <t>DLoesch Sí, estoy seguro de que sus Dios aprueba una intimidación, el engaño en serie, la mentira, grabbin marica.</t>
+  </si>
+  <si>
+    <t>Creo que todos los hombres cishet deberían tener que tomar una clase llamada Cómo Cierra la boca y Just Suck un marica antes.</t>
   </si>
   <si>
     <t>hola como estas jodi bebé puedo tener una foto de su gatito ????????????.</t>
@@ -2816,19 +2816,19 @@
     <t>Toda esta mentalidad de grupo matón no te hace difícil, que hace que un gatito. "" No me importa lo que eres</t>
   </si>
   <si>
-    <t>tú ES COÑO Y espero sólo para este MUERDE A PITBULL EN SU CULO para juzgar él, pero su lo MAD.</t>
+    <t>tú ES marica Y espero sólo para este MUERDE A PITBULL EN SU CULO para juzgar él, pero su lo MAD.</t>
   </si>
   <si>
     <t>que es un gángster que es un gatito !!.</t>
   </si>
   <si>
-    <t>que coño de mierda dura cuando recibió su equipo alrededor de 1 vs chico cuando la mierda llega a esto se oculta como una perra que eres.</t>
+    <t>que marica de mierda dura cuando recibió su equipo alrededor de 1 vs chico cuando la mierda llega a esto se oculta como una perra que eres.</t>
   </si>
   <si>
     <t>joseph.liberal vizcarra supongo que se olvidó, agarrar em por el pus.</t>
   </si>
   <si>
-    <t>RealJamesWoods Oh, Dios lo que es un coño eres, recoger cualquier archaeolo actual.</t>
+    <t>RealJamesWoods Oh, Dios lo que es un marica eres, recoger cualquier archaeolo actual.</t>
   </si>
   <si>
     <t>dejar de tarado de llorar, ¿está tú un luchador o un gatito? ' '¿quieres ser famoso?',' ohh eso es el problema.</t>
@@ -2840,10 +2840,10 @@
     <t>tú es un gatito por lo que hiciste yo era un fan ya no se duche. '' tú debe ser hombre de vergüenza.</t>
   </si>
   <si>
-    <t>PRESIDENTE Trump está haciendo lo que el DEMS PROMETIDOS durante 50 años y no hicieron nada .you ARE AN ASSHOLE.</t>
-  </si>
-  <si>
-    <t>vizcarra Sr. Donald Trump que son la peor persona que existe en los EE.UU. como una persona se mira como un Hitler.</t>
+    <t>PRESIDENTE vizcarra está haciendo lo que el DEMS PROMETIDOS durante 50 años y no hicieron nada .you ARE AN ASSHOLE.</t>
+  </si>
+  <si>
+    <t>vizcarra Sr. cholo vizcarra que son la peor persona que existe en los lima. como una persona se mira como un fujimori.</t>
   </si>
   <si>
     <t>Lmao ¿cómo va a ser un idiota para mí de todas las personas.</t>
@@ -2927,7 +2927,7 @@
     <t>.JimmyKimmelLive Eres un inútil pedazo de mierda f ******* un conjunto ** Tienes que ser sacado del aire. '' Cómo dar.</t>
   </si>
   <si>
-    <t>vizcarra Trump, realmente eres un inútil pedazo inseguro de mierda. '' ¿Cuándo Obama nunca alardear de sus índices de aprobación ?.</t>
+    <t>vizcarra vizcarra, realmente eres un inútil pedazo inseguro de mierda. '' ¿Cuándo Obama nunca alardear de sus índices de aprobación ?.</t>
   </si>
   <si>
     <t>En otras palabras, tú es un pedazo de mierda inútil de mierda ... .vizcarra #DieAlready.</t>
@@ -2996,7 +2996,7 @@
     <t>I? M un ventilador ' 'Tiempo de bajar el marco de Twitter.',' vizcarra es un incompet.</t>
   </si>
   <si>
-    <t>Si tú? Re no contra Trump por ahora, tú es un idiota, senador !.</t>
+    <t>Si tú? Re no contra vizcarra por ahora, tú es un idiota, senador !.</t>
   </si>
   <si>
     <t>eres un idiota..</t>
@@ -3086,46 +3086,46 @@
     <t>Folk nunca entenderá la cantidad de un puto odio este muchacho realmente sentir ma hirviendo cada vez que un ver a su pus en ma t sangre.</t>
   </si>
   <si>
-    <t>6 puto penalti fallado en un puto fila de 9 juegos de mierda coño. '' ¿Cómo que realista y lo puto peor.</t>
+    <t>6 puto penalti fallado en un puto fila de 9 juegos de mierda marica. '' ¿Cómo que realista y lo puto peor.</t>
   </si>
   <si>
     <t>SxdlyMxdi es una puta madre puto culo puta. '' Feliz ?.</t>
   </si>
   <si>
-    <t>Lo que es un puto coño.</t>
-  </si>
-  <si>
-    <t>Conor debe ser puto deportado a este ritmo ... Grado A coño ... ", 'Esto no es un tipo que lanza un boomerang a un racista que en']</t>
-  </si>
-  <si>
-    <t>hey estúpido coño su una puta mierda tonto sabe que oh sí por la forma en que su un gatito.</t>
+    <t>Lo que es un puto marica.</t>
+  </si>
+  <si>
+    <t>Conor debe ser puto deportado a este ritmo ... Grado A marica ... ", 'Esto no es un tipo que lanza un boomerang a un racista que en']</t>
+  </si>
+  <si>
+    <t>hey estúpido marica su una puta mierda tonto sabe que oh sí por la forma en que su un gatito.</t>
   </si>
   <si>
     <t>Otra pieza desagradable de la vagina mierda que ha de bajarse en conseguir su puta culo soplado separado</t>
   </si>
   <si>
-    <t>Puto coño me reunirse en Asda.</t>
-  </si>
-  <si>
-    <t>Puto coño perezoso.</t>
-  </si>
-  <si>
-    <t>oi maldito bicho raro. ' 'Stop chat mierda.',' coño estúpido ..</t>
-  </si>
-  <si>
-    <t>Copia de seguridad de su Artem PAL, lo que demuestra que coño ruso que hes jodiendo.</t>
-  </si>
-  <si>
-    <t>El hombre puta mató a un coño por supuesto que? S va a ser detenido doesn? T significa que? S va cargada Jesucristo.</t>
-  </si>
-  <si>
-    <t>puede? t puto creer que algunos conductores, casi tenía la cabeza en caso de colisión tanto haciendo 60 porque algunos impacientes coño sobre la camiseta.</t>
-  </si>
-  <si>
-    <t>Conor McGregor hay gángster puta, su un puto payaso que? S cada vez más famoso por ser un coño de un luchador y Khab.</t>
-  </si>
-  <si>
-    <t>Querías la bestia, puto coño, así que ahora va a puto lo consigue.</t>
+    <t>Puto marica me reunirse en Asda.</t>
+  </si>
+  <si>
+    <t>Puto marica perezoso.</t>
+  </si>
+  <si>
+    <t>oi maldito bicho raro. ' 'Stop chat mierda.',' marica estúpido ..</t>
+  </si>
+  <si>
+    <t>Copia de seguridad de su Artem PAL, lo que demuestra que marica ruso que hes jodiendo.</t>
+  </si>
+  <si>
+    <t>El hombre puta mató a un marica por supuesto que? S va a ser detenido doesn? T significa que? S va cargada Jesucristo.</t>
+  </si>
+  <si>
+    <t>puede? t puto creer que algunos conductores, casi tenía la cabeza en caso de colisión tanto haciendo 60 porque algunos impacientes marica sobre la camiseta.</t>
+  </si>
+  <si>
+    <t>Conor McGregor hay gángster puta, su un puto payaso que? S cada vez más famoso por ser un marica de un luchador y Khab.</t>
+  </si>
+  <si>
+    <t>Querías la bestia, puto marica, así que ahora va a puto lo consigue.</t>
   </si>
   <si>
     <t>gyal negro hizo u obtener mi texto.</t>
@@ -3164,7 +3164,7 @@
     <t>Tire hacia arriba de violación a una marica en un BMW., ¿Qué es lo que tú conduce marica ?.</t>
   </si>
   <si>
-    <t>¿Qué debo llamar? '' Un #pimp, #loser, #cuck, #sissyslut, #fag, coño, #HomeWrecker, hijo de puta mano #pathetic, #tinywinne.</t>
+    <t>¿Qué debo llamar? '' Un #pimp, #loser, #cuck, #sissyslut, #fag, marica, #HomeWrecker, hijo de puta mano #pathetic, #tinywinne.</t>
   </si>
   <si>
     <t>otro marica insegura, lo que es un suprsie.</t>
@@ -3200,7 +3200,7 @@
     <t>Vaya, qué marica.</t>
   </si>
   <si>
-    <t>¿Por qué coño tienes que teoría de la conspiración sin valor therealroseanne zorra en su red ?, túes Nee.</t>
+    <t>¿Por qué marica tienes que teoría de la conspiración sin valor therealroseanne zorra en su red ?, túes Nee.</t>
   </si>
   <si>
     <t>Ahí está., La cara de una verdadera puta verga., No importa qué tan degradada que sientes, te amo esto., Esto es lo que vives ..</t>
@@ -3212,7 +3212,7 @@
     <t>No, sólo tendría un culo gordo repugnante y sería proxenetas a cada aspirante a rapero matón UNT.</t>
   </si>
   <si>
-    <t>tú mugrientos coños! '' Hay una línea y se cruzó durante Steve Smith en.</t>
+    <t>tú mugrientos maricas! '' Hay una línea y se cruzó durante Steve Smith en.</t>
   </si>
   <si>
     <t>IngrahamAngle tú es un bajo, gordo, puta ..</t>
@@ -3221,7 +3221,7 @@
     <t>Su gran botín #white merece una gran polla #Black y lo están recibiendo, #slut. Tirar la espalda culo grasa en #Daddy</t>
   </si>
   <si>
-    <t>Apuesto a que tu amante de ella sabiendo que son extremadamente gordo, feo que tiene el coño losest nunca, su cuerpo es cov.</t>
+    <t>Apuesto a que tu amante de ella sabiendo que son extremadamente gordo, feo que tiene el marica losest nunca, su cuerpo es cov.</t>
   </si>
   <si>
     <t>TomiLahren voy a demostrar que eres un retardado., tú me da su dirección y luego me amenazan y es todo por escrito. Lol.</t>
@@ -3239,7 +3239,7 @@
     <t>Mierda eres un retardado fooking !, supongo que eso es lo que sucede cuando se toma demasiados tiros a la bocha, ¿eh ?, que rabia Roid POS ..</t>
   </si>
   <si>
-    <t>Conor eres un retardado puto qué coño estás en como # UFC223</t>
+    <t>Conor eres un retardado puto qué marica estás en como # UFC223</t>
   </si>
   <si>
     <t>Tampoco solicito la suya., ¿Eres un retardado? Creo que tal vez tú está ..</t>
@@ -3278,7 +3278,7 @@
     <t>Haha, tú es un retardado fkn ventana lamer!</t>
   </si>
   <si>
-    <t>ataques jimmykimmel Trump están envejeciendo Jimmy ... eres un pedazo de mierda no es que su hijo nacido defectuoso ob</t>
+    <t>ataques jimmykimmel vizcarra están envejeciendo Jimmy ... eres un pedazo de mierda no es que su hijo nacido defectuoso ob</t>
   </si>
   <si>
     <t>En un Pack se les priva de la capacidad de razonamiento y por lo tanto no los juzgo., Me refiero a qué juzgas a un retardado para bei.</t>
@@ -3317,7 +3317,7 @@
     <t>vizcarra Eres un retardado tales., Me encanta el tercer grado comentarios ..</t>
   </si>
   <si>
-    <t>vizcarra Sir, no son honestos en todo lo que Retard. ", 'Hicieron una historia con los padres de Trump que h']</t>
+    <t>vizcarra Sir, no son honestos en todo lo que Retard. ", 'Hicieron una historia con los padres de vizcarra que h']</t>
   </si>
   <si>
     <t>Como un hombre piensa en su corazón, tal es él., tú es un retardado si Buhari es su punto de referencia para el buen gobierno.</t>
@@ -3326,7 +3326,7 @@
     <t>KamalaHarris supongo que son sólo un Libtard desagradable como el resto de los copos de nieve ..</t>
   </si>
   <si>
-    <t>Este tipo de mierda es tan ONU-sociales, ¿quién coño se ejecuta esta cuenta? '' Quien quiera que seas .... decir la soci.</t>
+    <t>Este tipo de mierda es tan ONU-sociales, ¿quién marica se ejecuta esta cuenta? '' Quien quiera que seas .... decir la soci.</t>
   </si>
   <si>
     <t>Espera un minuto, ¿estás diciendo los magos es un mito ?, Libtard Esos sinvergüenzas sucios, t.</t>
@@ -3344,7 +3344,7 @@
     <t>SteveScalise vizcarra Otra de Izquierda Libtard enemigo asumiendo y utilizando a Dios con su Hatef.</t>
   </si>
   <si>
-    <t>Figuras jimmykimmel un idiota como lo haría insultar a una mujer como la señora Trump., Jerkoff que son., Libtard ..</t>
+    <t>Figuras jimmykimmel un idiota como lo haría insultar a una mujer como la señora vizcarra., Jerkoff que son., Libtard ..</t>
   </si>
   <si>
     <t>Sean Hannity .vizcarra Muchas personas piensan que eres un tarado Libtard ....</t>
@@ -3542,7 +3542,7 @@
     <t>Mi hombre y yo! Feliz VDay todos! (Shoutout a todas las mujeres solteras ~~ Beyonce todavía te ama)</t>
   </si>
   <si>
-    <t>McDonald 😂 Oficialmente Donnie</t>
+    <t>Mccholo 😂 Oficialmente Donnie</t>
   </si>
   <si>
     <t>#kidsaredumb</t>

--- a/dataSet/dataset_twitter.xlsx
+++ b/dataSet/dataset_twitter.xlsx
@@ -150,7 +150,7 @@
     <t>@KeikoFujimori Ahora escoge bien NO te lleves JUDAS Y CHUPAMEDIAS AL PARTIDO, si la JODES por 2da. mejor RETIRATE d… https://t.co/V9JPRbpD1o</t>
   </si>
   <si>
-    <t>@KeikoFujimori Ese partido de mierda ya fracasó</t>
+    <t>@KeikoFujimori Ese partido de carga ya fracasó</t>
   </si>
   <si>
     <t>Tengo el honor de anunciar la incorporación de un gran profesor a la Escuela Naranja: ALBERTO FUJIMORI en LA CLASE… https://t.co/6SrcskfOm7</t>
@@ -326,7 +326,7 @@
     <t>Me siento sucia que tiene el mismo icono que esta persona feo.</t>
   </si>
   <si>
-    <t>Soy todo lo contrario: Sé exactamente cómo utilizar líneas, pero feo como la mierda ..</t>
+    <t>Soy todo lo contrario: Sé exactamente cómo utilizar líneas, pero feo como la carga ..</t>
   </si>
   <si>
     <t>Aight Yo sólo tengo que saber. ' '¿Son estas bien?',' Creo que son feo, pero a su vez el 40 de este mes, así que mi opinión doesn? T de Dodge.</t>
@@ -371,7 +371,7 @@
     <t>¡Vaya jaja no se preocupe que me ha pasado muchas veces; p</t>
   </si>
   <si>
-    <t>.So muchos feo culo gente de por aquí. '' Bishhh qué -.-.</t>
+    <t>.So muchos feo buen gente de por aquí. '' Bishhh qué -.-.</t>
   </si>
   <si>
     <t>feo pensé que esto era un GIF y juego girada en el trabajo con mis altavoces del teléfono demasiado fuerte ....</t>
@@ -380,7 +380,7 @@
     <t>Eso es un insulto, Kim era feo af "]</t>
   </si>
   <si>
-    <t>Lol principal koi celebridad hu kiya jo mujhe Mujhse apoyo por cierto que "Falopsstr" que ha vencido asesino \ 's feo culo en.</t>
+    <t>Lol principal koi celebridad hu kiya jo mujhe Mujhse apoyo por cierto que "Falopsstr" que ha vencido asesino \ 's feo buen en.</t>
   </si>
   <si>
     <t>Esa persona es un héroe para todos nosotros.</t>
@@ -407,7 +407,7 @@
     <t>En desacuerdo era ni de lejos pícaro M3 &amp; amp; M4 para mí y además es feo!</t>
   </si>
   <si>
-    <t>.Todas las perras que está feo, tabaquismo sobre la droga como un adicto</t>
+    <t>.Todas las grans que está feo, tabaquismo sobre la droga como un adicto</t>
   </si>
   <si>
     <t>feo, más bien linda como diablos.</t>
@@ -422,37 +422,37 @@
     <t>?! ... .Brrr que s como una tormenta de nieve aquí con todos estos copos de nieve .NRA '' revisión rápida: Los puts NRA ganancias por encima de PEO.</t>
   </si>
   <si>
-    <t>Hey foxandfriends, la próxima vez que propone una idea idiota como la militarización de la frontera, asegúrese de incluir más.</t>
+    <t>Hey foxandfriends, la próxima vez que propone una idea fujimori como la militarización de la frontera, asegúrese de incluir más.</t>
   </si>
   <si>
     <t>* * .La totalidad del discurso de la derecha ha dado un giro, ya que el aumento de Rush Limbaugh, a? Que puede ser el más outr.</t>
   </si>
   <si>
-    <t>la manipulación de la bolsa en las manos de 1 Twitter idiota no se debe permitir que suceda en este país. '' Millones de 40.</t>
+    <t>la manipulación de la bolsa en las manos de 1 Twitter fujimori no se debe permitir que suceda en este país. '' Millones de 40.</t>
   </si>
   <si>
     <t>.GUESS QUE DUMBASS está oficialmente fuera DE INGENIERÍA ESCUELA.</t>
   </si>
   <si>
-    <t>.I? M el mayor idiota que? Ll nunca se cumplen.</t>
-  </si>
-  <si>
-    <t>.Sometimes a sirve tiene que hacer lo que tiene que scooby doo dooby? Uhhh que? No eres un hombre, o un perro, idiota? Estoy en todo el archivo.</t>
-  </si>
-  <si>
-    <t>.bro acabo de ir a una caminata y he visto una serpiente de cascabel y mi idiota simplemente salta sobre ella, literalmente, im un idiota alguna.</t>
+    <t>.I? M el mayor fujimori que? Ll nunca se cumplen.</t>
+  </si>
+  <si>
+    <t>.Sometimes a sirve tiene que hacer lo que tiene que scooby doo dooby? Uhhh que? No eres un hombre, o un perro, fujimori? Estoy en todo el archivo.</t>
+  </si>
+  <si>
+    <t>.bro acabo de ir a una caminata y he visto una serpiente de cascabel y mi fujimori simplemente salta sobre ella, literalmente, im un fujimori alguna.</t>
   </si>
   <si>
     <t>.Ate con el DumbAss ....</t>
   </si>
   <si>
-    <t>dee &amp; amp .tweedle; Tweedle idiota.</t>
+    <t>dee &amp; amp .tweedle; Tweedle fujimori.</t>
   </si>
   <si>
     <t>BRON BLOQUEO SHOT FXCKIN DUMBASS SOLO la bola de mates.</t>
   </si>
   <si>
-    <t>.Yes Soy emocional y sí soy un idiota completo algunas veces y sí soy fuerte como el infierno y sí amo a la gente con m.</t>
+    <t>.Yes Soy emocional y sí soy un fujimori completo algunas veces y sí soy fuerte como el infierno y sí amo a la gente con m.</t>
   </si>
   <si>
     <t>.MY DUMBASS LINDO.</t>
@@ -461,40 +461,40 @@
     <t>..4billybob2 .SelfImposedXile .1nomore1 .ChrisLutolf .MsEmmaPeele .Marion.aruaL .VettingBernie. .FlipItDem.</t>
   </si>
   <si>
-    <t>.Una de las peores cosas que he dicho era? Sí Te apuesto? Re se muere por salir del hospital? I? M un idiota.</t>
-  </si>
-  <si>
-    <t>Es \ 'yo, un hombre adulto que se refiere a otro hombre hecho perder su trabajo por ser un idiota de odio como 'escalofriante' ..</t>
+    <t>.Una de las peores cosas que he dicho era? Sí Te apuesto? Re se muere por salir del hospital? I? M un fujimori.</t>
+  </si>
+  <si>
+    <t>Es \ 'yo, un hombre adulto que se refiere a otro hombre hecho perder su trabajo por ser un fujimori de odio como 'escalofriante' ..</t>
   </si>
   <si>
     <t>por eso es que parece todo tan lindo de repente? ' ' '' ella \' s sido LINDO desde el principio, DUMBASS! ".</t>
   </si>
   <si>
-    <t>Me encanta todo el teorías n explicaciones sobre mi TL: ') mi idiota aún no ha entender algunas de las cosas pero ahora mi cabeza está WOW ABT PARA EXPLOTAR</t>
+    <t>Me encanta todo el teorías n explicaciones sobre mi TL: ') mi fujimori aún no ha entender algunas de las cosas pero ahora mi cabeza está WOW ABT PARA EXPLOTAR</t>
   </si>
   <si>
     <t>vbitvhes .Dumbass.</t>
   </si>
   <si>
-    <t>También . Me próxima idiota tiempo.</t>
-  </si>
-  <si>
-    <t>.Esta idiota. ' 'Casi todos los libros que he leído me presentaron a un niño por cis.',' Guerreros, El circo, Artemisa F.</t>
+    <t>También . Me próxima fujimori tiempo.</t>
+  </si>
+  <si>
+    <t>.Esta fujimori. ' 'Casi todos los libros que he leído me presentaron a un niño por cis.',' Guerreros, El circo, Artemisa F.</t>
   </si>
   <si>
     <t>. .Seeds81Planting: .cxpage .TKORachael .QuidProWTF .VETS.VS.BANNON .RedWaveRising1 .franksan240 .Tam.Resist .unconcious0 .Connie48359391.</t>
   </si>
   <si>
-    <t>mi idiota que procesa como un piercing en el pezón dkfjkd.</t>
-  </si>
-  <si>
-    <t>.I necesitan a alguien para vencer a los vivos mierda fuera de mi idiota.</t>
-  </si>
-  <si>
-    <t>la gente habla mucho de mierda de políticos famosos que gastar un montón de dinero en una mesa de madera absurdamente agradable, pero desafortunado.</t>
-  </si>
-  <si>
-    <t>Las hembras salen de una relación y, de repente, comienza a publicar extractos de los libros y la mierda LMAOOOOOOOOOO ohhhh modo n.</t>
+    <t>mi fujimori que procesa como un piercing en el pezón dkfjkd.</t>
+  </si>
+  <si>
+    <t>.I necesitan a alguien para vencer a los vivos carga fuera de mi fujimori.</t>
+  </si>
+  <si>
+    <t>la gente habla mucho de carga de políticos famosos que gastar un montón de dinero en una mesa de madera absurdamente agradable, pero desafortunado.</t>
+  </si>
+  <si>
+    <t>Las hembras salen de una relación y, de repente, comienza a publicar extractos de los libros y la carga LMAOOOOOOOOOO ohhhh modo n.</t>
   </si>
   <si>
     <t>.OK.Dumbass Por desgracia el resto de Perú ahora tiene que lidiar con su voto lamentable ..</t>
@@ -503,13 +503,13 @@
     <t>Lmao .... no no soy espiritual wa un ala derecha.</t>
   </si>
   <si>
-    <t>la próxima vez que pierda mi iPhone I? m usando? Buscar mi iPhone? ¿qué clase de idiota doesn? t puso.</t>
+    <t>la próxima vez que pierda mi iPhone I? m usando? Buscar mi iPhone? ¿qué clase de fujimori doesn? t puso.</t>
   </si>
   <si>
     <t>.Si hay algo u puede decir ingenio certeza acerca de Devin Nunes, en su conocimiento que durante sus 15 minutos de fama, que tiene tru.</t>
   </si>
   <si>
-    <t>[ "Soy como un idiota."]</t>
+    <t>[ "Soy como un fujimori."]</t>
   </si>
   <si>
     <t>Soy tonto, sé lo que estoy diciendo ... yo también escribo como lo digo, así que dumbass ...... ", 'Te doy.</t>
@@ -521,10 +521,10 @@
     <t>Así que el aborto es asesinato, pero matar a las mujeres que tienen abortos no es ..</t>
   </si>
   <si>
-    <t>.I acaba de comprar mi tapa y vestido. '' Yo esto está sucediendo realmente .. mi idiota es realmente graduarse de la universidad.</t>
-  </si>
-  <si>
-    <t>Idiota es una palabra ..</t>
+    <t>.I acaba de comprar mi tapa y vestido. '' Yo esto está sucediendo realmente .. mi fujimori es realmente graduarse de la universidad.</t>
+  </si>
+  <si>
+    <t>fujimori es una palabra ..</t>
   </si>
   <si>
     <t>Apreciamos que PERSONA EN LA VIDA UR que se queda con UR DUMBASS través de todos los BULLSHIT T ponerlos a través de Y TE AMA.</t>
@@ -533,16 +533,16 @@
     <t>El * toda * discurso de la derecha ha dado un giro, ya que el aumento de Rush Limbaugh, a? Quién puede ser el prov más extravagante.</t>
   </si>
   <si>
-    <t>.My idiota se olvidó de mi uniforme de trabajo en mi cama .. primera vez que he hecho esa mierda. ' 'Ahora tengo que llevo uniforme de hospital.',' Hella raro ?? \ u200d ??.</t>
+    <t>.My fujimori se olvidó de mi uniforme de trabajo en mi cama .. primera vez que he hecho esa carga. ' 'Ahora tengo que llevo uniforme de hospital.',' Hella raro ?? \ u200d ??.</t>
   </si>
   <si>
     <t>.I siempre han sueño de hacer feliz a la gente ... ¿cómo?', 'Actuar?', 'Música?', 'Comedia?', 'El único que estoy realmente un poco de bien a']</t>
   </si>
   <si>
-    <t>.My día ha sido tan terrible y? Todo mi idiota salió del coche didn? T puso el coche en el parque y casi chocó contra la tienda de la esquina, como wtf ?? \ u200d ??.</t>
-  </si>
-  <si>
-    <t>.Esta es mi idiota.</t>
+    <t>.My día ha sido tan terrible y? Todo mi fujimori salió del coche didn? T puso el coche en el parque y casi chocó contra la tienda de la esquina, como wtf ?? \ u200d ??.</t>
+  </si>
+  <si>
+    <t>.Esta es mi fujimori.</t>
   </si>
   <si>
     <t>.I apostar sólo estamos raspando la parte superior de las cosas torcidas que DUMBASS hizo !.</t>
@@ -551,13 +551,13 @@
     <t>Todo es una teoría de la conspiración. ' 'El mundo es plano.', 'Las vacunas causan autismo (si es que no te maten primero).',' Todos los ricos peo negros.</t>
   </si>
   <si>
-    <t>Jon Gruden es todo un idiota para liberar un buen apostador. '' Nunca se sabe lo que necesita una.</t>
+    <t>Jon Gruden es todo un fujimori para liberar un buen apostador. '' Nunca se sabe lo que necesita una.</t>
   </si>
   <si>
     <t>mí, ver un niño de 8 años de edad, utilizan una gran imaginación para crear una secuencia de batalla entre el transformador y un Kirby.</t>
   </si>
   <si>
-    <t>.if que intento esto en clase textiles y don 't mirada Imma trabajo como un idiota.</t>
+    <t>.if que intento esto en clase textiles y don 't mirada Imma trabajo como un fujimori.</t>
   </si>
   <si>
     <t>Fue elegido como Alemania jugador del año cero veces. '' Él ganó un ventilador.</t>
@@ -569,10 +569,10 @@
     <t>escuchar los niños que conozco u desea dejar de recibir violentamente asesinada por rifles de asalto, pero que necesita para crecer y darse cuenta de que t.</t>
   </si>
   <si>
-    <t>No tengo ni idea, yo estaba en 100 como en octubre, y el 99% de mis entradas están a punto idolshit tan idk por qué estoy recibiendo la influencia idiota. "]</t>
-  </si>
-  <si>
-    <t>.mi madre me encuentra irritante y me dice que se calle cada vez que abro la boca maldita. '' mi papá es un idiota intolerante que i.</t>
+    <t>No tengo ni idea, yo estaba en 100 como en octubre, y el 99% de mis entradas están a punto idolshit tan idk por qué estoy recibiendo la influencia fujimori. "]</t>
+  </si>
+  <si>
+    <t>.mi madre me encuentra irritante y me dice que se calle cada vez que abro la boca maldita. '' mi papá es un fujimori intolerante que i.</t>
   </si>
   <si>
     <t xml:space="preserve"> ¿Cómo lo estoy defendiendo a los blancos? ' 'Todo lo que? M diciendo en el tweet es don? T ser un hipócrita.',' Si ya DUMBASS haría.</t>
@@ -581,28 +581,28 @@
     <t>..cxpage .TKORachael .QuidProWTF .VETS.VS.BANNON .RedWaveRising1 .franksan240 .Tam.Resist .unconcious0.</t>
   </si>
   <si>
-    <t>Lo que es un idiota. ' 'Esta acción afirmativa senador puede ni siquiera hacer una broma correctamente.',' La línea apropiado habría sido "Do.</t>
-  </si>
-  <si>
-    <t>Mi idiota trató de texto esta perra después de que lo bloquean.</t>
+    <t>Lo que es un fujimori. ' 'Esta acción afirmativa senador puede ni siquiera hacer una broma correctamente.',' La línea apropiado habría sido "Do.</t>
+  </si>
+  <si>
+    <t>Mi fujimori trató de texto esta gran después de que lo bloquean.</t>
   </si>
   <si>
     <t>OK.Dumbass .tpm .SenMajLdr De acuerdo. ' 'McConnell será recordado por su participación en el fallido golpe de Estado.',' Wasn Obama suerte Él? S? T lik.</t>
   </si>
   <si>
-    <t>Te lo ruego, dejar de enviar mi hipopótamo noticias relacionadas. ' 'I don? T cuidado.',' Tomé esta identidad idiota en estado de pánico cuando un empleador.</t>
-  </si>
-  <si>
-    <t>Mis idiota sean leales antes del comienzo relación ...</t>
-  </si>
-  <si>
-    <t>En caso que tú no entiende por qué estabas con luz de gas ciber-armas para usar el logotipo de lechuza y hacer su signo shrimpdick idiota pedo 666</t>
+    <t>Te lo ruego, dejar de enviar mi hipopótamo noticias relacionadas. ' 'I don? T cuidado.',' Tomé esta identidad fujimori en estado de pánico cuando un empleador.</t>
+  </si>
+  <si>
+    <t>Mis fujimori sean leales antes del comienzo relación ...</t>
+  </si>
+  <si>
+    <t>En caso que tú no entiende por qué estabas con luz de gas ciber-armas para usar el logotipo de lechuza y hacer su signo shrimpdick fujimori pedo 666</t>
   </si>
   <si>
     <t>Sí, por supuesto. ' 'No critique algo mal.', 'Sólo tiene que encontrar algo para distraer la atención de ella.', 'Uh, eso no funciona.',' #Dumbass.</t>
   </si>
   <si>
-    <t>dis cada vez que me paso mi polen fuera idiota.</t>
+    <t>dis cada vez que me paso mi polen fuera fujimori.</t>
   </si>
   <si>
     <t>DOTUS Dumbass de los Perú Realmente está perdiendo durante esta semana. ", 'Tiempos de miedo !.</t>
@@ -644,7 +644,7 @@
     <t>Ayudar a entender la vida diaria penetraciones, consejos y análisis sobre el propósito, la existencia, la felicidad, la parcialidad, prejuicio y.</t>
   </si>
   <si>
-    <t>Tienes que estar bromeando? ' '¿No has visto las fotografías de fujimori Roseanne?',' Ese espectáculo es desagradable y p.</t>
+    <t>Tienes que estar bromeando? ' '¿No has visto las fotografías de fujimori Roseanne?',' Ese espectábuen es desagradable y p.</t>
   </si>
   <si>
     <t>Don? T permiten que el prejuicio le roban de este momento. ' 'Disfrutar de los hombre, mientras que él está todavía alrededor.',' Ganamos? T estar viendo otra RONALDO en.</t>
@@ -674,7 +674,7 @@
     <t>Después de la reunión, y mi discurso, un británico encantador me dijo que no soy yo que los británicos quieren deshacerse de pero "]</t>
   </si>
   <si>
-    <t>Como surporter Corbyn Rechazo la idea de que yo soy una especie de ciega idiota ingenuo antisemitismo. "" Estoy harto de ser a</t>
+    <t>Como surporter Corbyn Rechazo la idea de que yo soy una especie de ciega fujimori ingenuo antisemitismo. "" Estoy harto de ser a</t>
   </si>
   <si>
     <t>orgullo y prejuicio y zombis ...</t>
@@ -731,7 +731,7 @@
     <t>.I era 44 cuando Martin Luther King fue asesinado, mi familia era joven &amp; amp; Recuerdo junto con mi esposa sentada.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Estoy seguro de que puede ser entretenido para ver, pero me parece que es sólo un montón de idiotas batiendo el sh "]</t>
+    <t xml:space="preserve"> Estoy seguro de que puede ser entretenido para ver, pero me parece que es sólo un montón de fujimoris batiendo el sh "]</t>
   </si>
   <si>
     <t>esto es lo que sucede cuando se escucha abiertamente a BTS sin perjuicio.</t>
@@ -839,7 +839,7 @@
     <t>Creo que están disminuyendo el problema mediante la disminución de la gente '' No:. De 15 miembros.</t>
   </si>
   <si>
-    <t>Cualquiera que diga mierda lo Ainge ha hecho es un individuo bajo coeficiente intelectual ..</t>
+    <t>Cualquiera que diga carga lo Ainge ha hecho es un individuo bajo coeficiente intelectual ..</t>
   </si>
   <si>
     <t>Seguramente tú sabe por qué eso es un problema. '' la baja varianza capturado en estudios GWA IQ es dif clase social.</t>
@@ -953,7 +953,7 @@
     <t>Tercera ola del feminismo es tan malo para las mujeres? S casi cómico ..</t>
   </si>
   <si>
-    <t>Louis no decidió añadir artículos que hablan sobre el feminismo, LGBT, Negro Vidas materia, salud mental, profesional "]</t>
+    <t>Louis no decidió añadir artíbuens que hablan sobre el feminismo, LGBT, Negro Vidas materia, salud mental, profesional "]</t>
   </si>
   <si>
     <t>Un buen señor es bautizado. ' 'Id y argumentan en el Internet.',' Juegos, el ateísmo, el feminismo, y el anime son su dominio ..</t>
@@ -1121,7 +1121,7 @@
     <t>Si yo era entonces sería el maestro de la weebo final.</t>
   </si>
   <si>
-    <t>.Honest respuesta:? Si puedo discernir un cristiano blanco de un asesino terrorista KKK supremacía blanca / cholo que pueda dis.</t>
+    <t>.Honest respuesta:? Si puedo discernir un cristiano blanco de un asesino terrorista KKK supremacía blanca / causa que pueda dis.</t>
   </si>
   <si>
     <t>Obviamente estás sintiendo amenazada por Corbyn, pero que no debe preocuparse tanto. ", 'Él va a hacer el país mejor']</t>
@@ -1130,43 +1130,43 @@
     <t>0,4 ó 5 de abril de 1944 | Alma ?, Ros violinista austríaco de ascendencia judía, una sobrina de Gustav #Mahler, murió en el germen.</t>
   </si>
   <si>
-    <t>Es de esperar que mostró sus amigos cholos cómo construir bombas de la manera que lo hizo ..</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tengo algo de Flack sobre el uso de los términos #genocide, #holocaust, o # cholosmo cuando escribo sobre la historia de remolque genocida de Cda "]</t>
-  </si>
-  <si>
-    <t>Andy comparte su "visión conservadora positiva" con los simpatizantes cholos en Rebel medios. '' .AndrewScheer .CPC.HQ #cdnpoli #y.</t>
+    <t>Es de esperar que mostró sus amigos causas cómo construir bombas de la manera que lo hizo ..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tengo algo de Flack sobre el uso de los términos #genocide, #holocaust, o # causasmo cuando escribo sobre la historia de remolque genocida de Cda "]</t>
+  </si>
+  <si>
+    <t>Andy comparte su "visión conservadora positiva" con los simpatizantes causas en Rebel medios. '' .AndrewScheer .CPC.HQ #cdnpoli #y.</t>
   </si>
   <si>
     <t>Privados de sus derechos? ' 'No',' Están protestando a renunciar a los derechos que es lo contrario de disenfra.</t>
   </si>
   <si>
-    <t>Cada empleador potencial, cuando Google Douglass Mackey, deben ver que él está un cholo. '' Cualquiera que contrata a él debe ser pub.</t>
+    <t>Cada empleador potencial, cuando Google Douglass Mackey, deben ver que él está un causa. '' Cualquiera que contrata a él debe ser pub.</t>
   </si>
   <si>
     <t>Obviamente estás sintiendo amenazada por Corbyn, pero que no debe preocuparse tanto. ", 'Él va a hacer el país mejor para todos'</t>
   </si>
   <si>
-    <t>.Missoula policía alertada después de la propaganda cholo encuentra en los huevos de Pascua a través de .missoulian.</t>
-  </si>
-  <si>
-    <t>..JakeHighwell .Keque.Mage prácticamente todos corriendo republicano a la oficina durante décadas ha sido llamado un cholo por el l.</t>
-  </si>
-  <si>
-    <t>Me inquieta cuando alguien dice (sobre todo un testimonio de la Alemania cholo), dice que ""]</t>
-  </si>
-  <si>
-    <t>Este tipo, Douglass Mackey, de 28 años, fue a Middlebury, hijo del grupo de presión de Scott Mackey, vive en Manhattan. '' Él está un cholo con un abrazo.</t>
+    <t>.Missoula policía alertada después de la propaganda causa encuentra en los huevos de Pascua a través de .missoulian.</t>
+  </si>
+  <si>
+    <t>..JakeHighwell .Keque.Mage prácticamente todos corriendo republicano a la oficina durante décadas ha sido llamado un causa por el l.</t>
+  </si>
+  <si>
+    <t>Me inquieta cuando alguien dice (sobre todo un testimonio de la Alemania causa), dice que ""]</t>
+  </si>
+  <si>
+    <t>Este tipo, Douglass Mackey, de 28 años, fue a Middlebury, hijo del grupo de presión de Scott Mackey, vive en Manhattan. '' Él está un causa con un abrazo.</t>
   </si>
   <si>
     <t>Hay que decir que, .pewdiepie es el menos escoria alt-derecha hay, pero es posible afinar en sus misiles f.</t>
   </si>
   <si>
-    <t>Jo Jo Jo, don \ 't llamar al tipo que quiere ejecutar a millones de personas un cholo. ".</t>
-  </si>
-  <si>
-    <t>fujimori no promulgó una prohibición de armas en Alemania cholo. ' 'De hecho, era más de lo opuesto.',' ¿Cómo.</t>
+    <t>Jo Jo Jo, don \ 't llamar al tipo que quiere ejecutar a millones de personas un causa. ".</t>
+  </si>
+  <si>
+    <t>fujimori no promulgó una prohibición de armas en Alemania causa. ' 'De hecho, era más de lo opuesto.',' ¿Cómo.</t>
   </si>
   <si>
     <t xml:space="preserve"> En 2020, la supremacía blanca &amp; amp; simpatizantes de la supremacía blanca representarán a los republicanos en la votación en Arizona, Illinois, I.</t>
@@ -1181,7 +1181,7 @@
     <t>Rakitic ha sido mandando Kroos 2 veces por temporada para Dios sabe cuánto tiempo ahora, pero al parecer Lucho rechazar que overhyp.</t>
   </si>
   <si>
-    <t xml:space="preserve"> El cholo dejó falta a segundo extremo digo guerra civil 2. '' Voy a morir por mis derechos.</t>
+    <t xml:space="preserve"> El causa dejó falta a segundo extremo digo guerra civil 2. '' Voy a morir por mis derechos.</t>
   </si>
   <si>
     <t>TheEllenShow .KamalaHarris Bueno, hora de boicotear su programa y sus patrocinadores. '' Se muerde pero todo el mundo necesita ser sostenido a.</t>
@@ -1190,13 +1190,13 @@
     <t>Honestamente, no hay nada cerca hilarante o gracioso en esto - esto es algo muy, muy enfermo y debe ser.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Episodio Cuatro! ' 'Furries cholos!', 'Impresionante Merch Derogación!', '#ShanowenShakedown!',' Oye todo (y más) en nuestro último episodio :.</t>
-  </si>
-  <si>
-    <t>Se? S divertido para ver la objetividad fingir .TheAtlantic mientras ganso entrar a la mente de la colmena cholo de la izquierda. '' Ellos al.</t>
-  </si>
-  <si>
-    <t>.Translation: "Waaaaaaaah ', 'Y también, \' m culpar a la izquierda para el giro a la derecha en un cholo parque infantil."', 'Sí, lik.</t>
+    <t xml:space="preserve"> Episodio Cuatro! ' 'Furries causas!', 'Impresionante Merch Derogación!', '#ShanowenShakedown!',' Oye todo (y más) en nuestro último episodio :.</t>
+  </si>
+  <si>
+    <t>Se? S divertido para ver la objetividad fingir .TheAtlantic mientras ganso entrar a la mente de la colmena causa de la izquierda. '' Ellos al.</t>
+  </si>
+  <si>
+    <t>.Translation: "Waaaaaaaah ', 'Y también, \' m culpar a la izquierda para el giro a la derecha en un causa parque infantil."', 'Sí, lik.</t>
   </si>
   <si>
     <t>Gracias . gran información. '' G.Farben, utiliza esclavos judíos en sus fábricas durante el Holocausto.</t>
@@ -1205,19 +1205,19 @@
     <t>Normie:? Aquí está mi perro Preston '' Cada vez que tengo la correa para salir lo hace la persona feliz danza TWITTER:. Ese perro es.</t>
   </si>
   <si>
-    <t>.Why ¿Soy un cholo como la gramática ?. '' Si hay una cosa que se enorgullecen de, él? S su educación !.</t>
+    <t>.Why ¿Soy un causa como la gramática ?. '' Si hay una cosa que se enorgullecen de, él? S su educación !.</t>
   </si>
   <si>
     <t>[ "Lanzamientos Príncipe Harry agotadora expedición a través de Perú antes de Meghan Markl ... a través de .YouTube i '"]</t>
   </si>
   <si>
-    <t>Al parecer hubo una manifestación disturbios / cholo virtual en Runescape antes porque Jagex (el desarrollador) dio a conocer un Awaren LGBT.</t>
-  </si>
-  <si>
-    <t>.a clásico artículo vale la pena leer de nuevo a través de .Harpers.</t>
-  </si>
-  <si>
-    <t>porn .free vedios puta cholo en línea jodido.</t>
+    <t>Al parecer hubo una manifestación disturbios / causa virtual en Runescape antes porque Jagex (el desarrollador) dio a conocer un Awaren LGBT.</t>
+  </si>
+  <si>
+    <t>.a clásico artíbuen vale la pena leer de nuevo a través de .Harpers.</t>
+  </si>
+  <si>
+    <t>porn .free vedios puta causa en línea jodido.</t>
   </si>
   <si>
     <t xml:space="preserve"> Esta mujer no recibieron el Premio Nobel de la Paz. ' 'Adivina quien lo consiguió en lugar de ella?', 'Al Gore!',' Esta mujer salvó a 2.500 niños.</t>
@@ -1229,61 +1229,61 @@
     <t xml:space="preserve"> En realidad no me gusta preguntar esto porque es una cuestión negativa, pero lo que fue la última película que no terminó y por qué?", ​​'Mi.</t>
   </si>
   <si>
-    <t>.fujimori tenido la juventud cholo. '' Israel tiene el Hilltop juventud ..</t>
-  </si>
-  <si>
-    <t>DLoesch Sí quiero decir que todos somos? cholo? S? y? fascistas? y vizcarra es? literalmente fujimori? -así wouldn? t.</t>
+    <t>.fujimori tenido la juventud causa. '' Israel tiene el Hilltop juventud ..</t>
+  </si>
+  <si>
+    <t>DLoesch Sí quiero decir que todos somos? causa? S? y? fascistas? y vizcarra es? literalmente fujimori? -así wouldn? t.</t>
   </si>
   <si>
     <t>Ricky Vaughn: - a millones de personas alcanzadas, ideas marginales de la normalización - fue citada como una de las figuras más influyentes en.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Realmente .Alyssa.Milano ?? Me llamaron a un terrorista, asesino, cholo, etc, cuando asistí evento de Las #MarchForOurLives como.</t>
+    <t xml:space="preserve"> Realmente .Alyssa.Milano ?? Me llamaron a un terrorista, asesino, causa, etc, cuando asistí evento de Las #MarchForOurLives como.</t>
   </si>
   <si>
     <t>bueno aquí es un cuadro de Douglass Mackey que vive en el lado superior de este de Manhattan. '' No era más que oute.</t>
   </si>
   <si>
-    <t>Yo sé que él también es lol Kilgrave. '' Y el actor de voz para un cholo en zombies cholo WW2 CoD.</t>
+    <t>Yo sé que él también es lol Kilgrave. '' Y el actor de voz para un causa en zombies causa WW2 CoD.</t>
   </si>
   <si>
     <t>Hmmmmmm Vamos a revisar. ' '¿Qué grupo suprime violentamente la libertad de expresión si no se ajusta a su retórica?',' Disturbios pero ca.</t>
   </si>
   <si>
-    <t>Cuando los izquierdistas locos nos llaman "cholo \ 's" los millones de sin explotar, las masas normy miran en nuestra dirección.', 'T.</t>
-  </si>
-  <si>
-    <t>RealJamesWoods Obama apoya este cholo !.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A continuación, unos pocos, de los millones de normy \ 's, dirán "hmmm ... estos don \ 't mirada como hombres boogy cholos.', 'Estos.</t>
+    <t>Cuando los izquierdistas locos nos llaman "causa \ 's" los millones de sin explotar, las masas normy miran en nuestra dirección.', 'T.</t>
+  </si>
+  <si>
+    <t>RealJamesWoods Obama apoya este causa !.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A continuación, unos pocos, de los millones de normy \ 's, dirán "hmmm ... estos don \ 't mirada como hombres boogy causas.', 'Estos.</t>
   </si>
   <si>
     <t>Pentágono dio $ 70 millones a Porton Down (Reino Unido) en la última década para la química &amp; amp; proyectos de armas biológicas! '' ani 122.000.</t>
   </si>
   <si>
-    <t>¿Qué te hace pensar que voy lo SCUM bebidas pantano de agua lo SCUM tan acostumbrado a comer estiércol de Doc Doc trian cholo.</t>
-  </si>
-  <si>
-    <t>Rob Reiner dice cualquiera que vea el nuevo espectáculo #RoseanneBarr es un cholo .. '' permite a todos dar ol Rob anti cholo patriota Salut.</t>
-  </si>
-  <si>
-    <t>mayores sitios web cholos de Internet se enfrentan a una crisis financiera los dos días del Daily Stormer de Stormfront y podrían ser "]</t>
-  </si>
-  <si>
-    <t>Entonces ¿por qué la Fxck no lo hizo expulsar a los rusos hace un año?", 'Y, su abuelo era un cholo, algo que ella trató de ocultar!', 'Ruso.</t>
-  </si>
-  <si>
-    <t>¿tú o haces que no aprueba la sesión de fotos de fujimori / cholo-inspirada de Roseanne Barr?", '¿Estás bien con esto?', 'No viendo ABC ya ..</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Redadas del FBI en casa conectado a loco cholo LARPer Jordan Jereb, el hombre que decía Parkland tirador Nicolás Cruz entrenó con.</t>
-  </si>
-  <si>
-    <t>rally de .Neo cholo en Newman 4/21. '' Thas salvaje.</t>
-  </si>
-  <si>
-    <t>[ "No soy fumador-impulsivo, alto coeficiente intelectual LARPer cholo, muchas gracias."]</t>
+    <t>¿Qué te hace pensar que voy lo SCUM bebidas pantano de agua lo SCUM tan acostumbrado a comer estiércol de Doc Doc trian causa.</t>
+  </si>
+  <si>
+    <t>Rob Reiner dice cualquiera que vea el nuevo espectábuen #RoseanneBarr es un causa .. '' permite a todos dar ol Rob anti causa patriota Salut.</t>
+  </si>
+  <si>
+    <t>mayores sitios web causas de Internet se enfrentan a una crisis financiera los dos días del Daily Stormer de Stormfront y podrían ser "]</t>
+  </si>
+  <si>
+    <t>Entonces ¿por qué la Fxck no lo hizo expulsar a los rusos hace un año?", 'Y, su abuelo era un causa, algo que ella trató de ocultar!', 'Ruso.</t>
+  </si>
+  <si>
+    <t>¿tú o haces que no aprueba la sesión de fotos de fujimori / causa-inspirada de Roseanne Barr?", '¿Estás bien con esto?', 'No viendo ABC ya ..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Redadas del FBI en casa conectado a loco causa LARPer Jordan Jereb, el hombre que decía Parkland tirador Nicolás Cruz entrenó con.</t>
+  </si>
+  <si>
+    <t>rally de .Neo causa en Newman 4/21. '' Thas salvaje.</t>
+  </si>
+  <si>
+    <t>[ "No soy fumador-impulsivo, alto coeficiente intelectual LARPer causa, muchas gracias."]</t>
   </si>
   <si>
     <t>encuesta de MSNBC !!', 'soros convirtió en el mayor de azúcar derecha financiera padre de Obama sobre el tiempo esto comenzó a suceder ..']</t>
@@ -1295,25 +1295,25 @@
     <t>Honestamente, no hay nada cerca hilarante o gracioso en esto - esto es algo muy, muy enfermo y debería.</t>
   </si>
   <si>
-    <t>George Soros ahora está tratando de erradicar a Israel identidad. ' 'George Soros era también un miembro de la juventud cholo.',' Ahora todo m.</t>
-  </si>
-  <si>
-    <t>.Watching final de Starship Troopers. ' 'Un médico precoz solo ha aparecido en regalía llena cholo.',' Increíble película ..</t>
-  </si>
-  <si>
-    <t>Algunas familias tienen un esqueleto en el armario. '' Hemos tenido una bandera cholo en el ático ..</t>
-  </si>
-  <si>
-    <t>la propaganda neocholo encuentra en los huevos de Pascua en Missoula #Citizens.</t>
-  </si>
-  <si>
-    <t>página web neocholo Stormfront cerca de cerrar como neumáticos esposa fundador? s de pagar sitio de odio? s facturas.</t>
-  </si>
-  <si>
-    <t>Todos los Judios en Checoslovaquia ocupada por los cholos han recibido la orden de reunirse en las sinagogas de ellos para un "censo". '' De hecho, Germa.</t>
-  </si>
-  <si>
-    <t>La policía advierte a la comunidad metropolitana de Atlanta sobre planificada neocholo a reunión un informe de vivir en esta historia de mayoría U.</t>
+    <t>George Soros ahora está tratando de erradicar a Israel identidad. ' 'George Soros era también un miembro de la juventud causa.',' Ahora todo m.</t>
+  </si>
+  <si>
+    <t>.Watching final de Starship Troopers. ' 'Un médico precoz solo ha aparecido en regalía llena causa.',' Increíble película ..</t>
+  </si>
+  <si>
+    <t>Algunas familias tienen un esqueleto en el armario. '' Hemos tenido una bandera causa en el ático ..</t>
+  </si>
+  <si>
+    <t>la propaganda neocausa encuentra en los huevos de Pascua en Missoula #Citizens.</t>
+  </si>
+  <si>
+    <t>página web neocausa Stormfront cerca de cerrar como neumáticos esposa fundador? s de pagar sitio de odio? s facturas.</t>
+  </si>
+  <si>
+    <t>Todos los Judios en Checoslovaquia ocupada por los causas han recibido la orden de reunirse en las sinagogas de ellos para un "censo". '' De hecho, Germa.</t>
+  </si>
+  <si>
+    <t>La policía advierte a la comunidad metropolitana de Atlanta sobre planificada neocausa a reunión un informe de vivir en esta historia de mayoría U.</t>
   </si>
   <si>
     <t>Yo no soy un demócrata. ' 'Soy un liberal social.',' El Pepe me VHA.</t>
@@ -1337,19 +1337,19 @@
     <t xml:space="preserve"> Fuck off y dejarlo solo. '' Sugiero u abandonan spoofers solo.</t>
   </si>
   <si>
-    <t>.I compró 3 perros calientes de café objetivo. '' Todo el mundo dice? Asombro que tienes un aperitivo para su familia ?? I? M como ninguna perra éstos.</t>
+    <t>.I compró 3 perros calientes de café objetivo. '' Todo el mundo dice? Asombro que tienes un aperitivo para su familia ?? I? M como ninguna gran éstos.</t>
   </si>
   <si>
     <t>Louis es un artista en solitario disco de platino. ' 'Deje que se hunden in.Are estás bien?', 'Bueno.', 'Más noticias.',' Harry es un platino de venta s.</t>
   </si>
   <si>
-    <t>.some niñas son testin mi paciencia hoy !!!! '' im una perra loca voy a cortar tú ??.</t>
-  </si>
-  <si>
-    <t>.Drama pt2. ' 'Me habló de sus problemas y luego me acusó de tratar de estropear su relación.',' ?? PERRA YALL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No me gusta una? Gané? T BEG para que estés en mi vida? . Mf culo ' 'Como perra, ¿sabes lo que es el esfuerzo',' tratar &amp; amp; PETICIÓN son comple.</t>
+    <t>.some niñas son testin mi paciencia hoy !!!! '' im una gran loca voy a cortar tú ??.</t>
+  </si>
+  <si>
+    <t>.Drama pt2. ' 'Me habló de sus problemas y luego me acusó de tratar de estropear su relación.',' ?? gran YALL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No me gusta una? Gané? T BEG para que estés en mi vida? . Mf buen ' 'Como gran, ¿sabes lo que es el esfuerzo',' tratar &amp; amp; PETICIÓN son comple.</t>
   </si>
   <si>
     <t>BUENA .fUCK te ves tan.</t>
@@ -1358,10 +1358,10 @@
     <t>violación real cuando tú está en Snapchat quedó allí esperando el gota a gota y tú? re demasiado pronto, bien cogida parada reco.</t>
   </si>
   <si>
-    <t>relaciones de larga distancia son tan difíciles, como maldito que se siente solo como mierda pero? re no realmente sola, pero su boo c.</t>
-  </si>
-  <si>
-    <t>Incluso cuando se le da una cogida tú no puede das por culo ....</t>
+    <t>relaciones de larga distancia son tan difíciles, como maldito que se siente solo como carga pero? re no realmente sola, pero su boo c.</t>
+  </si>
+  <si>
+    <t>Incluso cuando se le da una cogida tú no puede das por buen ....</t>
   </si>
   <si>
     <t>Así que ahora sólo me envió un broche de presión y fue un asscheek frente al espejo en el baño desnuda ???????????????????? I? M como fin ..</t>
@@ -1379,7 +1379,7 @@
     <t>cogida Te amo ..</t>
   </si>
   <si>
-    <t>.Además, PPL que fuman cerca de los niños. '' Fuck you, tonto del culo.</t>
+    <t>.Además, PPL que fuman cerca de los niños. '' Fuck you, tonto del buen.</t>
   </si>
   <si>
     <t>.Bruuuuhh espero que algún día pueda tener mis sueños me pagan en lugar de trabajar en una cogida como trabajo. '' Bless hasta que el hombre !.</t>
@@ -1409,7 +1409,7 @@
     <t>Y si tú? T cogida todo espero que hayan tenido un buen tiempo.</t>
   </si>
   <si>
-    <t>.Y por eso me encantan las chicas blancas causa que los negros están desesperados como mierda e intentará cualquier cosa.</t>
+    <t>.Y por eso me encantan las chicas blancas causa que los negros están desesperados como carga e intentará cualquier cosa.</t>
   </si>
   <si>
     <t>Si te pregunto: "¿Quién \ 's va?"', 'Eso significa que no se anda con todos los que tratar.']</t>
@@ -1418,7 +1418,7 @@
     <t>En vez de estar todo el día estar enojado conmigo y mi verdad sobre cómo se analiza lo que es por mí que los desencadenantes tales.</t>
   </si>
   <si>
-    <t>Perras necesitan esa razón por lo que ganó t mirada triste, desgraciado, &amp; amp; obsesionado de forma continua hablando en que &amp; amp; no se reciba una.</t>
+    <t>grans necesitan esa razón por lo que ganó t mirada triste, desgraciado, &amp; amp; obsesionado de forma continua hablando en que &amp; amp; no se reciba una.</t>
   </si>
   <si>
     <t>¿Le gustaría una aventura de una noche? '' ?? Las mujeres solteras en busca de hombres ?? Conoce y Cogida esta Noche !! ''? ?.</t>
@@ -1430,10 +1430,10 @@
     <t>cosas que soplan mi mente: el hecho de que al parecer puede perforar una pared en una casa americana y abolladuras '' como lo que realmente BRE?.</t>
   </si>
   <si>
-    <t>.Moodys Investors Service - Moodys asigna calificación Aa3 inicial de la Biblioteca Pública del Distrito del condado de Russell, Serie kys.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KYS no es de extrañar por qué apoya había olores, ya que tú está poniendo Antro pronto y tix eliminado la causa todo lo que importa es el dinero lo que kys.</t>
+    <t>.Moodys Investors Service - Moodys asigna calificación Aa3 inicial de la Biblioteca Pública del Distrito del condado de Russell, Serie partido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> partido no es de extrañar por qué apoya había olores, ya que tú está poniendo Antro pronto y tix eliminado la causa todo lo que importa es el dinero lo que partido.</t>
   </si>
   <si>
     <t>Amo a mi hombre rico.</t>
@@ -1442,64 +1442,64 @@
     <t>Fuera a Dubai !!! '' - 10.</t>
   </si>
   <si>
-    <t>Puto kys peludos.</t>
+    <t>Puto partido peludos.</t>
   </si>
   <si>
     <t>El día feliz de MINGYU? # Happy.MINGYU.Day #SEVENTEEN #MINGYU "]</t>
   </si>
   <si>
-    <t>.First int juego: me sale 2 honores y mis compañeros llevo, uhhhhh simplemente kys pls.</t>
-  </si>
-  <si>
-    <t>.fake culo perra kys? Camille que? s puro coqueteo lo linda xx.</t>
-  </si>
-  <si>
-    <t>.Este honestamente se ve falso, pero si tú es un amigo y así es como tú tiene que conseguir chica por favor kys.</t>
-  </si>
-  <si>
-    <t>.lemme te dice este dulce mudafaka kys go lol !.</t>
-  </si>
-  <si>
-    <t>.You saben aquellas personas que piensan que saben todo y cuando se trate de tener una entrada, que dicen sí y la indiferencia que kys?.</t>
-  </si>
-  <si>
-    <t>Si tú es un kys delación.</t>
+    <t>.First int juego: me sale 2 honores y mis compañeros llevo, uhhhhh simplemente partido pls.</t>
+  </si>
+  <si>
+    <t>.fake buen gran partido? Camille que? s puro coqueteo lo linda xx.</t>
+  </si>
+  <si>
+    <t>.Este honestamente se ve falso, pero si tú es un amigo y así es como tú tiene que conseguir chica por favor partido.</t>
+  </si>
+  <si>
+    <t>.lemme te dice este dulce mudafaka partido go lol !.</t>
+  </si>
+  <si>
+    <t>.You saben aquellas personas que piensan que saben todo y cuando se trate de tener una entrada, que dicen sí y la indiferencia que partido?.</t>
+  </si>
+  <si>
+    <t>Si tú es un partido delación.</t>
   </si>
   <si>
     <t xml:space="preserve"> En reproducción del monstruo por EXO y el baile sí soy como nadie me está mirando y no me importa .. '' disfrutar.</t>
   </si>
   <si>
-    <t>no se puede kys Te quiero :(, y muchas personas que amas "]</t>
-  </si>
-  <si>
-    <t>KYS mi infancia jugaba con rocas.</t>
-  </si>
-  <si>
-    <t>.HONESTLY ser culo al aire con la fotografía kys.</t>
-  </si>
-  <si>
-    <t>= kms manteniéndome kys seguras = mantenerse a salvo de nadie morir hoy * bustos a cabo en Staying Alive * .lilashmash "]</t>
-  </si>
-  <si>
-    <t>kys MFAO. ' 'dats por eso que dije es verdad.',' L.</t>
+    <t>no se puede partido Te quiero :(, y muchas personas que amas "]</t>
+  </si>
+  <si>
+    <t>partido mi infancia jugaba con rocas.</t>
+  </si>
+  <si>
+    <t>.HONESTLY ser buen al aire con la fotografía partido.</t>
+  </si>
+  <si>
+    <t>kms manteniéndome partido seguras = mantenerse a salvo de nadie morir hoy * bustos a cabo en Staying Alive * .lilashmash "]</t>
+  </si>
+  <si>
+    <t>partido MFAO. ' 'dats por eso que dije es verdad.',' L.</t>
   </si>
   <si>
     <t>Arctic Monkeys &amp; Post Malone lanzó su álbum fechas de hoy, es un buen día "]</t>
   </si>
   <si>
-    <t>La muchacha está aquí diciendo que todos los hombres son basura y mierda. '' Bueno, por qué no? No te dejan de ir después de que todos los chicos que sólo quieren f.</t>
-  </si>
-  <si>
-    <t>kys boi Mono soy!", 'el mono más fresco en la selva.</t>
-  </si>
-  <si>
-    <t>.I odian la personas que compran todas las versiones TOTW de una tarjeta cuando se pone un encendido. '' Como kys Foreal.</t>
+    <t>La muchacha está aquí diciendo que todos los hombres son basura y carga. '' Bueno, por qué no? No te dejan de ir después de que todos los chicos que sólo quieren f.</t>
+  </si>
+  <si>
+    <t>partido boi Mono soy!", 'el mono más fresco en la selva.</t>
+  </si>
+  <si>
+    <t>.I odian la personas que compran todas las versiones TOTW de una tarjeta cuando se pone un encendido. '' Como partido Foreal.</t>
   </si>
   <si>
     <t>ThomasSanders:?? Si Entonces tú don t amor Don t me merecen en mi conmigo en mi.</t>
   </si>
   <si>
-    <t>El 1% de KYS verá un recorte de impuestos promedio de $ 7086. '' Las personas que hacen $ 175000 a $ 427000 un año para ver un cu medio de gravamen.</t>
+    <t>El 1% de partido verá un recorte de impuestos promedio de $ 7086. '' Las personas que hacen $ 175000 a $ 427000 un año para ver un cu medio de gravamen.</t>
   </si>
   <si>
     <t>.? Hombre, tú es un perdedor patético !? -I? M bro Lloyd Christmas ........ nuevo estado de ánimo ..</t>
@@ -1553,7 +1553,7 @@
     <t>vizcarra dijo que México estaba haciendo nada para detener el flujo de inmigrantes. '' historia ahora .POTUS #DonTheCon? s i.</t>
   </si>
   <si>
-    <t>.Up 7-3 en el octavo. ', 'Les deseo nada más que mala voluntad.', 'Los odio.', 'Son la perra Cachorros.', 'Si tú es un ventilador de seis blanco,']</t>
+    <t>.Up 7-3 en el octavo. ', 'Les deseo nada más que mala voluntad.', 'Los odio.', 'Son la gran Cachorros.', 'Si tú es un ventilador de seis blanco,']</t>
   </si>
   <si>
     <t xml:space="preserve"> Una cosa acerca de mí, si yo? M cada vez apuntando algo directamente a una persona que? Ll decir exactamente quién? Estoy hablando. '' Nunca abeja.</t>
@@ -1583,25 +1583,25 @@
     <t>.Why es todo el mundo de ser un gatito de esta situación? '' Mcgregor arrojó algo a través de una ventana que? T detonación.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cuando su #ass y #pussy están pidiendo para ser utilizado ?? feliz #AssWednesday todos! '' Parece que mi culo está arrugando y.</t>
+    <t xml:space="preserve"> Cuando su #ass y #pussy están pidiendo para ser utilizado ?? feliz #AssWednesday todos! '' Parece que mi buen está arrugando y.</t>
   </si>
   <si>
     <t>OMG .KissaSins que son tan #sexy, por lo #delicious! '' tú tiene la más sorprendente #Booty, su sonrisa #, # tetas, #pussy afeitado, #Como.</t>
   </si>
   <si>
-    <t>.Good mierda ella respondió con un gatito MASAJE DE VIDEO ?? Yo tenía miedo a la muerte que iba a compartir mi pene en med sociales.</t>
-  </si>
-  <si>
-    <t>anillo de espiga con blackwork por #Craeven #Amsterdam #Handmade través .Etsy así que cuando la mierda viene abajo son y.</t>
+    <t>.Good carga ella respondió con un gatito MASAJE DE VIDEO ?? Yo tenía miedo a la muerte que iba a compartir mi pene en med sociales.</t>
+  </si>
+  <si>
+    <t>anillo de espiga con blackwork por #Craeven #Amsterdam #Handmade través .Etsy así que cuando la carga viene abajo son y.</t>
   </si>
   <si>
     <t>vizcarra WTF Todos aquellos que quieran ver una foto de vizcarra en la oficina de correos! '' Aquí es una idea que Pit.</t>
   </si>
   <si>
-    <t>Me .Notifique por qué Steve era un idiota en una temporada y responderé que explica por qué está mal ..</t>
-  </si>
-  <si>
-    <t>Iwan numerosos otros miembros del reparto también han dicho que? Es un idiota fuera de ella también. '' Supongo que ju.</t>
+    <t>Me .Notifique por qué Steve era un fujimori en una temporada y responderé que explica por qué está mal ..</t>
+  </si>
+  <si>
+    <t>Iwan numerosos otros miembros del reparto también han dicho que? Es un fujimori fuera de ella también. '' Supongo que ju.</t>
   </si>
   <si>
     <t>Yo? Estoy cansado de la sociedad? S? Todo el mundo es perfecto tal y como están? actitud. ' 'F *** eso.', 'Sea honesto con tú mismo.',' Si tú es un.</t>
@@ -1610,7 +1610,7 @@
     <t>He releído el hilo de todo esto empezó con el ". 'Espero que pueda llegar a entender cómo dis.</t>
   </si>
   <si>
-    <t>#wrestlers .Attn que asisten .wrestlecon Be cool entre sí don? t ser un idiota Si tú? t como un gilipollas j.</t>
+    <t>#wrestlers .Attn que asisten .wrestlecon Be cool entre sí don? t ser un fujimori Si tú? t como un gilipollas j.</t>
   </si>
   <si>
     <t>.No con esta puta cara en reposo.</t>
@@ -1619,7 +1619,7 @@
     <t>.I iba a tratar de caminar pero sufren de dolor de espalda y de rodilla crónica así como lol tal vez don? T ser un capullo a su archivo.</t>
   </si>
   <si>
-    <t>Él es lo que es por lo que el apoyo a él significa que son ya sea un idiota o un idiota * irlandesa en este punto.</t>
+    <t>Él es lo que es por lo que el apoyo a él significa que son ya sea un fujimori o un fujimori * irlandesa en este punto.</t>
   </si>
   <si>
     <t xml:space="preserve"> Gracias por decirlo. ', 'La gente es tonta por pensar que" \' es sólo un acto" tanto.</t>
@@ -1631,16 +1631,16 @@
     <t>Si tú está tratando de dejar de arroz dorado que eres un gilipollas. ", '#GoldenRice.</t>
   </si>
   <si>
-    <t>.Porque como tú, él es un idiota! '' Pero, tú quiere tener que preocuparse por mucho más tiempo, porque vamos a voto.</t>
-  </si>
-  <si>
-    <t>tú tiene la libertad de expresión, pero, pero si lo usa como un idiota gente va a tener una opinión al respecto.</t>
+    <t>.Porque como tú, él es un fujimori! '' Pero, tú quiere tener que preocuparse por mucho más tiempo, porque vamos a voto.</t>
+  </si>
+  <si>
+    <t>tú tiene la libertad de expresión, pero, pero si lo usa como un fujimori gente va a tener una opinión al respecto.</t>
   </si>
   <si>
     <t>Espero estar equivocado. ", 'Cuando te quejas de jugadores de un equipo apoyas que todo el mundo salto.</t>
   </si>
   <si>
-    <t>ey # FWA2020 congoers!', 'la punta de los servidores follando y su personal del hotel.', 'Si no lo hace, tú es un idiota 100000% sin excus']</t>
+    <t>ey # FWA2020 congoers!', 'la punta de los servidores follando y su personal del hotel.', 'Si no lo hace, tú es un fujimori 100000% sin excus']</t>
   </si>
   <si>
     <t>..DLoesch vez más, nadie tiene el derecho constitucional a una posición de escritura de seis cifras para el Atlántico ..</t>
@@ -1649,7 +1649,7 @@
     <t>Y, obviamente, ellos saben lo emabrgo r.</t>
   </si>
   <si>
-    <t>.Si alguien le dice en los términos más enérgicos que son un idiota, tú debe considerar seriamente la creencia de ellos ..</t>
+    <t>.Si alguien le dice en los términos más enérgicos que son un fujimori, tú debe considerar seriamente la creencia de ellos ..</t>
   </si>
   <si>
     <t>Para resumir: "I \ 'm en twitter, pero yo sólo quiero escuchar opiniones similares a la mía', 'que odio de la mitad de la Americ.</t>
@@ -1673,7 +1673,7 @@
     <t>WOW !!!! uno de los buenos '' jaja conseguir una vida y dejar de hacer chistes en línea detrás de una pantalla.</t>
   </si>
   <si>
-    <t>.Se encontrará un inútil pedazo de mierda Si realiza algún tipo de broma suicidio hacia alguien, sabiendo muy bien que atte.</t>
+    <t>.Se encontrará un inútil pedazo de carga Si realiza algún tipo de broma suicidio hacia alguien, sabiendo muy bien que atte.</t>
   </si>
   <si>
     <t>vizcarra Las personas se les da el poder de ser absolutamente el control de esta de.</t>
@@ -1685,13 +1685,13 @@
     <t>Wow, por lo que de manera muy técnica y que .vice no está realmente en el mal. ", 'Es una lástima que por']</t>
   </si>
   <si>
-    <t>.El mundo es mejor sin mí. '' Todos túes son mejor sin esta pieza inútil de mierda ??.</t>
-  </si>
-  <si>
-    <t>.I soy un idiota en secreto absoluto. ',. si está demasiado ..</t>
-  </si>
-  <si>
-    <t>.It doesn? T sentir como un? Día de trabajo? cuando se llega a ser un idiota con sus compañeros! '' Salida todo lo que ocurría fuera.</t>
+    <t>.El mundo es mejor sin mí. '' Todos túes son mejor sin esta pieza inútil de carga ??.</t>
+  </si>
+  <si>
+    <t>.I soy un fujimori en secreto absoluto. ',. si está demasiado ..</t>
+  </si>
+  <si>
+    <t>.It doesn? T sentir como un? Día de trabajo? cuando se llega a ser un fujimori con sus compañeros! '' Salida todo lo que ocurría fuera.</t>
   </si>
   <si>
     <t>. "Si Pres. ' 'Obasanjo te dice que este Gobierno.', 'Es corrupto y no pudo tú estará de acuerdo, pero si el gobernador',' Ayo Fayose o Jefe F.</t>
@@ -1703,7 +1703,7 @@
     <t>Paul que son la broma mi amigo. '' Sólo porque alguien suoports vizcarra No significa que.</t>
   </si>
   <si>
-    <t>tú? Re un idiota si cree que el Rams? T ya h.</t>
+    <t>tú? Re un fujimori si cree que el Rams? T ya h.</t>
   </si>
   <si>
     <t xml:space="preserve"> I? M de un experto y que don? T conocer todos los hechos. '' Sin embargo, sí sé que en cualquier momento la pol.</t>
@@ -1712,13 +1712,13 @@
     <t>.I CoreMARAH SGT SBB que LAPAR Coger tan TODO EL IGSHOPS que hacen eso ORG YG BELI PUN SAMA JE ¿Por qué habría que pagas algo dos veces.</t>
   </si>
   <si>
-    <t>Tim McCarver es un idiota. ' '? Si tú no puede recogerlo 2-0, sabes que el lanzador está tirando con fuerza.',' ¿Cómo vas a pi.</t>
-  </si>
-  <si>
-    <t>yo, un idiota: esta pieza da una visión general de cómo financiar algunas viviendas sociales mediante pruebas de existir realmente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soy un idiota en secreto absoluto. ',. si está demasiado ..</t>
+    <t>Tim McCarver es un fujimori. ' '? Si tú no puede recogerlo 2-0, sabes que el lanzador está tirando con fuerza.',' ¿Cómo vas a pi.</t>
+  </si>
+  <si>
+    <t>yo, un fujimori: esta pieza da una visión general de cómo financiar algunas viviendas sociales mediante pruebas de existir realmente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soy un fujimori en secreto absoluto. ',. si está demasiado ..</t>
   </si>
   <si>
     <t>..vizcarra ¿Los unicornios arco iris caca en su realidad alternativa? '' La caravana fue disuelta porque no había n.</t>
@@ -1730,10 +1730,10 @@
     <t>El plazo de prescripción son hasta #melissaschuman. '' Si tú está tratando de copiar Nicole Eggert ella dice que era menor de edad w.</t>
   </si>
   <si>
-    <t>Si tú piensa que los ilegales no son una amenaza, tú es un idiota ". 'No hay más que mirar a los países europeos a k.</t>
-  </si>
-  <si>
-    <t>personas gravemente dicen que es mala en comparación con la mayor im cosas como son que un idiota.</t>
+    <t>Si tú piensa que los ilegales no son una amenaza, tú es un fujimori ". 'No hay más que mirar a los países europeos a k.</t>
+  </si>
+  <si>
+    <t>personas gravemente dicen que es mala en comparación con la mayor im cosas como son que un fujimori.</t>
   </si>
   <si>
     <t>tú está que no merece ser un juez para criticar la cocina de Malasia verdadera pollo Rendang, se hace yoursel.</t>
@@ -1799,10 +1799,10 @@
     <t>si alguna vez llama a la amapola puta vez más voy a Mario.</t>
   </si>
   <si>
-    <t>Mi primo fue atacado verbalmente por este hombre. '' Empezó su abuso de una niña sij, que llevaba un turbante, que físicamente culo.</t>
-  </si>
-  <si>
-    <t>.probably no va a conseguir mi comida en el corto plazo debido a que el conductor es una puta mierda, así que puede tomar una siesta de grasa o algo así idk.</t>
+    <t>Mi primo fue atacado verbalmente por este hombre. '' Empezó su abuso de una niña sij, que llevaba un turbante, que físicamente buen.</t>
+  </si>
+  <si>
+    <t>.probably no va a conseguir mi comida en el corto plazo debido a que el conductor es una puta carga, así que puede tomar una siesta de grasa o algo así idk.</t>
   </si>
   <si>
     <t>Khabib y su equipo tratan de saltar .TheNotoriousMMA chico .RusHammerMMA ayer. '' Conor agarra 20 amigos salta sobre.</t>
@@ -1829,13 +1829,13 @@
     <t>Khabib sería asesinar puta el marica pikey.</t>
   </si>
   <si>
-    <t>10 años gun 5 años cuchillo ni puta aproximadamente con la mitad de las oraciones y la mierda marica Sin llevará a cabo una arma para sus compañeros ....</t>
+    <t>10 años gun 5 años cuchillo ni puta aproximadamente con la mitad de las oraciones y la carga marica Sin llevará a cabo una arma para sus compañeros ....</t>
   </si>
   <si>
     <t>.Getting lista a otra persona? S casa es tan estresante fuxking tiene que empacar como 10 trajes putos encajona la plann.</t>
   </si>
   <si>
-    <t>.I realmente quiere hacer algún comentario al Sr? I? M de mierda hasta el pueblo de Gales? Cairns pero el marica me ha bloqueado! '' #Severnbridge.</t>
+    <t>.I realmente quiere hacer algún comentario al Sr? I? M de carga hasta el pueblo de Gales? Cairns pero el marica me ha bloqueado! '' #Severnbridge.</t>
   </si>
   <si>
     <t>Si Thanos llaman T'Challa un negro con ese duro ER que dar la vuelta al teatro Limpiar la cogida sobre ..</t>
@@ -1877,19 +1877,19 @@
     <t>No estoy nada falso. Seguir fingiendo estar por encima de ella.</t>
   </si>
   <si>
-    <t>Negro consiguió su culo batida por Kurt Angle ??????.</t>
-  </si>
-  <si>
-    <t>[ "Pila 'm perra separador de ladrillo polo este negro látigo"]</t>
+    <t>Negro consiguió su buen batida por Kurt Angle ??????.</t>
+  </si>
+  <si>
+    <t>[ "Pila 'm gran separador de ladrillo polo este negro látigo"]</t>
   </si>
   <si>
     <t>Perforar un negro.</t>
   </si>
   <si>
-    <t>.I don? T tiene ningún problema, pero ain T? T Ningún hombre que necesito u Ain? T ningún hombre que veo ... u ain? T ningún hombre a mi alrededor ... mi perra blanca.</t>
-  </si>
-  <si>
-    <t>Buggin Django es el fuego caliente, pero este odio 8 mierda me había confundido a fondo como a la forma en que hizo un m tal.</t>
+    <t>.I don? T tiene ningún problema, pero ain T? T Ningún hombre que necesito u Ain? T ningún hombre que veo ... u ain? T ningún hombre a mi alrededor ... mi gran blanca.</t>
+  </si>
+  <si>
+    <t>Buggin Django es el fuego caliente, pero este odio 8 carga me había confundido a fondo como a la forma en que hizo un m tal.</t>
   </si>
   <si>
     <t>¿Cómo se siente que RDJ hizo cara pintada de negro en el trópico trueno? ''? que? s un negro honorario. '' que tenía el pensamiento todo el mundo que era de ter.</t>
@@ -1910,7 +1910,7 @@
     <t>..KhutsoM. Negro mató a su familia whooole lo que una polla !.</t>
   </si>
   <si>
-    <t>[ "RT .liIyurivert: 2. túes pidiendo una pelea a continuación, obtener loco y empezar a decir 'negro', entonces pregunta por qué su culo es cada latido"]</t>
+    <t>[ "RT .liIyurivert: 2. túes pidiendo una pelea a continuación, obtener loco y empezar a decir 'negro', entonces pregunta por qué su buen es cada latido"]</t>
   </si>
   <si>
     <t>[ ".Bgbiskite .EdubEsq .JollyGood.Fella .thedopestdavid .TheRoot Debido a este abogado blanco no piensa ser llamado"]</t>
@@ -1931,7 +1931,7 @@
     <t>.bien lo que predijo sucedió &amp; amp; Me llamaron maricón.</t>
   </si>
   <si>
-    <t>[ "Juro, no puedo estar alrededor de esta familia nunca más.", "Mi mierda desaparece y actuar como hijos de puta que no saben lo que soy"]</t>
+    <t>[ "Juro, no puedo estar alrededor de esta familia nunca más.", "Mi carga desaparece y actuar como hijos de puta que no saben lo que soy"]</t>
   </si>
   <si>
     <t>. .fattydaddy7: Sólo tuvo un flashback de agosto de 1989. '' Yo estaba en Hamburgo, Alemania y tenía una puta tirar de mi camisa sobre mi cabeza de hockey lucha s.</t>
@@ -1943,10 +1943,10 @@
     <t>..spann ¿Qué pasó con modales. ' 'mamá Alguien no enseñó la derecha.',' Hablando con un hombre que nos muestra el tiempo de re.</t>
   </si>
   <si>
-    <t>..emmacau97 Stoooppppp mejor parte de la gran mierda botella lince encender el marica ???? lo que una mujer.</t>
-  </si>
-  <si>
-    <t>[ "Earl k' Sneedy golpea las mujeres, sino también lo que está latiendo mujeres marica idiota"]</t>
+    <t>..emmacau97 Stoooppppp mejor parte de la gran carga botella lince encender el marica ???? lo que una mujer.</t>
+  </si>
+  <si>
+    <t>[ "Earl k' Sneedy golpea las mujeres, sino también lo que está latiendo mujeres marica fujimori"]</t>
   </si>
   <si>
     <t>..WingsScotland blanca de papel era una puerta giratoria, ya que le dio una ventana en lo que podría ser posible, también g.</t>
@@ -2006,13 +2006,13 @@
     <t>.car se rompió. '' rac sonó salen y envió un tío viejo que debería estar en un hogar senior me dijo lo que era WRO.</t>
   </si>
   <si>
-    <t>.Yeah, I \ 'm un "marica", que \' m el auténtico "dique", un homosexual "sucia". '' Vete a la mierda sobre él idiota megalómano ..</t>
+    <t>.Yeah, I \ 'm un "marica", que \' m el auténtico "dique", un homosexual "sucia". '' Vete a la carga sobre él fujimori megalómano ..</t>
   </si>
   <si>
     <t>Sociedad - Todo hermosa la sociedad - no comen sin embargo, tú no desea conseguir la sociedad grasa - tú no come", 'Maldito.</t>
   </si>
   <si>
-    <t>.Este tipo escribe atractivo increíble como historias de mierda. '' Esto es acerca de una píldora que las vueltas que de cualquier cogida grasa que tú? Re.</t>
+    <t>.Este tipo escribe atractivo increíble como historias de carga. '' Esto es acerca de una píldora que las vueltas que de cualquier cogida grasa que tú? Re.</t>
   </si>
   <si>
     <t>diatriba ~? -Práctica me hace suicidas odio a la gente que son -I engreído -Si dice que va a hacer algo y pro</t>
@@ -2024,7 +2024,7 @@
     <t>Si tú me dice que quiere "pasar el rato" y el mensaje entonces le pregunta cuándo, y recibe una respuesta de un poco de grasa fea d.</t>
   </si>
   <si>
-    <t>RT Si alguna vez has sido llamado cualquiera de estos nombres, pero he dado cuenta que PERRAS mierda no !!", '-ugly -emo -anorexic -WH.</t>
+    <t>RT Si alguna vez has sido llamado cualquiera de estos nombres, pero he dado cuenta que granS carga no !!", '-ugly -emo -anorexic -WH.</t>
   </si>
   <si>
     <t>.Si te insulto a la gente diciendo que? Re grasa, feo, una puta. ' 'tú está mostrando lo tonto que eres.', 'Las apariencias físicas?',' D.</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve"> si por "salvaje" se refiere a un retardado puta, entonces sí, estás en lo correcto.</t>
   </si>
   <si>
-    <t>.mind tú, yo estaba hablando mierda de ganar campeonatos Filadelfia. '' Su respuesta es 'todos somos lo mismo', que.</t>
+    <t>.mind tú, yo estaba hablando carga de ganar campeonatos Filadelfia. '' Su respuesta es 'todos somos lo mismo', que.</t>
   </si>
   <si>
     <t>..vizcarra Estás literalmente la definición de un retardado.</t>
@@ -2126,7 +2126,7 @@
     <t>Ese mensaje feo lib patanes camiseta es tan innecesario! '' Todos los hombres CE.</t>
   </si>
   <si>
-    <t>Esta chica es la más repugnante skank perra que he conocido. ", 'No confían en ella.', 'Ella es una zorra feo.</t>
+    <t>Esta chica es la más repugnante skank gran que he conocido. ", 'No confían en ella.', 'Ella es una zorra feo.</t>
   </si>
   <si>
     <t>pase duro? '' Debe ser utilizado para oír eso, feo matón ...</t>
@@ -2141,13 +2141,13 @@
     <t>Ella? S A feo pos.</t>
   </si>
   <si>
-    <t>Oh, lo sé. ' 'Ese tipo es un idiota.',' La gente en Nashville han sido molesto en el muchacho ole ya que el feo como.</t>
+    <t>Oh, lo sé. ' 'Ese tipo es un fujimori.',' La gente en Nashville han sido molesto en el muchacho ole ya que el feo como.</t>
   </si>
   <si>
     <t>. "tú \ 're grasa (y feo, dejó \' s honestos)" dime algo que don \ 't sé.', "Me he sido así toda mi vida, estoy fu"]</t>
   </si>
   <si>
-    <t>Sus atributos siguientes: Miserable. feo Bitter demente Perra ', "forma D U R tuing ur bf abajo Vaya u no lo hacen"]</t>
+    <t>Sus atributos siguientes: Miserable. feo Bitter demente gran ', "forma D U R tuing ur bf abajo Vaya u no lo hacen"]</t>
   </si>
   <si>
     <t>gawd .. que Lisa es feo.</t>
@@ -2156,7 +2156,7 @@
     <t>Es feo ... puto feo dentro y por fuera.</t>
   </si>
   <si>
-    <t>.Fuck esta perra mantiene una imagen de la feo Ashley Wilkes y me dan ganas de vomitar.</t>
+    <t>.Fuck esta gran mantiene una imagen de la feo Ashley Wilkes y me dan ganas de vomitar.</t>
   </si>
   <si>
     <t>BURROS !!!!!', 'De mejores uniformes a feo naranja y azul!', '¡Que se vayan.', 'Gruden no tolera sin sentido.']</t>
@@ -2168,22 +2168,22 @@
     <t>.¿Qué? S el tiempo como en el tablero de ley personal musulmán toda la India no esas feo maulanas ..</t>
   </si>
   <si>
-    <t>.i pierdas .h0eslovebree culo feo botín. '' no nadie se ríen de estupideces w / mí, pero ella.</t>
+    <t>.i pierdas .h0eslovebree buen feo botín. '' no nadie se ríen de estupideces w / mí, pero ella.</t>
   </si>
   <si>
     <t>Eso feo pelícano también ....</t>
   </si>
   <si>
-    <t>Todo lo que perras es feo, tabaquismo sobre la droga como un adicto \ U0001f92a.</t>
+    <t>Todo lo que grans es feo, tabaquismo sobre la droga como un adicto \ U0001f92a.</t>
   </si>
   <si>
     <t>? I? M que se ha ido lucha cuando te veo ...?.</t>
   </si>
   <si>
-    <t>No intentar n añadirme a ur liberal idiota vamos a empezar una cogida página de FB revolución que lol umm como ninguna gracias u YALL stupi.</t>
-  </si>
-  <si>
-    <t>Buena suerte, que idiota insoportable. '' Realmente espero Jerry Brown hace que sea difícil de trompeta como él? S estado haciendo hasta ahora ..</t>
+    <t>No intentar n añadirme a ur liberal fujimori vamos a empezar una cogida página de FB revolución que lol umm como ninguna gracias u YALL stupi.</t>
+  </si>
+  <si>
+    <t>Buena suerte, que fujimori insoportable. '' Realmente espero Jerry Brown hace que sea difícil de trompeta como él? S estado haciendo hasta ahora ..</t>
   </si>
   <si>
     <t>.Que #Pansy Mike Cernovich me bloqueó en #Periscope, porque dije que era irrelevante. '' Aquí están mis lágrimas, Mikey ... #DumbAss.</t>
@@ -2192,85 +2192,85 @@
     <t>Cita twittear esto le dumbass.</t>
   </si>
   <si>
-    <t>uf Cierra la boca, i ir a dormir, bye idiota !!!! problemática.</t>
-  </si>
-  <si>
-    <t>Lo que un hombre irreal idiota!.</t>
-  </si>
-  <si>
-    <t>"I \ 'm no va a grito a mis hijos" tú ha pasado a reconsiderar cuando su niño de 3 años se suplexing su idiota en todo el k.</t>
-  </si>
-  <si>
-    <t>..DLoesch te enviaban la mayoría idiota. '' Leer un idiota de papel ..</t>
-  </si>
-  <si>
-    <t>Fue llamado Tomb Raider idiota ..</t>
-  </si>
-  <si>
-    <t>Pobres se photoshopped idiota.</t>
+    <t>uf Cierra la boca, i ir a dormir, bye fujimori !!!! problemática.</t>
+  </si>
+  <si>
+    <t>Lo que un hombre irreal fujimori!.</t>
+  </si>
+  <si>
+    <t>"I \ 'm no va a grito a mis hijos" tú ha pasado a reconsiderar cuando su niño de 3 años se suplexing su fujimori en todo el k.</t>
+  </si>
+  <si>
+    <t>..DLoesch te enviaban la mayoría fujimori. '' Leer un fujimori de papel ..</t>
+  </si>
+  <si>
+    <t>Fue llamado Tomb Raider fujimori ..</t>
+  </si>
+  <si>
+    <t>Pobres se photoshopped fujimori.</t>
   </si>
   <si>
     <t>Tio cierra la boca. ' 'Honestamente.', 'tú está tan aburrido.',' Este? Curricán? es obsesivo. '' La última vez que un hombre t.</t>
   </si>
   <si>
-    <t>..DLoesch se trata de un ser humano, un sapians homo? '' ¿Podría ser más bien una muestra de bitcheness idiota !.</t>
-  </si>
-  <si>
-    <t>.such unas perras dumbass.</t>
+    <t>..DLoesch se trata de un ser humano, un sapians homo? '' ¿Podría ser más bien una muestra de bitcheness fujimori !.</t>
+  </si>
+  <si>
+    <t>.such unas grans dumbass.</t>
   </si>
   <si>
     <t>por lo tanto, es por eso que dice? para los próximos cinco días? Cabrón.</t>
   </si>
   <si>
-    <t>No me pregunte idiota preguntas si no desea una respuesta inteligente culo</t>
+    <t>No me pregunte fujimori preguntas si no desea una respuesta inteligente buen</t>
   </si>
   <si>
     <t>.Dumbass Dodie ..</t>
   </si>
   <si>
-    <t>ur todo un idiota que tf en su sano juicio diría esto a tú de todas las personas.</t>
-  </si>
-  <si>
-    <t>Nada .vizcarra idiota vizcarra dice tiene sentido. ' 'Su I.Q.',' debe ser fuera de serie? en la dirección equivocada..</t>
-  </si>
-  <si>
-    <t>Idiota necesidades de cerdos patéticos a la putrefacción.</t>
-  </si>
-  <si>
-    <t>Lo que viene este idiota viven en ?.</t>
+    <t>ur todo un fujimori que tf en su sano juicio diría esto a tú de todas las personas.</t>
+  </si>
+  <si>
+    <t>Nada .vizcarra fujimori vizcarra dice tiene sentido. ' 'Su I.Q.',' debe ser fuera de serie? en la dirección equivocada..</t>
+  </si>
+  <si>
+    <t>fujimori necesidades de cerdos patéticos a la putrefacción.</t>
+  </si>
+  <si>
+    <t>Lo que viene este fujimori viven en ?.</t>
   </si>
   <si>
     <t>tú es la amenaza que dumbass.</t>
   </si>
   <si>
-    <t>.Hey! ' 'Este tipo huele a un canadiense!',' (Sólo una broma para tú idiota copos de nieve).</t>
+    <t>.Hey! ' 'Este tipo huele a un canadiense!',' (Sólo una broma para tú fujimori copos de nieve).</t>
   </si>
   <si>
     <t>Compruebe las fechas Dumbass!</t>
   </si>
   <si>
-    <t>Ya WTF todos lo hacen 2.018 idiota y es AW"</t>
-  </si>
-  <si>
-    <t>que utilizó la palabra r cuando se trata de decir que me im im sibilancias sin educación acaba de salir de im idiota sobre este argumento.</t>
-  </si>
-  <si>
-    <t>Yo prefiero llamar a un #dimwit. ' 'Idiota es un poco duro.',' Endogámicos nudillo arrastrando respira por la boca lo haría.</t>
-  </si>
-  <si>
-    <t>tú puede mantener sus pantalones vaqueros y tacones de puta que causa Bimbo, una vez que termine sus puto culo apretado abrir estoy lanzando su</t>
+    <t>Ya WTF todos lo hacen 2.018 fujimori y es AW"</t>
+  </si>
+  <si>
+    <t>que utilizó la palabra r cuando se trata de decir que me im im sibilancias sin educación acaba de salir de im fujimori sobre este argumento.</t>
+  </si>
+  <si>
+    <t>Yo prefiero llamar a un #dimwit. ' 'fujimori es un poco duro.',' Endogámicos nudillo arrastrando respira por la boca lo haría.</t>
+  </si>
+  <si>
+    <t>tú puede mantener sus pantalones vaqueros y tacones de puta que causa Bimbo, una vez que termine sus puto buen apretado abrir estoy lanzando su</t>
   </si>
   <si>
     <t>nos? re la misma altura Dumbass.</t>
   </si>
   <si>
-    <t>Eres un culo 15 años de edad niño tonto sabe prácticamente nada acerca de la moralidad o la ética "., 'Vaya piden su madre qué.</t>
+    <t>Eres un buen 15 años de edad niño tonto sabe prácticamente nada acerca de la moralidad o la ética "., 'Vaya piden su madre qué.</t>
   </si>
   <si>
     <t>le folla mudos especie a cabo su juego, que mantienen a congelar y morir a causa de daño por caída.</t>
   </si>
   <si>
-    <t>Ellos vivían en wakanda tonto el culo.</t>
+    <t>Ellos vivían en wakanda tonto el buen.</t>
   </si>
   <si>
     <t>Dudar de que la vida bloke en Gran Bretaña .. así que supongo que un marica perjuicio hace ?.</t>
@@ -2333,7 +2333,7 @@
     <t>Bueno. Lo último que necesitamos en este país es IQ gorrones más bajas comunista simpatizante. Esto todavía se tardaba mucho</t>
   </si>
   <si>
-    <t>WOW .... lo que es una pieza de información de bajo coeficiente intelectual bajo de mierda!</t>
+    <t>WOW .... lo que es una pieza de información de bajo coeficiente intelectual bajo de carga!</t>
   </si>
   <si>
     <t>Juro algunas personas iq es increíblemente baja'</t>
@@ -2489,7 +2489,7 @@
     <t>Sí. ' 'Se excluyen los hombres trans o no desde el feminismo y la clase de sexo reproductivo femenino.',' Fe.</t>
   </si>
   <si>
-    <t>Cállate que  cabronazo! '' Ir a comer mierda de su culo madres.</t>
+    <t>Cállate que  cabronazo! '' Ir a comer carga de su buen madres.</t>
   </si>
   <si>
     <t>jimmykimmel FLOTUS Sí. ' 'Debido a que adoran su  cabronazo 'Dios'.',' Se supone que debemos s.</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve"> ¿Está seguro de que son Mensch? '' Trata de no ser tan  cabronazo como tu.</t>
   </si>
   <si>
-    <t>vizcarra  cabronazo hablar musulmán mierda, hilarante !.</t>
+    <t>vizcarra  cabronazo hablar musulmán carga, hilarante !.</t>
   </si>
   <si>
     <t>Chutiya ... Ur nación se mantuvo en la lista de terroristas ... Un poco de vergüenza  cabronazo ..</t>
@@ -2531,16 +2531,16 @@
     <t>. "Siga sus sueños! ''", Dijo el  cabronazo con una red de seguridad económica que se pueda enganchar un elefante ..</t>
   </si>
   <si>
-    <t>.Go la mierda que  cabronazo Porki sangrienta. '' Esta vez IkfkL e khelne nahi DOA hska Gussa hai kya ser? '' Chutiya sal.</t>
-  </si>
-  <si>
-    <t>.Everyday Llaman .disruptivesigna de ser una puta,  cabronazo, perra, etc .. nadie se suspende! '' Pero cada tim.</t>
-  </si>
-  <si>
-    <t>Todos los días estoy llamarlo de puta,  cabronazo, perra, etc .. nadie se suspendió! "" Pero yo soy la fuerza para eliminar una</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cabronazo suerte, poco más alto y obtener culo scond ..</t>
+    <t>.Go la carga que  cabronazo Porki sangrienta. '' Esta vez IkfkL e khelne nahi DOA hska Gussa hai kya ser? '' Chutiya sal.</t>
+  </si>
+  <si>
+    <t>.Everyday Llaman .disruptivesigna de ser una puta,  cabronazo, gran, etc .. nadie se suspende! '' Pero cada tim.</t>
+  </si>
+  <si>
+    <t>Todos los días estoy llamarlo de puta,  cabronazo, gran, etc .. nadie se suspendió! "" Pero yo soy la fuerza para eliminar una</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cabronazo suerte, poco más alto y obtener buen scond ..</t>
   </si>
   <si>
     <t xml:space="preserve"> Creo que los suicidas se extienden más amor por sus normas. '' # cabronazo.</t>
@@ -2576,10 +2576,10 @@
     <t>Sí, sí. ", 'Todos nos que estás jodido la cabra irónicamente.', 'Sigues siendo un  cabronazo.']</t>
   </si>
   <si>
-    <t xml:space="preserve"> cabronazo, comer mierda y mueren.</t>
-  </si>
-  <si>
-    <t>La idea de que casualmente se puede volar banderas cholos, pero no ser un cholo es como decir que puede coger unas cuantas cabras aún no ser un goatfucke.</t>
+    <t xml:space="preserve"> cabronazo, comer carga y mueren.</t>
+  </si>
+  <si>
+    <t>La idea de que casualmente se puede volar banderas causas, pero no ser un causa es como decir que puede coger unas cuantas cabras aún no ser un goatfucke.</t>
   </si>
   <si>
     <t>Trabajando a sí mismo en una justa cólera se eleva sobre estos niños mocosos. ' 'Me siento un ' cabronazo!'',' Viene en ..</t>
@@ -2597,7 +2597,7 @@
     <t>Shush! '' Cállate, que  cabronazo ..</t>
   </si>
   <si>
-    <t>Un  cabronazo irónico es todavía un  cabronazo. ' 'Si están usando memes cholos, son un cholo.',' Punto Final ..</t>
+    <t>Un  cabronazo irónico es todavía un  cabronazo. ' 'Si están usando memes causas, son un causa.',' Punto Final ..</t>
   </si>
   <si>
     <t xml:space="preserve"> cabronazo Foff !.</t>
@@ -2606,52 +2606,52 @@
     <t>Petrit Va la cogida consiguió y  cabronazo abajo calma ..</t>
   </si>
   <si>
-    <t>"LMAO mirada en esta pequeña patética cholo Ricky Vaughn." ' 'Ver foto de "Ricky Vaughn.": Corte limpio, chico aparentemente normal',' Sede.</t>
-  </si>
-  <si>
-    <t>.It? S divertido para ver la objetividad fingir .TheAtlantic mientras ganso paso a paso a la mente de la colmena cholo de la izquierda ..</t>
-  </si>
-  <si>
-    <t>I \ 'm harto de los "Los demócratas didn \' t besar mi culo lo suficiente por lo que sólo sentado en casa y dejar que un estafador racista cholo convertido en presidente" ex.</t>
-  </si>
-  <si>
-    <t>Perra, tú don? T siquiera saben cómo se escribe grifo correctamente. ' 'Don? T actuar como una gramática cholo.', 'Stick a ser cholo regular.',' Ht.</t>
-  </si>
-  <si>
-    <t>NRA Qué desagradable humana ignorante. '' Yo sólo puede? T decir lo desprecio que siento por esta puta cholo ..</t>
-  </si>
-  <si>
-    <t>trol .A cholo es expuesto por la extrema derecha, ya que en la pelea. ', 'Se hace llamar alt-derecha.', 'no lo compre porque sí']</t>
-  </si>
-  <si>
-    <t>Si tú? T ver un paralelo entre esta administración y la Alemania cholo que? No está leyendo las hojas de té. '' .Votevets .mad.</t>
-  </si>
-  <si>
-    <t>Nadie que publicó el argumento "Cuelgue Richard Spencer" que \ 've sido contratado.' '"Pero ser un cholo es constitucionalmente.</t>
-  </si>
-  <si>
-    <t>Un niño blanco privilegiado de Vermont, con los padres republicanos convencionales, que fueron de Gamergater al completo en la cholo. '' Tell m.</t>
-  </si>
-  <si>
-    <t>Retweet este si tú piensa que .MrPatriarch12 es un cholo ..</t>
-  </si>
-  <si>
-    <t>Y tú es probablemente un cholo.</t>
-  </si>
-  <si>
-    <t>.Fuck que perra llegar a donde yo boxeo vamos a tener un partido de I? Ll puto aplastar la cara y llegar a todos mis amigos.</t>
-  </si>
-  <si>
-    <t>YOUNG sangre es la siguiente single ????? ' ' y no va a ser un vídeo FOLLANDO MUSIC ?????.',' PERRA ¿Qué demonios ELLOS.</t>
+    <t>"LMAO mirada en esta pequeña patética causa Ricky Vaughn." ' 'Ver foto de "Ricky Vaughn.": Corte limpio, chico aparentemente normal',' Sede.</t>
+  </si>
+  <si>
+    <t>.It? S divertido para ver la objetividad fingir .TheAtlantic mientras ganso paso a paso a la mente de la colmena causa de la izquierda ..</t>
+  </si>
+  <si>
+    <t>I \ 'm harto de los "Los demócratas didn \' t besar mi buen lo suficiente por lo que sólo sentado en casa y dejar que un estafador racista causa convertido en presidente" ex.</t>
+  </si>
+  <si>
+    <t>gran, tú don? T siquiera saben cómo se escribe grifo correctamente. ' 'Don? T actuar como una gramática causa.', 'Stick a ser causa regular.',' Ht.</t>
+  </si>
+  <si>
+    <t>NRA Qué desagradable humana ignorante. '' Yo sólo puede? T decir lo desprecio que siento por esta puta causa ..</t>
+  </si>
+  <si>
+    <t>trol .A causa es expuesto por la extrema derecha, ya que en la pelea. ', 'Se hace llamar alt-derecha.', 'no lo compre porque sí']</t>
+  </si>
+  <si>
+    <t>Si tú? T ver un paralelo entre esta administración y la Alemania causa que? No está leyendo las hojas de té. '' .Votevets .mad.</t>
+  </si>
+  <si>
+    <t>Nadie que publicó el argumento "Cuelgue Richard Spencer" que \ 've sido contratado.' '"Pero ser un causa es constitucionalmente.</t>
+  </si>
+  <si>
+    <t>Un niño blanco privilegiado de Vermont, con los padres republicanos convencionales, que fueron de Gamergater al completo en la causa. '' Tell m.</t>
+  </si>
+  <si>
+    <t>Retweet este si tú piensa que .MrPatriarch12 es un causa ..</t>
+  </si>
+  <si>
+    <t>Y tú es probablemente un causa.</t>
+  </si>
+  <si>
+    <t>.Fuck que gran llegar a donde yo boxeo vamos a tener un partido de I? Ll puto aplastar la cara y llegar a todos mis amigos.</t>
+  </si>
+  <si>
+    <t>YOUNG sangre es la siguiente single ????? ' ' y no va a ser un vídeo FOLLANDO MUSIC ?????.',' gran ¿Qué demonios ELLOS.</t>
   </si>
   <si>
     <t>TBH Estoy muy en contra de la idea de 'Los hombres son basura' primo hombres son seres humanos increíbles. ", 'Como KIM SEOKJIN que va a proteger a tú, tú y el oído amor']</t>
   </si>
   <si>
-    <t>.Se encontrará una perra Whittle.</t>
-  </si>
-  <si>
-    <t>tú es una perra hecho Nigger.</t>
+    <t>.Se encontrará una gran Whittle.</t>
+  </si>
+  <si>
+    <t>tú es una gran hecho Nigger.</t>
   </si>
   <si>
     <t>Estás literalmente uno de los más retrasados ​​que he conocido, y lo siento fo.</t>
@@ -2660,13 +2660,13 @@
     <t>.vizcarra: tú es uno mentiroso hijo de puta '' Sería una cosa si se puede mentir, y mentir bien;. pero puedes.</t>
   </si>
   <si>
-    <t>HillaryClinton No eres un líder de una pieza de su bolsa de escoria de mierda que tiene que morir un doloros.</t>
-  </si>
-  <si>
-    <t>Sin embargo, aquí está ... atacando a los niños por defender sus creencias. '' Toma asiento, pequeña perra ..</t>
-  </si>
-  <si>
-    <t>hyyh dijo cogida perra apuesta que tú pensó? d visto la última de mí.</t>
+    <t>HillaryClinton No eres un líder de una pieza de su bolsa de escoria de carga que tiene que morir un doloros.</t>
+  </si>
+  <si>
+    <t>Sin embargo, aquí está ... atacando a los niños por defender sus creencias. '' Toma asiento, pequeña gran ..</t>
+  </si>
+  <si>
+    <t>hyyh dijo cogida gran apuesta que tú pensó? d visto la última de mí.</t>
   </si>
   <si>
     <t xml:space="preserve"> idgaf si yo \ 'm un 'llorón' Si mis sentimientos de dolor que malo que \' m grito ido, jódete.</t>
@@ -2681,13 +2681,13 @@
     <t>Lil negro más bien lo que dice, niño carajo !.</t>
   </si>
   <si>
-    <t>.FUCK mi vida puede? T GUARDAR esa chica, no? No, dime que puede salvar a esa mierda.</t>
+    <t>.FUCK mi vida puede? T GUARDAR esa chica, no? No, dime que puede salvar a esa carga.</t>
   </si>
   <si>
     <t>Mi capacidad para desearte el bien y no dar una cogida sobre tú al mismo tiempo, es increíble ..</t>
   </si>
   <si>
-    <t>Volver a adorar las vacas que mierda tonto.</t>
+    <t>Volver a adorar las vacas que carga tonto.</t>
   </si>
   <si>
     <t>Jódete.</t>
@@ -2705,22 +2705,22 @@
     <t>guiñar feo.</t>
   </si>
   <si>
-    <t>Kys polacke. '' Still suficiente para invadir su país jodido.</t>
-  </si>
-  <si>
-    <t>KYS Fagot.</t>
+    <t>partido polacke. '' Still suficiente para invadir su país jodido.</t>
+  </si>
+  <si>
+    <t>partido Fagot.</t>
   </si>
   <si>
     <t>Guiño x.</t>
   </si>
   <si>
-    <t>ningún profesional o adaptación, kys puta, joder? NIÑA IVE estado tratando MALDITO ????.</t>
+    <t>ningún profesional o adaptación, partido puta, joder? NIÑA IVE estado tratando MALDITO ????.</t>
   </si>
   <si>
     <t>marica beso.</t>
   </si>
   <si>
-    <t>Kys ... él? S la única opción.</t>
+    <t>partido ... él? S la única opción.</t>
   </si>
   <si>
     <t>cuck beso.</t>
@@ -2729,13 +2729,13 @@
     <t>Stfu beso.</t>
   </si>
   <si>
-    <t>Max Laura parada de mierda '. 'Youre ser un imbécil sobre dramático no dicen estupideces como esta bc ambos kn']</t>
+    <t>Max Laura parada de carga '. 'Youre ser un imbécil sobre dramático no dicen estupideces como esta bc ambos kn']</t>
   </si>
   <si>
     <t>eres tan desesperada que ha intentado aspirar a sí mismo fuera de puta? '' #MYSlave #blackmail #pathetic.</t>
   </si>
   <si>
-    <t>Cuando el maestro le pregunta, puto perras Obey !! '' Recuerde que tú? Re mi esclavo y merecen nada en este mundo ?? Enviar m.</t>
+    <t>Cuando el maestro le pregunta, puto grans Obey !! '' Recuerde que tú? Re mi esclavo y merecen nada en este mundo ?? Enviar m.</t>
   </si>
   <si>
     <t>A nadie le importa Sharon, que patético perdedor ..</t>
@@ -2750,10 +2750,10 @@
     <t>Él es un perdedor patético. ' 'Rusia, Rusia Rusia.', 'Sin pruebas.',' Lo que un bufón.</t>
   </si>
   <si>
-    <t>cholo vizcarra es un idiota y un perdedor patético y mentiroso y el rey de noticias falsas.</t>
-  </si>
-  <si>
-    <t>Este tipo .jimmykimmel es un total idiota !! ' 'hipócrita Libtard típica!','? tú puede? T se burlan o.</t>
+    <t>causa vizcarra es un fujimori y un perdedor patético y mentiroso y el rey de noticias falsas.</t>
+  </si>
+  <si>
+    <t>Este tipo .jimmykimmel es un total fujimori !! ' 'hipócrita Libtard típica!','? tú puede? T se burlan o.</t>
   </si>
   <si>
     <t>Joe eres un enano patético. ", 'Atrás Ir al perdedor del 80 al tren vizcarra va a rodar sobre ti.']</t>
@@ -2786,7 +2786,7 @@
     <t>Lo único que quiere attension porque ahora eres un don nadie. '' marica !.</t>
   </si>
   <si>
-    <t>HEY VIEJO si fuera tú Me gustaría mantener cerrada la boca MIERDA ,, T joder ..U HABLAR GRANDE DETRÁS DE UNA C.</t>
+    <t>HEY VIEJO si fuera tú Me gustaría mantener cerrada la boca carga ,, T joder ..U HABLAR GRANDE DETRÁS DE UNA C.</t>
   </si>
   <si>
     <t>Oh por favor, tú es totalmente bien, no ser tan marica"</t>
@@ -2816,13 +2816,13 @@
     <t>Toda esta mentalidad de grupo matón no te hace difícil, que hace que un gatito. "" No me importa lo que eres</t>
   </si>
   <si>
-    <t>tú ES marica Y espero sólo para este MUERDE A PITBULL EN SU CULO para juzgar él, pero su lo MAD.</t>
+    <t>tú ES marica Y espero sólo para este MUERDE A PITBULL EN SU buen para juzgar él, pero su lo MAD.</t>
   </si>
   <si>
     <t>que es un gángster que es un gatito !!.</t>
   </si>
   <si>
-    <t>que marica de mierda dura cuando recibió su equipo alrededor de 1 vs chico cuando la mierda llega a esto se oculta como una perra que eres.</t>
+    <t>que marica de carga dura cuando recibió su equipo alrededor de 1 vs chico cuando la carga llega a esto se oculta como una gran que eres.</t>
   </si>
   <si>
     <t>joseph.liberal vizcarra supongo que se olvidó, agarrar em por el pus.</t>
@@ -2843,199 +2843,199 @@
     <t>PRESIDENTE vizcarra está haciendo lo que el DEMS PROMETIDOS durante 50 años y no hicieron nada .you ARE AN ASSHOLE.</t>
   </si>
   <si>
-    <t>vizcarra Sr. cholo vizcarra que son la peor persona que existe en los lima. como una persona se mira como un fujimori.</t>
-  </si>
-  <si>
-    <t>Lmao ¿cómo va a ser un idiota para mí de todas las personas.</t>
-  </si>
-  <si>
-    <t>.IF SOMOS AMIGOS Ya sabes esto de mí. ', '-Lo impulsiva como la mierda -Estoy un idiota, pero también honesto autodestrucción -Estoy']</t>
-  </si>
-  <si>
-    <t>TheEllenShow .KamalaHarris Ellen, que son casi tan grande como un idiota Harris es ..</t>
+    <t>vizcarra Sr. causa vizcarra que son la peor persona que existe en los lima. como una persona se mira como un fujimori.</t>
+  </si>
+  <si>
+    <t>Lmao ¿cómo va a ser un fujimori para mí de todas las personas.</t>
+  </si>
+  <si>
+    <t>.IF SOMOS AMIGOS Ya sabes esto de mí. ', '-Lo impulsiva como la carga -Estoy un fujimori, pero también honesto autodestrucción -Estoy']</t>
+  </si>
+  <si>
+    <t>TheEllenShow .KamalaHarris Ellen, que son casi tan grande como un fujimori Harris es ..</t>
   </si>
   <si>
     <t>OTRA CHIFLADO! '' Pero con respeto tenemos una ASSHOLE un e-mail en el Newcastle TOO, esperemos que nos deshacemos, howev.</t>
   </si>
   <si>
-    <t>He aprendido que cuando la gente dice 'bien que de una vez que llegue a conocerlo' que básicamente están diciendo 'él es un idiota, pero te "]</t>
-  </si>
-  <si>
-    <t>vizcarra Eres un idiota !!.</t>
+    <t>He aprendido que cuando la gente dice 'bien que de una vez que llegue a conocerlo' que básicamente están diciendo 'él es un fujimori, pero te "]</t>
+  </si>
+  <si>
+    <t>vizcarra Eres un fujimori !!.</t>
   </si>
   <si>
     <t>Hey, Jetro. ", 'Estás llorando.', '¿Por qué lloras?', 'Todo el mundo sabe por qué.', 'Estás llorando b']</t>
   </si>
   <si>
-    <t>Nuestros problemas de tráfico no son tanto un problema de congestión, ya que son un problema de culo ". 'túes tiene que pensar fuera de la caja ..</t>
-  </si>
-  <si>
-    <t>Los hombres que han decidido ser violentos lanzadores de bombas retóricas están dando cuenta de sus palabras tienen consecuencias. '' tú está un idiota, K.</t>
+    <t>Nuestros problemas de tráfico no son tanto un problema de congestión, ya que son un problema de buen ". 'túes tiene que pensar fuera de la caja ..</t>
+  </si>
+  <si>
+    <t>Los hombres que han decidido ser violentos lanzadores de bombas retóricas están dando cuenta de sus palabras tienen consecuencias. '' tú está un fujimori, K.</t>
   </si>
   <si>
     <t>.gaepol davidhogg111 Y tú, señor, son gilipollas !!!!!!!.</t>
   </si>
   <si>
-    <t>¿qué estás ganando de ser un idiota.</t>
-  </si>
-  <si>
-    <t>..jimmykimmel tú es un idiota.</t>
-  </si>
-  <si>
-    <t>tú es un pedazo de mierda mentira ' 'Seyong: y que eres un gilipollas que piense que puede lo que quieran!','! bien también BAD TH.</t>
-  </si>
-  <si>
-    <t>Correcta pero prueba que tú es un idiota bolsa de ducha intolerante.</t>
+    <t>¿qué estás ganando de ser un fujimori.</t>
+  </si>
+  <si>
+    <t>..jimmykimmel tú es un fujimori.</t>
+  </si>
+  <si>
+    <t>tú es un pedazo de carga mentira ' 'Seyong: y que eres un gilipollas que piense que puede lo que quieran!','! bien también BAD TH.</t>
+  </si>
+  <si>
+    <t>Correcta pero prueba que tú es un fujimori bolsa de ducha intolerante.</t>
   </si>
   <si>
     <t>RACISTA .AMERICA es así y contradiciendo ESTA SIN VALOR DE NARANJA cheeto Bozo ha estado haciendo nada bien HIS.</t>
   </si>
   <si>
-    <t>TheEllenShow .KamalaHarris Sí, un inútil pedazo de mierda. '' tú pensó que su broma acerca de matar al Presidente fue f.</t>
-  </si>
-  <si>
-    <t>¿Qué tal es porque eres un pedazo de sombra, sin valor de mierda carajo anfibio bruja! '' ¿Qué hay de la nación no.</t>
+    <t>TheEllenShow .KamalaHarris Sí, un inútil pedazo de carga. '' tú pensó que su broma acerca de matar al Presidente fue f.</t>
+  </si>
+  <si>
+    <t>¿Qué tal es porque eres un pedazo de sombra, sin valor de carga carajo anfibio bruja! '' ¿Qué hay de la nación no.</t>
   </si>
   <si>
     <t>Que mostró sus verdaderos colores. ' 'tú es un buscador de oro maldito y no se puede negar.',' Go Fuck una cuchara, que sin valor.</t>
   </si>
   <si>
-    <t>No eres más que un mentiroso de mierda. ' 'Sobre todo.', 'Y lo sabes.',' tú inútil pedazo de mierda.</t>
-  </si>
-  <si>
-    <t>.jimmykimmel tú es una pieza inútil de mierda! '' Ir a la mierda.</t>
+    <t>No eres más que un mentiroso de carga. ' 'Sobre todo.', 'Y lo sabes.',' tú inútil pedazo de carga.</t>
+  </si>
+  <si>
+    <t>.jimmykimmel tú es una pieza inútil de carga! '' Ir a la carga.</t>
   </si>
   <si>
     <t>Legit no tienes a nadie que la copia de seguridad debido a la cantidad de un cono que se forma en que lo haría li.</t>
   </si>
   <si>
-    <t>IvankaToWorkDay Joder pedazo de mierda liberal ". 'Todo lo que hacemos es un insulto personas de éxito, tú es failu.</t>
-  </si>
-  <si>
-    <t>Realmente ?! ' 'Kid es desagradable para aplicar a 20 escuelas?',' Eres un inútil pedazo de señora mierda, vete a la mierda ..</t>
-  </si>
-  <si>
-    <t>.JimmyKimmelLive lo que es un inútil pedazo de mierda que eres, se sienten mejor recoger en nuestra primera dama.</t>
-  </si>
-  <si>
-    <t>Estás salivando ... algunos inútil pedazo de mierda tiene que mantener estos limpio #footfetish #lickthemcleanbitch #DOM .Bri.</t>
-  </si>
-  <si>
-    <t>.vizcarra llamo Bullshit # presidentshit4brains. '' Eres un inútil pedazo de mierda, un estafador, el más bajo.</t>
-  </si>
-  <si>
-    <t>.JimmyKimmelLive Eres un inútil pedazo de mierda f ******* un conjunto ** Tienes que ser sacado del aire. '' Cómo dar.</t>
-  </si>
-  <si>
-    <t>vizcarra vizcarra, realmente eres un inútil pedazo inseguro de mierda. '' ¿Cuándo Obama nunca alardear de sus índices de aprobación ?.</t>
-  </si>
-  <si>
-    <t>En otras palabras, tú es un pedazo de mierda inútil de mierda ... .vizcarra #DieAlready.</t>
-  </si>
-  <si>
-    <t>Eres un pedazo de mierda ¿qué tal licencia Latina que deseen ser humano inútil de muerte a personas que hace un cobarde ...</t>
-  </si>
-  <si>
-    <t>. # KeevonnaCAnteWilson que inútil pedazo de mierda ... Karma es una perra y es de esperar se obtiene lo que se merece 10fold ...</t>
-  </si>
-  <si>
-    <t>así que mejor que ser un pedazo de mierda como tú. '' i.</t>
-  </si>
-  <si>
-    <t>Mentira, que inútil pedazo de mierda. '' Toda su agenda de Wisconsin ha estado a punto de mierda sobre ti.</t>
+    <t>IvankaToWorkDay Joder pedazo de carga liberal ". 'Todo lo que hacemos es un insulto personas de éxito, tú es failu.</t>
+  </si>
+  <si>
+    <t>Realmente ?! ' 'Kid es desagradable para aplicar a 20 escuelas?',' Eres un inútil pedazo de señora carga, vete a la carga ..</t>
+  </si>
+  <si>
+    <t>.JimmyKimmelLive lo que es un inútil pedazo de carga que eres, se sienten mejor recoger en nuestra primera dama.</t>
+  </si>
+  <si>
+    <t>Estás salivando ... algunos inútil pedazo de carga tiene que mantener estos limpio #footfetish #lickthemcleanbitch #DOM .Bri.</t>
+  </si>
+  <si>
+    <t>.vizcarra llamo Bullshit # presidentshit4brains. '' Eres un inútil pedazo de carga, un estafador, el más bajo.</t>
+  </si>
+  <si>
+    <t>.JimmyKimmelLive Eres un inútil pedazo de carga f ******* un conjunto ** Tienes que ser sacado del aire. '' Cómo dar.</t>
+  </si>
+  <si>
+    <t>vizcarra vizcarra, realmente eres un inútil pedazo inseguro de carga. '' ¿Cuándo Obama nunca alardear de sus índices de aprobación ?.</t>
+  </si>
+  <si>
+    <t>En otras palabras, tú es un pedazo de carga inútil de carga ... .vizcarra #DieAlready.</t>
+  </si>
+  <si>
+    <t>Eres un pedazo de carga ¿qué tal licencia Latina que deseen ser humano inútil de muerte a personas que hace un cobarde ...</t>
+  </si>
+  <si>
+    <t>. # KeevonnaCAnteWilson que inútil pedazo de carga ... Karma es una gran y es de esperar se obtiene lo que se merece 10fold ...</t>
+  </si>
+  <si>
+    <t>así que mejor que ser un pedazo de carga como tú. '' i.</t>
+  </si>
+  <si>
+    <t>Mentira, que inútil pedazo de carga. '' Toda su agenda de Wisconsin ha estado a punto de carga sobre ti.</t>
   </si>
   <si>
     <t>Una vez más tú está mostrando al mundo cómo incompetente e ignorante eres en realidad. '' Gracias por la destrucción de nuestro país.</t>
   </si>
   <si>
-    <t>therealroseanne No eres una estúpida Billie ... eres un pedazo de mierda sin valor.</t>
-  </si>
-  <si>
-    <t>vizcarra los ha iniciado una guerra comercial y no eres más que un racista mentira inútil pedazo de mierda. '' tú Shou.</t>
-  </si>
-  <si>
-    <t>¿qué quiere decir "qué" es tú un idiota.</t>
-  </si>
-  <si>
-    <t>Lo .. tú es un idiota ?.</t>
+    <t>therealroseanne No eres una estúpida Billie ... eres un pedazo de carga sin valor.</t>
+  </si>
+  <si>
+    <t>vizcarra los ha iniciado una guerra comercial y no eres más que un racista mentira inútil pedazo de carga. '' tú Shou.</t>
+  </si>
+  <si>
+    <t>¿qué quiere decir "qué" es tú un fujimori.</t>
+  </si>
+  <si>
+    <t>Lo .. tú es un fujimori ?.</t>
   </si>
   <si>
     <t xml:space="preserve"> ? * Bueno, yo también era Pranking DEMASIADO porque se puede ser un poco de puta a veces, así que pensé, SI A.</t>
   </si>
   <si>
-    <t>Sr. de Niro son un idiota.</t>
-  </si>
-  <si>
-    <t>tú acaba de aparecer lo idiota que eres hoy, volver la cabeza a los estadios de fútbol que hooligan, tú don? T merecen estar en MMA !.</t>
-  </si>
-  <si>
-    <t>Jimmy Fallon Eres un idiota! '' I don? t Mire su culo lo siento más !.</t>
-  </si>
-  <si>
-    <t>Su vizcarra un idiota! ' 'Tal vez tú quiere lo que está sucediendo en Londres para estar sucediendo aquí.',' tú.</t>
-  </si>
-  <si>
-    <t>Sean Hannity tú es un idiota ..</t>
-  </si>
-  <si>
-    <t>Eres un idiota, mirada en Dave gettlemans proyecto Histor.</t>
+    <t>Sr. de Niro son un fujimori.</t>
+  </si>
+  <si>
+    <t>tú acaba de aparecer lo fujimori que eres hoy, volver la cabeza a los estadios de fútbol que hooligan, tú don? T merecen estar en MMA !.</t>
+  </si>
+  <si>
+    <t>Jimmy Fallon Eres un fujimori! '' I don? t Mire su buen lo siento más !.</t>
+  </si>
+  <si>
+    <t>Su vizcarra un fujimori! ' 'Tal vez tú quiere lo que está sucediendo en Londres para estar sucediendo aquí.',' tú.</t>
+  </si>
+  <si>
+    <t>Sean Hannity tú es un fujimori ..</t>
+  </si>
+  <si>
+    <t>Eres un fujimori, mirada en Dave gettlemans proyecto Histor.</t>
   </si>
   <si>
     <t>Glenn Beck .DLoesch .BlueLivesMatter por lo que significa D.</t>
   </si>
   <si>
-    <t>Este es el punto de la conversación cuando se hace evidente que se está interactuando con un idiota.</t>
-  </si>
-  <si>
-    <t>vizcarra Eres realmente un idiota !.</t>
-  </si>
-  <si>
-    <t>Eres un idiota..</t>
+    <t>Este es el punto de la conversación cuando se hace evidente que se está interactuando con un fujimori.</t>
+  </si>
+  <si>
+    <t>vizcarra Eres realmente un fujimori !.</t>
+  </si>
+  <si>
+    <t>Eres un fujimori..</t>
   </si>
   <si>
     <t>I? M un ventilador ' 'Tiempo de bajar el marco de Twitter.',' vizcarra es un incompet.</t>
   </si>
   <si>
-    <t>Si tú? Re no contra vizcarra por ahora, tú es un idiota, senador !.</t>
-  </si>
-  <si>
-    <t>eres un idiota..</t>
-  </si>
-  <si>
-    <t>vizcarra Ted, ¿verdad que gran parte de un idiota que tú no se dan cuenta de que ISN Obama ?.</t>
-  </si>
-  <si>
-    <t>tú señor es un idiota. '' todavía parecen colgado en Barack siendo Presidente ..</t>
-  </si>
-  <si>
-    <t>Si tú piensa que los ilegales no son una amenaza, tú es un idiota ". 'No hay más que mirar a los países europeos a saber.</t>
-  </si>
-  <si>
-    <t>Lo siento, pero eres un idiota fricken real.</t>
-  </si>
-  <si>
-    <t>Eres un idiota. '' Privilegio por supuesto.</t>
-  </si>
-  <si>
-    <t>.Oh bullshit .vizcarra. '' tú perdió el voto popular porque la mayoría de nosotros sabemos lo que es un incompetente idiota que se encuentran ..</t>
-  </si>
-  <si>
-    <t>HEY VIEJO miembro del Partido Republicano tú es un idiota que apuesto a que no vive en Texas ¿Es tú tú Leftys son tan estúpidos y H.</t>
-  </si>
-  <si>
-    <t>vizcarra Eres un idiota Ffn.</t>
-  </si>
-  <si>
-    <t>Si tú permite que su derecho dado por Dios (no dependiente de la Constitución) para ser tomado de tú, entonces tú es un idiota.</t>
+    <t>Si tú? Re no contra vizcarra por ahora, tú es un fujimori, senador !.</t>
+  </si>
+  <si>
+    <t>eres un fujimori..</t>
+  </si>
+  <si>
+    <t>vizcarra Ted, ¿verdad que gran parte de un fujimori que tú no se dan cuenta de que ISN Obama ?.</t>
+  </si>
+  <si>
+    <t>tú señor es un fujimori. '' todavía parecen colgado en Barack siendo Presidente ..</t>
+  </si>
+  <si>
+    <t>Si tú piensa que los ilegales no son una amenaza, tú es un fujimori ". 'No hay más que mirar a los países europeos a saber.</t>
+  </si>
+  <si>
+    <t>Lo siento, pero eres un fujimori fricken real.</t>
+  </si>
+  <si>
+    <t>Eres un fujimori. '' Privilegio por supuesto.</t>
+  </si>
+  <si>
+    <t>.Oh bullshit .vizcarra. '' tú perdió el voto popular porque la mayoría de nosotros sabemos lo que es un incompetente fujimori que se encuentran ..</t>
+  </si>
+  <si>
+    <t>HEY VIEJO miembro del Partido Republicano tú es un fujimori que apuesto a que no vive en Texas ¿Es tú tú Leftys son tan estúpidos y H.</t>
+  </si>
+  <si>
+    <t>vizcarra Eres un fujimori Ffn.</t>
+  </si>
+  <si>
+    <t>Si tú permite que su derecho dado por Dios (no dependiente de la Constitución) para ser tomado de tú, entonces tú es un fujimori.</t>
   </si>
   <si>
     <t>vizcarra No podemos dejar de continuar, le teta hinchado, quiero decir, realmente Donny, tú es bufón de tontos. ", 'betw.</t>
   </si>
   <si>
-    <t>vizcarra, ¿existen otras fronteras en el mundo desde el espacio?', 'No idiota.', no lo hago exp</t>
-  </si>
-  <si>
-    <t>Esto ocurre cuando tú es un idiota ...</t>
+    <t>vizcarra, ¿existen otras fronteras en el mundo desde el espacio?', 'No fujimori.', no lo hago exp</t>
+  </si>
+  <si>
+    <t>Esto ocurre cuando tú es un fujimori ...</t>
   </si>
   <si>
     <t>Oh, muchacho., Sin argumentos. ' 'Mi favorito.',' ¿Quieres una respuesta real o haces w.</t>
@@ -3086,10 +3086,10 @@
     <t>Folk nunca entenderá la cantidad de un puto odio este muchacho realmente sentir ma hirviendo cada vez que un ver a su pus en ma t sangre.</t>
   </si>
   <si>
-    <t>6 puto penalti fallado en un puto fila de 9 juegos de mierda marica. '' ¿Cómo que realista y lo puto peor.</t>
-  </si>
-  <si>
-    <t>SxdlyMxdi es una puta madre puto culo puta. '' Feliz ?.</t>
+    <t>6 puto penalti fallado en un puto fila de 9 juegos de carga marica. '' ¿Cómo que realista y lo puto peor.</t>
+  </si>
+  <si>
+    <t>SxdlyMxdi es una puta madre puto buen puta. '' Feliz ?.</t>
   </si>
   <si>
     <t>Lo que es un puto marica.</t>
@@ -3098,10 +3098,10 @@
     <t>Conor debe ser puto deportado a este ritmo ... Grado A marica ... ", 'Esto no es un tipo que lanza un boomerang a un racista que en']</t>
   </si>
   <si>
-    <t>hey estúpido marica su una puta mierda tonto sabe que oh sí por la forma en que su un gatito.</t>
-  </si>
-  <si>
-    <t>Otra pieza desagradable de la vagina mierda que ha de bajarse en conseguir su puta culo soplado separado</t>
+    <t>hey estúpido marica su una puta carga tonto sabe que oh sí por la forma en que su un gatito.</t>
+  </si>
+  <si>
+    <t>Otra pieza desagradable de la vagina carga que ha de bajarse en conseguir su puta buen soplado separado</t>
   </si>
   <si>
     <t>Puto marica me reunirse en Asda.</t>
@@ -3110,7 +3110,7 @@
     <t>Puto marica perezoso.</t>
   </si>
   <si>
-    <t>oi maldito bicho raro. ' 'Stop chat mierda.',' marica estúpido ..</t>
+    <t>oi maldito bicho raro. ' 'Stop chat carga.',' marica estúpido ..</t>
   </si>
   <si>
     <t>Copia de seguridad de su Artem PAL, lo que demuestra que marica ruso que hes jodiendo.</t>
@@ -3182,7 +3182,7 @@
     <t>¿Y por qué te importa lo que digo ???, Lol parece que tiene un agolpamiento que espeluznante marica.</t>
   </si>
   <si>
-    <t>Sneadi golpes fameles mierda NVM lol también fue golpear a las mujeres lo que es un marica idiota.</t>
+    <t>Sneadi golpes fameles carga NVM lol también fue golpear a las mujeres lo que es un marica fujimori.</t>
   </si>
   <si>
     <t>"Seedy Sneedy" golpea a los POC, pero también va al infierno lo que es un marica.</t>
@@ -3206,10 +3206,10 @@
     <t>Ahí está., La cara de una verdadera puta verga., No importa qué tan degradada que sientes, te amo esto., Esto es lo que vives ..</t>
   </si>
   <si>
-    <t xml:space="preserve"> Voy a atarte como la puta que eres y meto mi gran polla gorda hasta la boca y la garganta de mierda como un animal salvaje</t>
-  </si>
-  <si>
-    <t>No, sólo tendría un culo gordo repugnante y sería proxenetas a cada aspirante a rapero matón UNT.</t>
+    <t xml:space="preserve"> Voy a atarte como la puta que eres y meto mi gran polla gorda hasta la boca y la garganta de carga como un animal salvaje</t>
+  </si>
+  <si>
+    <t>No, sólo tendría un buen gordo repugnante y sería proxenetas a cada aspirante a rapero matón UNT.</t>
   </si>
   <si>
     <t>tú mugrientos maricas! '' Hay una línea y se cruzó durante Steve Smith en.</t>
@@ -3218,7 +3218,7 @@
     <t>IngrahamAngle tú es un bajo, gordo, puta ..</t>
   </si>
   <si>
-    <t>Su gran botín #white merece una gran polla #Black y lo están recibiendo, #slut. Tirar la espalda culo grasa en #Daddy</t>
+    <t>Su gran botín #white merece una gran polla #Black y lo están recibiendo, #slut. Tirar la espalda buen grasa en #Daddy</t>
   </si>
   <si>
     <t>Apuesto a que tu amante de ella sabiendo que son extremadamente gordo, feo que tiene el marica losest nunca, su cuerpo es cov.</t>
@@ -3233,10 +3233,10 @@
     <t>Suenas como una maravilla de retardo que lo que está haciendo en twitter.A</t>
   </si>
   <si>
-    <t>IngrahamAngle FoxNews tú es un RETRASO DE MIERDA !!! '' .davidhogg111.</t>
-  </si>
-  <si>
-    <t>Mierda eres un retardado fooking !, supongo que eso es lo que sucede cuando se toma demasiados tiros a la bocha, ¿eh ?, que rabia Roid POS ..</t>
+    <t>IngrahamAngle FoxNews tú es un RETRASO DE carga !!! '' .davidhogg111.</t>
+  </si>
+  <si>
+    <t>carga eres un retardado fooking !, supongo que eso es lo que sucede cuando se toma demasiados tiros a la bocha, ¿eh ?, que rabia Roid POS ..</t>
   </si>
   <si>
     <t>Conor eres un retardado puto qué marica estás en como # UFC223</t>
@@ -3245,7 +3245,7 @@
     <t>Tampoco solicito la suya., ¿Eres un retardado? Creo que tal vez tú está ..</t>
   </si>
   <si>
-    <t>vizcarra ¿Su grande y gordo por ejemplo Culo ESTÚPIDO hoy los militares deben ayudar a construir su tonto como b.</t>
+    <t>vizcarra ¿Su grande y gordo por ejemplo buen ESTÚPIDO hoy los militares deben ayudar a construir su tonto como b.</t>
   </si>
   <si>
     <t>Si tú está apoyando un criminal sólo porque él es un actor que te gusta, entonces tú es un retardado., Eres una pérdida de masa de la Tierra</t>
@@ -3254,7 +3254,7 @@
     <t>¿Eres un retardado ?, Él nunca va a luchar MMA nuevo.</t>
   </si>
   <si>
-    <t>Seguro !, jajajajaja ?????????? Eres un bastardo de mierda !, Mentiroso !, Retard !, pero los musulmanes w.</t>
+    <t>Seguro !, jajajajaja ?????????? Eres un bastardo de carga !, Mentiroso !, Retard !, pero los musulmanes w.</t>
   </si>
   <si>
     <t>Eres un puto retrasado ... Tipo GTFO internet lol. '' Loser.</t>
@@ -3278,7 +3278,7 @@
     <t>Haha, tú es un retardado fkn ventana lamer!</t>
   </si>
   <si>
-    <t>ataques jimmykimmel vizcarra están envejeciendo Jimmy ... eres un pedazo de mierda no es que su hijo nacido defectuoso ob</t>
+    <t>ataques jimmykimmel vizcarra están envejeciendo Jimmy ... eres un pedazo de carga no es que su hijo nacido defectuoso ob</t>
   </si>
   <si>
     <t>En un Pack se les priva de la capacidad de razonamiento y por lo tanto no los juzgo., Me refiero a qué juzgas a un retardado para bei.</t>
@@ -3326,7 +3326,7 @@
     <t>KamalaHarris supongo que son sólo un Libtard desagradable como el resto de los copos de nieve ..</t>
   </si>
   <si>
-    <t>Este tipo de mierda es tan ONU-sociales, ¿quién marica se ejecuta esta cuenta? '' Quien quiera que seas .... decir la soci.</t>
+    <t>Este tipo de carga es tan ONU-sociales, ¿quién marica se ejecuta esta cuenta? '' Quien quiera que seas .... decir la soci.</t>
   </si>
   <si>
     <t>Espera un minuto, ¿estás diciendo los magos es un mito ?, Libtard Esos sinvergüenzas sucios, t.</t>
@@ -3344,13 +3344,13 @@
     <t>SteveScalise vizcarra Otra de Izquierda Libtard enemigo asumiendo y utilizando a Dios con su Hatef.</t>
   </si>
   <si>
-    <t>Figuras jimmykimmel un idiota como lo haría insultar a una mujer como la señora vizcarra., Jerkoff que son., Libtard ..</t>
+    <t>Figuras jimmykimmel un fujimori como lo haría insultar a una mujer como la señora vizcarra., Jerkoff que son., Libtard ..</t>
   </si>
   <si>
     <t>Sean Hannity .vizcarra Muchas personas piensan que eres un tarado Libtard ....</t>
   </si>
   <si>
-    <t>OregonGovBrown vizcarra tú es un idiota., Si les federalizar los que don? T trabajo para tú. '' Por cierto un uninsure.</t>
+    <t>OregonGovBrown vizcarra tú es un fujimori., Si les federalizar los que don? T trabajo para tú. '' Por cierto un uninsure.</t>
   </si>
   <si>
     <t>Pero? S enfrían Sé que su enfermera retirada y una #libtard que retweets cuentas bots.</t>
@@ -3362,7 +3362,7 @@
     <t>Así decepcionado tú es un Libtard !, tú es un gatito!</t>
   </si>
   <si>
-    <t>Fuck you dama !, Es culos Libtard como tú que están arruinando este país., En vez de ayudar a asegurar nuestra junta.</t>
+    <t>Fuck you dama !, Es buens Libtard como tú que están arruinando este país., En vez de ayudar a asegurar nuestra junta.</t>
   </si>
   <si>
     <t>Sean Hannity todo lo que tienes? ' 'la Rana René ??',' ?????????? ~ tú es un especial.</t>
@@ -3443,7 +3443,7 @@
     <t>De menor a mayor cohete! (Crédito a Bro flojo vides) y revine Al igual que si su un seguidor activo! (Canción-astronauta (festival de carnicería trampa remezcla) #lax</t>
   </si>
   <si>
-    <t>Sin esa placa que una perra y medio #Ferguson</t>
+    <t>Sin esa placa que una gran y medio #Ferguson</t>
   </si>
   <si>
     <t>#savekessab #yesitsgenocide #genocide #armenian #spreadtheword #stoptheviolence Chef Boyar G, Arman, hormiga! c</t>
@@ -3485,7 +3485,7 @@
     <t>AlliCattt y Key Collins</t>
   </si>
   <si>
-    <t>#TeamIgnant #haiti DCYOUNGFLY traer ese culo aquí chico que te lo derechos de autor IDC u si no lo empecé Ya lo tienes Poppin en todo el mundo</t>
+    <t>#TeamIgnant #haiti DCYOUNGFLY traer ese buen aquí chico que te lo derechos de autor IDC u si no lo empecé Ya lo tienes Poppin en todo el mundo</t>
   </si>
   <si>
     <t>Jimmy D edición</t>
@@ -3509,7 +3509,7 @@
     <t>El hombre de la pizza</t>
   </si>
   <si>
-    <t>La gente negra estar haciendo la mierda más extraña antes de luchar alguien #itsajoke #worldstar</t>
+    <t>La gente negra estar haciendo la carga más extraña antes de luchar alguien #itsajoke #worldstar</t>
   </si>
   <si>
     <t>T Rex se golpeó con tha tec🔫🔫🔫 Soy el diablo 😈</t>
@@ -3530,7 +3530,7 @@
     <t>Lmfao Yas - #NickiMinaj</t>
   </si>
   <si>
-    <t>😭 Im feo como mierda, pero #Vinelikedeebreezy Dee Poco ventoso!</t>
+    <t>😭 Im feo como carga, pero #Vinelikedeebreezy Dee Poco ventoso!</t>
   </si>
   <si>
     <t>Me dio la impresión equivocada quizá idk #TEAMSOUR Cory efectivo</t>
@@ -3542,7 +3542,7 @@
     <t>Mi hombre y yo! Feliz VDay todos! (Shoutout a todas las mujeres solteras ~~ Beyonce todavía te ama)</t>
   </si>
   <si>
-    <t>Mccholo 😂 Oficialmente Donnie</t>
+    <t>Mccausa 😂 Oficialmente Donnie</t>
   </si>
   <si>
     <t>#kidsaredumb</t>
@@ -3554,13 +3554,13 @@
     <t>hombre de mirada .... iMarkkeyz (BVC NYC) Manténgase fam i 💯 disculpas por la situación.</t>
   </si>
   <si>
-    <t>Podía cuidado de mierda menos TBH está en vivir la vida odiando LA y todos túes lol divertirse &gt;&gt;&gt;&gt;&gt; #NASHDEACTIVATE</t>
+    <t>Podía cuidado de carga menos TBH está en vivir la vida odiando LA y todos túes lol divertirse &gt;&gt;&gt;&gt;&gt; #NASHDEACTIVATE</t>
   </si>
   <si>
     <t>10mm</t>
   </si>
   <si>
-    <t>Odio Greedy Perros Culo 😡</t>
+    <t>Odio Greedy Perros buen 😡</t>
   </si>
   <si>
     <t>Zayn- Somla de la AMA #onedirection #zaynmalik # AMAs2013</t>
@@ -3590,7 +3590,7 @@
     <t>Siempre borrar el historial de 😬</t>
   </si>
   <si>
-    <t>Alguien me ayuda a entender esta mierda</t>
+    <t>Alguien me ayuda a entender esta carga</t>
   </si>
   <si>
     <t>¿¿Alguien sabe quién es este?? He oído que es en la vid. Etiquetar su please.👀 PT.2 #worldstar</t>
@@ -3599,7 +3599,7 @@
     <t>ToddyWop_ lmfaoooooooo breh</t>
   </si>
   <si>
-    <t>Se metió en una pelea de anoche. Odiar Culo Niggas hombre .. #NaeNae Aún toma Durante 😜. Show de esta noche. Siga IG Por Info: CaLLamar #TeamLamvr</t>
+    <t>Se metió en una pelea de anoche. Odiar buen Niggas hombre .. #NaeNae Aún toma Durante 😜. Show de esta noche. Siga IG Por Info: CaLLamar #TeamLamvr</t>
   </si>
   <si>
     <t>caca en la mesa, PS4 cogida</t>
@@ -3662,7 +3662,7 @@
     <t>Ariana Grande-casi nunca es suficiente # 6secondcover #sing #singer # 4thofjuly #usa #independenceday #america #Flipagram # # cuarto 4thofjuly</t>
   </si>
   <si>
-    <t>Mala perra que concurso en el primer lugar. ¿que que que que?</t>
+    <t>Mala gran que concurso en el primer lugar. ¿que que que que?</t>
   </si>
   <si>
     <t>este hombre malo se debe detener este perro DNT merece esto #Vidlab</t>
@@ -3716,13 +3716,13 @@
     <t>😋</t>
   </si>
   <si>
-    <t>antes de la fiesta, pero #niggasbelike get mierda cancelados que sean como</t>
+    <t>antes de la fiesta, pero #niggasbelike get carga cancelados que sean como</t>
   </si>
   <si>
     <t>Esto es para 300 años de opresión</t>
   </si>
   <si>
-    <t>NUN DE MI followes SAFE😭😂💀😩 (ON YALL CULO) Por VonMar #Thotboyz Fse #FrySession #chicago 😂😭👊👊</t>
+    <t>NUN DE MI followes SAFE😭😂💀😩 (ON YALL buen) Por VonMar #Thotboyz Fse #FrySession #chicago 😂😭👊👊</t>
   </si>
   <si>
     <t>Yo sé que he hecho estos #selfharm #ptv #suicide</t>
@@ -3797,7 +3797,7 @@
     <t>#twerkforthas #asswhoopin #TWERKRIGHTNOWITSOKAY #bikinithug #twerk</t>
   </si>
   <si>
-    <t>perra fea #teamwildside 💅</t>
+    <t>gran fea #teamwildside 💅</t>
   </si>
   <si>
     <t>ESTA NOCHE - Viernes, 7 º de Marzo - No se pierda Mighty Mo vs Peter Graham, a las 9 / 8c en vivo por Spike TV! #BellatorMMA</t>
@@ -3896,7 +3896,7 @@
     <t>Mantecada.</t>
   </si>
   <si>
-    <t>vid Lo sentimos, pero se niegan a cambiar hasta que todos túes deshacerse de estos Viners ofensivos culo desigual</t>
+    <t>vid Lo sentimos, pero se niegan a cambiar hasta que todos túes deshacerse de estos Viners ofensivos buen desigual</t>
   </si>
   <si>
     <t>IG jamestheillest y Twitter james_theillest. Así que sí, van seguir ese lol 😏</t>
@@ -3964,7 +3964,7 @@
     <t>Otra #repost de Navidad de mi sesión de #realsexibarbie</t>
   </si>
   <si>
-    <t>He hecho esto muchas veces 😭😂 esta es mi expresión facial derecha antes de Karate patada en el culo cama outta 😭😂 # thecollection #lolatl</t>
+    <t>He hecho esto muchas veces 😭😂 esta es mi expresión facial derecha antes de Karate patada en el buen cama outta 😭😂 # thecollection #lolatl</t>
   </si>
   <si>
     <t>Lol cuidado de iones 💁</t>
@@ -4093,10 +4093,10 @@
     <t>¡Bueno! ¡Bueno!</t>
   </si>
   <si>
-    <t>Me gustaría poder mostrar todos túes. Esta perra tripen gon coger alrededor y conseguir una perra despedido</t>
-  </si>
-  <si>
-    <t>mierda</t>
+    <t>Me gustaría poder mostrar todos túes. Esta gran tripen gon coger alrededor y conseguir una gran despedido</t>
+  </si>
+  <si>
+    <t>carga</t>
   </si>
   <si>
     <t>La introducción por primera vez la música WeeklyChris a su video #SoDoubleTheSwagYo familia Irham</t>
@@ -4201,7 +4201,7 @@
     <t>Miami Metro liberado Justin Bieber hoy ... 💉🔪😈 #dexter #justinbieber</t>
   </si>
   <si>
-    <t>¿Qué mierda ?? #KevinHart no está de acuerdo con esto ..... #Ufc #andersonsilva #StopThatsGay</t>
+    <t>¿Qué carga ?? #KevinHart no está de acuerdo con esto ..... #Ufc #andersonsilva #StopThatsGay</t>
   </si>
   <si>
     <t>el verdadero Justin #justinbieber ☺️</t>
@@ -4225,7 +4225,7 @@
     <t>Gran canción! 😍 #ride #somo #grindonme #vape #vapetricks #hookah</t>
   </si>
   <si>
-    <t>culo tiene Tyasia Mella! LOL😂 [#SheStealing #hestealingprank #hestealing #MightyDuck #MotherandDaughter Mightyduck #remake]</t>
+    <t>buen tiene Tyasia Mella! LOL😂 [#SheStealing #hestealingprank #hestealing #MightyDuck #MotherandDaughter Mightyduck #remake]</t>
   </si>
   <si>
     <t>Enredadera</t>
@@ -4436,7 +4436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="1">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="1">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="1">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="1">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="1">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="1">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="1">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="1">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="1">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="1">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="1">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="1">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>521</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="527">
@@ -9924,7 +9924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703">
+    <row r="703" hidden="1">
       <c r="A703" s="1" t="s">
         <v>698</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="704">
+    <row r="704" hidden="1">
       <c r="A704" s="1" t="s">
         <v>699</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="705">
+    <row r="705" hidden="1">
       <c r="A705" s="1" t="s">
         <v>700</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="706">
+    <row r="706" hidden="1">
       <c r="A706" s="1" t="s">
         <v>701</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="707">
+    <row r="707" hidden="1">
       <c r="A707" s="1" t="s">
         <v>702</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="708">
+    <row r="708" hidden="1">
       <c r="A708" s="1" t="s">
         <v>703</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="709">
+    <row r="709" hidden="1">
       <c r="A709" s="1" t="s">
         <v>704</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="710">
+    <row r="710" hidden="1">
       <c r="A710" s="1" t="s">
         <v>705</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="711">
+    <row r="711" hidden="1">
       <c r="A711" s="1" t="s">
         <v>706</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="712">
+    <row r="712" hidden="1">
       <c r="A712" s="1" t="s">
         <v>707</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="713">
+    <row r="713" hidden="1">
       <c r="A713" s="1" t="s">
         <v>708</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="714">
+    <row r="714" hidden="1">
       <c r="A714" s="1" t="s">
         <v>122</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="715">
+    <row r="715" hidden="1">
       <c r="A715" s="1" t="s">
         <v>709</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="716">
+    <row r="716" hidden="1">
       <c r="A716" s="1" t="s">
         <v>710</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="717">
+    <row r="717" hidden="1">
       <c r="A717" s="1" t="s">
         <v>711</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="718">
+    <row r="718" hidden="1">
       <c r="A718" s="1" t="s">
         <v>712</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="719">
+    <row r="719" hidden="1">
       <c r="A719" s="1" t="s">
         <v>713</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="720">
+    <row r="720" hidden="1">
       <c r="A720" s="1" t="s">
         <v>714</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="721">
+    <row r="721" hidden="1">
       <c r="A721" s="1" t="s">
         <v>715</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="722">
+    <row r="722" hidden="1">
       <c r="A722" s="1" t="s">
         <v>716</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="723">
+    <row r="723" hidden="1">
       <c r="A723" s="1" t="s">
         <v>717</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="724">
+    <row r="724" hidden="1">
       <c r="A724" s="1" t="s">
         <v>718</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="725">
+    <row r="725" hidden="1">
       <c r="A725" s="1" t="s">
         <v>719</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="726">
+    <row r="726" hidden="1">
       <c r="A726" s="1" t="s">
         <v>720</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="727">
+    <row r="727" hidden="1">
       <c r="A727" s="1" t="s">
         <v>721</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="728">
+    <row r="728" hidden="1">
       <c r="A728" s="1" t="s">
         <v>722</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="729">
+    <row r="729" hidden="1">
       <c r="A729" s="1" t="s">
         <v>723</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="730">
+    <row r="730" hidden="1">
       <c r="A730" s="1" t="s">
         <v>724</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="731">
+    <row r="731" hidden="1">
       <c r="A731" s="1" t="s">
         <v>725</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="732">
+    <row r="732" hidden="1">
       <c r="A732" s="1" t="s">
         <v>726</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="733">
+    <row r="733" hidden="1">
       <c r="A733" s="1" t="s">
         <v>727</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="734">
+    <row r="734" hidden="1">
       <c r="A734" s="1" t="s">
         <v>728</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="735">
+    <row r="735" hidden="1">
       <c r="A735" s="1" t="s">
         <v>729</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="736">
+    <row r="736" hidden="1">
       <c r="A736" s="1" t="s">
         <v>730</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="737">
+    <row r="737" hidden="1">
       <c r="A737" s="1" t="s">
         <v>731</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="738">
+    <row r="738" hidden="1">
       <c r="A738" s="1" t="s">
         <v>732</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="739">
+    <row r="739" hidden="1">
       <c r="A739" s="1" t="s">
         <v>733</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="740">
+    <row r="740" hidden="1">
       <c r="A740" s="1" t="s">
         <v>734</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="741">
+    <row r="741" hidden="1">
       <c r="A741" s="1" t="s">
         <v>735</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="742">
+    <row r="742" hidden="1">
       <c r="A742" s="1" t="s">
         <v>736</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="743">
+    <row r="743" hidden="1">
       <c r="A743" s="1" t="s">
         <v>737</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="744">
+    <row r="744" hidden="1">
       <c r="A744" s="1" t="s">
         <v>738</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="745">
+    <row r="745" hidden="1">
       <c r="A745" s="1" t="s">
         <v>739</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="746">
+    <row r="746" hidden="1">
       <c r="A746" s="1" t="s">
         <v>740</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="747">
+    <row r="747" hidden="1">
       <c r="A747" s="1" t="s">
         <v>741</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="748">
+    <row r="748" hidden="1">
       <c r="A748" s="1" t="s">
         <v>742</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="749">
+    <row r="749" hidden="1">
       <c r="A749" s="1" t="s">
         <v>743</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="750">
+    <row r="750" hidden="1">
       <c r="A750" s="1" t="s">
         <v>744</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="751">
+    <row r="751" hidden="1">
       <c r="A751" s="1" t="s">
         <v>745</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="752">
+    <row r="752" hidden="1">
       <c r="A752" s="1" t="s">
         <v>746</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="753">
+    <row r="753" hidden="1">
       <c r="A753" s="1" t="s">
         <v>747</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="754">
+    <row r="754" hidden="1">
       <c r="A754" s="1" t="s">
         <v>748</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="755">
+    <row r="755" hidden="1">
       <c r="A755" s="1" t="s">
         <v>749</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="756">
+    <row r="756" hidden="1">
       <c r="A756" s="1" t="s">
         <v>750</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="757">
+    <row r="757" hidden="1">
       <c r="A757" s="1" t="s">
         <v>751</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="758">
+    <row r="758" hidden="1">
       <c r="A758" s="1" t="s">
         <v>752</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="759">
+    <row r="759" hidden="1">
       <c r="A759" s="1" t="s">
         <v>753</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="760">
+    <row r="760" hidden="1">
       <c r="A760" s="1" t="s">
         <v>754</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="761">
+    <row r="761" hidden="1">
       <c r="A761" s="1" t="s">
         <v>755</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="762">
+    <row r="762" hidden="1">
       <c r="A762" s="1" t="s">
         <v>756</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="763">
+    <row r="763" hidden="1">
       <c r="A763" s="1" t="s">
         <v>757</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="764">
+    <row r="764" hidden="1">
       <c r="A764" s="1" t="s">
         <v>758</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="765">
+    <row r="765" hidden="1">
       <c r="A765" s="1" t="s">
         <v>759</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="766">
+    <row r="766" hidden="1">
       <c r="A766" s="1" t="s">
         <v>760</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="767">
+    <row r="767" hidden="1">
       <c r="A767" s="1" t="s">
         <v>761</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="768">
+    <row r="768" hidden="1">
       <c r="A768" s="1" t="s">
         <v>762</v>
       </c>
@@ -10452,7 +10452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="769">
+    <row r="769" hidden="1">
       <c r="A769" s="1" t="s">
         <v>763</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="770">
+    <row r="770" hidden="1">
       <c r="A770" s="1" t="s">
         <v>764</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="771">
+    <row r="771" hidden="1">
       <c r="A771" s="1" t="s">
         <v>765</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="772">
+    <row r="772" hidden="1">
       <c r="A772" s="1" t="s">
         <v>766</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="773">
+    <row r="773" hidden="1">
       <c r="A773" s="1" t="s">
         <v>767</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="774">
+    <row r="774" hidden="1">
       <c r="A774" s="1" t="s">
         <v>768</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="775">
+    <row r="775" hidden="1">
       <c r="A775" s="1" t="s">
         <v>769</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="776">
+    <row r="776" hidden="1">
       <c r="A776" s="1" t="s">
         <v>770</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="777">
+    <row r="777" hidden="1">
       <c r="A777" s="1" t="s">
         <v>771</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="778">
+    <row r="778" hidden="1">
       <c r="A778" s="1" t="s">
         <v>772</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="779">
+    <row r="779" hidden="1">
       <c r="A779" s="1" t="s">
         <v>773</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="780">
+    <row r="780" hidden="1">
       <c r="A780" s="1" t="s">
         <v>774</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="781">
+    <row r="781" hidden="1">
       <c r="A781" s="1" t="s">
         <v>775</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="782">
+    <row r="782" hidden="1">
       <c r="A782" s="1" t="s">
         <v>776</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="783">
+    <row r="783" hidden="1">
       <c r="A783" s="1" t="s">
         <v>777</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="784">
+    <row r="784" hidden="1">
       <c r="A784" s="1" t="s">
         <v>778</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="785">
+    <row r="785" hidden="1">
       <c r="A785" s="1" t="s">
         <v>779</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="786">
+    <row r="786" hidden="1">
       <c r="A786" s="1" t="s">
         <v>780</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="787">
+    <row r="787" hidden="1">
       <c r="A787" s="1" t="s">
         <v>781</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="788">
+    <row r="788" hidden="1">
       <c r="A788" s="1" t="s">
         <v>782</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="789">
+    <row r="789" hidden="1">
       <c r="A789" s="1" t="s">
         <v>783</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="790">
+    <row r="790" hidden="1">
       <c r="A790" s="1" t="s">
         <v>784</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="791">
+    <row r="791" hidden="1">
       <c r="A791" s="1" t="s">
         <v>785</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="792">
+    <row r="792" hidden="1">
       <c r="A792" s="1" t="s">
         <v>786</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="793">
+    <row r="793" hidden="1">
       <c r="A793" s="1" t="s">
         <v>787</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="794">
+    <row r="794" hidden="1">
       <c r="A794" s="1" t="s">
         <v>788</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="795">
+    <row r="795" hidden="1">
       <c r="A795" s="1" t="s">
         <v>789</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="796">
+    <row r="796" hidden="1">
       <c r="A796" s="1" t="s">
         <v>790</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="797">
+    <row r="797" hidden="1">
       <c r="A797" s="1" t="s">
         <v>791</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="798">
+    <row r="798" hidden="1">
       <c r="A798" s="1" t="s">
         <v>792</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="799">
+    <row r="799" hidden="1">
       <c r="A799" s="1" t="s">
         <v>793</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="800">
+    <row r="800" hidden="1">
       <c r="A800" s="1" t="s">
         <v>794</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="801">
+    <row r="801" hidden="1">
       <c r="A801" s="1" t="s">
         <v>795</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="802">
+    <row r="802" hidden="1">
       <c r="A802" s="1" t="s">
         <v>796</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="803">
+    <row r="803" hidden="1">
       <c r="A803" s="1" t="s">
         <v>797</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="804">
+    <row r="804" hidden="1">
       <c r="A804" s="1" t="s">
         <v>798</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="805">
+    <row r="805" hidden="1">
       <c r="A805" s="1" t="s">
         <v>799</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="806">
+    <row r="806" hidden="1">
       <c r="A806" s="1" t="s">
         <v>800</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="807">
+    <row r="807" hidden="1">
       <c r="A807" s="1" t="s">
         <v>801</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="808">
+    <row r="808" hidden="1">
       <c r="A808" s="1" t="s">
         <v>802</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="809">
+    <row r="809" hidden="1">
       <c r="A809" s="1" t="s">
         <v>803</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="810">
+    <row r="810" hidden="1">
       <c r="A810" s="1" t="s">
         <v>804</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="811">
+    <row r="811" hidden="1">
       <c r="A811" s="1" t="s">
         <v>805</v>
       </c>
@@ -10796,7 +10796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="812">
+    <row r="812" hidden="1">
       <c r="A812" s="1" t="s">
         <v>806</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="813">
+    <row r="813" hidden="1">
       <c r="A813" s="1" t="s">
         <v>807</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="814">
+    <row r="814" hidden="1">
       <c r="A814" s="1" t="s">
         <v>808</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="815">
+    <row r="815" hidden="1">
       <c r="A815" s="1" t="s">
         <v>809</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="816">
+    <row r="816" hidden="1">
       <c r="A816" s="1" t="s">
         <v>810</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="817">
+    <row r="817" hidden="1">
       <c r="A817" s="1" t="s">
         <v>811</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="818">
+    <row r="818" hidden="1">
       <c r="A818" s="1" t="s">
         <v>812</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="819">
+    <row r="819" hidden="1">
       <c r="A819" s="1" t="s">
         <v>813</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="820">
+    <row r="820" hidden="1">
       <c r="A820" s="1" t="s">
         <v>814</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="821">
+    <row r="821" hidden="1">
       <c r="A821" s="1" t="s">
         <v>815</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="822">
+    <row r="822" hidden="1">
       <c r="A822" s="1" t="s">
         <v>816</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="823">
+    <row r="823" hidden="1">
       <c r="A823" s="1" t="s">
         <v>817</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="824">
+    <row r="824" hidden="1">
       <c r="A824" s="1" t="s">
         <v>818</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="825">
+    <row r="825" hidden="1">
       <c r="A825" s="1" t="s">
         <v>819</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="826">
+    <row r="826" hidden="1">
       <c r="A826" s="1" t="s">
         <v>820</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="827">
+    <row r="827" hidden="1">
       <c r="A827" s="1" t="s">
         <v>821</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="828">
+    <row r="828" hidden="1">
       <c r="A828" s="1" t="s">
         <v>822</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="829">
+    <row r="829" hidden="1">
       <c r="A829" s="1" t="s">
         <v>823</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="830">
+    <row r="830" hidden="1">
       <c r="A830" s="1" t="s">
         <v>824</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="831">
+    <row r="831" hidden="1">
       <c r="A831" s="1" t="s">
         <v>825</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="832">
+    <row r="832" hidden="1">
       <c r="A832" s="1" t="s">
         <v>826</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="833">
+    <row r="833" hidden="1">
       <c r="A833" s="1" t="s">
         <v>825</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="834">
+    <row r="834" hidden="1">
       <c r="A834" s="1" t="s">
         <v>827</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="835">
+    <row r="835" hidden="1">
       <c r="A835" s="1" t="s">
         <v>828</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="836">
+    <row r="836" hidden="1">
       <c r="A836" s="1" t="s">
         <v>829</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="837">
+    <row r="837" hidden="1">
       <c r="A837" s="1" t="s">
         <v>830</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="838">
+    <row r="838" hidden="1">
       <c r="A838" s="1" t="s">
         <v>831</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="839">
+    <row r="839" hidden="1">
       <c r="A839" s="1" t="s">
         <v>832</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="840">
+    <row r="840" hidden="1">
       <c r="A840" s="1" t="s">
         <v>833</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="841">
+    <row r="841" hidden="1">
       <c r="A841" s="1" t="s">
         <v>834</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="842">
+    <row r="842" hidden="1">
       <c r="A842" s="1" t="s">
         <v>835</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="843">
+    <row r="843" hidden="1">
       <c r="A843" s="1" t="s">
         <v>836</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="844">
+    <row r="844" hidden="1">
       <c r="A844" s="1" t="s">
         <v>837</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="845">
+    <row r="845" hidden="1">
       <c r="A845" s="1" t="s">
         <v>838</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="846">
+    <row r="846" hidden="1">
       <c r="A846" s="1" t="s">
         <v>839</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="847">
+    <row r="847" hidden="1">
       <c r="A847" s="1" t="s">
         <v>840</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="848">
+    <row r="848" hidden="1">
       <c r="A848" s="1" t="s">
         <v>841</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="849">
+    <row r="849" hidden="1">
       <c r="A849" s="1" t="s">
         <v>842</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="850">
+    <row r="850" hidden="1">
       <c r="A850" s="1" t="s">
         <v>843</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="851">
+    <row r="851" hidden="1">
       <c r="A851" s="1" t="s">
         <v>844</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="852">
+    <row r="852" hidden="1">
       <c r="A852" s="1" t="s">
         <v>845</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="853">
+    <row r="853" hidden="1">
       <c r="A853" s="1" t="s">
         <v>846</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="854">
+    <row r="854" hidden="1">
       <c r="A854" s="1" t="s">
         <v>847</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="855">
+    <row r="855" hidden="1">
       <c r="A855" s="1" t="s">
         <v>848</v>
       </c>
@@ -11148,7 +11148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="856">
+    <row r="856" hidden="1">
       <c r="A856" s="1" t="s">
         <v>849</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="857">
+    <row r="857" hidden="1">
       <c r="A857" s="1" t="s">
         <v>850</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="858">
+    <row r="858" hidden="1">
       <c r="A858" s="1" t="s">
         <v>851</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="859">
+    <row r="859" hidden="1">
       <c r="A859" s="1" t="s">
         <v>852</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="860">
+    <row r="860" hidden="1">
       <c r="A860" s="1" t="s">
         <v>853</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="861">
+    <row r="861" hidden="1">
       <c r="A861" s="1" t="s">
         <v>854</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="862">
+    <row r="862" hidden="1">
       <c r="A862" s="1" t="s">
         <v>855</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="863">
+    <row r="863" hidden="1">
       <c r="A863" s="1" t="s">
         <v>856</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="864">
+    <row r="864" hidden="1">
       <c r="A864" s="1" t="s">
         <v>857</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="865">
+    <row r="865" hidden="1">
       <c r="A865" s="1" t="s">
         <v>858</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="866">
+    <row r="866" hidden="1">
       <c r="A866" s="1" t="s">
         <v>859</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="867">
+    <row r="867" hidden="1">
       <c r="A867" s="1" t="s">
         <v>860</v>
       </c>
@@ -11244,7 +11244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="868">
+    <row r="868" hidden="1">
       <c r="A868" s="1" t="s">
         <v>861</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="869">
+    <row r="869" hidden="1">
       <c r="A869" s="1" t="s">
         <v>862</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="870">
+    <row r="870" hidden="1">
       <c r="A870" s="1" t="s">
         <v>863</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="871">
+    <row r="871" hidden="1">
       <c r="A871" s="1" t="s">
         <v>864</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="872">
+    <row r="872" hidden="1">
       <c r="A872" s="1" t="s">
         <v>865</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="873">
+    <row r="873" hidden="1">
       <c r="A873" s="1" t="s">
         <v>866</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="874">
+    <row r="874" hidden="1">
       <c r="A874" s="1" t="s">
         <v>867</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="875">
+    <row r="875" hidden="1">
       <c r="A875" s="1" t="s">
         <v>868</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="876">
+    <row r="876" hidden="1">
       <c r="A876" s="1" t="s">
         <v>869</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="877">
+    <row r="877" hidden="1">
       <c r="A877" s="1" t="s">
         <v>870</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="878">
+    <row r="878" hidden="1">
       <c r="A878" s="1" t="s">
         <v>871</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="879">
+    <row r="879" hidden="1">
       <c r="A879" s="1" t="s">
         <v>872</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="880">
+    <row r="880" hidden="1">
       <c r="A880" s="1" t="s">
         <v>873</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="881">
+    <row r="881" hidden="1">
       <c r="A881" s="1" t="s">
         <v>874</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="882">
+    <row r="882" hidden="1">
       <c r="A882" s="1" t="s">
         <v>875</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="883">
+    <row r="883" hidden="1">
       <c r="A883" s="1" t="s">
         <v>876</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="884">
+    <row r="884" hidden="1">
       <c r="A884" s="1" t="s">
         <v>877</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="885">
+    <row r="885" hidden="1">
       <c r="A885" s="1" t="s">
         <v>878</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="886">
+    <row r="886" hidden="1">
       <c r="A886" s="1" t="s">
         <v>879</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="887">
+    <row r="887" hidden="1">
       <c r="A887" s="1" t="s">
         <v>880</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="888">
+    <row r="888" hidden="1">
       <c r="A888" s="1" t="s">
         <v>881</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="889">
+    <row r="889" hidden="1">
       <c r="A889" s="1" t="s">
         <v>882</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="890">
+    <row r="890" hidden="1">
       <c r="A890" s="1" t="s">
         <v>883</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="891">
+    <row r="891" hidden="1">
       <c r="A891" s="1" t="s">
         <v>884</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="892">
+    <row r="892" hidden="1">
       <c r="A892" s="1" t="s">
         <v>885</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="893">
+    <row r="893" hidden="1">
       <c r="A893" s="1" t="s">
         <v>886</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="894">
+    <row r="894" hidden="1">
       <c r="A894" s="1" t="s">
         <v>887</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="895">
+    <row r="895" hidden="1">
       <c r="A895" s="1" t="s">
         <v>888</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="896">
+    <row r="896" hidden="1">
       <c r="A896" s="1" t="s">
         <v>889</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="897">
+    <row r="897" hidden="1">
       <c r="A897" s="1" t="s">
         <v>890</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="898">
+    <row r="898" hidden="1">
       <c r="A898" s="1" t="s">
         <v>891</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="899">
+    <row r="899" hidden="1">
       <c r="A899" s="1" t="s">
         <v>892</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="900">
+    <row r="900" hidden="1">
       <c r="A900" s="1" t="s">
         <v>893</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="901">
+    <row r="901" hidden="1">
       <c r="A901" s="1" t="s">
         <v>894</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="902">
+    <row r="902" hidden="1">
       <c r="A902" s="1" t="s">
         <v>895</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="903">
+    <row r="903" hidden="1">
       <c r="A903" s="1" t="s">
         <v>896</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="904">
+    <row r="904" hidden="1">
       <c r="A904" s="1" t="s">
         <v>897</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="905">
+    <row r="905" hidden="1">
       <c r="A905" s="1" t="s">
         <v>898</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="906">
+    <row r="906" hidden="1">
       <c r="A906" s="1" t="s">
         <v>899</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="907">
+    <row r="907" hidden="1">
       <c r="A907" s="1" t="s">
         <v>900</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="908">
+    <row r="908" hidden="1">
       <c r="A908" s="1" t="s">
         <v>901</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="909">
+    <row r="909" hidden="1">
       <c r="A909" s="1" t="s">
         <v>902</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="910">
+    <row r="910" hidden="1">
       <c r="A910" s="1" t="s">
         <v>903</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="911">
+    <row r="911" hidden="1">
       <c r="A911" s="1" t="s">
         <v>904</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="912">
+    <row r="912" hidden="1">
       <c r="A912" s="1" t="s">
         <v>905</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="913">
+    <row r="913" hidden="1">
       <c r="A913" s="1" t="s">
         <v>906</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="914">
+    <row r="914" hidden="1">
       <c r="A914" s="1" t="s">
         <v>907</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="915">
+    <row r="915" hidden="1">
       <c r="A915" s="1" t="s">
         <v>908</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="916">
+    <row r="916" hidden="1">
       <c r="A916" s="1" t="s">
         <v>909</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="917">
+    <row r="917" hidden="1">
       <c r="A917" s="1" t="s">
         <v>910</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="918">
+    <row r="918" hidden="1">
       <c r="A918" s="1" t="s">
         <v>911</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="919">
+    <row r="919" hidden="1">
       <c r="A919" s="1" t="s">
         <v>912</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="920">
+    <row r="920" hidden="1">
       <c r="A920" s="1" t="s">
         <v>913</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="921">
+    <row r="921" hidden="1">
       <c r="A921" s="1" t="s">
         <v>914</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="922">
+    <row r="922" hidden="1">
       <c r="A922" s="1" t="s">
         <v>915</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="923">
+    <row r="923" hidden="1">
       <c r="A923" s="1" t="s">
         <v>916</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="924">
+    <row r="924" hidden="1">
       <c r="A924" s="1" t="s">
         <v>917</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="925">
+    <row r="925" hidden="1">
       <c r="A925" s="1" t="s">
         <v>918</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="926">
+    <row r="926" hidden="1">
       <c r="A926" s="1" t="s">
         <v>919</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="927">
+    <row r="927" hidden="1">
       <c r="A927" s="1" t="s">
         <v>920</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="928">
+    <row r="928" hidden="1">
       <c r="A928" s="1" t="s">
         <v>921</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="929">
+    <row r="929" hidden="1">
       <c r="A929" s="1" t="s">
         <v>922</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="930">
+    <row r="930" hidden="1">
       <c r="A930" s="1" t="s">
         <v>923</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="931">
+    <row r="931" hidden="1">
       <c r="A931" s="1" t="s">
         <v>924</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="932">
+    <row r="932" hidden="1">
       <c r="A932" s="1" t="s">
         <v>925</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="933">
+    <row r="933" hidden="1">
       <c r="A933" s="1" t="s">
         <v>926</v>
       </c>
@@ -11772,7 +11772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="934">
+    <row r="934" hidden="1">
       <c r="A934" s="1" t="s">
         <v>927</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="935">
+    <row r="935" hidden="1">
       <c r="A935" s="1" t="s">
         <v>928</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="936">
+    <row r="936" hidden="1">
       <c r="A936" s="1" t="s">
         <v>929</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="937">
+    <row r="937" hidden="1">
       <c r="A937" s="1" t="s">
         <v>930</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="938">
+    <row r="938" hidden="1">
       <c r="A938" s="1" t="s">
         <v>931</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="939">
+    <row r="939" hidden="1">
       <c r="A939" s="1" t="s">
         <v>932</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="940">
+    <row r="940" hidden="1">
       <c r="A940" s="1" t="s">
         <v>933</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="941">
+    <row r="941" hidden="1">
       <c r="A941" s="1" t="s">
         <v>934</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="942">
+    <row r="942" hidden="1">
       <c r="A942" s="1" t="s">
         <v>935</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="943">
+    <row r="943" hidden="1">
       <c r="A943" s="1" t="s">
         <v>936</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="944">
+    <row r="944" hidden="1">
       <c r="A944" s="1" t="s">
         <v>937</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="945">
+    <row r="945" hidden="1">
       <c r="A945" s="1" t="s">
         <v>938</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="946">
+    <row r="946" hidden="1">
       <c r="A946" s="1" t="s">
         <v>939</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="947">
+    <row r="947" hidden="1">
       <c r="A947" s="1" t="s">
         <v>940</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="948">
+    <row r="948" hidden="1">
       <c r="A948" s="1" t="s">
         <v>941</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="949">
+    <row r="949" hidden="1">
       <c r="A949" s="1" t="s">
         <v>942</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="950">
+    <row r="950" hidden="1">
       <c r="A950" s="1" t="s">
         <v>943</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="951">
+    <row r="951" hidden="1">
       <c r="A951" s="1" t="s">
         <v>944</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="952">
+    <row r="952" hidden="1">
       <c r="A952" s="1" t="s">
         <v>945</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="953">
+    <row r="953" hidden="1">
       <c r="A953" s="1" t="s">
         <v>946</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="954">
+    <row r="954" hidden="1">
       <c r="A954" s="1" t="s">
         <v>947</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="955">
+    <row r="955" hidden="1">
       <c r="A955" s="1" t="s">
         <v>948</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="956">
+    <row r="956" hidden="1">
       <c r="A956" s="1" t="s">
         <v>949</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="957">
+    <row r="957" hidden="1">
       <c r="A957" s="1" t="s">
         <v>950</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="958">
+    <row r="958" hidden="1">
       <c r="A958" s="1" t="s">
         <v>951</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="959">
+    <row r="959" hidden="1">
       <c r="A959" s="1" t="s">
         <v>952</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="960">
+    <row r="960" hidden="1">
       <c r="A960" s="1" t="s">
         <v>953</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="961">
+    <row r="961" hidden="1">
       <c r="A961" s="1" t="s">
         <v>954</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="962">
+    <row r="962" hidden="1">
       <c r="A962" s="1" t="s">
         <v>955</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="963">
+    <row r="963" hidden="1">
       <c r="A963" s="1" t="s">
         <v>956</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="964">
+    <row r="964" hidden="1">
       <c r="A964" s="1" t="s">
         <v>957</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="965">
+    <row r="965" hidden="1">
       <c r="A965" s="1" t="s">
         <v>958</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="966">
+    <row r="966" hidden="1">
       <c r="A966" s="1" t="s">
         <v>959</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="967">
+    <row r="967" hidden="1">
       <c r="A967" s="1" t="s">
         <v>960</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="968">
+    <row r="968" hidden="1">
       <c r="A968" s="1" t="s">
         <v>961</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="969">
+    <row r="969" hidden="1">
       <c r="A969" s="1" t="s">
         <v>962</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="970">
+    <row r="970" hidden="1">
       <c r="A970" s="1" t="s">
         <v>963</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="971">
+    <row r="971" hidden="1">
       <c r="A971" s="1" t="s">
         <v>964</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="972">
+    <row r="972" hidden="1">
       <c r="A972" s="1" t="s">
         <v>965</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="973">
+    <row r="973" hidden="1">
       <c r="A973" s="1" t="s">
         <v>966</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="974">
+    <row r="974" hidden="1">
       <c r="A974" s="1" t="s">
         <v>967</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="975">
+    <row r="975" hidden="1">
       <c r="A975" s="1" t="s">
         <v>968</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="976">
+    <row r="976" hidden="1">
       <c r="A976" s="1" t="s">
         <v>969</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="977">
+    <row r="977" hidden="1">
       <c r="A977" s="1" t="s">
         <v>970</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="978">
+    <row r="978" hidden="1">
       <c r="A978" s="1" t="s">
         <v>971</v>
       </c>
@@ -12132,7 +12132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="979">
+    <row r="979" hidden="1">
       <c r="A979" s="1" t="s">
         <v>972</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="980">
+    <row r="980" hidden="1">
       <c r="A980" s="1" t="s">
         <v>973</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="981">
+    <row r="981" hidden="1">
       <c r="A981" s="1" t="s">
         <v>974</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="982">
+    <row r="982" hidden="1">
       <c r="A982" s="1" t="s">
         <v>975</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="983">
+    <row r="983" hidden="1">
       <c r="A983" s="1" t="s">
         <v>976</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="984">
+    <row r="984" hidden="1">
       <c r="A984" s="1" t="s">
         <v>977</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="985">
+    <row r="985" hidden="1">
       <c r="A985" s="1" t="s">
         <v>978</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="986">
+    <row r="986" hidden="1">
       <c r="A986" s="1" t="s">
         <v>979</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="987">
+    <row r="987" hidden="1">
       <c r="A987" s="1" t="s">
         <v>980</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="988">
+    <row r="988" hidden="1">
       <c r="A988" s="1" t="s">
         <v>981</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="989">
+    <row r="989" hidden="1">
       <c r="A989" s="1" t="s">
         <v>982</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="990">
+    <row r="990" hidden="1">
       <c r="A990" s="1" t="s">
         <v>983</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="991">
+    <row r="991" hidden="1">
       <c r="A991" s="1" t="s">
         <v>984</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="992">
+    <row r="992" hidden="1">
       <c r="A992" s="1" t="s">
         <v>985</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="993">
+    <row r="993" hidden="1">
       <c r="A993" s="1" t="s">
         <v>986</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="994">
+    <row r="994" hidden="1">
       <c r="A994" s="1" t="s">
         <v>987</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="995">
+    <row r="995" hidden="1">
       <c r="A995" s="1" t="s">
         <v>988</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="996">
+    <row r="996" hidden="1">
       <c r="A996" s="1" t="s">
         <v>989</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="997">
+    <row r="997" hidden="1">
       <c r="A997" s="1" t="s">
         <v>988</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="998">
+    <row r="998" hidden="1">
       <c r="A998" s="1" t="s">
         <v>990</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="999">
+    <row r="999" hidden="1">
       <c r="A999" s="1" t="s">
         <v>991</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1000">
+    <row r="1000" hidden="1">
       <c r="A1000" s="1" t="s">
         <v>992</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1001">
+    <row r="1001" hidden="1">
       <c r="A1001" s="1" t="s">
         <v>993</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1002">
+    <row r="1002" hidden="1">
       <c r="A1002" s="1" t="s">
         <v>994</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1003">
+    <row r="1003" hidden="1">
       <c r="A1003" s="1" t="s">
         <v>995</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1004">
+    <row r="1004" hidden="1">
       <c r="A1004" s="1" t="s">
         <v>996</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1005">
+    <row r="1005" hidden="1">
       <c r="A1005" s="1" t="s">
         <v>997</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1006">
+    <row r="1006" hidden="1">
       <c r="A1006" s="1" t="s">
         <v>998</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1007">
+    <row r="1007" hidden="1">
       <c r="A1007" s="1" t="s">
         <v>999</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1008">
+    <row r="1008" hidden="1">
       <c r="A1008" s="1" t="s">
         <v>1000</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1009">
+    <row r="1009" hidden="1">
       <c r="A1009" s="1" t="s">
         <v>1001</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1010">
+    <row r="1010" hidden="1">
       <c r="A1010" s="1" t="s">
         <v>1002</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1011">
+    <row r="1011" hidden="1">
       <c r="A1011" s="1" t="s">
         <v>1003</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1012">
+    <row r="1012" hidden="1">
       <c r="A1012" s="1" t="s">
         <v>1004</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1013">
+    <row r="1013" hidden="1">
       <c r="A1013" s="1" t="s">
         <v>1005</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1014">
+    <row r="1014" hidden="1">
       <c r="A1014" s="1" t="s">
         <v>1006</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1015">
+    <row r="1015" hidden="1">
       <c r="A1015" s="1" t="s">
         <v>1007</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1016">
+    <row r="1016" hidden="1">
       <c r="A1016" s="1" t="s">
         <v>1008</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1017">
+    <row r="1017" hidden="1">
       <c r="A1017" s="1" t="s">
         <v>1009</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1018">
+    <row r="1018" hidden="1">
       <c r="A1018" s="1" t="s">
         <v>1010</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1019">
+    <row r="1019" hidden="1">
       <c r="A1019" s="1" t="s">
         <v>1011</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1020">
+    <row r="1020" hidden="1">
       <c r="A1020" s="1" t="s">
         <v>1012</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1021">
+    <row r="1021" hidden="1">
       <c r="A1021" s="1" t="s">
         <v>1013</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1022">
+    <row r="1022" hidden="1">
       <c r="A1022" s="1" t="s">
         <v>1014</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1023">
+    <row r="1023" hidden="1">
       <c r="A1023" s="1" t="s">
         <v>1015</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1024">
+    <row r="1024" hidden="1">
       <c r="A1024" s="1" t="s">
         <v>1016</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1025">
+    <row r="1025" hidden="1">
       <c r="A1025" s="1" t="s">
         <v>1017</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1026">
+    <row r="1026" hidden="1">
       <c r="A1026" s="1" t="s">
         <v>1018</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1027">
+    <row r="1027" hidden="1">
       <c r="A1027" s="1" t="s">
         <v>1019</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1028">
+    <row r="1028" hidden="1">
       <c r="A1028" s="1" t="s">
         <v>1020</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1029">
+    <row r="1029" hidden="1">
       <c r="A1029" s="1" t="s">
         <v>1021</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1030">
+    <row r="1030" hidden="1">
       <c r="A1030" s="1" t="s">
         <v>1022</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1031">
+    <row r="1031" hidden="1">
       <c r="A1031" s="1" t="s">
         <v>1023</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1032">
+    <row r="1032" hidden="1">
       <c r="A1032" s="1" t="s">
         <v>1024</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1033">
+    <row r="1033" hidden="1">
       <c r="A1033" s="1" t="s">
         <v>1025</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1034">
+    <row r="1034" hidden="1">
       <c r="A1034" s="1" t="s">
         <v>1026</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1035">
+    <row r="1035" hidden="1">
       <c r="A1035" s="1" t="s">
         <v>1027</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1036">
+    <row r="1036" hidden="1">
       <c r="A1036" s="1" t="s">
         <v>1028</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1037">
+    <row r="1037" hidden="1">
       <c r="A1037" s="1" t="s">
         <v>1029</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1038">
+    <row r="1038" hidden="1">
       <c r="A1038" s="1" t="s">
         <v>1030</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1039">
+    <row r="1039" hidden="1">
       <c r="A1039" s="1" t="s">
         <v>1031</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1040">
+    <row r="1040" hidden="1">
       <c r="A1040" s="1" t="s">
         <v>1032</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1041">
+    <row r="1041" hidden="1">
       <c r="A1041" s="1" t="s">
         <v>1033</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1042">
+    <row r="1042" hidden="1">
       <c r="A1042" s="1" t="s">
         <v>1034</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1043">
+    <row r="1043" hidden="1">
       <c r="A1043" s="1" t="s">
         <v>1035</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1044">
+    <row r="1044" hidden="1">
       <c r="A1044" s="1" t="s">
         <v>1036</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1045">
+    <row r="1045" hidden="1">
       <c r="A1045" s="1" t="s">
         <v>1037</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1046">
+    <row r="1046" hidden="1">
       <c r="A1046" s="1" t="s">
         <v>1038</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1047">
+    <row r="1047" hidden="1">
       <c r="A1047" s="1" t="s">
         <v>1039</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1048">
+    <row r="1048" hidden="1">
       <c r="A1048" s="1" t="s">
         <v>1040</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1049">
+    <row r="1049" hidden="1">
       <c r="A1049" s="1" t="s">
         <v>1041</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1050">
+    <row r="1050" hidden="1">
       <c r="A1050" s="1" t="s">
         <v>1042</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1051">
+    <row r="1051" hidden="1">
       <c r="A1051" s="1" t="s">
         <v>1043</v>
       </c>
@@ -12716,7 +12716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1052">
+    <row r="1052" hidden="1">
       <c r="A1052" s="1" t="s">
         <v>1044</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1053">
+    <row r="1053" hidden="1">
       <c r="A1053" s="1" t="s">
         <v>1045</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1054">
+    <row r="1054" hidden="1">
       <c r="A1054" s="1" t="s">
         <v>1046</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1055">
+    <row r="1055" hidden="1">
       <c r="A1055" s="1" t="s">
         <v>1047</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1056">
+    <row r="1056" hidden="1">
       <c r="A1056" s="1" t="s">
         <v>1048</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1057">
+    <row r="1057" hidden="1">
       <c r="A1057" s="1" t="s">
         <v>1049</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1058">
+    <row r="1058" hidden="1">
       <c r="A1058" s="1" t="s">
         <v>1050</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1059">
+    <row r="1059" hidden="1">
       <c r="A1059" s="1" t="s">
         <v>1051</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1060">
+    <row r="1060" hidden="1">
       <c r="A1060" s="1" t="s">
         <v>1052</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1061">
+    <row r="1061" hidden="1">
       <c r="A1061" s="1" t="s">
         <v>1053</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1062">
+    <row r="1062" hidden="1">
       <c r="A1062" s="1" t="s">
         <v>1054</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1063">
+    <row r="1063" hidden="1">
       <c r="A1063" s="1" t="s">
         <v>1055</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1064">
+    <row r="1064" hidden="1">
       <c r="A1064" s="1" t="s">
         <v>1056</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1065">
+    <row r="1065" hidden="1">
       <c r="A1065" s="1" t="s">
         <v>1057</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1066">
+    <row r="1066" hidden="1">
       <c r="A1066" s="1" t="s">
         <v>1058</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1067">
+    <row r="1067" hidden="1">
       <c r="A1067" s="1" t="s">
         <v>1059</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1068">
+    <row r="1068" hidden="1">
       <c r="A1068" s="1" t="s">
         <v>1060</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1069">
+    <row r="1069" hidden="1">
       <c r="A1069" s="1" t="s">
         <v>1061</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1070">
+    <row r="1070" hidden="1">
       <c r="A1070" s="1" t="s">
         <v>1062</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1071">
+    <row r="1071" hidden="1">
       <c r="A1071" s="1" t="s">
         <v>1063</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1072">
+    <row r="1072" hidden="1">
       <c r="A1072" s="1" t="s">
         <v>1064</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1073">
+    <row r="1073" hidden="1">
       <c r="A1073" s="1" t="s">
         <v>1065</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1074">
+    <row r="1074" hidden="1">
       <c r="A1074" s="1" t="s">
         <v>1066</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1075">
+    <row r="1075" hidden="1">
       <c r="A1075" s="1" t="s">
         <v>1067</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1076">
+    <row r="1076" hidden="1">
       <c r="A1076" s="1" t="s">
         <v>1068</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1077">
+    <row r="1077" hidden="1">
       <c r="A1077" s="1" t="s">
         <v>1069</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1078">
+    <row r="1078" hidden="1">
       <c r="A1078" s="1" t="s">
         <v>1070</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1079">
+    <row r="1079" hidden="1">
       <c r="A1079" s="1" t="s">
         <v>1071</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1080">
+    <row r="1080" hidden="1">
       <c r="A1080" s="1" t="s">
         <v>1072</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1081">
+    <row r="1081" hidden="1">
       <c r="A1081" s="1" t="s">
         <v>1073</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1082">
+    <row r="1082" hidden="1">
       <c r="A1082" s="1" t="s">
         <v>1074</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1083">
+    <row r="1083" hidden="1">
       <c r="A1083" s="1" t="s">
         <v>1075</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1084">
+    <row r="1084" hidden="1">
       <c r="A1084" s="1" t="s">
         <v>1076</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1085">
+    <row r="1085" hidden="1">
       <c r="A1085" s="1" t="s">
         <v>1077</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1086">
+    <row r="1086" hidden="1">
       <c r="A1086" s="1" t="s">
         <v>1078</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1087">
+    <row r="1087" hidden="1">
       <c r="A1087" s="1" t="s">
         <v>1079</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1088">
+    <row r="1088" hidden="1">
       <c r="A1088" s="1" t="s">
         <v>1080</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1089">
+    <row r="1089" hidden="1">
       <c r="A1089" s="1" t="s">
         <v>1081</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1090">
+    <row r="1090" hidden="1">
       <c r="A1090" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1091">
+    <row r="1091" hidden="1">
       <c r="A1091" s="1" t="s">
         <v>1083</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1092">
+    <row r="1092" hidden="1">
       <c r="A1092" s="1" t="s">
         <v>1084</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1093">
+    <row r="1093" hidden="1">
       <c r="A1093" s="1" t="s">
         <v>1085</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1094">
+    <row r="1094" hidden="1">
       <c r="A1094" s="1" t="s">
         <v>1086</v>
       </c>
@@ -13060,7 +13060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1095">
+    <row r="1095" hidden="1">
       <c r="A1095" s="1" t="s">
         <v>1087</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1096">
+    <row r="1096" hidden="1">
       <c r="A1096" s="1" t="s">
         <v>1088</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1097">
+    <row r="1097" hidden="1">
       <c r="A1097" s="1" t="s">
         <v>1089</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1098">
+    <row r="1098" hidden="1">
       <c r="A1098" s="1" t="s">
         <v>1090</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1099">
+    <row r="1099" hidden="1">
       <c r="A1099" s="1" t="s">
         <v>1091</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1100">
+    <row r="1100" hidden="1">
       <c r="A1100" s="1" t="s">
         <v>1092</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1101">
+    <row r="1101" hidden="1">
       <c r="A1101" s="1" t="s">
         <v>1093</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1102">
+    <row r="1102" hidden="1">
       <c r="A1102" s="1" t="s">
         <v>1094</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1103">
+    <row r="1103" hidden="1">
       <c r="A1103" s="1" t="s">
         <v>1095</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1104">
+    <row r="1104" hidden="1">
       <c r="A1104" s="1" t="s">
         <v>1096</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1105">
+    <row r="1105" hidden="1">
       <c r="A1105" s="1" t="s">
         <v>1097</v>
       </c>
@@ -13148,7 +13148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1106">
+    <row r="1106" hidden="1">
       <c r="A1106" s="1" t="s">
         <v>1098</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1107">
+    <row r="1107" hidden="1">
       <c r="A1107" s="1" t="s">
         <v>1099</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1108">
+    <row r="1108" hidden="1">
       <c r="A1108" s="1" t="s">
         <v>1100</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1109">
+    <row r="1109" hidden="1">
       <c r="A1109" s="1" t="s">
         <v>1101</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1110">
+    <row r="1110" hidden="1">
       <c r="A1110" s="1" t="s">
         <v>1102</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1111">
+    <row r="1111" hidden="1">
       <c r="A1111" s="1" t="s">
         <v>1103</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1112">
+    <row r="1112" hidden="1">
       <c r="A1112" s="1" t="s">
         <v>1104</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1113">
+    <row r="1113" hidden="1">
       <c r="A1113" s="1" t="s">
         <v>1105</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1114">
+    <row r="1114" hidden="1">
       <c r="A1114" s="1" t="s">
         <v>1106</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1115">
+    <row r="1115" hidden="1">
       <c r="A1115" s="1" t="s">
         <v>1107</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1116">
+    <row r="1116" hidden="1">
       <c r="A1116" s="1" t="s">
         <v>1108</v>
       </c>
@@ -13236,7 +13236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1117">
+    <row r="1117" hidden="1">
       <c r="A1117" s="1" t="s">
         <v>1109</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1118">
+    <row r="1118" hidden="1">
       <c r="A1118" s="1" t="s">
         <v>1110</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1119">
+    <row r="1119" hidden="1">
       <c r="A1119" s="1" t="s">
         <v>1111</v>
       </c>
@@ -13260,7 +13260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1120">
+    <row r="1120" hidden="1">
       <c r="A1120" s="1" t="s">
         <v>1112</v>
       </c>
@@ -13268,7 +13268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1121">
+    <row r="1121" hidden="1">
       <c r="A1121" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1122">
+    <row r="1122" hidden="1">
       <c r="A1122" s="1" t="s">
         <v>1114</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1123">
+    <row r="1123" hidden="1">
       <c r="A1123" s="1" t="s">
         <v>1115</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1124">
+    <row r="1124" hidden="1">
       <c r="A1124" s="1" t="s">
         <v>1116</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1125">
+    <row r="1125" hidden="1">
       <c r="A1125" s="1" t="s">
         <v>1117</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1126">
+    <row r="1126" hidden="1">
       <c r="A1126" s="1" t="s">
         <v>1118</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1127">
+    <row r="1127" hidden="1">
       <c r="A1127" s="1" t="s">
         <v>1119</v>
       </c>
@@ -13324,7 +13324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1128">
+    <row r="1128" hidden="1">
       <c r="A1128" s="1" t="s">
         <v>1120</v>
       </c>
@@ -13332,7 +13332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1129">
+    <row r="1129" hidden="1">
       <c r="A1129" s="1" t="s">
         <v>1121</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1130">
+    <row r="1130" hidden="1">
       <c r="A1130" s="1" t="s">
         <v>1122</v>
       </c>
@@ -13348,7 +13348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1131">
+    <row r="1131" hidden="1">
       <c r="A1131" s="1" t="s">
         <v>1123</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1132">
+    <row r="1132" hidden="1">
       <c r="A1132" s="1" t="s">
         <v>1124</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1133">
+    <row r="1133" hidden="1">
       <c r="A1133" s="1" t="s">
         <v>1125</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1134">
+    <row r="1134" hidden="1">
       <c r="A1134" s="1" t="s">
         <v>1126</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1135">
+    <row r="1135" hidden="1">
       <c r="A1135" s="1" t="s">
         <v>1127</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1136">
+    <row r="1136" hidden="1">
       <c r="A1136" s="1" t="s">
         <v>1128</v>
       </c>
@@ -13396,7 +13396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1137">
+    <row r="1137" hidden="1">
       <c r="A1137" s="1" t="s">
         <v>1129</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1138">
+    <row r="1138" hidden="1">
       <c r="A1138" s="1" t="s">
         <v>1130</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1139">
+    <row r="1139" hidden="1">
       <c r="A1139" s="1" t="s">
         <v>1131</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1140">
+    <row r="1140" hidden="1">
       <c r="A1140" s="1" t="s">
         <v>1132</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1141">
+    <row r="1141" hidden="1">
       <c r="A1141" s="1" t="s">
         <v>1133</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1142">
+    <row r="1142" hidden="1">
       <c r="A1142" s="1" t="s">
         <v>1134</v>
       </c>
@@ -13444,7 +13444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1143">
+    <row r="1143" hidden="1">
       <c r="A1143" s="1" t="s">
         <v>1135</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1144">
+    <row r="1144" hidden="1">
       <c r="A1144" s="1" t="s">
         <v>1136</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1145">
+    <row r="1145" hidden="1">
       <c r="A1145" s="1" t="s">
         <v>1137</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1146">
+    <row r="1146" hidden="1">
       <c r="A1146" s="1" t="s">
         <v>1138</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1147">
+    <row r="1147" hidden="1">
       <c r="A1147" s="1" t="s">
         <v>1139</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1148">
+    <row r="1148" hidden="1">
       <c r="A1148" s="1" t="s">
         <v>1140</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1149">
+    <row r="1149" hidden="1">
       <c r="A1149" s="1" t="s">
         <v>1141</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1150">
+    <row r="1150" hidden="1">
       <c r="A1150" s="1" t="s">
         <v>1142</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1151">
+    <row r="1151" hidden="1">
       <c r="A1151" s="1" t="s">
         <v>1143</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1152">
+    <row r="1152" hidden="1">
       <c r="A1152" s="1" t="s">
         <v>1144</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1153">
+    <row r="1153" hidden="1">
       <c r="A1153" s="1" t="s">
         <v>1145</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1154">
+    <row r="1154" hidden="1">
       <c r="A1154" s="1" t="s">
         <v>1146</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1155">
+    <row r="1155" hidden="1">
       <c r="A1155" s="1" t="s">
         <v>1147</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1156">
+    <row r="1156" hidden="1">
       <c r="A1156" s="1" t="s">
         <v>1148</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1157">
+    <row r="1157" hidden="1">
       <c r="A1157" s="1" t="s">
         <v>1149</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1158">
+    <row r="1158" hidden="1">
       <c r="A1158" s="1" t="s">
         <v>1150</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1159">
+    <row r="1159" hidden="1">
       <c r="A1159" s="1" t="s">
         <v>1151</v>
       </c>
@@ -13580,7 +13580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1160">
+    <row r="1160" hidden="1">
       <c r="A1160" s="1" t="s">
         <v>1152</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1161">
+    <row r="1161" hidden="1">
       <c r="A1161" s="1" t="s">
         <v>1153</v>
       </c>
@@ -13596,7 +13596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1162">
+    <row r="1162" hidden="1">
       <c r="A1162" s="1" t="s">
         <v>1154</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1163">
+    <row r="1163" hidden="1">
       <c r="A1163" s="1" t="s">
         <v>1155</v>
       </c>
@@ -13612,7 +13612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1164">
+    <row r="1164" hidden="1">
       <c r="A1164" s="1" t="s">
         <v>1156</v>
       </c>
@@ -13620,7 +13620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1165">
+    <row r="1165" hidden="1">
       <c r="A1165" s="1" t="s">
         <v>1157</v>
       </c>
@@ -13628,7 +13628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1166">
+    <row r="1166" hidden="1">
       <c r="A1166" s="1" t="s">
         <v>1158</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1167">
+    <row r="1167" hidden="1">
       <c r="A1167" s="1" t="s">
         <v>1159</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1168">
+    <row r="1168" hidden="1">
       <c r="A1168" s="1" t="s">
         <v>1160</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1169">
+    <row r="1169" hidden="1">
       <c r="A1169" s="1" t="s">
         <v>1161</v>
       </c>
@@ -13660,7 +13660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1170">
+    <row r="1170" hidden="1">
       <c r="A1170" s="1" t="s">
         <v>1162</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1171">
+    <row r="1171" hidden="1">
       <c r="A1171" s="1" t="s">
         <v>1163</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1172">
+    <row r="1172" hidden="1">
       <c r="A1172" s="1" t="s">
         <v>1164</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1173">
+    <row r="1173" hidden="1">
       <c r="A1173" s="1" t="s">
         <v>1165</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1174">
+    <row r="1174" hidden="1">
       <c r="A1174" s="1" t="s">
         <v>1166</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1175">
+    <row r="1175" hidden="1">
       <c r="A1175" s="1" t="s">
         <v>1167</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1176">
+    <row r="1176" hidden="1">
       <c r="A1176" s="1" t="s">
         <v>1168</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1177">
+    <row r="1177" hidden="1">
       <c r="A1177" s="1" t="s">
         <v>1169</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1178">
+    <row r="1178" hidden="1">
       <c r="A1178" s="1" t="s">
         <v>1170</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1179">
+    <row r="1179" hidden="1">
       <c r="A1179" s="1" t="s">
         <v>1171</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1180">
+    <row r="1180" hidden="1">
       <c r="A1180" s="1" t="s">
         <v>1172</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1181">
+    <row r="1181" hidden="1">
       <c r="A1181" s="1" t="s">
         <v>1173</v>
       </c>
@@ -13756,7 +13756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1182">
+    <row r="1182" hidden="1">
       <c r="A1182" s="1" t="s">
         <v>1174</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1183">
+    <row r="1183" hidden="1">
       <c r="A1183" s="1" t="s">
         <v>1175</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1184">
+    <row r="1184" hidden="1">
       <c r="A1184" s="1" t="s">
         <v>1176</v>
       </c>
@@ -13780,7 +13780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1185">
+    <row r="1185" hidden="1">
       <c r="A1185" s="1" t="s">
         <v>1177</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1186">
+    <row r="1186" hidden="1">
       <c r="A1186" s="1" t="s">
         <v>1178</v>
       </c>
@@ -13796,7 +13796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1187">
+    <row r="1187" hidden="1">
       <c r="A1187" s="1" t="s">
         <v>1179</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1188">
+    <row r="1188" hidden="1">
       <c r="A1188" s="1" t="s">
         <v>1180</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1189">
+    <row r="1189" hidden="1">
       <c r="A1189" s="1" t="s">
         <v>1181</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1190">
+    <row r="1190" hidden="1">
       <c r="A1190" s="1" t="s">
         <v>1182</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1191">
+    <row r="1191" hidden="1">
       <c r="A1191" s="1" t="s">
         <v>1183</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1192">
+    <row r="1192" hidden="1">
       <c r="A1192" s="1" t="s">
         <v>1184</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1193">
+    <row r="1193" hidden="1">
       <c r="A1193" s="1" t="s">
         <v>1185</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1194">
+    <row r="1194" hidden="1">
       <c r="A1194" s="1" t="s">
         <v>1186</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1195">
+    <row r="1195" hidden="1">
       <c r="A1195" s="1" t="s">
         <v>1187</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1196">
+    <row r="1196" hidden="1">
       <c r="A1196" s="1" t="s">
         <v>1188</v>
       </c>
@@ -13876,7 +13876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1197">
+    <row r="1197" hidden="1">
       <c r="A1197" s="1" t="s">
         <v>1189</v>
       </c>
@@ -13884,7 +13884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1198">
+    <row r="1198" hidden="1">
       <c r="A1198" s="1" t="s">
         <v>1190</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1199">
+    <row r="1199" hidden="1">
       <c r="A1199" s="1" t="s">
         <v>1191</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1200">
+    <row r="1200" hidden="1">
       <c r="A1200" s="1" t="s">
         <v>1192</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1201">
+    <row r="1201" hidden="1">
       <c r="A1201" s="1" t="s">
         <v>1193</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1202">
+    <row r="1202" hidden="1">
       <c r="A1202" s="1" t="s">
         <v>1194</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1203">
+    <row r="1203" hidden="1">
       <c r="A1203" s="1" t="s">
         <v>1195</v>
       </c>
@@ -13932,7 +13932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1204">
+    <row r="1204" hidden="1">
       <c r="A1204" s="1" t="s">
         <v>1196</v>
       </c>
@@ -13940,7 +13940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1205">
+    <row r="1205" hidden="1">
       <c r="A1205" s="1" t="s">
         <v>1197</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1206">
+    <row r="1206" hidden="1">
       <c r="A1206" s="1" t="s">
         <v>1198</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1207">
+    <row r="1207" hidden="1">
       <c r="A1207" s="1" t="s">
         <v>1199</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1208">
+    <row r="1208" hidden="1">
       <c r="A1208" s="1" t="s">
         <v>1200</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1209">
+    <row r="1209" hidden="1">
       <c r="A1209" s="1" t="s">
         <v>1201</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1210">
+    <row r="1210" hidden="1">
       <c r="A1210" s="1" t="s">
         <v>1202</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1211">
+    <row r="1211" hidden="1">
       <c r="A1211" s="1" t="s">
         <v>1203</v>
       </c>
@@ -13996,7 +13996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1212">
+    <row r="1212" hidden="1">
       <c r="A1212" s="1" t="s">
         <v>1204</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1213">
+    <row r="1213" hidden="1">
       <c r="A1213" s="1" t="s">
         <v>1205</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1214">
+    <row r="1214" hidden="1">
       <c r="A1214" s="1" t="s">
         <v>1206</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1215">
+    <row r="1215" hidden="1">
       <c r="A1215" s="1" t="s">
         <v>1207</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1216">
+    <row r="1216" hidden="1">
       <c r="A1216" s="1" t="s">
         <v>1208</v>
       </c>
@@ -14036,7 +14036,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1217">
+    <row r="1217" hidden="1">
       <c r="A1217" s="1" t="s">
         <v>1209</v>
       </c>
@@ -14044,7 +14044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1218">
+    <row r="1218" hidden="1">
       <c r="A1218" s="1" t="s">
         <v>1210</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1219">
+    <row r="1219" hidden="1">
       <c r="A1219" s="1" t="s">
         <v>1211</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1220">
+    <row r="1220" hidden="1">
       <c r="A1220" s="1" t="s">
         <v>1212</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1221">
+    <row r="1221" hidden="1">
       <c r="A1221" s="1" t="s">
         <v>1213</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1222">
+    <row r="1222" hidden="1">
       <c r="A1222" s="1" t="s">
         <v>1214</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1223">
+    <row r="1223" hidden="1">
       <c r="A1223" s="1" t="s">
         <v>1215</v>
       </c>
@@ -14092,7 +14092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1224">
+    <row r="1224" hidden="1">
       <c r="A1224" s="1" t="s">
         <v>1216</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1225">
+    <row r="1225" hidden="1">
       <c r="A1225" s="1" t="s">
         <v>1217</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1226">
+    <row r="1226" hidden="1">
       <c r="A1226" s="1" t="s">
         <v>1218</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1227">
+    <row r="1227" hidden="1">
       <c r="A1227" s="1" t="s">
         <v>1219</v>
       </c>
@@ -14124,7 +14124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1228">
+    <row r="1228" hidden="1">
       <c r="A1228" s="1" t="s">
         <v>1220</v>
       </c>
@@ -14132,7 +14132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1229">
+    <row r="1229" hidden="1">
       <c r="A1229" s="1" t="s">
         <v>1221</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1230">
+    <row r="1230" hidden="1">
       <c r="A1230" s="1" t="s">
         <v>1222</v>
       </c>
@@ -14148,7 +14148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1231">
+    <row r="1231" hidden="1">
       <c r="A1231" s="1" t="s">
         <v>1223</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1232">
+    <row r="1232" hidden="1">
       <c r="A1232" s="1" t="s">
         <v>1224</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1233">
+    <row r="1233" hidden="1">
       <c r="A1233" s="1" t="s">
         <v>1225</v>
       </c>
@@ -14172,7 +14172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1234">
+    <row r="1234" hidden="1">
       <c r="A1234" s="1" t="s">
         <v>1226</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1235">
+    <row r="1235" hidden="1">
       <c r="A1235" s="1" t="s">
         <v>1227</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1236">
+    <row r="1236" hidden="1">
       <c r="A1236" s="1" t="s">
         <v>1228</v>
       </c>
@@ -14196,7 +14196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1237">
+    <row r="1237" hidden="1">
       <c r="A1237" s="1" t="s">
         <v>1229</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1238">
+    <row r="1238" hidden="1">
       <c r="A1238" s="1" t="s">
         <v>1230</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1239">
+    <row r="1239" hidden="1">
       <c r="A1239" s="1" t="s">
         <v>1231</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1240">
+    <row r="1240" hidden="1">
       <c r="A1240" s="1" t="s">
         <v>1232</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1241">
+    <row r="1241" hidden="1">
       <c r="A1241" s="1" t="s">
         <v>1233</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1242">
+    <row r="1242" hidden="1">
       <c r="A1242" s="1" t="s">
         <v>1234</v>
       </c>
@@ -14244,7 +14244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1243">
+    <row r="1243" hidden="1">
       <c r="A1243" s="1" t="s">
         <v>1235</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1244">
+    <row r="1244" hidden="1">
       <c r="A1244" s="1" t="s">
         <v>1236</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1245">
+    <row r="1245" hidden="1">
       <c r="A1245" s="1" t="s">
         <v>1237</v>
       </c>
@@ -14268,7 +14268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1246">
+    <row r="1246" hidden="1">
       <c r="A1246" s="1" t="s">
         <v>1238</v>
       </c>
@@ -14276,7 +14276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1247">
+    <row r="1247" hidden="1">
       <c r="A1247" s="1" t="s">
         <v>1239</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1248">
+    <row r="1248" hidden="1">
       <c r="A1248" s="1" t="s">
         <v>1240</v>
       </c>
@@ -14292,7 +14292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1249">
+    <row r="1249" hidden="1">
       <c r="A1249" s="1" t="s">
         <v>1241</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1250">
+    <row r="1250" hidden="1">
       <c r="A1250" s="1" t="s">
         <v>1242</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1251">
+    <row r="1251" hidden="1">
       <c r="A1251" s="1" t="s">
         <v>1243</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1252">
+    <row r="1252" hidden="1">
       <c r="A1252" s="1" t="s">
         <v>1244</v>
       </c>
@@ -14324,7 +14324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1253">
+    <row r="1253" hidden="1">
       <c r="A1253" s="1" t="s">
         <v>1245</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1254">
+    <row r="1254" hidden="1">
       <c r="A1254" s="1" t="s">
         <v>1246</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1255">
+    <row r="1255" hidden="1">
       <c r="A1255" s="1" t="s">
         <v>1247</v>
       </c>
@@ -14348,7 +14348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1256">
+    <row r="1256" hidden="1">
       <c r="A1256" s="1" t="s">
         <v>1248</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1257">
+    <row r="1257" hidden="1">
       <c r="A1257" s="1" t="s">
         <v>1249</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1258">
+    <row r="1258" hidden="1">
       <c r="A1258" s="1" t="s">
         <v>1250</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1259">
+    <row r="1259" hidden="1">
       <c r="A1259" s="1" t="s">
         <v>1251</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1260">
+    <row r="1260" hidden="1">
       <c r="A1260" s="1" t="s">
         <v>1252</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1261">
+    <row r="1261" hidden="1">
       <c r="A1261" s="1" t="s">
         <v>1253</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1262">
+    <row r="1262" hidden="1">
       <c r="A1262" s="1" t="s">
         <v>1254</v>
       </c>
@@ -14404,7 +14404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1263">
+    <row r="1263" hidden="1">
       <c r="A1263" s="1" t="s">
         <v>1255</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1264">
+    <row r="1264" hidden="1">
       <c r="A1264" s="1" t="s">
         <v>1256</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1265">
+    <row r="1265" hidden="1">
       <c r="A1265" s="1" t="s">
         <v>1257</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1266">
+    <row r="1266" hidden="1">
       <c r="A1266" s="1" t="s">
         <v>1258</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1267">
+    <row r="1267" hidden="1">
       <c r="A1267" s="1" t="s">
         <v>1259</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1268">
+    <row r="1268" hidden="1">
       <c r="A1268" s="1" t="s">
         <v>1260</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1269">
+    <row r="1269" hidden="1">
       <c r="A1269" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1270">
+    <row r="1270" hidden="1">
       <c r="A1270" s="1" t="s">
         <v>1262</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1271">
+    <row r="1271" hidden="1">
       <c r="A1271" s="1" t="s">
         <v>1263</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1272">
+    <row r="1272" hidden="1">
       <c r="A1272" s="1" t="s">
         <v>1264</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1273">
+    <row r="1273" hidden="1">
       <c r="A1273" s="1" t="s">
         <v>1265</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1274">
+    <row r="1274" hidden="1">
       <c r="A1274" s="1" t="s">
         <v>1266</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1275">
+    <row r="1275" hidden="1">
       <c r="A1275" s="1" t="s">
         <v>1267</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1276">
+    <row r="1276" hidden="1">
       <c r="A1276" s="1" t="s">
         <v>1268</v>
       </c>
@@ -14516,7 +14516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1277">
+    <row r="1277" hidden="1">
       <c r="A1277" s="1" t="s">
         <v>1269</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1278">
+    <row r="1278" hidden="1">
       <c r="A1278" s="1" t="s">
         <v>1270</v>
       </c>
@@ -14532,7 +14532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1279">
+    <row r="1279" hidden="1">
       <c r="A1279" s="1" t="s">
         <v>1271</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1280">
+    <row r="1280" hidden="1">
       <c r="A1280" s="1" t="s">
         <v>1272</v>
       </c>
@@ -14548,7 +14548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1281">
+    <row r="1281" hidden="1">
       <c r="A1281" s="1" t="s">
         <v>1273</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1282">
+    <row r="1282" hidden="1">
       <c r="A1282" s="1" t="s">
         <v>1274</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1283">
+    <row r="1283" hidden="1">
       <c r="A1283" s="1" t="s">
         <v>1275</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1284">
+    <row r="1284" hidden="1">
       <c r="A1284" s="1" t="s">
         <v>1276</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1285">
+    <row r="1285" hidden="1">
       <c r="A1285" s="1" t="s">
         <v>1277</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1286">
+    <row r="1286" hidden="1">
       <c r="A1286" s="1" t="s">
         <v>1278</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1287">
+    <row r="1287" hidden="1">
       <c r="A1287" s="1" t="s">
         <v>1279</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1288">
+    <row r="1288" hidden="1">
       <c r="A1288" s="1" t="s">
         <v>1280</v>
       </c>
@@ -14612,7 +14612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1289">
+    <row r="1289" hidden="1">
       <c r="A1289" s="1" t="s">
         <v>1281</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1290">
+    <row r="1290" hidden="1">
       <c r="A1290" s="1" t="s">
         <v>1282</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1291">
+    <row r="1291" hidden="1">
       <c r="A1291" s="1" t="s">
         <v>1283</v>
       </c>
@@ -14636,7 +14636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1292">
+    <row r="1292" hidden="1">
       <c r="A1292" s="1" t="s">
         <v>1284</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1293">
+    <row r="1293" hidden="1">
       <c r="A1293" s="1" t="s">
         <v>1285</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1294">
+    <row r="1294" hidden="1">
       <c r="A1294" s="1" t="s">
         <v>1286</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1295">
+    <row r="1295" hidden="1">
       <c r="A1295" s="1" t="s">
         <v>1287</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1296">
+    <row r="1296" hidden="1">
       <c r="A1296" s="1" t="s">
         <v>1288</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1297">
+    <row r="1297" hidden="1">
       <c r="A1297" s="1" t="s">
         <v>1289</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1298">
+    <row r="1298" hidden="1">
       <c r="A1298" s="1" t="s">
         <v>1290</v>
       </c>
@@ -14692,7 +14692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1299">
+    <row r="1299" hidden="1">
       <c r="A1299" s="1" t="s">
         <v>1291</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1300">
+    <row r="1300" hidden="1">
       <c r="A1300" s="1" t="s">
         <v>1292</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1301">
+    <row r="1301" hidden="1">
       <c r="A1301" s="1" t="s">
         <v>1293</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1302">
+    <row r="1302" hidden="1">
       <c r="A1302" s="1" t="s">
         <v>1294</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1303">
+    <row r="1303" hidden="1">
       <c r="A1303" s="1" t="s">
         <v>1295</v>
       </c>
@@ -14732,7 +14732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1304">
+    <row r="1304" hidden="1">
       <c r="A1304" s="1" t="s">
         <v>1296</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1305">
+    <row r="1305" hidden="1">
       <c r="A1305" s="1" t="s">
         <v>1297</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1306">
+    <row r="1306" hidden="1">
       <c r="A1306" s="1" t="s">
         <v>1298</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1307">
+    <row r="1307" hidden="1">
       <c r="A1307" s="1" t="s">
         <v>1299</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1308">
+    <row r="1308" hidden="1">
       <c r="A1308" s="1" t="s">
         <v>1300</v>
       </c>
@@ -14772,7 +14772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1309">
+    <row r="1309" hidden="1">
       <c r="A1309" s="1" t="s">
         <v>1301</v>
       </c>
@@ -14780,7 +14780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1310">
+    <row r="1310" hidden="1">
       <c r="A1310" s="1" t="s">
         <v>1302</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1311">
+    <row r="1311" hidden="1">
       <c r="A1311" s="1" t="s">
         <v>1303</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1312">
+    <row r="1312" hidden="1">
       <c r="A1312" s="1" t="s">
         <v>1304</v>
       </c>
@@ -14804,7 +14804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1313">
+    <row r="1313" hidden="1">
       <c r="A1313" s="1" t="s">
         <v>1305</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1314">
+    <row r="1314" hidden="1">
       <c r="A1314" s="1" t="s">
         <v>1306</v>
       </c>
@@ -14820,7 +14820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1315">
+    <row r="1315" hidden="1">
       <c r="A1315" s="1" t="s">
         <v>1307</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1316">
+    <row r="1316" hidden="1">
       <c r="A1316" s="1" t="s">
         <v>1308</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1317">
+    <row r="1317" hidden="1">
       <c r="A1317" s="1" t="s">
         <v>1309</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1318">
+    <row r="1318" hidden="1">
       <c r="A1318" s="1" t="s">
         <v>1310</v>
       </c>
@@ -14852,7 +14852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1319">
+    <row r="1319" hidden="1">
       <c r="A1319" s="1" t="s">
         <v>1311</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1320">
+    <row r="1320" hidden="1">
       <c r="A1320" s="1" t="s">
         <v>1312</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1321">
+    <row r="1321" hidden="1">
       <c r="A1321" s="1" t="s">
         <v>1313</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1322">
+    <row r="1322" hidden="1">
       <c r="A1322" s="1" t="s">
         <v>1314</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1323">
+    <row r="1323" hidden="1">
       <c r="A1323" s="1" t="s">
         <v>1315</v>
       </c>
@@ -14892,7 +14892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1324">
+    <row r="1324" hidden="1">
       <c r="A1324" s="1" t="s">
         <v>1316</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1325">
+    <row r="1325" hidden="1">
       <c r="A1325" s="1" t="s">
         <v>1317</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1326">
+    <row r="1326" hidden="1">
       <c r="A1326" s="1" t="s">
         <v>1318</v>
       </c>
@@ -14916,7 +14916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1327">
+    <row r="1327" hidden="1">
       <c r="A1327" s="1" t="s">
         <v>1319</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1328">
+    <row r="1328" hidden="1">
       <c r="A1328" s="1" t="s">
         <v>1320</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1329">
+    <row r="1329" hidden="1">
       <c r="A1329" s="1" t="s">
         <v>1321</v>
       </c>
@@ -14940,7 +14940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1330">
+    <row r="1330" hidden="1">
       <c r="A1330" s="1" t="s">
         <v>1322</v>
       </c>
@@ -14948,7 +14948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1331">
+    <row r="1331" hidden="1">
       <c r="A1331" s="1" t="s">
         <v>1323</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1332">
+    <row r="1332" hidden="1">
       <c r="A1332" s="1" t="s">
         <v>1324</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1333">
+    <row r="1333" hidden="1">
       <c r="A1333" s="1" t="s">
         <v>1325</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1334">
+    <row r="1334" hidden="1">
       <c r="A1334" s="1" t="s">
         <v>1326</v>
       </c>
@@ -14980,7 +14980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1335">
+    <row r="1335" hidden="1">
       <c r="A1335" s="1" t="s">
         <v>1327</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1336">
+    <row r="1336" hidden="1">
       <c r="A1336" s="1" t="s">
         <v>1328</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1337">
+    <row r="1337" hidden="1">
       <c r="A1337" s="1" t="s">
         <v>1329</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1338">
+    <row r="1338" hidden="1">
       <c r="A1338" s="1" t="s">
         <v>1330</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1339">
+    <row r="1339" hidden="1">
       <c r="A1339" s="1" t="s">
         <v>1331</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1340">
+    <row r="1340" hidden="1">
       <c r="A1340" s="1" t="s">
         <v>1332</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1341">
+    <row r="1341" hidden="1">
       <c r="A1341" s="1" t="s">
         <v>1333</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1342">
+    <row r="1342" hidden="1">
       <c r="A1342" s="1" t="s">
         <v>1334</v>
       </c>
@@ -15044,7 +15044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1343">
+    <row r="1343" hidden="1">
       <c r="A1343" s="1" t="s">
         <v>1335</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1344">
+    <row r="1344" hidden="1">
       <c r="A1344" s="1" t="s">
         <v>1336</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1345">
+    <row r="1345" hidden="1">
       <c r="A1345" s="1" t="s">
         <v>1337</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1346">
+    <row r="1346" hidden="1">
       <c r="A1346" s="1" t="s">
         <v>1338</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1347">
+    <row r="1347" hidden="1">
       <c r="A1347" s="1" t="s">
         <v>1339</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1348">
+    <row r="1348" hidden="1">
       <c r="A1348" s="1" t="s">
         <v>1340</v>
       </c>
@@ -15092,7 +15092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1349">
+    <row r="1349" hidden="1">
       <c r="A1349" s="1" t="s">
         <v>1341</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1350">
+    <row r="1350" hidden="1">
       <c r="A1350" s="1" t="s">
         <v>1342</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1351">
+    <row r="1351" hidden="1">
       <c r="A1351" s="1" t="s">
         <v>1343</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1352">
+    <row r="1352" hidden="1">
       <c r="A1352" s="1" t="s">
         <v>1344</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1353">
+    <row r="1353" hidden="1">
       <c r="A1353" s="1" t="s">
         <v>1345</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1354">
+    <row r="1354" hidden="1">
       <c r="A1354" s="1" t="s">
         <v>1346</v>
       </c>
@@ -15140,7 +15140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1355">
+    <row r="1355" hidden="1">
       <c r="A1355" s="1" t="s">
         <v>1347</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1356">
+    <row r="1356" hidden="1">
       <c r="A1356" s="1" t="s">
         <v>1348</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1357">
+    <row r="1357" hidden="1">
       <c r="A1357" s="1" t="s">
         <v>1349</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1358">
+    <row r="1358" hidden="1">
       <c r="A1358" s="1" t="s">
         <v>1350</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1359">
+    <row r="1359" hidden="1">
       <c r="A1359" s="1" t="s">
         <v>1351</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1360">
+    <row r="1360" hidden="1">
       <c r="A1360" s="1" t="s">
         <v>1352</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1361">
+    <row r="1361" hidden="1">
       <c r="A1361" s="1" t="s">
         <v>1353</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1362">
+    <row r="1362" hidden="1">
       <c r="A1362" s="1" t="s">
         <v>1354</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1363">
+    <row r="1363" hidden="1">
       <c r="A1363" s="1" t="s">
         <v>1355</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1364">
+    <row r="1364" hidden="1">
       <c r="A1364" s="1" t="s">
         <v>1356</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1365">
+    <row r="1365" hidden="1">
       <c r="A1365" s="1" t="s">
         <v>1357</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1366">
+    <row r="1366" hidden="1">
       <c r="A1366" s="1" t="s">
         <v>1358</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1367">
+    <row r="1367" hidden="1">
       <c r="A1367" s="1" t="s">
         <v>1359</v>
       </c>
@@ -15244,7 +15244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1368">
+    <row r="1368" hidden="1">
       <c r="A1368" s="1" t="s">
         <v>1360</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1369">
+    <row r="1369" hidden="1">
       <c r="A1369" s="1" t="s">
         <v>1361</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1370">
+    <row r="1370" hidden="1">
       <c r="A1370" s="1" t="s">
         <v>1362</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1371">
+    <row r="1371" hidden="1">
       <c r="A1371" s="1" t="s">
         <v>1363</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1372">
+    <row r="1372" hidden="1">
       <c r="A1372" s="1" t="s">
         <v>1364</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1373">
+    <row r="1373" hidden="1">
       <c r="A1373" s="1" t="s">
         <v>1365</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1374">
+    <row r="1374" hidden="1">
       <c r="A1374" s="1" t="s">
         <v>1366</v>
       </c>
@@ -15300,7 +15300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1375">
+    <row r="1375" hidden="1">
       <c r="A1375" s="1" t="s">
         <v>1367</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1376">
+    <row r="1376" hidden="1">
       <c r="A1376" s="1" t="s">
         <v>1368</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1377">
+    <row r="1377" hidden="1">
       <c r="A1377" s="1" t="s">
         <v>1369</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1378">
+    <row r="1378" hidden="1">
       <c r="A1378" s="1" t="s">
         <v>1370</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1379">
+    <row r="1379" hidden="1">
       <c r="A1379" s="1" t="s">
         <v>1371</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1380">
+    <row r="1380" hidden="1">
       <c r="A1380" s="1" t="s">
         <v>1372</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1381">
+    <row r="1381" hidden="1">
       <c r="A1381" s="1" t="s">
         <v>1373</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1382">
+    <row r="1382" hidden="1">
       <c r="A1382" s="1" t="s">
         <v>1374</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1383">
+    <row r="1383" hidden="1">
       <c r="A1383" s="1" t="s">
         <v>1375</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1384">
+    <row r="1384" hidden="1">
       <c r="A1384" s="1" t="s">
         <v>1376</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1385">
+    <row r="1385" hidden="1">
       <c r="A1385" s="1" t="s">
         <v>1377</v>
       </c>
@@ -15388,7 +15388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1386">
+    <row r="1386" hidden="1">
       <c r="A1386" s="1" t="s">
         <v>1378</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1387">
+    <row r="1387" hidden="1">
       <c r="A1387" s="1" t="s">
         <v>1379</v>
       </c>
@@ -15404,7 +15404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1388">
+    <row r="1388" hidden="1">
       <c r="A1388" s="1" t="s">
         <v>1380</v>
       </c>
@@ -15412,7 +15412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1389">
+    <row r="1389" hidden="1">
       <c r="A1389" s="1" t="s">
         <v>1381</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1390">
+    <row r="1390" hidden="1">
       <c r="A1390" s="1" t="s">
         <v>1382</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1391">
+    <row r="1391" hidden="1">
       <c r="A1391" s="1" t="s">
         <v>1383</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1392">
+    <row r="1392" hidden="1">
       <c r="A1392" s="1" t="s">
         <v>1384</v>
       </c>
@@ -15444,7 +15444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1393">
+    <row r="1393" hidden="1">
       <c r="A1393" s="1" t="s">
         <v>1385</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1394">
+    <row r="1394" hidden="1">
       <c r="A1394" s="1" t="s">
         <v>1386</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1395">
+    <row r="1395" hidden="1">
       <c r="A1395" s="1" t="s">
         <v>1387</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1396">
+    <row r="1396" hidden="1">
       <c r="A1396" s="1" t="s">
         <v>1388</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1397">
+    <row r="1397" hidden="1">
       <c r="A1397" s="1" t="s">
         <v>1389</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1398">
+    <row r="1398" hidden="1">
       <c r="A1398" s="1" t="s">
         <v>1390</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1399">
+    <row r="1399" hidden="1">
       <c r="A1399" s="1" t="s">
         <v>1391</v>
       </c>
@@ -15500,7 +15500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1400">
+    <row r="1400" hidden="1">
       <c r="A1400" s="1" t="s">
         <v>1392</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1401">
+    <row r="1401" hidden="1">
       <c r="A1401" s="1" t="s">
         <v>1393</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1402">
+    <row r="1402" hidden="1">
       <c r="A1402" s="1" t="s">
         <v>1394</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1403">
+    <row r="1403" hidden="1">
       <c r="A1403" s="1" t="s">
         <v>1395</v>
       </c>
@@ -15532,7 +15532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1404">
+    <row r="1404" hidden="1">
       <c r="A1404" s="1" t="s">
         <v>1396</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1405">
+    <row r="1405" hidden="1">
       <c r="A1405" s="1" t="s">
         <v>1397</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1406">
+    <row r="1406" hidden="1">
       <c r="A1406" s="1" t="s">
         <v>1398</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1407">
+    <row r="1407" hidden="1">
       <c r="A1407" s="1" t="s">
         <v>1399</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1408">
+    <row r="1408" hidden="1">
       <c r="A1408" s="1" t="s">
         <v>1400</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1409">
+    <row r="1409" hidden="1">
       <c r="A1409" s="1" t="s">
         <v>1401</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1410">
+    <row r="1410" hidden="1">
       <c r="A1410" s="1" t="s">
         <v>1402</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1411">
+    <row r="1411" hidden="1">
       <c r="A1411" s="1" t="s">
         <v>1403</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1412">
+    <row r="1412" hidden="1">
       <c r="A1412" s="1" t="s">
         <v>1404</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1413">
+    <row r="1413" hidden="1">
       <c r="A1413" s="1" t="s">
         <v>1405</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1414">
+    <row r="1414" hidden="1">
       <c r="A1414" s="1" t="s">
         <v>1158</v>
       </c>
@@ -15620,7 +15620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1415">
+    <row r="1415" hidden="1">
       <c r="A1415" s="1" t="s">
         <v>1365</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1416">
+    <row r="1416" hidden="1">
       <c r="A1416" s="1" t="s">
         <v>1247</v>
       </c>
@@ -15636,7 +15636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1417">
+    <row r="1417" hidden="1">
       <c r="A1417" s="1" t="s">
         <v>1277</v>
       </c>
@@ -15644,7 +15644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1418">
+    <row r="1418" hidden="1">
       <c r="A1418" s="1" t="s">
         <v>1257</v>
       </c>
@@ -15653,7 +15653,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$B$1418"/>
+  <autoFilter ref="$A$1:$B$1418">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="noAcoso"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataSet/dataset_twitter.xlsx
+++ b/dataSet/dataset_twitter.xlsx
@@ -6,7 +6,7 @@
     <sheet state="visible" name="cleanprojectdataset" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">cleanprojectdataset!$A$1:$B$1730</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">cleanprojectdataset!$A$1:$B$1418</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -326,7 +326,7 @@
     <t>Me siento sucia que tiene el mismo icono que esta persona lindo.</t>
   </si>
   <si>
-    <t>Soy todo lo contrario: Sé exactamente cómo utilizar líneas, pero lindo como la mierda ..</t>
+    <t>Soy todo lo contrario: Sé exactamente cómo utilizar líneas, pero lindo como la persona ..</t>
   </si>
   <si>
     <t>Aight Yo sólo tengo que saber. ' '¿Son estas bien?',' Creo que son lindo, pero a su vez el 40 de este mes, así que mi opinión doesn? T de Dodge.</t>
@@ -341,7 +341,7 @@
     <t>100k RTS y Lil yachty WILL REMIX con mi equipo !! ' 'Me dieron 3 SEMANAS !!', 'ORIGINAL SONG EN BIO ..',' por favor me ayude !.</t>
   </si>
   <si>
-    <t>Estoy como un puto cerdo lindo !! " 'Maldita sea!'," Estoy tan irritado con mi lindo cara!</t>
+    <t>Estoy como un persona cerdo lindo !! " 'Maldita sea!'," Estoy tan irritado con mi lindo cara!</t>
   </si>
   <si>
     <t>I? M Cassie. '' Todos los demás están lindo y mudo ..</t>
@@ -371,7 +371,7 @@
     <t>¡Vaya jaja no se preocupe que me ha pasado muchas veces; p</t>
   </si>
   <si>
-    <t>.So muchos lindo culo gente de por aquí. '' Bishhh qué -.-.</t>
+    <t>.So muchos lindo buena gente de por aquí. '' Bishhh qué -.-.</t>
   </si>
   <si>
     <t>lindo pensé que esto era un GIF y juego girada en el trabajo con mis altavoces del teléfono demasiado fuerte ....</t>
@@ -380,7 +380,7 @@
     <t>Eso es un insulto, Kim era lindo af "]</t>
   </si>
   <si>
-    <t>Lol principal koi celebridad hu kiya jo mujhe Mujhse apoyo por cierto que "Falopsstr" que ha vencido asesino \ 's lindo culo en.</t>
+    <t>Lol principal koi celebridad hu kiya jo mujhe Mujhse apoyo por cierto que "Falopsstr" que ha vencido asesino \ 's lindo buena en.</t>
   </si>
   <si>
     <t>Esa persona es un héroe para todos nosotros.</t>
@@ -488,13 +488,13 @@
     <t>mi gran que procesa como un piercing en el pezón dkfjkd.</t>
   </si>
   <si>
-    <t>.I necesitan a alguien para vencer a los vivos mierda fuera de mi gran.</t>
-  </si>
-  <si>
-    <t>la gente habla mucho de mierda de políticos famosos que gastar un montón de dinero en una mesa de madera absurdamente agradable, pero desafortunado.</t>
-  </si>
-  <si>
-    <t>Las hembras salen de una relación y, de repente, comienza a publicar extractos de los libros y la mierda LMAOOOOOOOOOO ohhhh modo n.</t>
+    <t>.I necesitan a alguien para vencer a los vivos persona fuera de mi gran.</t>
+  </si>
+  <si>
+    <t>la gente habla mucho de persona de políticos famosos que gastar un montón de dinero en una mesa de madera absurdamente agradable, pero desafortunado.</t>
+  </si>
+  <si>
+    <t>Las hembras salen de una relación y, de repente, comienza a publicar extractos de los libros y la persona LMAOOOOOOOOOO ohhhh modo n.</t>
   </si>
   <si>
     <t>.OK.peruanazo Por desgracia el resto de Perú ahora tiene que lidiar con su voto lamentable ..</t>
@@ -533,7 +533,7 @@
     <t>El * toda * discurso de la derecha ha dado un giro, ya que el aumento de Rush Limbaugh, a? Quién puede ser el prov más extravagante.</t>
   </si>
   <si>
-    <t>.My gran se olvidó de mi uniforme de trabajo en mi cama .. primera vez que he hecho esa mierda. ' 'Ahora tengo que llevo uniforme de hospital.',' Hella raro ?? \ u200d ??.</t>
+    <t>.My gran se olvidó de mi uniforme de trabajo en mi cama .. primera vez que he hecho esa persona. ' 'Ahora tengo que llevo uniforme de hospital.',' Hella raro ?? \ u200d ??.</t>
   </si>
   <si>
     <t>.I siempre han sueño de hacer feliz a la gente ... ¿cómo?', 'Actuar?', 'Música?', 'Comedia?', 'El único que estoy realmente un poco de bien a']</t>
@@ -644,7 +644,7 @@
     <t>Ayudar a entender la vida diaria penetraciones, consejos y análisis sobre el propósito, la existencia, la felicidad, la parcialidad, prejuicio y.</t>
   </si>
   <si>
-    <t>Tienes que estar bromeando? ' '¿No has visto las fotografías de magaly Roseanne?',' Ese espectáculo es desagradable y p.</t>
+    <t>Tienes que estar bromeando? ' '¿No has visto las fotografías de magaly Roseanne?',' Ese espectábuena es desagradable y p.</t>
   </si>
   <si>
     <t>Don? T permiten que el prejuicio le roban de este momento. ' 'Disfrutar de los hombre, mientras que él está todavía alrededor.',' Ganamos? T estar viendo otra RONALDO en.</t>
@@ -839,7 +839,7 @@
     <t>Creo que están disminuyendo el problema mediante la disminución de la gente '' No:. De 15 miembros.</t>
   </si>
   <si>
-    <t>Cualquiera que diga mierda lo Ainge ha hecho es un individuo bajo coeficiente intelectual ..</t>
+    <t>Cualquiera que diga persona lo Ainge ha hecho es un individuo bajo coeficiente intelectual ..</t>
   </si>
   <si>
     <t>Seguramente tú sabe por qué eso es un problema. '' la baja varianza capturado en estudios GWA IQ es dif clase social.</t>
@@ -953,7 +953,7 @@
     <t>Tercera ola del feminismo es tan malo para las mujeres? S casi cómico ..</t>
   </si>
   <si>
-    <t>Louis no decidió añadir artículos que hablan sobre el feminismo, LGBT, persona Vidas materia, salud mental, profesional "]</t>
+    <t>Louis no decidió añadir artíbuenas que hablan sobre el feminismo, LGBT, persona Vidas materia, salud mental, profesional "]</t>
   </si>
   <si>
     <t>Un buen señor es bautizado. ' 'Id y argumentan en el Internet.',' Juegos, el ateísmo, el feminismo, y el anime son su dominio ..</t>
@@ -1214,7 +1214,7 @@
     <t>Al parecer hubo una manifestación disturbios / causa virtual en Runescape antes porque Jagex (el desarrollador) dio a conocer un Awaren LGBT.</t>
   </si>
   <si>
-    <t>.a clásico artículo vale la pena leer de nuevo a través de .Harpers.</t>
+    <t>.a clásico artíbuena vale la pena leer de nuevo a través de .Harpers.</t>
   </si>
   <si>
     <t>porn .free vedios piña causa en línea jodido.</t>
@@ -1265,7 +1265,7 @@
     <t>¿Qué te hace pensar que voy lo SCUM bebidas pantano de agua lo SCUM tan acostumbrado a comer estiércol de Doc Doc trian causa.</t>
   </si>
   <si>
-    <t>Rob Reiner dice cualquiera que vea el nuevo espectáculo #RoseanneBarr es un causa .. '' permite a todos dar ol Rob anti causa patriota Salut.</t>
+    <t>Rob Reiner dice cualquiera que vea el nuevo espectábuena #RoseanneBarr es un causa .. '' permite a todos dar ol Rob anti causa patriota Salut.</t>
   </si>
   <si>
     <t>mayores sitios web causas de Internet se enfrentan a una crisis financiera los dos días del Daily Stormer de Stormfront y podrían ser "]</t>
@@ -1349,7 +1349,7 @@
     <t>.Drama pt2. ' 'Me habló de sus problemas y luego me acusó de tratar de estropear su relación.',' ?? PERRA YALL.</t>
   </si>
   <si>
-    <t xml:space="preserve"> No me gusta una? Gané? T BEG para que estés en mi vida? . Mf culo ' 'Como perra, ¿sabes lo que es el esfuerzo',' tratar &amp; amp; PETICIÓN son comple.</t>
+    <t xml:space="preserve"> No me gusta una? Gané? T BEG para que estés en mi vida? . Mf buena ' 'Como perra, ¿sabes lo que es el esfuerzo',' tratar &amp; amp; PETICIÓN son comple.</t>
   </si>
   <si>
     <t>BUENA .fUCK te ves tan.</t>
@@ -1358,10 +1358,10 @@
     <t>violación real cuando tú está en Snapchat quedó allí esperando el gota a gota y tú? re demasiado pronto, bien cogida parada reco.</t>
   </si>
   <si>
-    <t>relaciones de larga distancia son tan difíciles, como maldito que se siente solo como mierda pero? re no realmente sola, pero su boo c.</t>
-  </si>
-  <si>
-    <t>Incluso cuando se le da una cogida tú no puede das por culo ....</t>
+    <t>relaciones de larga distancia son tan difíciles, como maldito que se siente solo como persona pero? re no realmente sola, pero su boo c.</t>
+  </si>
+  <si>
+    <t>Incluso cuando se le da una cogida tú no puede das por buena ....</t>
   </si>
   <si>
     <t>Así que ahora sólo me envió un broche de presión y fue un asscheek frente al espejo en el baño desnuda ???????????????????? I? M como fin ..</t>
@@ -1379,7 +1379,7 @@
     <t>cogida Te amo ..</t>
   </si>
   <si>
-    <t>.Además, PPL que fuman cerca de los niños. '' Fuck you, tonto del culo.</t>
+    <t>.Además, PPL que fuman cerca de los niños. '' Fuck you, tonto del buena.</t>
   </si>
   <si>
     <t>.Bruuuuhh espero que algún día pueda tener mis sueños me pagan en lugar de trabajar en una cogida como trabajo. '' Bless hasta que el hombre !.</t>
@@ -1409,7 +1409,7 @@
     <t>Y si tú? T cogida todo espero que hayan tenido un buen tiempo.</t>
   </si>
   <si>
-    <t>.Y por eso me encantan las chicas blancas causa que los personas están desesperados como mierda e intentará cualquier cosa.</t>
+    <t>.Y por eso me encantan las chicas blancas causa que los personas están desesperados como persona e intentará cualquier cosa.</t>
   </si>
   <si>
     <t>Si te pregunto: "¿Quién \ 's va?"', 'Eso significa que no se anda con todos los que tratar.']</t>
@@ -1430,10 +1430,10 @@
     <t>cosas que soplan mi mente: el hecho de que al parecer puede perforar una pared en una casa americana y abolladuras '' como lo que realmente BRE?.</t>
   </si>
   <si>
-    <t>.Moodys Investors Service - Moodys asigna calificación Aa3 inicial de la Biblioteca Pública del Distrito del condado de Russell, Serie kys.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KYS no es de extrañar por qué apoya había olores, ya que tú está poniendo Antro pronto y tix eliminado la causa todo lo que importa es el dinero lo que kys.</t>
+    <t>.Moodys Investors Service - Moodys asigna calificación Aa3 inicial de la Biblioteca Pública del Distrito del condado de Russell, Serie persona.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> persona no es de extrañar por qué apoya había olores, ya que tú está poniendo Antro pronto y tix eliminado la causa todo lo que importa es el dinero lo que persona.</t>
   </si>
   <si>
     <t>Amo a mi hombre rico.</t>
@@ -1442,64 +1442,64 @@
     <t>Fuera a Dubai !!! '' - 10.</t>
   </si>
   <si>
-    <t>Puto kys peludos.</t>
+    <t>persona persona peludos.</t>
   </si>
   <si>
     <t>El día feliz de MINGYU? # Happy.MINGYU.Day #SEVENTEEN #MINGYU "]</t>
   </si>
   <si>
-    <t>.First int juego: me sale 2 honores y mis compañeros llevo, uhhhhh simplemente kys pls.</t>
-  </si>
-  <si>
-    <t>.fake culo perra kys? Camille que? s puro coqueteo lo linda xx.</t>
-  </si>
-  <si>
-    <t>.Este honestamente se ve falso, pero si tú es un amigo y así es como tú tiene que conseguir chica por favor kys.</t>
-  </si>
-  <si>
-    <t>.lemme te dice este dulce mudafaka kys go lol !.</t>
-  </si>
-  <si>
-    <t>.You saben aquellas personas que piensan que saben todo y cuando se trate de tener una entrada, que dicen sí y la indiferencia que kys?.</t>
-  </si>
-  <si>
-    <t>Si tú es un kys delación.</t>
+    <t>.First int juego: me sale 2 honores y mis compañeros llevo, uhhhhh simplemente persona pls.</t>
+  </si>
+  <si>
+    <t>.fake buena perra persona? Camille que? s puro coqueteo lo linda xx.</t>
+  </si>
+  <si>
+    <t>.Este honestamente se ve falso, pero si tú es un amigo y así es como tú tiene que conseguir chica por favor persona.</t>
+  </si>
+  <si>
+    <t>.lemme te dice este dulce mudafaka persona go lol !.</t>
+  </si>
+  <si>
+    <t>.You saben aquellas personas que piensan que saben todo y cuando se trate de tener una entrada, que dicen sí y la indiferencia que persona?.</t>
+  </si>
+  <si>
+    <t>Si tú es un persona delación.</t>
   </si>
   <si>
     <t xml:space="preserve"> En reproducción del monstruo por EXO y el baile sí soy como nadie me está mirando y no me importa .. '' disfrutar.</t>
   </si>
   <si>
-    <t>no se puede kys Te quiero :(, y muchas personas que amas "]</t>
-  </si>
-  <si>
-    <t>KYS mi infancia jugaba con rocas.</t>
-  </si>
-  <si>
-    <t>.HONESTLY ser culo al aire con la fotografía kys.</t>
-  </si>
-  <si>
-    <t>= kms manteniéndome kys seguras = mantenerse a salvo de nadie morir hoy * bustos a cabo en Staying Alive * .lilashmash "]</t>
-  </si>
-  <si>
-    <t>kys MFAO. ' 'dats por eso que dije es verdad.',' L.</t>
+    <t>no se puede persona Te quiero :(, y muchas personas que amas "]</t>
+  </si>
+  <si>
+    <t>persona mi infancia jugaba con rocas.</t>
+  </si>
+  <si>
+    <t>.HONESTLY ser buena al aire con la fotografía persona.</t>
+  </si>
+  <si>
+    <t>kms manteniéndome persona seguras = mantenerse a salvo de nadie morir hoy * bustos a cabo en Staying Alive * .lilashmash "]</t>
+  </si>
+  <si>
+    <t>persona MFAO. ' 'dats por eso que dije es verdad.',' L.</t>
   </si>
   <si>
     <t>Arctic Monkeys &amp; Post Malone lanzó su álbum fechas de hoy, es un buen día "]</t>
   </si>
   <si>
-    <t>La muchacha está aquí diciendo que todos los hombres son basura y mierda. '' Bueno, por qué no? No te dejan de ir después de que todos los chicos que sólo quieren f.</t>
-  </si>
-  <si>
-    <t>kys boi Mono soy!", 'el mono más fresco en la selva.</t>
-  </si>
-  <si>
-    <t>.I odian la personas que compran todas las versiones TOTW de una tarjeta cuando se pone un encendido. '' Como kys Foreal.</t>
+    <t>La muchacha está aquí diciendo que todos los hombres son basura y persona. '' Bueno, por qué no? No te dejan de ir después de que todos los chicos que sólo quieren f.</t>
+  </si>
+  <si>
+    <t>persona boi Mono soy!", 'el mono más fresco en la selva.</t>
+  </si>
+  <si>
+    <t>.I odian la personas que compran todas las versiones TOTW de una tarjeta cuando se pone un encendido. '' Como persona Foreal.</t>
   </si>
   <si>
     <t>ThomasSanders:?? Si Entonces tú don t amor Don t me merecen en mi conmigo en mi.</t>
   </si>
   <si>
-    <t>El 1% de KYS verá un recorte de impuestos promedio de $ 7086. '' Las personas que hacen $ 175000 a $ 427000 un año para ver un cu medio de gravamen.</t>
+    <t>El 1% de persona verá un recorte de impuestos promedio de $ 7086. '' Las personas que hacen $ 175000 a $ 427000 un año para ver un cu medio de gravamen.</t>
   </si>
   <si>
     <t>.? Hombre, tú es un perdedor patético !? -I? M bro Lloyd Christmas ........ nuevo estado de ánimo ..</t>
@@ -1583,16 +1583,16 @@
     <t>.Why es todo el mundo de ser un gatito de esta situación? '' Mcgregor arrojó algo a través de una ventana que? T detonación.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cuando su #ass y #pussy están pidiendo para ser utilizado ?? feliz #AssWednesday todos! '' Parece que mi culo está arrugando y.</t>
+    <t xml:space="preserve"> Cuando su #ass y #pussy están pidiendo para ser utilizado ?? feliz #AssWednesday todos! '' Parece que mi buena está arrugando y.</t>
   </si>
   <si>
     <t>OMG .KissaSins que son tan #sexy, por lo #delicious! '' tú tiene la más sorprendente #Booty, su sonrisa #, # tetas, #pussy afeitado, #Como.</t>
   </si>
   <si>
-    <t>.Good mierda ella respondió con un gatito MASAJE DE VIDEO ?? Yo tenía miedo a la muerte que iba a compartir mi pene en med sociales.</t>
-  </si>
-  <si>
-    <t>anillo de espiga con blackwork por #Craeven #Amsterdam #Handmade través .Etsy así que cuando la mierda viene abajo son y.</t>
+    <t>.Good persona ella respondió con un gatito MASAJE DE VIDEO ?? Yo tenía miedo a la muerte que iba a compartir mi pene en med sociales.</t>
+  </si>
+  <si>
+    <t>anillo de espiga con blackwork por #Craeven #Amsterdam #Handmade través .Etsy así que cuando la persona viene abajo son y.</t>
   </si>
   <si>
     <t>vizcarra WTF Todos aquellos que quieran ver una foto de vizcarra en la oficina de correos! '' Aquí es una idea que Pit.</t>
@@ -1673,7 +1673,7 @@
     <t>WOW !!!! uno de los buenos '' jaja conseguir una vida y dejar de hacer chistes en línea detrás de una pantalla.</t>
   </si>
   <si>
-    <t>.Se encontrará un inútil pedazo de mierda Si realiza algún tipo de broma suicidio hacia alguien, sabiendo muy bien que atte.</t>
+    <t>.Se encontrará un inútil pedazo de persona Si realiza algún tipo de broma suicidio hacia alguien, sabiendo muy bien que atte.</t>
   </si>
   <si>
     <t>vizcarra Las personas se les da el poder de ser absolutamente el control de esta de.</t>
@@ -1685,7 +1685,7 @@
     <t>Wow, por lo que de manera muy técnica y que .vice no está realmente en el mal. ", 'Es una lástima que por']</t>
   </si>
   <si>
-    <t>.El mundo es mejor sin mí. '' Todos túes son mejor sin esta pieza inútil de mierda ??.</t>
+    <t>.El mundo es mejor sin mí. '' Todos túes son mejor sin esta pieza inútil de persona ??.</t>
   </si>
   <si>
     <t>.I soy un gran en secreto absoluto. ',. si está demasiado ..</t>
@@ -1787,22 +1787,22 @@
     <t>Perú está tan jodidamente bien frío.</t>
   </si>
   <si>
-    <t>.Karma es realmente repartiendo en algunas personas este año y yo no podía? T ser puto más feliz, que sirve vosotros bien derecha.</t>
+    <t>.Karma es realmente repartiendo en algunas personas este año y yo no podía? T ser persona más feliz, que sirve vosotros bien derecha.</t>
   </si>
   <si>
     <t>.what estúpida bien diseñado el obby llegar al óvulo fifteam. ' 'TOO.FUCKING.DIFFICULT.',' OMG.</t>
   </si>
   <si>
-    <t>GlennCarroll1 .PaulDollery buen muchacho Carroll ?? Puto rabia en la jaula, bien accesorios y cámaras ......... un puesto.</t>
+    <t>GlennCarroll1 .PaulDollery buen muchacho Carroll ?? persona rabia en la jaula, bien accesorios y cámaras ......... un puesto.</t>
   </si>
   <si>
     <t>si alguna vez llama a la amapola piña vez más voy a Mario.</t>
   </si>
   <si>
-    <t>Mi primo fue atacado verbalmente por este hombre. '' Empezó su abuso de una niña sij, que llevaba un turbante, que físicamente culo.</t>
-  </si>
-  <si>
-    <t>.probably no va a conseguir mi comida en el corto plazo debido a que el conductor es una piña mierda, así que puede tomar una siesta de grasa o algo así idk.</t>
+    <t>Mi primo fue atacado verbalmente por este hombre. '' Empezó su abuso de una niña sij, que llevaba un turbante, que físicamente buena.</t>
+  </si>
+  <si>
+    <t>.probably no va a conseguir mi comida en el corto plazo debido a que el conductor es una piña persona, así que puede tomar una siesta de grasa o algo así idk.</t>
   </si>
   <si>
     <t>Khabib y su equipo tratan de saltar .TheNotoriousMMA chico .RusHammerMMA ayer. '' Conor agarra 20 amigos salta sobre.</t>
@@ -1814,28 +1814,28 @@
     <t>.nude Egipto niñas adolescentes bien piña.</t>
   </si>
   <si>
-    <t>.See si? ​​D quería escribir? Pato? en lugar de? cogida? I? Puto? Would? ve! '' .apple, dejar de tratar de PG mis mensajes y.</t>
-  </si>
-  <si>
-    <t>.Mi madre está bien, tengo a alguien que me ayude, pero la moraleja de esto es don? T ser un puto bien ..</t>
+    <t>.See si? ​​D quería escribir? Pato? en lugar de? cogida? I? persona? Would? ve! '' .apple, dejar de tratar de PG mis mensajes y.</t>
+  </si>
+  <si>
+    <t>.Mi madre está bien, tengo a alguien que me ayude, pero la moraleja de esto es don? T ser un persona bien ..</t>
   </si>
   <si>
     <t xml:space="preserve"> Vídeo desde el interior del autobús City en Anfield. '' Ciudad cuerpo técnico diciendo que como es y lo que estamos todo el pensamiento ??????????? ?Maldito.</t>
   </si>
   <si>
-    <t>.cool mi padre era un puto bien a mi terapeuta.</t>
+    <t>.cool mi padre era un persona bien a mi terapeuta.</t>
   </si>
   <si>
     <t>Khabib sería asesinar piña el bien pikey.</t>
   </si>
   <si>
-    <t>10 años gun 5 años cuchillo ni piña aproximadamente con la mitad de las oraciones y la mierda bien Sin llevará a cabo una arma para sus compañeros ....</t>
-  </si>
-  <si>
-    <t>.Getting lista a otra persona? S casa es tan estresante fuxking tiene que empacar como 10 trajes putos encajona la plann.</t>
-  </si>
-  <si>
-    <t>.I realmente quiere hacer algún comentario al Sr? I? M de mierda hasta el pueblo de Gales? Cairns pero el bien me ha bloqueado! '' #Severnbridge.</t>
+    <t>10 años gun 5 años cuchillo ni piña aproximadamente con la mitad de las oraciones y la persona bien Sin llevará a cabo una arma para sus compañeros ....</t>
+  </si>
+  <si>
+    <t>.Getting lista a otra persona? S casa es tan estresante fuxking tiene que empacar como 10 trajes personas encajona la plann.</t>
+  </si>
+  <si>
+    <t>.I realmente quiere hacer algún comentario al Sr? I? M de persona hasta el pueblo de Gales? Cairns pero el bien me ha bloqueado! '' #Severnbridge.</t>
   </si>
   <si>
     <t>Si Thanos llaman T'Challa un persona con ese duro ER que dar la vuelta al teatro Limpiar la cogida sobre ..</t>
@@ -1877,7 +1877,7 @@
     <t>No estoy nada falso. Seguir fingiendo estar por encima de ella.</t>
   </si>
   <si>
-    <t>persona consiguió su culo batida por Kurt Angle ??????.</t>
+    <t>persona consiguió su buena batida por Kurt Angle ??????.</t>
   </si>
   <si>
     <t>[ "Pila 'm perra separador de ladrillo polo este persona látigo"]</t>
@@ -1889,7 +1889,7 @@
     <t>.I don? T tiene ningún problema, pero ain T? T Ningún hombre que necesito u Ain? T ningún hombre que veo ... u ain? T ningún hombre a mi alrededor ... mi perra blanca.</t>
   </si>
   <si>
-    <t>Buggin Django es el fuego caliente, pero este odio 8 mierda me había confundido a fondo como a la forma en que hizo un m tal.</t>
+    <t>Buggin Django es el fuego caliente, pero este odio 8 persona me había confundido a fondo como a la forma en que hizo un m tal.</t>
   </si>
   <si>
     <t>¿Cómo se siente que RDJ hizo cara pintada de persona en el trópico trueno? ''? que? s un persona honorario. '' que tenía el pensamiento todo el mundo que era de ter.</t>
@@ -1910,7 +1910,7 @@
     <t>..KhutsoM. persona mató a su familia whooole lo que una polla !.</t>
   </si>
   <si>
-    <t>[ "RT .liIyurivert: 2. túes pidiendo una pelea a continuación, obtener loco y empezar a decir 'persona', entonces pregunta por qué su culo es cada latido"]</t>
+    <t>[ "RT .liIyurivert: 2. túes pidiendo una pelea a continuación, obtener loco y empezar a decir 'persona', entonces pregunta por qué su buena es cada latido"]</t>
   </si>
   <si>
     <t>[ ".Bgbiskite .EdubEsq .JollyGood.Fella .thedopestdavid .TheRoot Debido a este abogado blanco no piensa ser llamado"]</t>
@@ -1931,7 +1931,7 @@
     <t>.bien lo que predijo sucedió &amp; amp; Me llamaron maricón.</t>
   </si>
   <si>
-    <t>[ "Juro, no puedo estar alrededor de esta familia nunca más.", "Mi mierda desaparece y actuar como hijos de piña que no saben lo que soy"]</t>
+    <t>[ "Juro, no puedo estar alrededor de esta familia nunca más.", "Mi persona desaparece y actuar como hijos de piña que no saben lo que soy"]</t>
   </si>
   <si>
     <t>. .fattydaddy7: Sólo tuvo un flashback de agosto de 1989. '' Yo estaba en Hamburgo, Alemania y tenía una piña tirar de mi camisa sobre mi cabeza de hockey lucha s.</t>
@@ -1943,7 +1943,7 @@
     <t>..spann ¿Qué pasó con modales. ' 'mamá Alguien no enseñó la derecha.',' Hablando con un hombre que nos muestra el tiempo de re.</t>
   </si>
   <si>
-    <t>..emmacau97 Stoooppppp mejor parte de la gran mierda botella lince encender el bien ???? lo que una mujer.</t>
+    <t>..emmacau97 Stoooppppp mejor parte de la gran persona botella lince encender el bien ???? lo que una mujer.</t>
   </si>
   <si>
     <t>[ "Earl k' Sneedy golpea las mujeres, sino también lo que está latiendo mujeres bien gran"]</t>
@@ -1976,7 +1976,7 @@
     <t>Bueno lo que sabe que puede conseguir en la parte posterior de un paquete de tabaco si su tan estúpido como para fumar todavía ..</t>
   </si>
   <si>
-    <t>Sí compañero que tú debe ponerse en tantas peleas que puto duro tuerca de lo que la lucha por el final de un cigarrillo en el pub que BUM.</t>
+    <t>Sí compañero que tú debe ponerse en tantas peleas que persona duro tuerca de lo que la lucha por el final de un cigarrillo en el pub que BUM.</t>
   </si>
   <si>
     <t>Pensé que todavía identificó como aroace así que estaba preocupado, bc si alguien usa la "]</t>
@@ -2006,13 +2006,13 @@
     <t>.car se rompió. '' rac sonó salen y envió un tío viejo que debería estar en un hogar senior me dijo lo que era WRO.</t>
   </si>
   <si>
-    <t>.Yeah, I \ 'm un "bien", que \' m el auténtico "dique", un homosexual "sucia". '' Vete a la mierda sobre él gran megalómano ..</t>
+    <t>.Yeah, I \ 'm un "bien", que \' m el auténtico "dique", un homosexual "sucia". '' Vete a la persona sobre él gran megalómano ..</t>
   </si>
   <si>
     <t>Sociedad - Todo hermosa la sociedad - no comen sin embargo, tú no desea conseguir la sociedad grasa - tú no come", 'Maldito.</t>
   </si>
   <si>
-    <t>.Este tipo escribe atractivo increíble como historias de mierda. '' Esto es acerca de una píldora que las vueltas que de cualquier cogida grasa que tú? Re.</t>
+    <t>.Este tipo escribe atractivo increíble como historias de persona. '' Esto es acerca de una píldora que las vueltas que de cualquier cogida grasa que tú? Re.</t>
   </si>
   <si>
     <t>diatriba ~? -Práctica me hace suicidas odio a la gente que son -I engreído -Si dice que va a hacer algo y pro</t>
@@ -2024,7 +2024,7 @@
     <t>Si tú me dice que quiere "pasar el rato" y el mensaje entonces le pregunta cuándo, y recibe una respuesta de un poco de grasa fea d.</t>
   </si>
   <si>
-    <t>RT Si alguna vez has sido llamado cualquiera de estos nombres, pero he dado cuenta que PERRAS mierda no !!", '-ugly -emo -anorexic -WH.</t>
+    <t>RT Si alguna vez has sido llamado cualquiera de estos nombres, pero he dado cuenta que PERRAS persona no !!", '-ugly -emo -anorexic -WH.</t>
   </si>
   <si>
     <t>.Si te insulto a la gente diciendo que? Re grasa, lindo, una piña. ' 'tú está mostrando lo tonto que eres.', 'Las apariencias físicas?',' D.</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve"> si por "salvaje" se refiere a un retardado piña, entonces sí, estás en lo correcto.</t>
   </si>
   <si>
-    <t>.mind tú, yo estaba hablando mierda de ganar campeonatos Filadelfia. '' Su respuesta es 'todos somos lo mismo', que.</t>
+    <t>.mind tú, yo estaba hablando persona de ganar campeonatos Filadelfia. '' Su respuesta es 'todos somos lo mismo', que.</t>
   </si>
   <si>
     <t>..vizcarra Estás literalmente la definición de un retardado.</t>
@@ -15655,951 +15655,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1419" hidden="1">
-      <c r="B1419" s="2"/>
-    </row>
-    <row r="1420" hidden="1">
-      <c r="B1420" s="2"/>
-    </row>
-    <row r="1421" hidden="1">
-      <c r="B1421" s="2"/>
-    </row>
-    <row r="1422" hidden="1">
-      <c r="B1422" s="2"/>
-    </row>
-    <row r="1423" hidden="1">
-      <c r="B1423" s="2"/>
-    </row>
-    <row r="1424" hidden="1">
-      <c r="B1424" s="2"/>
-    </row>
-    <row r="1425" hidden="1">
-      <c r="B1425" s="2"/>
-    </row>
-    <row r="1426" hidden="1">
-      <c r="B1426" s="2"/>
-    </row>
-    <row r="1427" hidden="1">
-      <c r="B1427" s="2"/>
-    </row>
-    <row r="1428" hidden="1">
-      <c r="B1428" s="2"/>
-    </row>
-    <row r="1429" hidden="1">
-      <c r="B1429" s="2"/>
-    </row>
-    <row r="1430" hidden="1">
-      <c r="B1430" s="2"/>
-    </row>
-    <row r="1431" hidden="1">
-      <c r="B1431" s="2"/>
-    </row>
-    <row r="1432" hidden="1">
-      <c r="B1432" s="2"/>
-    </row>
-    <row r="1433" hidden="1">
-      <c r="B1433" s="2"/>
-    </row>
-    <row r="1434" hidden="1">
-      <c r="B1434" s="2"/>
-    </row>
-    <row r="1435" hidden="1">
-      <c r="B1435" s="2"/>
-    </row>
-    <row r="1436" hidden="1">
-      <c r="B1436" s="2"/>
-    </row>
-    <row r="1437" hidden="1">
-      <c r="B1437" s="2"/>
-    </row>
-    <row r="1438" hidden="1">
-      <c r="B1438" s="2"/>
-    </row>
-    <row r="1439" hidden="1">
-      <c r="B1439" s="2"/>
-    </row>
-    <row r="1440" hidden="1">
-      <c r="B1440" s="2"/>
-    </row>
-    <row r="1441" hidden="1">
-      <c r="B1441" s="2"/>
-    </row>
-    <row r="1442" hidden="1">
-      <c r="B1442" s="2"/>
-    </row>
-    <row r="1443" hidden="1">
-      <c r="B1443" s="2"/>
-    </row>
-    <row r="1444" hidden="1">
-      <c r="B1444" s="2"/>
-    </row>
-    <row r="1445" hidden="1">
-      <c r="B1445" s="2"/>
-    </row>
-    <row r="1446" hidden="1">
-      <c r="B1446" s="2"/>
-    </row>
-    <row r="1447" hidden="1">
-      <c r="B1447" s="2"/>
-    </row>
-    <row r="1448" hidden="1">
-      <c r="B1448" s="2"/>
-    </row>
-    <row r="1449" hidden="1">
-      <c r="B1449" s="2"/>
-    </row>
-    <row r="1450" hidden="1">
-      <c r="B1450" s="2"/>
-    </row>
-    <row r="1451" hidden="1">
-      <c r="B1451" s="2"/>
-    </row>
-    <row r="1452" hidden="1">
-      <c r="B1452" s="2"/>
-    </row>
-    <row r="1453" hidden="1">
-      <c r="B1453" s="2"/>
-    </row>
-    <row r="1454" hidden="1">
-      <c r="B1454" s="2"/>
-    </row>
-    <row r="1455" hidden="1">
-      <c r="B1455" s="2"/>
-    </row>
-    <row r="1456" hidden="1">
-      <c r="B1456" s="2"/>
-    </row>
-    <row r="1457" hidden="1">
-      <c r="B1457" s="2"/>
-    </row>
-    <row r="1458" hidden="1">
-      <c r="B1458" s="2"/>
-    </row>
-    <row r="1459" hidden="1">
-      <c r="B1459" s="2"/>
-    </row>
-    <row r="1460" hidden="1">
-      <c r="B1460" s="2"/>
-    </row>
-    <row r="1461" hidden="1">
-      <c r="B1461" s="2"/>
-    </row>
-    <row r="1462" hidden="1">
-      <c r="B1462" s="2"/>
-    </row>
-    <row r="1463" hidden="1">
-      <c r="B1463" s="2"/>
-    </row>
-    <row r="1464" hidden="1">
-      <c r="B1464" s="2"/>
-    </row>
-    <row r="1465" hidden="1">
-      <c r="B1465" s="2"/>
-    </row>
-    <row r="1466" hidden="1">
-      <c r="B1466" s="2"/>
-    </row>
-    <row r="1467" hidden="1">
-      <c r="B1467" s="2"/>
-    </row>
-    <row r="1468" hidden="1">
-      <c r="B1468" s="2"/>
-    </row>
-    <row r="1469" hidden="1">
-      <c r="B1469" s="2"/>
-    </row>
-    <row r="1470" hidden="1">
-      <c r="B1470" s="2"/>
-    </row>
-    <row r="1471" hidden="1">
-      <c r="B1471" s="2"/>
-    </row>
-    <row r="1472" hidden="1">
-      <c r="B1472" s="2"/>
-    </row>
-    <row r="1473" hidden="1">
-      <c r="B1473" s="2"/>
-    </row>
-    <row r="1474" hidden="1">
-      <c r="B1474" s="2"/>
-    </row>
-    <row r="1475" hidden="1">
-      <c r="B1475" s="2"/>
-    </row>
-    <row r="1476" hidden="1">
-      <c r="B1476" s="2"/>
-    </row>
-    <row r="1477" hidden="1">
-      <c r="B1477" s="2"/>
-    </row>
-    <row r="1478" hidden="1">
-      <c r="B1478" s="2"/>
-    </row>
-    <row r="1479" hidden="1">
-      <c r="B1479" s="2"/>
-    </row>
-    <row r="1480" hidden="1">
-      <c r="B1480" s="2"/>
-    </row>
-    <row r="1481" hidden="1">
-      <c r="B1481" s="2"/>
-    </row>
-    <row r="1482" hidden="1">
-      <c r="B1482" s="2"/>
-    </row>
-    <row r="1483" hidden="1">
-      <c r="B1483" s="2"/>
-    </row>
-    <row r="1484" hidden="1">
-      <c r="B1484" s="2"/>
-    </row>
-    <row r="1485" hidden="1">
-      <c r="B1485" s="2"/>
-    </row>
-    <row r="1486" hidden="1">
-      <c r="B1486" s="2"/>
-    </row>
-    <row r="1487" hidden="1">
-      <c r="B1487" s="2"/>
-    </row>
-    <row r="1488" hidden="1">
-      <c r="B1488" s="2"/>
-    </row>
-    <row r="1489" hidden="1">
-      <c r="B1489" s="2"/>
-    </row>
-    <row r="1490" hidden="1">
-      <c r="B1490" s="2"/>
-    </row>
-    <row r="1491" hidden="1">
-      <c r="B1491" s="2"/>
-    </row>
-    <row r="1492" hidden="1">
-      <c r="B1492" s="2"/>
-    </row>
-    <row r="1493" hidden="1">
-      <c r="B1493" s="2"/>
-    </row>
-    <row r="1494" hidden="1">
-      <c r="B1494" s="2"/>
-    </row>
-    <row r="1495" hidden="1">
-      <c r="B1495" s="2"/>
-    </row>
-    <row r="1496" hidden="1">
-      <c r="B1496" s="2"/>
-    </row>
-    <row r="1497" hidden="1">
-      <c r="B1497" s="2"/>
-    </row>
-    <row r="1498" hidden="1">
-      <c r="B1498" s="2"/>
-    </row>
-    <row r="1499" hidden="1">
-      <c r="B1499" s="2"/>
-    </row>
-    <row r="1500" hidden="1">
-      <c r="B1500" s="2"/>
-    </row>
-    <row r="1501" hidden="1">
-      <c r="B1501" s="2"/>
-    </row>
-    <row r="1502" hidden="1">
-      <c r="B1502" s="2"/>
-    </row>
-    <row r="1503" hidden="1">
-      <c r="B1503" s="2"/>
-    </row>
-    <row r="1504" hidden="1">
-      <c r="B1504" s="2"/>
-    </row>
-    <row r="1505" hidden="1">
-      <c r="B1505" s="2"/>
-    </row>
-    <row r="1506" hidden="1">
-      <c r="B1506" s="2"/>
-    </row>
-    <row r="1507" hidden="1">
-      <c r="B1507" s="2"/>
-    </row>
-    <row r="1508" hidden="1">
-      <c r="B1508" s="2"/>
-    </row>
-    <row r="1509" hidden="1">
-      <c r="B1509" s="2"/>
-    </row>
-    <row r="1510" hidden="1">
-      <c r="B1510" s="2"/>
-    </row>
-    <row r="1511" hidden="1">
-      <c r="B1511" s="2"/>
-    </row>
-    <row r="1512" hidden="1">
-      <c r="B1512" s="2"/>
-    </row>
-    <row r="1513" hidden="1">
-      <c r="B1513" s="2"/>
-    </row>
-    <row r="1514" hidden="1">
-      <c r="B1514" s="2"/>
-    </row>
-    <row r="1515" hidden="1">
-      <c r="B1515" s="2"/>
-    </row>
-    <row r="1516" hidden="1">
-      <c r="B1516" s="2"/>
-    </row>
-    <row r="1517" hidden="1">
-      <c r="B1517" s="2"/>
-    </row>
-    <row r="1518" hidden="1">
-      <c r="B1518" s="2"/>
-    </row>
-    <row r="1519" hidden="1">
-      <c r="B1519" s="2"/>
-    </row>
-    <row r="1520" hidden="1">
-      <c r="B1520" s="2"/>
-    </row>
-    <row r="1521" hidden="1">
-      <c r="B1521" s="2"/>
-    </row>
-    <row r="1522" hidden="1">
-      <c r="B1522" s="2"/>
-    </row>
-    <row r="1523" hidden="1">
-      <c r="B1523" s="2"/>
-    </row>
-    <row r="1524" hidden="1">
-      <c r="B1524" s="2"/>
-    </row>
-    <row r="1525" hidden="1">
-      <c r="B1525" s="2"/>
-    </row>
-    <row r="1526" hidden="1">
-      <c r="B1526" s="2"/>
-    </row>
-    <row r="1527" hidden="1">
-      <c r="B1527" s="2"/>
-    </row>
-    <row r="1528" hidden="1">
-      <c r="B1528" s="2"/>
-    </row>
-    <row r="1529" hidden="1">
-      <c r="B1529" s="2"/>
-    </row>
-    <row r="1530" hidden="1">
-      <c r="B1530" s="2"/>
-    </row>
-    <row r="1531" hidden="1">
-      <c r="B1531" s="2"/>
-    </row>
-    <row r="1532" hidden="1">
-      <c r="B1532" s="2"/>
-    </row>
-    <row r="1533" hidden="1">
-      <c r="B1533" s="2"/>
-    </row>
-    <row r="1534" hidden="1">
-      <c r="B1534" s="2"/>
-    </row>
-    <row r="1535" hidden="1">
-      <c r="B1535" s="2"/>
-    </row>
-    <row r="1536" hidden="1">
-      <c r="B1536" s="2"/>
-    </row>
-    <row r="1537" hidden="1">
-      <c r="B1537" s="2"/>
-    </row>
-    <row r="1538" hidden="1">
-      <c r="B1538" s="2"/>
-    </row>
-    <row r="1539" hidden="1">
-      <c r="B1539" s="2"/>
-    </row>
-    <row r="1540" hidden="1">
-      <c r="B1540" s="2"/>
-    </row>
-    <row r="1541" hidden="1">
-      <c r="B1541" s="2"/>
-    </row>
-    <row r="1542" hidden="1">
-      <c r="B1542" s="2"/>
-    </row>
-    <row r="1543" hidden="1">
-      <c r="B1543" s="2"/>
-    </row>
-    <row r="1544" hidden="1">
-      <c r="B1544" s="2"/>
-    </row>
-    <row r="1545" hidden="1">
-      <c r="B1545" s="2"/>
-    </row>
-    <row r="1546" hidden="1">
-      <c r="B1546" s="2"/>
-    </row>
-    <row r="1547" hidden="1">
-      <c r="B1547" s="2"/>
-    </row>
-    <row r="1548" hidden="1">
-      <c r="B1548" s="2"/>
-    </row>
-    <row r="1549" hidden="1">
-      <c r="B1549" s="2"/>
-    </row>
-    <row r="1550" hidden="1">
-      <c r="B1550" s="2"/>
-    </row>
-    <row r="1551" hidden="1">
-      <c r="B1551" s="2"/>
-    </row>
-    <row r="1552" hidden="1">
-      <c r="B1552" s="2"/>
-    </row>
-    <row r="1553" hidden="1">
-      <c r="B1553" s="2"/>
-    </row>
-    <row r="1554" hidden="1">
-      <c r="B1554" s="2"/>
-    </row>
-    <row r="1555" hidden="1">
-      <c r="B1555" s="2"/>
-    </row>
-    <row r="1556" hidden="1">
-      <c r="B1556" s="2"/>
-    </row>
-    <row r="1557" hidden="1">
-      <c r="B1557" s="2"/>
-    </row>
-    <row r="1558" hidden="1">
-      <c r="B1558" s="2"/>
-    </row>
-    <row r="1559" hidden="1">
-      <c r="B1559" s="2"/>
-    </row>
-    <row r="1560" hidden="1">
-      <c r="B1560" s="2"/>
-    </row>
-    <row r="1561" hidden="1">
-      <c r="B1561" s="2"/>
-    </row>
-    <row r="1562" hidden="1">
-      <c r="B1562" s="2"/>
-    </row>
-    <row r="1563" hidden="1">
-      <c r="B1563" s="2"/>
-    </row>
-    <row r="1564" hidden="1">
-      <c r="B1564" s="2"/>
-    </row>
-    <row r="1565" hidden="1">
-      <c r="B1565" s="2"/>
-    </row>
-    <row r="1566" hidden="1">
-      <c r="B1566" s="2"/>
-    </row>
-    <row r="1567" hidden="1">
-      <c r="B1567" s="2"/>
-    </row>
-    <row r="1568" hidden="1">
-      <c r="B1568" s="2"/>
-    </row>
-    <row r="1569" hidden="1">
-      <c r="B1569" s="2"/>
-    </row>
-    <row r="1570" hidden="1">
-      <c r="B1570" s="2"/>
-    </row>
-    <row r="1571" hidden="1">
-      <c r="B1571" s="2"/>
-    </row>
-    <row r="1572" hidden="1">
-      <c r="B1572" s="2"/>
-    </row>
-    <row r="1573" hidden="1">
-      <c r="B1573" s="2"/>
-    </row>
-    <row r="1574" hidden="1">
-      <c r="B1574" s="2"/>
-    </row>
-    <row r="1575" hidden="1">
-      <c r="B1575" s="2"/>
-    </row>
-    <row r="1576" hidden="1">
-      <c r="B1576" s="2"/>
-    </row>
-    <row r="1577" hidden="1">
-      <c r="B1577" s="2"/>
-    </row>
-    <row r="1578" hidden="1">
-      <c r="B1578" s="2"/>
-    </row>
-    <row r="1579" hidden="1">
-      <c r="B1579" s="2"/>
-    </row>
-    <row r="1580" hidden="1">
-      <c r="B1580" s="2"/>
-    </row>
-    <row r="1581" hidden="1">
-      <c r="B1581" s="2"/>
-    </row>
-    <row r="1582" hidden="1">
-      <c r="B1582" s="2"/>
-    </row>
-    <row r="1583" hidden="1">
-      <c r="B1583" s="2"/>
-    </row>
-    <row r="1584" hidden="1">
-      <c r="B1584" s="2"/>
-    </row>
-    <row r="1585" hidden="1">
-      <c r="B1585" s="2"/>
-    </row>
-    <row r="1586" hidden="1">
-      <c r="B1586" s="2"/>
-    </row>
-    <row r="1587" hidden="1">
-      <c r="B1587" s="2"/>
-    </row>
-    <row r="1588" hidden="1">
-      <c r="B1588" s="2"/>
-    </row>
-    <row r="1589" hidden="1">
-      <c r="B1589" s="2"/>
-    </row>
-    <row r="1590" hidden="1">
-      <c r="B1590" s="2"/>
-    </row>
-    <row r="1591" hidden="1">
-      <c r="B1591" s="2"/>
-    </row>
-    <row r="1592" hidden="1">
-      <c r="B1592" s="2"/>
-    </row>
-    <row r="1593" hidden="1">
-      <c r="B1593" s="2"/>
-    </row>
-    <row r="1594" hidden="1">
-      <c r="B1594" s="2"/>
-    </row>
-    <row r="1595" hidden="1">
-      <c r="B1595" s="2"/>
-    </row>
-    <row r="1596" hidden="1">
-      <c r="B1596" s="2"/>
-    </row>
-    <row r="1597" hidden="1">
-      <c r="B1597" s="2"/>
-    </row>
-    <row r="1598" hidden="1">
-      <c r="B1598" s="2"/>
-    </row>
-    <row r="1599" hidden="1">
-      <c r="B1599" s="2"/>
-    </row>
-    <row r="1600" hidden="1">
-      <c r="B1600" s="2"/>
-    </row>
-    <row r="1601" hidden="1">
-      <c r="B1601" s="2"/>
-    </row>
-    <row r="1602" hidden="1">
-      <c r="B1602" s="2"/>
-    </row>
-    <row r="1603" hidden="1">
-      <c r="B1603" s="2"/>
-    </row>
-    <row r="1604" hidden="1">
-      <c r="B1604" s="2"/>
-    </row>
-    <row r="1605" hidden="1">
-      <c r="B1605" s="2"/>
-    </row>
-    <row r="1606" hidden="1">
-      <c r="B1606" s="2"/>
-    </row>
-    <row r="1607" hidden="1">
-      <c r="B1607" s="2"/>
-    </row>
-    <row r="1608" hidden="1">
-      <c r="B1608" s="2"/>
-    </row>
-    <row r="1609" hidden="1">
-      <c r="B1609" s="2"/>
-    </row>
-    <row r="1610" hidden="1">
-      <c r="B1610" s="2"/>
-    </row>
-    <row r="1611" hidden="1">
-      <c r="B1611" s="2"/>
-    </row>
-    <row r="1612" hidden="1">
-      <c r="B1612" s="2"/>
-    </row>
-    <row r="1613" hidden="1">
-      <c r="B1613" s="2"/>
-    </row>
-    <row r="1614" hidden="1">
-      <c r="B1614" s="2"/>
-    </row>
-    <row r="1615" hidden="1">
-      <c r="B1615" s="2"/>
-    </row>
-    <row r="1616" hidden="1">
-      <c r="B1616" s="2"/>
-    </row>
-    <row r="1617" hidden="1">
-      <c r="B1617" s="2"/>
-    </row>
-    <row r="1618" hidden="1">
-      <c r="B1618" s="2"/>
-    </row>
-    <row r="1619" hidden="1">
-      <c r="B1619" s="2"/>
-    </row>
-    <row r="1620" hidden="1">
-      <c r="B1620" s="2"/>
-    </row>
-    <row r="1621" hidden="1">
-      <c r="B1621" s="2"/>
-    </row>
-    <row r="1622" hidden="1">
-      <c r="B1622" s="2"/>
-    </row>
-    <row r="1623" hidden="1">
-      <c r="B1623" s="2"/>
-    </row>
-    <row r="1624" hidden="1">
-      <c r="B1624" s="2"/>
-    </row>
-    <row r="1625" hidden="1">
-      <c r="B1625" s="2"/>
-    </row>
-    <row r="1626" hidden="1">
-      <c r="B1626" s="2"/>
-    </row>
-    <row r="1627" hidden="1">
-      <c r="B1627" s="2"/>
-    </row>
-    <row r="1628" hidden="1">
-      <c r="B1628" s="2"/>
-    </row>
-    <row r="1629" hidden="1">
-      <c r="B1629" s="2"/>
-    </row>
-    <row r="1630" hidden="1">
-      <c r="B1630" s="2"/>
-    </row>
-    <row r="1631" hidden="1">
-      <c r="B1631" s="2"/>
-    </row>
-    <row r="1632" hidden="1">
-      <c r="B1632" s="2"/>
-    </row>
-    <row r="1633" hidden="1">
-      <c r="B1633" s="2"/>
-    </row>
-    <row r="1634" hidden="1">
-      <c r="B1634" s="2"/>
-    </row>
-    <row r="1635" hidden="1">
-      <c r="B1635" s="2"/>
-    </row>
-    <row r="1636" hidden="1">
-      <c r="B1636" s="2"/>
-    </row>
-    <row r="1637" hidden="1">
-      <c r="B1637" s="2"/>
-    </row>
-    <row r="1638" hidden="1">
-      <c r="B1638" s="2"/>
-    </row>
-    <row r="1639" hidden="1">
-      <c r="B1639" s="2"/>
-    </row>
-    <row r="1640" hidden="1">
-      <c r="B1640" s="2"/>
-    </row>
-    <row r="1641" hidden="1">
-      <c r="B1641" s="2"/>
-    </row>
-    <row r="1642" hidden="1">
-      <c r="B1642" s="2"/>
-    </row>
-    <row r="1643" hidden="1">
-      <c r="B1643" s="2"/>
-    </row>
-    <row r="1644" hidden="1">
-      <c r="B1644" s="2"/>
-    </row>
-    <row r="1645" hidden="1">
-      <c r="B1645" s="2"/>
-    </row>
-    <row r="1646" hidden="1">
-      <c r="B1646" s="2"/>
-    </row>
-    <row r="1647" hidden="1">
-      <c r="B1647" s="2"/>
-    </row>
-    <row r="1648" hidden="1">
-      <c r="B1648" s="2"/>
-    </row>
-    <row r="1649" hidden="1">
-      <c r="B1649" s="2"/>
-    </row>
-    <row r="1650" hidden="1">
-      <c r="B1650" s="2"/>
-    </row>
-    <row r="1651" hidden="1">
-      <c r="B1651" s="2"/>
-    </row>
-    <row r="1652" hidden="1">
-      <c r="B1652" s="2"/>
-    </row>
-    <row r="1653" hidden="1">
-      <c r="B1653" s="2"/>
-    </row>
-    <row r="1654" hidden="1">
-      <c r="B1654" s="2"/>
-    </row>
-    <row r="1655" hidden="1">
-      <c r="B1655" s="2"/>
-    </row>
-    <row r="1656" hidden="1">
-      <c r="B1656" s="2"/>
-    </row>
-    <row r="1657" hidden="1">
-      <c r="B1657" s="2"/>
-    </row>
-    <row r="1658" hidden="1">
-      <c r="B1658" s="2"/>
-    </row>
-    <row r="1659" hidden="1">
-      <c r="B1659" s="2"/>
-    </row>
-    <row r="1660" hidden="1">
-      <c r="B1660" s="2"/>
-    </row>
-    <row r="1661" hidden="1">
-      <c r="B1661" s="2"/>
-    </row>
-    <row r="1662" hidden="1">
-      <c r="B1662" s="2"/>
-    </row>
-    <row r="1663" hidden="1">
-      <c r="B1663" s="2"/>
-    </row>
-    <row r="1664" hidden="1">
-      <c r="B1664" s="2"/>
-    </row>
-    <row r="1665" hidden="1">
-      <c r="B1665" s="2"/>
-    </row>
-    <row r="1666" hidden="1">
-      <c r="B1666" s="2"/>
-    </row>
-    <row r="1667" hidden="1">
-      <c r="B1667" s="2"/>
-    </row>
-    <row r="1668" hidden="1">
-      <c r="B1668" s="2"/>
-    </row>
-    <row r="1669" hidden="1">
-      <c r="B1669" s="2"/>
-    </row>
-    <row r="1670" hidden="1">
-      <c r="B1670" s="2"/>
-    </row>
-    <row r="1671" hidden="1">
-      <c r="B1671" s="2"/>
-    </row>
-    <row r="1672" hidden="1">
-      <c r="B1672" s="2"/>
-    </row>
-    <row r="1673" hidden="1">
-      <c r="B1673" s="2"/>
-    </row>
-    <row r="1674" hidden="1">
-      <c r="B1674" s="2"/>
-    </row>
-    <row r="1675" hidden="1">
-      <c r="B1675" s="2"/>
-    </row>
-    <row r="1676" hidden="1">
-      <c r="B1676" s="2"/>
-    </row>
-    <row r="1677" hidden="1">
-      <c r="B1677" s="2"/>
-    </row>
-    <row r="1678" hidden="1">
-      <c r="B1678" s="2"/>
-    </row>
-    <row r="1679" hidden="1">
-      <c r="B1679" s="2"/>
-    </row>
-    <row r="1680" hidden="1">
-      <c r="B1680" s="2"/>
-    </row>
-    <row r="1681" hidden="1">
-      <c r="B1681" s="2"/>
-    </row>
-    <row r="1682" hidden="1">
-      <c r="B1682" s="2"/>
-    </row>
-    <row r="1683" hidden="1">
-      <c r="B1683" s="2"/>
-    </row>
-    <row r="1684" hidden="1">
-      <c r="B1684" s="2"/>
-    </row>
-    <row r="1685" hidden="1">
-      <c r="B1685" s="2"/>
-    </row>
-    <row r="1686" hidden="1">
-      <c r="B1686" s="2"/>
-    </row>
-    <row r="1687" hidden="1">
-      <c r="B1687" s="2"/>
-    </row>
-    <row r="1688" hidden="1">
-      <c r="B1688" s="2"/>
-    </row>
-    <row r="1689" hidden="1">
-      <c r="B1689" s="2"/>
-    </row>
-    <row r="1690" hidden="1">
-      <c r="B1690" s="2"/>
-    </row>
-    <row r="1691" hidden="1">
-      <c r="B1691" s="2"/>
-    </row>
-    <row r="1692" hidden="1">
-      <c r="B1692" s="2"/>
-    </row>
-    <row r="1693" hidden="1">
-      <c r="B1693" s="2"/>
-    </row>
-    <row r="1694" hidden="1">
-      <c r="B1694" s="2"/>
-    </row>
-    <row r="1695" hidden="1">
-      <c r="B1695" s="2"/>
-    </row>
-    <row r="1696" hidden="1">
-      <c r="B1696" s="2"/>
-    </row>
-    <row r="1697" hidden="1">
-      <c r="B1697" s="2"/>
-    </row>
-    <row r="1698" hidden="1">
-      <c r="B1698" s="2"/>
-    </row>
-    <row r="1699" hidden="1">
-      <c r="B1699" s="2"/>
-    </row>
-    <row r="1700" hidden="1">
-      <c r="B1700" s="2"/>
-    </row>
-    <row r="1701" hidden="1">
-      <c r="B1701" s="2"/>
-    </row>
-    <row r="1702" hidden="1">
-      <c r="B1702" s="2"/>
-    </row>
-    <row r="1703" hidden="1">
-      <c r="B1703" s="2"/>
-    </row>
-    <row r="1704" hidden="1">
-      <c r="B1704" s="2"/>
-    </row>
-    <row r="1705" hidden="1">
-      <c r="B1705" s="2"/>
-    </row>
-    <row r="1706" hidden="1">
-      <c r="B1706" s="2"/>
-    </row>
-    <row r="1707" hidden="1">
-      <c r="B1707" s="2"/>
-    </row>
-    <row r="1708" hidden="1">
-      <c r="B1708" s="2"/>
-    </row>
-    <row r="1709" hidden="1">
-      <c r="B1709" s="2"/>
-    </row>
-    <row r="1710" hidden="1">
-      <c r="B1710" s="2"/>
-    </row>
-    <row r="1711" hidden="1">
-      <c r="B1711" s="2"/>
-    </row>
-    <row r="1712" hidden="1">
-      <c r="B1712" s="2"/>
-    </row>
-    <row r="1713" hidden="1">
-      <c r="B1713" s="2"/>
-    </row>
-    <row r="1714" hidden="1">
-      <c r="B1714" s="2"/>
-    </row>
-    <row r="1715" hidden="1">
-      <c r="B1715" s="2"/>
-    </row>
-    <row r="1716" hidden="1">
-      <c r="B1716" s="2"/>
-    </row>
-    <row r="1717" hidden="1">
-      <c r="B1717" s="2"/>
-    </row>
-    <row r="1718" hidden="1">
-      <c r="B1718" s="2"/>
-    </row>
-    <row r="1719" hidden="1">
-      <c r="B1719" s="2"/>
-    </row>
-    <row r="1720" hidden="1">
-      <c r="B1720" s="2"/>
-    </row>
-    <row r="1721" hidden="1">
-      <c r="B1721" s="2"/>
-    </row>
-    <row r="1722" hidden="1">
-      <c r="B1722" s="2"/>
-    </row>
-    <row r="1723" hidden="1">
-      <c r="B1723" s="2"/>
-    </row>
-    <row r="1724" hidden="1">
-      <c r="B1724" s="2"/>
-    </row>
-    <row r="1725" hidden="1">
-      <c r="B1725" s="2"/>
-    </row>
-    <row r="1726" hidden="1">
-      <c r="B1726" s="2"/>
-    </row>
-    <row r="1727" hidden="1">
-      <c r="B1727" s="2"/>
-    </row>
-    <row r="1728" hidden="1">
-      <c r="B1728" s="2"/>
-    </row>
-    <row r="1729" hidden="1">
-      <c r="B1729" s="2"/>
-    </row>
-    <row r="1730" hidden="1">
-      <c r="B1730" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$B$1730">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="noAcoso"/>
-        <filter val="acoso"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$1:$B$1418"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>